--- a/backend/templates/UC-16gsm-165W.xlsx
+++ b/backend/templates/UC-16gsm-165W.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3156DB5-2D8F-4A51-9103-7BC6E7AEDF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A4CFEB3-5676-4F0B-8D38-DF456C1D51B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="132">
   <si>
     <t>Sample No.</t>
   </si>
@@ -1423,7 +1423,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="304">
+  <cellXfs count="297">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1779,111 +1779,15 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="20" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1902,48 +1806,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1953,46 +1818,28 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2034,6 +1881,72 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2058,12 +1971,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2085,89 +1992,227 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="48" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="64" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2205,15 +2250,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2229,176 +2265,100 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="65" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="68" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="49" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="62" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2882,7 +2842,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2896,31 +2856,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
       <c r="I1" s="101" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
       <c r="I2" s="102" t="s">
         <v>22</v>
       </c>
@@ -2936,13 +2896,14 @@
       <c r="H3" s="46" t="s">
         <v>23</v>
       </c>
+      <c r="I3" s="270"/>
     </row>
     <row r="4" spans="1:11" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="158"/>
-      <c r="C4" s="159"/>
+      <c r="B4" s="144"/>
+      <c r="C4" s="145"/>
       <c r="D4" s="48" t="s">
         <v>3</v>
       </c>
@@ -2963,8 +2924,8 @@
       <c r="A5" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="160"/>
-      <c r="C5" s="161"/>
+      <c r="B5" s="146"/>
+      <c r="C5" s="147"/>
       <c r="D5" s="52" t="s">
         <v>6</v>
       </c>
@@ -2979,46 +2940,46 @@
       <c r="I5" s="54"/>
     </row>
     <row r="6" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="170" t="s">
+      <c r="A6" s="130" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="171"/>
-      <c r="C6" s="172"/>
+      <c r="B6" s="131"/>
+      <c r="C6" s="132"/>
       <c r="D6" s="55"/>
       <c r="E6" s="56"/>
       <c r="F6" s="56"/>
-      <c r="G6" s="164"/>
-      <c r="H6" s="165"/>
-      <c r="I6" s="166"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="123"/>
+      <c r="I6" s="124"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="173" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="167"/>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167" t="s">
+      <c r="A7" s="133" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="125"/>
+      <c r="C7" s="125"/>
+      <c r="D7" s="125" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="162" t="s">
+      <c r="E7" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="162" t="s">
+      <c r="F7" s="127" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="167" t="s">
+      <c r="G7" s="125" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="167"/>
-      <c r="I7" s="168"/>
+      <c r="H7" s="125"/>
+      <c r="I7" s="126"/>
     </row>
     <row r="8" spans="1:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="174"/>
-      <c r="B8" s="175"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
+      <c r="A8" s="134"/>
+      <c r="B8" s="135"/>
+      <c r="C8" s="135"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="128"/>
       <c r="G8" s="57" t="s">
         <v>37</v>
       </c>
@@ -3360,11 +3321,11 @@
       <c r="I38" s="88"/>
     </row>
     <row r="39" spans="1:12" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="180" t="s">
+      <c r="A39" s="140" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="181"/>
-      <c r="C39" s="181"/>
+      <c r="B39" s="141"/>
+      <c r="C39" s="141"/>
       <c r="D39" s="89" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3385,17 +3346,17 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="152" t="e">
+      <c r="I39" s="118" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="178" t="s">
+      <c r="A40" s="138" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="179"/>
-      <c r="C40" s="179"/>
+      <c r="B40" s="139"/>
+      <c r="C40" s="139"/>
       <c r="D40" s="90">
         <f>MIN(D9:D38)</f>
         <v>0</v>
@@ -3416,17 +3377,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I40" s="153">
+      <c r="I40" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="43" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="176" t="s">
+      <c r="A41" s="136" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="177"/>
-      <c r="C41" s="177"/>
+      <c r="B41" s="137"/>
+      <c r="C41" s="137"/>
       <c r="D41" s="91">
         <f>MAX(D9:D38)</f>
         <v>0</v>
@@ -3447,7 +3408,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I41" s="154">
+      <c r="I41" s="120">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
@@ -3459,8 +3420,8 @@
       <c r="A42" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="156"/>
-      <c r="C42" s="156"/>
+      <c r="B42" s="143"/>
+      <c r="C42" s="143"/>
       <c r="D42" s="92" t="s">
         <v>16</v>
       </c>
@@ -3474,19 +3435,19 @@
     </row>
     <row r="43" spans="1:12" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="96"/>
-      <c r="B43" s="157"/>
-      <c r="C43" s="157"/>
+      <c r="B43" s="121"/>
+      <c r="C43" s="121"/>
       <c r="D43" s="92"/>
       <c r="F43" s="93"/>
       <c r="G43" s="94"/>
       <c r="I43" s="95"/>
     </row>
     <row r="44" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="169" t="s">
+      <c r="A44" s="129" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="169"/>
-      <c r="C44" s="169"/>
+      <c r="B44" s="129"/>
+      <c r="C44" s="129"/>
       <c r="D44" s="97"/>
       <c r="E44" s="98" t="s">
         <v>123</v>
@@ -3496,16 +3457,16 @@
       </c>
     </row>
     <row r="45" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="169" t="s">
+      <c r="A45" s="129" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="169"/>
-      <c r="C45" s="169"/>
+      <c r="B45" s="129"/>
+      <c r="C45" s="129"/>
       <c r="D45" s="97"/>
-      <c r="H45" s="157" t="s">
+      <c r="H45" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="I45" s="157"/>
+      <c r="I45" s="121"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="99"/>
@@ -3521,6 +3482,13 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="19">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="G7:I7"/>
@@ -3533,13 +3501,6 @@
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D41 E39:I41">
     <cfRule type="cellIs" dxfId="14" priority="5" operator="notBetween">
@@ -3583,7 +3544,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="M41" sqref="M41"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3594,31 +3555,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
       <c r="I1" s="101" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
       <c r="I2" s="102" t="s">
         <v>22</v>
       </c>
@@ -3634,463 +3595,761 @@
       <c r="H3" s="46" t="s">
         <v>23</v>
       </c>
+      <c r="I3" s="270">
+        <f>Page1!I3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:11" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="158"/>
-      <c r="C4" s="159"/>
+      <c r="B4" s="144">
+        <f>Page1!B4</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="145"/>
       <c r="D4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="48"/>
+      <c r="E4" s="49">
+        <f>Page1!E4</f>
+        <v>0</v>
+      </c>
       <c r="F4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="49"/>
+      <c r="G4" s="49">
+        <f>Page1!G4</f>
+        <v>0</v>
+      </c>
       <c r="H4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="50"/>
+      <c r="I4" s="271">
+        <f>Page1!I4</f>
+        <v>0</v>
+      </c>
       <c r="K4" s="43" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="43" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="140" t="s">
+      <c r="B5" s="164">
+        <f>Page1!B5</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="165"/>
+      <c r="D5" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140" t="s">
+      <c r="E5" s="114">
+        <f>Page1!E5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138" t="s">
+      <c r="G5" s="114">
+        <f>Page1!G5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="141"/>
+      <c r="I5" s="272">
+        <f>Page1!I5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11" s="106" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="192" t="s">
+      <c r="A6" s="172" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="193"/>
-      <c r="C6" s="193"/>
-      <c r="D6" s="194"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="195"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="142"/>
-      <c r="I6" s="137"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="174"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="175"/>
+      <c r="G6" s="112"/>
+      <c r="H6" s="117"/>
+      <c r="I6" s="113"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="201" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="202"/>
-      <c r="C7" s="190"/>
-      <c r="D7" s="196" t="s">
+      <c r="A7" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="151"/>
+      <c r="C7" s="152"/>
+      <c r="D7" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="197"/>
-      <c r="F7" s="198"/>
-      <c r="G7" s="205" t="s">
+      <c r="E7" s="177"/>
+      <c r="F7" s="178"/>
+      <c r="G7" s="156" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="105" t="s">
         <v>124</v>
       </c>
-      <c r="I7" s="199" t="s">
+      <c r="I7" s="148" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="201"/>
-      <c r="B8" s="202"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="184" t="s">
+      <c r="A8" s="150"/>
+      <c r="B8" s="151"/>
+      <c r="C8" s="152"/>
+      <c r="D8" s="166" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="187" t="s">
+      <c r="E8" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="189" t="s">
+      <c r="F8" s="171" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="205"/>
+      <c r="G8" s="156"/>
       <c r="H8" s="105" t="s">
         <v>125</v>
       </c>
-      <c r="I8" s="199"/>
+      <c r="I8" s="148"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="201"/>
-      <c r="B9" s="202"/>
-      <c r="C9" s="190"/>
-      <c r="D9" s="185"/>
-      <c r="E9" s="187"/>
-      <c r="F9" s="190"/>
-      <c r="G9" s="205"/>
+      <c r="A9" s="150"/>
+      <c r="B9" s="151"/>
+      <c r="C9" s="152"/>
+      <c r="D9" s="167"/>
+      <c r="E9" s="169"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="156"/>
       <c r="H9" s="103" t="s">
         <v>126</v>
       </c>
-      <c r="I9" s="199"/>
+      <c r="I9" s="148"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="203"/>
-      <c r="B10" s="204"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="186"/>
-      <c r="E10" s="188"/>
-      <c r="F10" s="191"/>
-      <c r="G10" s="206"/>
+      <c r="A10" s="153"/>
+      <c r="B10" s="154"/>
+      <c r="C10" s="155"/>
+      <c r="D10" s="168"/>
+      <c r="E10" s="170"/>
+      <c r="F10" s="155"/>
+      <c r="G10" s="157"/>
       <c r="H10" s="104" t="s">
         <v>127</v>
       </c>
-      <c r="I10" s="200"/>
+      <c r="I10" s="149"/>
     </row>
     <row r="11" spans="1:11" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="108"/>
-      <c r="B11" s="109"/>
-      <c r="C11" s="110"/>
-      <c r="D11" s="121"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="123"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="133"/>
+      <c r="A11" s="108">
+        <f>Page1!A9</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="283">
+        <f>Page1!B9</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="109">
+        <f>Page1!C9</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="284"/>
+      <c r="E11" s="285"/>
+      <c r="F11" s="285"/>
+      <c r="G11" s="286"/>
+      <c r="H11" s="285"/>
+      <c r="I11" s="287"/>
     </row>
     <row r="12" spans="1:11" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="116"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="118"/>
-      <c r="D12" s="111"/>
-      <c r="E12" s="112"/>
-      <c r="F12" s="113"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="134"/>
+      <c r="A12" s="110">
+        <f>Page1!A10</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="288">
+        <f>Page1!B10</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="111">
+        <f>Page1!C10</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="289"/>
+      <c r="E12" s="290"/>
+      <c r="F12" s="290"/>
+      <c r="G12" s="291"/>
+      <c r="H12" s="290"/>
+      <c r="I12" s="292"/>
     </row>
     <row r="13" spans="1:11" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="116"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="112"/>
-      <c r="F13" s="113"/>
-      <c r="G13" s="114"/>
-      <c r="H13" s="115"/>
-      <c r="I13" s="134"/>
+      <c r="A13" s="110">
+        <f>Page1!A11</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="288">
+        <f>Page1!B11</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="111">
+        <f>Page1!C11</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="289"/>
+      <c r="E13" s="290"/>
+      <c r="F13" s="290"/>
+      <c r="G13" s="291"/>
+      <c r="H13" s="290"/>
+      <c r="I13" s="292"/>
     </row>
     <row r="14" spans="1:11" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="116"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="113"/>
-      <c r="G14" s="114"/>
-      <c r="H14" s="115"/>
-      <c r="I14" s="134"/>
+      <c r="A14" s="110">
+        <f>Page1!A12</f>
+        <v>0</v>
+      </c>
+      <c r="B14" s="288">
+        <f>Page1!B12</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="111">
+        <f>Page1!C12</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="289"/>
+      <c r="E14" s="290"/>
+      <c r="F14" s="290"/>
+      <c r="G14" s="291"/>
+      <c r="H14" s="290"/>
+      <c r="I14" s="292"/>
     </row>
     <row r="15" spans="1:11" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="116"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="115"/>
-      <c r="I15" s="134"/>
+      <c r="A15" s="110">
+        <f>Page1!A13</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="288">
+        <f>Page1!B13</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="111">
+        <f>Page1!C13</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="289"/>
+      <c r="E15" s="290"/>
+      <c r="F15" s="290"/>
+      <c r="G15" s="291"/>
+      <c r="H15" s="290"/>
+      <c r="I15" s="292"/>
     </row>
     <row r="16" spans="1:11" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="116"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="113"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="134"/>
+      <c r="A16" s="110">
+        <f>Page1!A14</f>
+        <v>0</v>
+      </c>
+      <c r="B16" s="288">
+        <f>Page1!B14</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="111">
+        <f>Page1!C14</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="289"/>
+      <c r="E16" s="290"/>
+      <c r="F16" s="290"/>
+      <c r="G16" s="291"/>
+      <c r="H16" s="290"/>
+      <c r="I16" s="292"/>
     </row>
     <row r="17" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="116"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="113"/>
-      <c r="G17" s="114"/>
-      <c r="H17" s="115"/>
-      <c r="I17" s="134"/>
+      <c r="A17" s="110">
+        <f>Page1!A15</f>
+        <v>0</v>
+      </c>
+      <c r="B17" s="288">
+        <f>Page1!B15</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="111">
+        <f>Page1!C15</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="289"/>
+      <c r="E17" s="290"/>
+      <c r="F17" s="290"/>
+      <c r="G17" s="291"/>
+      <c r="H17" s="290"/>
+      <c r="I17" s="292"/>
     </row>
     <row r="18" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="116"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="113"/>
-      <c r="G18" s="114"/>
-      <c r="H18" s="115"/>
-      <c r="I18" s="134"/>
+      <c r="A18" s="110">
+        <f>Page1!A16</f>
+        <v>0</v>
+      </c>
+      <c r="B18" s="288">
+        <f>Page1!B16</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="111">
+        <f>Page1!C16</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="289"/>
+      <c r="E18" s="290"/>
+      <c r="F18" s="290"/>
+      <c r="G18" s="291"/>
+      <c r="H18" s="290"/>
+      <c r="I18" s="292"/>
     </row>
     <row r="19" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="116"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="112"/>
-      <c r="F19" s="113"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="134"/>
+      <c r="A19" s="110">
+        <f>Page1!A17</f>
+        <v>0</v>
+      </c>
+      <c r="B19" s="288">
+        <f>Page1!B17</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="111">
+        <f>Page1!C17</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="289"/>
+      <c r="E19" s="290"/>
+      <c r="F19" s="290"/>
+      <c r="G19" s="291"/>
+      <c r="H19" s="290"/>
+      <c r="I19" s="292"/>
     </row>
     <row r="20" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="116"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="113"/>
-      <c r="G20" s="114"/>
-      <c r="H20" s="115"/>
-      <c r="I20" s="134"/>
+      <c r="A20" s="110">
+        <f>Page1!A18</f>
+        <v>0</v>
+      </c>
+      <c r="B20" s="288">
+        <f>Page1!B18</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="111">
+        <f>Page1!C18</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="289"/>
+      <c r="E20" s="290"/>
+      <c r="F20" s="290"/>
+      <c r="G20" s="291"/>
+      <c r="H20" s="290"/>
+      <c r="I20" s="292"/>
     </row>
     <row r="21" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="116"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="113"/>
-      <c r="G21" s="114"/>
-      <c r="H21" s="115"/>
-      <c r="I21" s="134"/>
+      <c r="A21" s="110">
+        <f>Page1!A19</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="288">
+        <f>Page1!B19</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="111">
+        <f>Page1!C19</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="289"/>
+      <c r="E21" s="290"/>
+      <c r="F21" s="290"/>
+      <c r="G21" s="291"/>
+      <c r="H21" s="290"/>
+      <c r="I21" s="292"/>
     </row>
     <row r="22" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="116"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="110"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="112"/>
-      <c r="F22" s="113"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="134"/>
+      <c r="A22" s="110">
+        <f>Page1!A20</f>
+        <v>0</v>
+      </c>
+      <c r="B22" s="288">
+        <f>Page1!B20</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="111">
+        <f>Page1!C20</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="289"/>
+      <c r="E22" s="290"/>
+      <c r="F22" s="290"/>
+      <c r="G22" s="291"/>
+      <c r="H22" s="290"/>
+      <c r="I22" s="292"/>
     </row>
     <row r="23" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="116"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="112"/>
-      <c r="F23" s="113"/>
-      <c r="G23" s="114"/>
-      <c r="H23" s="115"/>
-      <c r="I23" s="134"/>
+      <c r="A23" s="110">
+        <f>Page1!A21</f>
+        <v>0</v>
+      </c>
+      <c r="B23" s="288">
+        <f>Page1!B21</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="111">
+        <f>Page1!C21</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="289"/>
+      <c r="E23" s="290"/>
+      <c r="F23" s="290"/>
+      <c r="G23" s="291"/>
+      <c r="H23" s="290"/>
+      <c r="I23" s="292"/>
     </row>
     <row r="24" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="116"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="112"/>
-      <c r="F24" s="113"/>
-      <c r="G24" s="114"/>
-      <c r="H24" s="115"/>
-      <c r="I24" s="134"/>
+      <c r="A24" s="110">
+        <f>Page1!A22</f>
+        <v>0</v>
+      </c>
+      <c r="B24" s="288">
+        <f>Page1!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="111">
+        <f>Page1!C22</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="289"/>
+      <c r="E24" s="290"/>
+      <c r="F24" s="290"/>
+      <c r="G24" s="291"/>
+      <c r="H24" s="290"/>
+      <c r="I24" s="292"/>
     </row>
     <row r="25" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="116"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="121"/>
-      <c r="E25" s="122"/>
-      <c r="F25" s="123"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="133"/>
+      <c r="A25" s="110">
+        <f>Page1!A23</f>
+        <v>0</v>
+      </c>
+      <c r="B25" s="288">
+        <f>Page1!B23</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="111">
+        <f>Page1!C23</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="284"/>
+      <c r="E25" s="285"/>
+      <c r="F25" s="285"/>
+      <c r="G25" s="291"/>
+      <c r="H25" s="290"/>
+      <c r="I25" s="287"/>
     </row>
     <row r="26" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="116"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="121"/>
-      <c r="E26" s="122"/>
-      <c r="F26" s="123"/>
-      <c r="G26" s="114"/>
-      <c r="H26" s="115"/>
-      <c r="I26" s="133"/>
+      <c r="A26" s="110">
+        <f>Page1!A24</f>
+        <v>0</v>
+      </c>
+      <c r="B26" s="288">
+        <f>Page1!B24</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="111">
+        <f>Page1!C24</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="284"/>
+      <c r="E26" s="285"/>
+      <c r="F26" s="285"/>
+      <c r="G26" s="291"/>
+      <c r="H26" s="290"/>
+      <c r="I26" s="287"/>
     </row>
     <row r="27" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="116"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="121"/>
-      <c r="E27" s="122"/>
-      <c r="F27" s="123"/>
-      <c r="G27" s="114"/>
-      <c r="H27" s="115"/>
-      <c r="I27" s="133"/>
+      <c r="A27" s="110">
+        <f>Page1!A25</f>
+        <v>0</v>
+      </c>
+      <c r="B27" s="288">
+        <f>Page1!B25</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="111">
+        <f>Page1!C25</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="284"/>
+      <c r="E27" s="285"/>
+      <c r="F27" s="285"/>
+      <c r="G27" s="291"/>
+      <c r="H27" s="290"/>
+      <c r="I27" s="287"/>
     </row>
     <row r="28" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="116"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="121"/>
-      <c r="E28" s="122"/>
-      <c r="F28" s="123"/>
-      <c r="G28" s="114"/>
-      <c r="H28" s="115"/>
-      <c r="I28" s="133"/>
+      <c r="A28" s="110">
+        <f>Page1!A26</f>
+        <v>0</v>
+      </c>
+      <c r="B28" s="288">
+        <f>Page1!B26</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="111">
+        <f>Page1!C26</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="284"/>
+      <c r="E28" s="285"/>
+      <c r="F28" s="285"/>
+      <c r="G28" s="291"/>
+      <c r="H28" s="290"/>
+      <c r="I28" s="287"/>
     </row>
     <row r="29" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="116"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="122"/>
-      <c r="F29" s="123"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="133"/>
+      <c r="A29" s="110">
+        <f>Page1!A27</f>
+        <v>0</v>
+      </c>
+      <c r="B29" s="288">
+        <f>Page1!B27</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="111">
+        <f>Page1!C27</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="284"/>
+      <c r="E29" s="285"/>
+      <c r="F29" s="285"/>
+      <c r="G29" s="291"/>
+      <c r="H29" s="290"/>
+      <c r="I29" s="287"/>
     </row>
     <row r="30" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="116"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="121"/>
-      <c r="E30" s="122"/>
-      <c r="F30" s="123"/>
-      <c r="G30" s="114"/>
-      <c r="H30" s="115"/>
-      <c r="I30" s="133"/>
+      <c r="A30" s="110">
+        <f>Page1!A28</f>
+        <v>0</v>
+      </c>
+      <c r="B30" s="288">
+        <f>Page1!B28</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="111">
+        <f>Page1!C28</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="284"/>
+      <c r="E30" s="285"/>
+      <c r="F30" s="285"/>
+      <c r="G30" s="291"/>
+      <c r="H30" s="290"/>
+      <c r="I30" s="287"/>
     </row>
     <row r="31" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="116"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="111"/>
-      <c r="E31" s="112"/>
-      <c r="F31" s="113"/>
-      <c r="G31" s="114"/>
-      <c r="H31" s="115"/>
-      <c r="I31" s="134"/>
+      <c r="A31" s="110">
+        <f>Page1!A29</f>
+        <v>0</v>
+      </c>
+      <c r="B31" s="288">
+        <f>Page1!B29</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="111">
+        <f>Page1!C29</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="289"/>
+      <c r="E31" s="290"/>
+      <c r="F31" s="290"/>
+      <c r="G31" s="291"/>
+      <c r="H31" s="290"/>
+      <c r="I31" s="292"/>
     </row>
     <row r="32" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="116"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="112"/>
-      <c r="F32" s="113"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="134"/>
+      <c r="A32" s="110">
+        <f>Page1!A30</f>
+        <v>0</v>
+      </c>
+      <c r="B32" s="288">
+        <f>Page1!B30</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="111">
+        <f>Page1!C30</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="289"/>
+      <c r="E32" s="290"/>
+      <c r="F32" s="290"/>
+      <c r="G32" s="291"/>
+      <c r="H32" s="290"/>
+      <c r="I32" s="292"/>
     </row>
     <row r="33" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="116"/>
-      <c r="B33" s="117"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="112"/>
-      <c r="F33" s="113"/>
-      <c r="G33" s="114"/>
-      <c r="H33" s="115"/>
-      <c r="I33" s="134"/>
+      <c r="A33" s="110">
+        <f>Page1!A31</f>
+        <v>0</v>
+      </c>
+      <c r="B33" s="288">
+        <f>Page1!B31</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="111">
+        <f>Page1!C31</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="289"/>
+      <c r="E33" s="290"/>
+      <c r="F33" s="290"/>
+      <c r="G33" s="291"/>
+      <c r="H33" s="290"/>
+      <c r="I33" s="292"/>
     </row>
     <row r="34" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="116"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="111"/>
-      <c r="E34" s="112"/>
-      <c r="F34" s="113"/>
-      <c r="G34" s="114"/>
-      <c r="H34" s="115"/>
-      <c r="I34" s="134"/>
+      <c r="A34" s="110">
+        <f>Page1!A32</f>
+        <v>0</v>
+      </c>
+      <c r="B34" s="288">
+        <f>Page1!B32</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="111">
+        <f>Page1!C32</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="289"/>
+      <c r="E34" s="290"/>
+      <c r="F34" s="290"/>
+      <c r="G34" s="291"/>
+      <c r="H34" s="290"/>
+      <c r="I34" s="292"/>
     </row>
     <row r="35" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="116"/>
-      <c r="B35" s="117"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="111"/>
-      <c r="E35" s="112"/>
-      <c r="F35" s="113"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="134"/>
+      <c r="A35" s="110">
+        <f>Page1!A33</f>
+        <v>0</v>
+      </c>
+      <c r="B35" s="288">
+        <f>Page1!B33</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="111">
+        <f>Page1!C33</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="289"/>
+      <c r="E35" s="290"/>
+      <c r="F35" s="290"/>
+      <c r="G35" s="291"/>
+      <c r="H35" s="290"/>
+      <c r="I35" s="292"/>
     </row>
     <row r="36" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="116"/>
-      <c r="B36" s="117"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="112"/>
-      <c r="F36" s="113"/>
-      <c r="G36" s="114"/>
-      <c r="H36" s="115"/>
-      <c r="I36" s="134"/>
+      <c r="A36" s="110">
+        <f>Page1!A34</f>
+        <v>0</v>
+      </c>
+      <c r="B36" s="288">
+        <f>Page1!B34</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="111">
+        <f>Page1!C34</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="289"/>
+      <c r="E36" s="290"/>
+      <c r="F36" s="290"/>
+      <c r="G36" s="291"/>
+      <c r="H36" s="290"/>
+      <c r="I36" s="292"/>
     </row>
     <row r="37" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="116"/>
-      <c r="B37" s="117"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="111"/>
-      <c r="E37" s="112"/>
-      <c r="F37" s="113"/>
-      <c r="G37" s="114"/>
-      <c r="H37" s="115"/>
-      <c r="I37" s="134"/>
+      <c r="A37" s="110">
+        <f>Page1!A35</f>
+        <v>0</v>
+      </c>
+      <c r="B37" s="288">
+        <f>Page1!B35</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="111">
+        <f>Page1!C35</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="289"/>
+      <c r="E37" s="290"/>
+      <c r="F37" s="290"/>
+      <c r="G37" s="291"/>
+      <c r="H37" s="290"/>
+      <c r="I37" s="292"/>
     </row>
     <row r="38" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="116"/>
-      <c r="B38" s="117"/>
-      <c r="C38" s="118"/>
-      <c r="D38" s="111"/>
-      <c r="E38" s="112"/>
-      <c r="F38" s="113"/>
-      <c r="G38" s="114"/>
-      <c r="H38" s="115"/>
-      <c r="I38" s="134"/>
+      <c r="A38" s="110">
+        <f>Page1!A36</f>
+        <v>0</v>
+      </c>
+      <c r="B38" s="288">
+        <f>Page1!B36</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="111">
+        <f>Page1!C36</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="289"/>
+      <c r="E38" s="290"/>
+      <c r="F38" s="290"/>
+      <c r="G38" s="291"/>
+      <c r="H38" s="290"/>
+      <c r="I38" s="292"/>
     </row>
     <row r="39" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="116"/>
-      <c r="B39" s="117"/>
-      <c r="C39" s="118"/>
-      <c r="D39" s="111"/>
-      <c r="E39" s="112"/>
-      <c r="F39" s="113"/>
-      <c r="G39" s="114"/>
-      <c r="H39" s="115"/>
-      <c r="I39" s="134"/>
+      <c r="A39" s="110">
+        <f>Page1!A37</f>
+        <v>0</v>
+      </c>
+      <c r="B39" s="288">
+        <f>Page1!B37</f>
+        <v>0</v>
+      </c>
+      <c r="C39" s="111">
+        <f>Page1!C37</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="289"/>
+      <c r="E39" s="290"/>
+      <c r="F39" s="290"/>
+      <c r="G39" s="291"/>
+      <c r="H39" s="290"/>
+      <c r="I39" s="292"/>
     </row>
     <row r="40" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="125"/>
-      <c r="B40" s="126"/>
-      <c r="C40" s="127"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="129"/>
-      <c r="F40" s="130"/>
-      <c r="G40" s="130"/>
-      <c r="H40" s="131"/>
-      <c r="I40" s="135"/>
+      <c r="A40" s="110">
+        <f>Page1!A38</f>
+        <v>0</v>
+      </c>
+      <c r="B40" s="288">
+        <f>Page1!B38</f>
+        <v>0</v>
+      </c>
+      <c r="C40" s="111">
+        <f>Page1!C38</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="293"/>
+      <c r="E40" s="294"/>
+      <c r="F40" s="295"/>
+      <c r="G40" s="295"/>
+      <c r="H40" s="294"/>
+      <c r="I40" s="296"/>
     </row>
     <row r="41" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="209" t="s">
+      <c r="A41" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="210"/>
-      <c r="C41" s="210"/>
+      <c r="B41" s="161"/>
+      <c r="C41" s="161"/>
       <c r="D41" s="89" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
@@ -4111,17 +4370,17 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="152" t="e">
+      <c r="I41" s="118" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="211" t="s">
+      <c r="A42" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="212"/>
-      <c r="C42" s="212"/>
+      <c r="B42" s="163"/>
+      <c r="C42" s="163"/>
       <c r="D42" s="90">
         <f>MIN(D11:D40)</f>
         <v>0</v>
@@ -4142,17 +4401,17 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I42" s="153">
+      <c r="I42" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="207" t="s">
+      <c r="A43" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="208"/>
-      <c r="C43" s="208"/>
+      <c r="B43" s="159"/>
+      <c r="C43" s="159"/>
       <c r="D43" s="91">
         <f>MAX(D11:D40)</f>
         <v>0</v>
@@ -4173,66 +4432,98 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I43" s="154">
+      <c r="I43" s="120">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="92" t="s">
+      <c r="A44" s="273" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="156"/>
-      <c r="C44" s="156"/>
-      <c r="D44" s="92" t="s">
+      <c r="B44" s="143">
+        <f>Page1!B42</f>
+        <v>0</v>
+      </c>
+      <c r="C44" s="274"/>
+      <c r="D44" s="273" t="s">
         <v>16</v>
       </c>
-      <c r="F44" s="93"/>
-      <c r="G44" s="46" t="s">
+      <c r="E44" s="273"/>
+      <c r="F44" s="275"/>
+      <c r="G44" s="275" t="s">
         <v>17</v>
       </c>
-      <c r="I44" s="95" t="s">
+      <c r="H44" s="282">
+        <f>Page1!H42</f>
+        <v>0</v>
+      </c>
+      <c r="I44" s="276" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="96"/>
-      <c r="B45" s="157"/>
-      <c r="C45" s="157"/>
-      <c r="D45" s="92"/>
-      <c r="F45" s="93"/>
-      <c r="G45" s="94"/>
-      <c r="I45" s="95"/>
+      <c r="A45" s="277"/>
+      <c r="B45" s="121">
+        <f>Page1!B43</f>
+        <v>0</v>
+      </c>
+      <c r="C45" s="278"/>
+      <c r="D45" s="273"/>
+      <c r="E45" s="273"/>
+      <c r="F45" s="275"/>
+      <c r="G45" s="277"/>
+      <c r="H45" s="282">
+        <f>Page1!H43</f>
+        <v>0</v>
+      </c>
+      <c r="I45" s="276"/>
     </row>
     <row r="46" spans="1:9" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="169" t="s">
+      <c r="A46" s="279" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="169"/>
-      <c r="C46" s="169"/>
-      <c r="D46" s="97"/>
-      <c r="E46" s="98" t="s">
+      <c r="B46" s="279"/>
+      <c r="C46" s="279"/>
+      <c r="D46" s="280"/>
+      <c r="E46" s="281" t="s">
         <v>123</v>
       </c>
-      <c r="F46" s="94">
+      <c r="F46" s="277">
         <f>Page1!F44</f>
         <v>461343000</v>
       </c>
+      <c r="G46" s="280"/>
+      <c r="H46" s="280"/>
+      <c r="I46" s="280"/>
     </row>
     <row r="47" spans="1:9" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="169" t="s">
+      <c r="A47" s="279" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="169"/>
-      <c r="C47" s="169"/>
-      <c r="D47" s="97"/>
-      <c r="H47" s="157" t="s">
+      <c r="B47" s="279"/>
+      <c r="C47" s="279"/>
+      <c r="D47" s="280"/>
+      <c r="E47" s="280"/>
+      <c r="F47" s="280"/>
+      <c r="G47" s="280"/>
+      <c r="H47" s="278" t="s">
         <v>27</v>
       </c>
-      <c r="I47" s="157"/>
+      <c r="I47" s="278"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="I7:I10"/>
@@ -4244,16 +4535,6 @@
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:D40">
     <cfRule type="cellIs" dxfId="9" priority="5" operator="notBetween">
@@ -4296,8 +4577,8 @@
   </sheetPr>
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4308,31 +4589,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="155" t="s">
+      <c r="A1" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="155"/>
-      <c r="C1" s="155"/>
-      <c r="D1" s="155"/>
-      <c r="E1" s="155"/>
-      <c r="F1" s="155"/>
-      <c r="G1" s="155"/>
-      <c r="H1" s="155"/>
+      <c r="B1" s="142"/>
+      <c r="C1" s="142"/>
+      <c r="D1" s="142"/>
+      <c r="E1" s="142"/>
+      <c r="F1" s="142"/>
+      <c r="G1" s="142"/>
+      <c r="H1" s="142"/>
       <c r="I1" s="101" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="155" t="s">
+      <c r="A2" s="142" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
+      <c r="B2" s="142"/>
+      <c r="C2" s="142"/>
+      <c r="D2" s="142"/>
+      <c r="E2" s="142"/>
+      <c r="F2" s="142"/>
+      <c r="G2" s="142"/>
+      <c r="H2" s="142"/>
       <c r="I2" s="102" t="s">
         <v>22</v>
       </c>
@@ -4348,427 +4629,727 @@
       <c r="H3" s="46" t="s">
         <v>23</v>
       </c>
+      <c r="I3" s="270">
+        <f>Page1!I3</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:11" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="158"/>
-      <c r="C4" s="159"/>
+      <c r="B4" s="144">
+        <f>Page1!B4</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="145"/>
       <c r="D4" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="48"/>
+      <c r="E4" s="49">
+        <f>Page1!E4</f>
+        <v>0</v>
+      </c>
       <c r="F4" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="49"/>
+      <c r="G4" s="49">
+        <f>Page1!G4</f>
+        <v>0</v>
+      </c>
       <c r="H4" s="49" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="50"/>
+      <c r="I4" s="271">
+        <f>Page1!I4</f>
+        <v>0</v>
+      </c>
       <c r="K4" s="43" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11" s="43" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="139" t="s">
+      <c r="A5" s="115" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="182"/>
-      <c r="C5" s="183"/>
-      <c r="D5" s="140" t="s">
+      <c r="B5" s="164">
+        <f>Page1!B5</f>
+        <v>0</v>
+      </c>
+      <c r="C5" s="165"/>
+      <c r="D5" s="116" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140" t="s">
+      <c r="E5" s="114">
+        <f>Page1!E5</f>
+        <v>0</v>
+      </c>
+      <c r="F5" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="138"/>
-      <c r="H5" s="138" t="s">
+      <c r="G5" s="114">
+        <f>Page1!G5</f>
+        <v>0</v>
+      </c>
+      <c r="H5" s="114" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="141"/>
+      <c r="I5" s="272">
+        <f>Page1!I5</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:11" s="106" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="192" t="s">
+      <c r="A6" s="172" t="s">
         <v>122</v>
       </c>
-      <c r="B6" s="193"/>
-      <c r="C6" s="213"/>
-      <c r="D6" s="214"/>
-      <c r="E6" s="194"/>
-      <c r="F6" s="194"/>
-      <c r="G6" s="215"/>
-      <c r="H6" s="216"/>
-      <c r="I6" s="217"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="180"/>
+      <c r="E6" s="174"/>
+      <c r="F6" s="174"/>
+      <c r="G6" s="181"/>
+      <c r="H6" s="182"/>
+      <c r="I6" s="183"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="221"/>
-      <c r="B7" s="216"/>
-      <c r="C7" s="222"/>
-      <c r="D7" s="223" t="s">
+      <c r="A7" s="187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="182"/>
+      <c r="C7" s="188"/>
+      <c r="D7" s="189" t="s">
         <v>128</v>
       </c>
-      <c r="E7" s="223" t="s">
+      <c r="E7" s="189" t="s">
         <v>129</v>
       </c>
-      <c r="F7" s="223" t="s">
+      <c r="F7" s="189" t="s">
         <v>130</v>
       </c>
-      <c r="G7" s="225" t="s">
+      <c r="G7" s="191" t="s">
         <v>131</v>
       </c>
-      <c r="H7" s="218"/>
-      <c r="I7" s="219"/>
+      <c r="H7" s="184"/>
+      <c r="I7" s="185"/>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="203"/>
-      <c r="B8" s="204"/>
-      <c r="C8" s="191"/>
-      <c r="D8" s="224"/>
-      <c r="E8" s="224"/>
-      <c r="F8" s="224"/>
-      <c r="G8" s="226"/>
-      <c r="H8" s="218"/>
-      <c r="I8" s="219"/>
+      <c r="A8" s="153"/>
+      <c r="B8" s="154"/>
+      <c r="C8" s="155"/>
+      <c r="D8" s="190"/>
+      <c r="E8" s="190"/>
+      <c r="F8" s="190"/>
+      <c r="G8" s="192"/>
+      <c r="H8" s="184"/>
+      <c r="I8" s="185"/>
     </row>
     <row r="9" spans="1:11" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="108"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="143"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="145"/>
-      <c r="H9" s="218"/>
-      <c r="I9" s="219"/>
+      <c r="A9" s="108">
+        <f>Page1!A9</f>
+        <v>0</v>
+      </c>
+      <c r="B9" s="283">
+        <f>Page1!B9</f>
+        <v>0</v>
+      </c>
+      <c r="C9" s="109">
+        <f>Page1!C9</f>
+        <v>0</v>
+      </c>
+      <c r="D9" s="284"/>
+      <c r="E9" s="285"/>
+      <c r="F9" s="285"/>
+      <c r="G9" s="287"/>
+      <c r="H9" s="184"/>
+      <c r="I9" s="185"/>
     </row>
     <row r="10" spans="1:11" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="116"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="118"/>
-      <c r="D10" s="146"/>
-      <c r="E10" s="147"/>
-      <c r="F10" s="147"/>
-      <c r="G10" s="148"/>
-      <c r="H10" s="218"/>
-      <c r="I10" s="219"/>
+      <c r="A10" s="110">
+        <f>Page1!A10</f>
+        <v>0</v>
+      </c>
+      <c r="B10" s="288">
+        <f>Page1!B10</f>
+        <v>0</v>
+      </c>
+      <c r="C10" s="111">
+        <f>Page1!C10</f>
+        <v>0</v>
+      </c>
+      <c r="D10" s="289"/>
+      <c r="E10" s="290"/>
+      <c r="F10" s="290"/>
+      <c r="G10" s="292"/>
+      <c r="H10" s="184"/>
+      <c r="I10" s="185"/>
     </row>
     <row r="11" spans="1:11" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="116"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="147"/>
-      <c r="F11" s="147"/>
-      <c r="G11" s="148"/>
-      <c r="H11" s="218"/>
-      <c r="I11" s="219"/>
+      <c r="A11" s="110">
+        <f>Page1!A11</f>
+        <v>0</v>
+      </c>
+      <c r="B11" s="288">
+        <f>Page1!B11</f>
+        <v>0</v>
+      </c>
+      <c r="C11" s="111">
+        <f>Page1!C11</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="289"/>
+      <c r="E11" s="290"/>
+      <c r="F11" s="290"/>
+      <c r="G11" s="292"/>
+      <c r="H11" s="184"/>
+      <c r="I11" s="185"/>
     </row>
     <row r="12" spans="1:11" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="116"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="146"/>
-      <c r="E12" s="147"/>
-      <c r="F12" s="147"/>
-      <c r="G12" s="148"/>
-      <c r="H12" s="218"/>
-      <c r="I12" s="219"/>
+      <c r="A12" s="110">
+        <f>Page1!A12</f>
+        <v>0</v>
+      </c>
+      <c r="B12" s="288">
+        <f>Page1!B12</f>
+        <v>0</v>
+      </c>
+      <c r="C12" s="111">
+        <f>Page1!C12</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="289"/>
+      <c r="E12" s="290"/>
+      <c r="F12" s="290"/>
+      <c r="G12" s="292"/>
+      <c r="H12" s="184"/>
+      <c r="I12" s="185"/>
     </row>
     <row r="13" spans="1:11" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="116"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="146"/>
-      <c r="E13" s="147"/>
-      <c r="F13" s="147"/>
-      <c r="G13" s="148"/>
-      <c r="H13" s="218"/>
-      <c r="I13" s="219"/>
+      <c r="A13" s="110">
+        <f>Page1!A13</f>
+        <v>0</v>
+      </c>
+      <c r="B13" s="288">
+        <f>Page1!B13</f>
+        <v>0</v>
+      </c>
+      <c r="C13" s="111">
+        <f>Page1!C13</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="289"/>
+      <c r="E13" s="290"/>
+      <c r="F13" s="290"/>
+      <c r="G13" s="292"/>
+      <c r="H13" s="184"/>
+      <c r="I13" s="185"/>
     </row>
     <row r="14" spans="1:11" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="116"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="110"/>
-      <c r="D14" s="146"/>
-      <c r="E14" s="147"/>
-      <c r="F14" s="147"/>
-      <c r="G14" s="148"/>
-      <c r="H14" s="218"/>
-      <c r="I14" s="219"/>
+      <c r="A14" s="110">
+        <f>Page1!A14</f>
+        <v>0</v>
+      </c>
+      <c r="B14" s="288">
+        <f>Page1!B14</f>
+        <v>0</v>
+      </c>
+      <c r="C14" s="111">
+        <f>Page1!C14</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="289"/>
+      <c r="E14" s="290"/>
+      <c r="F14" s="290"/>
+      <c r="G14" s="292"/>
+      <c r="H14" s="184"/>
+      <c r="I14" s="185"/>
     </row>
     <row r="15" spans="1:11" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="116"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="146"/>
-      <c r="E15" s="147"/>
-      <c r="F15" s="147"/>
-      <c r="G15" s="148"/>
-      <c r="H15" s="218"/>
-      <c r="I15" s="219"/>
+      <c r="A15" s="110">
+        <f>Page1!A15</f>
+        <v>0</v>
+      </c>
+      <c r="B15" s="288">
+        <f>Page1!B15</f>
+        <v>0</v>
+      </c>
+      <c r="C15" s="111">
+        <f>Page1!C15</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="289"/>
+      <c r="E15" s="290"/>
+      <c r="F15" s="290"/>
+      <c r="G15" s="292"/>
+      <c r="H15" s="184"/>
+      <c r="I15" s="185"/>
     </row>
     <row r="16" spans="1:11" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="116"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="146"/>
-      <c r="E16" s="147"/>
-      <c r="F16" s="147"/>
-      <c r="G16" s="148"/>
-      <c r="H16" s="218"/>
-      <c r="I16" s="219"/>
+      <c r="A16" s="110">
+        <f>Page1!A16</f>
+        <v>0</v>
+      </c>
+      <c r="B16" s="288">
+        <f>Page1!B16</f>
+        <v>0</v>
+      </c>
+      <c r="C16" s="111">
+        <f>Page1!C16</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="289"/>
+      <c r="E16" s="290"/>
+      <c r="F16" s="290"/>
+      <c r="G16" s="292"/>
+      <c r="H16" s="184"/>
+      <c r="I16" s="185"/>
     </row>
     <row r="17" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="116"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="146"/>
-      <c r="E17" s="147"/>
-      <c r="F17" s="147"/>
-      <c r="G17" s="148"/>
-      <c r="H17" s="218"/>
-      <c r="I17" s="219"/>
+      <c r="A17" s="110">
+        <f>Page1!A17</f>
+        <v>0</v>
+      </c>
+      <c r="B17" s="288">
+        <f>Page1!B17</f>
+        <v>0</v>
+      </c>
+      <c r="C17" s="111">
+        <f>Page1!C17</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="289"/>
+      <c r="E17" s="290"/>
+      <c r="F17" s="290"/>
+      <c r="G17" s="292"/>
+      <c r="H17" s="184"/>
+      <c r="I17" s="185"/>
     </row>
     <row r="18" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="116"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="146"/>
-      <c r="E18" s="147"/>
-      <c r="F18" s="147"/>
-      <c r="G18" s="148"/>
-      <c r="H18" s="218"/>
-      <c r="I18" s="219"/>
+      <c r="A18" s="110">
+        <f>Page1!A18</f>
+        <v>0</v>
+      </c>
+      <c r="B18" s="288">
+        <f>Page1!B18</f>
+        <v>0</v>
+      </c>
+      <c r="C18" s="111">
+        <f>Page1!C18</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="289"/>
+      <c r="E18" s="290"/>
+      <c r="F18" s="290"/>
+      <c r="G18" s="292"/>
+      <c r="H18" s="184"/>
+      <c r="I18" s="185"/>
     </row>
     <row r="19" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="116"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="146"/>
-      <c r="E19" s="147"/>
-      <c r="F19" s="147"/>
-      <c r="G19" s="148"/>
-      <c r="H19" s="218"/>
-      <c r="I19" s="219"/>
+      <c r="A19" s="110">
+        <f>Page1!A19</f>
+        <v>0</v>
+      </c>
+      <c r="B19" s="288">
+        <f>Page1!B19</f>
+        <v>0</v>
+      </c>
+      <c r="C19" s="111">
+        <f>Page1!C19</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="289"/>
+      <c r="E19" s="290"/>
+      <c r="F19" s="290"/>
+      <c r="G19" s="292"/>
+      <c r="H19" s="184"/>
+      <c r="I19" s="185"/>
     </row>
     <row r="20" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="116"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="146"/>
-      <c r="E20" s="147"/>
-      <c r="F20" s="147"/>
-      <c r="G20" s="148"/>
-      <c r="H20" s="218"/>
-      <c r="I20" s="219"/>
+      <c r="A20" s="110">
+        <f>Page1!A20</f>
+        <v>0</v>
+      </c>
+      <c r="B20" s="288">
+        <f>Page1!B20</f>
+        <v>0</v>
+      </c>
+      <c r="C20" s="111">
+        <f>Page1!C20</f>
+        <v>0</v>
+      </c>
+      <c r="D20" s="289"/>
+      <c r="E20" s="290"/>
+      <c r="F20" s="290"/>
+      <c r="G20" s="292"/>
+      <c r="H20" s="184"/>
+      <c r="I20" s="185"/>
     </row>
     <row r="21" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="116"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="146"/>
-      <c r="E21" s="147"/>
-      <c r="F21" s="147"/>
-      <c r="G21" s="148"/>
-      <c r="H21" s="218"/>
-      <c r="I21" s="219"/>
+      <c r="A21" s="110">
+        <f>Page1!A21</f>
+        <v>0</v>
+      </c>
+      <c r="B21" s="288">
+        <f>Page1!B21</f>
+        <v>0</v>
+      </c>
+      <c r="C21" s="111">
+        <f>Page1!C21</f>
+        <v>0</v>
+      </c>
+      <c r="D21" s="289"/>
+      <c r="E21" s="290"/>
+      <c r="F21" s="290"/>
+      <c r="G21" s="292"/>
+      <c r="H21" s="184"/>
+      <c r="I21" s="185"/>
     </row>
     <row r="22" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="116"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="146"/>
-      <c r="E22" s="147"/>
-      <c r="F22" s="147"/>
-      <c r="G22" s="148"/>
-      <c r="H22" s="218"/>
-      <c r="I22" s="219"/>
+      <c r="A22" s="110">
+        <f>Page1!A22</f>
+        <v>0</v>
+      </c>
+      <c r="B22" s="288">
+        <f>Page1!B22</f>
+        <v>0</v>
+      </c>
+      <c r="C22" s="111">
+        <f>Page1!C22</f>
+        <v>0</v>
+      </c>
+      <c r="D22" s="289"/>
+      <c r="E22" s="290"/>
+      <c r="F22" s="290"/>
+      <c r="G22" s="292"/>
+      <c r="H22" s="184"/>
+      <c r="I22" s="185"/>
     </row>
     <row r="23" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="116"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="146"/>
-      <c r="E23" s="147"/>
-      <c r="F23" s="147"/>
-      <c r="G23" s="148"/>
-      <c r="H23" s="218"/>
-      <c r="I23" s="219"/>
+      <c r="A23" s="110">
+        <f>Page1!A23</f>
+        <v>0</v>
+      </c>
+      <c r="B23" s="288">
+        <f>Page1!B23</f>
+        <v>0</v>
+      </c>
+      <c r="C23" s="111">
+        <f>Page1!C23</f>
+        <v>0</v>
+      </c>
+      <c r="D23" s="289"/>
+      <c r="E23" s="290"/>
+      <c r="F23" s="290"/>
+      <c r="G23" s="292"/>
+      <c r="H23" s="184"/>
+      <c r="I23" s="185"/>
     </row>
     <row r="24" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="116"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="143"/>
-      <c r="E24" s="144"/>
-      <c r="F24" s="144"/>
-      <c r="G24" s="145"/>
-      <c r="H24" s="218"/>
-      <c r="I24" s="219"/>
+      <c r="A24" s="110">
+        <f>Page1!A24</f>
+        <v>0</v>
+      </c>
+      <c r="B24" s="288">
+        <f>Page1!B24</f>
+        <v>0</v>
+      </c>
+      <c r="C24" s="111">
+        <f>Page1!C24</f>
+        <v>0</v>
+      </c>
+      <c r="D24" s="284"/>
+      <c r="E24" s="285"/>
+      <c r="F24" s="285"/>
+      <c r="G24" s="287"/>
+      <c r="H24" s="184"/>
+      <c r="I24" s="185"/>
     </row>
     <row r="25" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="116"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="118"/>
-      <c r="D25" s="146"/>
-      <c r="E25" s="147"/>
-      <c r="F25" s="147"/>
-      <c r="G25" s="148"/>
-      <c r="H25" s="218"/>
-      <c r="I25" s="219"/>
+      <c r="A25" s="110">
+        <f>Page1!A25</f>
+        <v>0</v>
+      </c>
+      <c r="B25" s="288">
+        <f>Page1!B25</f>
+        <v>0</v>
+      </c>
+      <c r="C25" s="111">
+        <f>Page1!C25</f>
+        <v>0</v>
+      </c>
+      <c r="D25" s="289"/>
+      <c r="E25" s="290"/>
+      <c r="F25" s="290"/>
+      <c r="G25" s="292"/>
+      <c r="H25" s="184"/>
+      <c r="I25" s="185"/>
     </row>
     <row r="26" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="116"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="118"/>
-      <c r="D26" s="146"/>
-      <c r="E26" s="147"/>
-      <c r="F26" s="147"/>
-      <c r="G26" s="148"/>
-      <c r="H26" s="218"/>
-      <c r="I26" s="219"/>
+      <c r="A26" s="110">
+        <f>Page1!A26</f>
+        <v>0</v>
+      </c>
+      <c r="B26" s="288">
+        <f>Page1!B26</f>
+        <v>0</v>
+      </c>
+      <c r="C26" s="111">
+        <f>Page1!C26</f>
+        <v>0</v>
+      </c>
+      <c r="D26" s="289"/>
+      <c r="E26" s="290"/>
+      <c r="F26" s="290"/>
+      <c r="G26" s="292"/>
+      <c r="H26" s="184"/>
+      <c r="I26" s="185"/>
     </row>
     <row r="27" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="116"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="118"/>
-      <c r="D27" s="146"/>
-      <c r="E27" s="147"/>
-      <c r="F27" s="147"/>
-      <c r="G27" s="148"/>
-      <c r="H27" s="218"/>
-      <c r="I27" s="219"/>
+      <c r="A27" s="110">
+        <f>Page1!A27</f>
+        <v>0</v>
+      </c>
+      <c r="B27" s="288">
+        <f>Page1!B27</f>
+        <v>0</v>
+      </c>
+      <c r="C27" s="111">
+        <f>Page1!C27</f>
+        <v>0</v>
+      </c>
+      <c r="D27" s="289"/>
+      <c r="E27" s="290"/>
+      <c r="F27" s="290"/>
+      <c r="G27" s="292"/>
+      <c r="H27" s="184"/>
+      <c r="I27" s="185"/>
     </row>
     <row r="28" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="116"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="118"/>
-      <c r="D28" s="146"/>
-      <c r="E28" s="147"/>
-      <c r="F28" s="147"/>
-      <c r="G28" s="148"/>
-      <c r="H28" s="218"/>
-      <c r="I28" s="219"/>
+      <c r="A28" s="110">
+        <f>Page1!A28</f>
+        <v>0</v>
+      </c>
+      <c r="B28" s="288">
+        <f>Page1!B28</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="111">
+        <f>Page1!C28</f>
+        <v>0</v>
+      </c>
+      <c r="D28" s="289"/>
+      <c r="E28" s="290"/>
+      <c r="F28" s="290"/>
+      <c r="G28" s="292"/>
+      <c r="H28" s="184"/>
+      <c r="I28" s="185"/>
     </row>
     <row r="29" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="116"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="118"/>
-      <c r="D29" s="146"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="148"/>
-      <c r="H29" s="218"/>
-      <c r="I29" s="219"/>
+      <c r="A29" s="110">
+        <f>Page1!A29</f>
+        <v>0</v>
+      </c>
+      <c r="B29" s="288">
+        <f>Page1!B29</f>
+        <v>0</v>
+      </c>
+      <c r="C29" s="111">
+        <f>Page1!C29</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="289"/>
+      <c r="E29" s="290"/>
+      <c r="F29" s="290"/>
+      <c r="G29" s="292"/>
+      <c r="H29" s="184"/>
+      <c r="I29" s="185"/>
     </row>
     <row r="30" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="116"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="118"/>
-      <c r="D30" s="146"/>
-      <c r="E30" s="147"/>
-      <c r="F30" s="147"/>
-      <c r="G30" s="148"/>
-      <c r="H30" s="218"/>
-      <c r="I30" s="219"/>
+      <c r="A30" s="110">
+        <f>Page1!A30</f>
+        <v>0</v>
+      </c>
+      <c r="B30" s="288">
+        <f>Page1!B30</f>
+        <v>0</v>
+      </c>
+      <c r="C30" s="111">
+        <f>Page1!C30</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="289"/>
+      <c r="E30" s="290"/>
+      <c r="F30" s="290"/>
+      <c r="G30" s="292"/>
+      <c r="H30" s="184"/>
+      <c r="I30" s="185"/>
     </row>
     <row r="31" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="116"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="118"/>
-      <c r="D31" s="146"/>
-      <c r="E31" s="147"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="148"/>
-      <c r="H31" s="218"/>
-      <c r="I31" s="219"/>
+      <c r="A31" s="110">
+        <f>Page1!A31</f>
+        <v>0</v>
+      </c>
+      <c r="B31" s="288">
+        <f>Page1!B31</f>
+        <v>0</v>
+      </c>
+      <c r="C31" s="111">
+        <f>Page1!C31</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="289"/>
+      <c r="E31" s="290"/>
+      <c r="F31" s="290"/>
+      <c r="G31" s="292"/>
+      <c r="H31" s="184"/>
+      <c r="I31" s="185"/>
     </row>
     <row r="32" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="116"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="118"/>
-      <c r="D32" s="146"/>
-      <c r="E32" s="147"/>
-      <c r="F32" s="147"/>
-      <c r="G32" s="148"/>
-      <c r="H32" s="218"/>
-      <c r="I32" s="219"/>
+      <c r="A32" s="110">
+        <f>Page1!A32</f>
+        <v>0</v>
+      </c>
+      <c r="B32" s="288">
+        <f>Page1!B32</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="111">
+        <f>Page1!C32</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="289"/>
+      <c r="E32" s="290"/>
+      <c r="F32" s="290"/>
+      <c r="G32" s="292"/>
+      <c r="H32" s="184"/>
+      <c r="I32" s="185"/>
     </row>
     <row r="33" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="116"/>
-      <c r="B33" s="117"/>
-      <c r="C33" s="118"/>
-      <c r="D33" s="146"/>
-      <c r="E33" s="147"/>
-      <c r="F33" s="147"/>
-      <c r="G33" s="148"/>
-      <c r="H33" s="218"/>
-      <c r="I33" s="219"/>
+      <c r="A33" s="110">
+        <f>Page1!A33</f>
+        <v>0</v>
+      </c>
+      <c r="B33" s="288">
+        <f>Page1!B33</f>
+        <v>0</v>
+      </c>
+      <c r="C33" s="111">
+        <f>Page1!C33</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="289"/>
+      <c r="E33" s="290"/>
+      <c r="F33" s="290"/>
+      <c r="G33" s="292"/>
+      <c r="H33" s="184"/>
+      <c r="I33" s="185"/>
     </row>
     <row r="34" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="116"/>
-      <c r="B34" s="117"/>
-      <c r="C34" s="118"/>
-      <c r="D34" s="146"/>
-      <c r="E34" s="147"/>
-      <c r="F34" s="147"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="218"/>
-      <c r="I34" s="219"/>
+      <c r="A34" s="110">
+        <f>Page1!A34</f>
+        <v>0</v>
+      </c>
+      <c r="B34" s="288">
+        <f>Page1!B34</f>
+        <v>0</v>
+      </c>
+      <c r="C34" s="111">
+        <f>Page1!C34</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="289"/>
+      <c r="E34" s="290"/>
+      <c r="F34" s="290"/>
+      <c r="G34" s="292"/>
+      <c r="H34" s="184"/>
+      <c r="I34" s="185"/>
     </row>
     <row r="35" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="116"/>
-      <c r="B35" s="117"/>
-      <c r="C35" s="118"/>
-      <c r="D35" s="146"/>
-      <c r="E35" s="147"/>
-      <c r="F35" s="147"/>
-      <c r="G35" s="148"/>
-      <c r="H35" s="218"/>
-      <c r="I35" s="219"/>
+      <c r="A35" s="110">
+        <f>Page1!A35</f>
+        <v>0</v>
+      </c>
+      <c r="B35" s="288">
+        <f>Page1!B35</f>
+        <v>0</v>
+      </c>
+      <c r="C35" s="111">
+        <f>Page1!C35</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="289"/>
+      <c r="E35" s="290"/>
+      <c r="F35" s="290"/>
+      <c r="G35" s="292"/>
+      <c r="H35" s="184"/>
+      <c r="I35" s="185"/>
     </row>
     <row r="36" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="116"/>
-      <c r="B36" s="117"/>
-      <c r="C36" s="118"/>
-      <c r="D36" s="146"/>
-      <c r="E36" s="147"/>
-      <c r="F36" s="147"/>
-      <c r="G36" s="148"/>
-      <c r="H36" s="218"/>
-      <c r="I36" s="219"/>
+      <c r="A36" s="110">
+        <f>Page1!A36</f>
+        <v>0</v>
+      </c>
+      <c r="B36" s="288">
+        <f>Page1!B36</f>
+        <v>0</v>
+      </c>
+      <c r="C36" s="111">
+        <f>Page1!C36</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="289"/>
+      <c r="E36" s="290"/>
+      <c r="F36" s="290"/>
+      <c r="G36" s="292"/>
+      <c r="H36" s="184"/>
+      <c r="I36" s="185"/>
     </row>
     <row r="37" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="116"/>
-      <c r="B37" s="117"/>
-      <c r="C37" s="118"/>
-      <c r="D37" s="146"/>
-      <c r="E37" s="147"/>
-      <c r="F37" s="147"/>
-      <c r="G37" s="148"/>
-      <c r="H37" s="218"/>
-      <c r="I37" s="219"/>
+      <c r="A37" s="110">
+        <f>Page1!A37</f>
+        <v>0</v>
+      </c>
+      <c r="B37" s="288">
+        <f>Page1!B37</f>
+        <v>0</v>
+      </c>
+      <c r="C37" s="111">
+        <f>Page1!C37</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="289"/>
+      <c r="E37" s="290"/>
+      <c r="F37" s="290"/>
+      <c r="G37" s="292"/>
+      <c r="H37" s="184"/>
+      <c r="I37" s="185"/>
     </row>
     <row r="38" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="125"/>
-      <c r="B38" s="126"/>
-      <c r="C38" s="127"/>
-      <c r="D38" s="149"/>
-      <c r="E38" s="150"/>
-      <c r="F38" s="150"/>
-      <c r="G38" s="151"/>
-      <c r="H38" s="218"/>
-      <c r="I38" s="219"/>
+      <c r="A38" s="110">
+        <f>Page1!A38</f>
+        <v>0</v>
+      </c>
+      <c r="B38" s="288">
+        <f>Page1!B38</f>
+        <v>0</v>
+      </c>
+      <c r="C38" s="111">
+        <f>Page1!C38</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="293"/>
+      <c r="E38" s="294"/>
+      <c r="F38" s="294"/>
+      <c r="G38" s="296"/>
+      <c r="H38" s="184"/>
+      <c r="I38" s="185"/>
     </row>
     <row r="39" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="209" t="s">
+      <c r="A39" s="160" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="210"/>
-      <c r="C39" s="210"/>
+      <c r="B39" s="161"/>
+      <c r="C39" s="161"/>
       <c r="D39" s="89" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -4781,19 +5362,19 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="152" t="e">
+      <c r="G39" s="118" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="218"/>
-      <c r="I39" s="219"/>
+      <c r="H39" s="184"/>
+      <c r="I39" s="185"/>
     </row>
     <row r="40" spans="1:9" s="106" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="211" t="s">
+      <c r="A40" s="162" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="212"/>
-      <c r="C40" s="212"/>
+      <c r="B40" s="163"/>
+      <c r="C40" s="163"/>
       <c r="D40" s="90">
         <f>MIN(D9:D38)</f>
         <v>0</v>
@@ -4806,19 +5387,19 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G40" s="153">
+      <c r="G40" s="119">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="218"/>
-      <c r="I40" s="219"/>
+      <c r="H40" s="184"/>
+      <c r="I40" s="185"/>
     </row>
     <row r="41" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="207" t="s">
+      <c r="A41" s="158" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="208"/>
-      <c r="C41" s="208"/>
+      <c r="B41" s="159"/>
+      <c r="C41" s="159"/>
       <c r="D41" s="91">
         <f>MAX(D9:D38)</f>
         <v>0</v>
@@ -4831,68 +5412,100 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G41" s="154">
+      <c r="G41" s="120">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H41" s="204"/>
-      <c r="I41" s="220"/>
+      <c r="H41" s="154"/>
+      <c r="I41" s="186"/>
     </row>
     <row r="42" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="92" t="s">
+      <c r="A42" s="273" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="156"/>
-      <c r="C42" s="156"/>
-      <c r="D42" s="92" t="s">
+      <c r="B42" s="143">
+        <f>Page1!B42</f>
+        <v>0</v>
+      </c>
+      <c r="C42" s="274"/>
+      <c r="D42" s="273" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="93"/>
-      <c r="G42" s="46" t="s">
+      <c r="E42" s="273"/>
+      <c r="F42" s="275"/>
+      <c r="G42" s="275" t="s">
         <v>17</v>
       </c>
-      <c r="I42" s="95" t="s">
+      <c r="H42" s="282">
+        <f>Page1!H42</f>
+        <v>0</v>
+      </c>
+      <c r="I42" s="276" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="96"/>
-      <c r="B43" s="157"/>
-      <c r="C43" s="157"/>
-      <c r="D43" s="92"/>
-      <c r="F43" s="93"/>
-      <c r="G43" s="94"/>
-      <c r="I43" s="95"/>
+      <c r="A43" s="277"/>
+      <c r="B43" s="121">
+        <f>Page1!B43</f>
+        <v>0</v>
+      </c>
+      <c r="C43" s="278"/>
+      <c r="D43" s="273"/>
+      <c r="E43" s="273"/>
+      <c r="F43" s="275"/>
+      <c r="G43" s="277"/>
+      <c r="H43" s="282">
+        <f>Page1!H43</f>
+        <v>0</v>
+      </c>
+      <c r="I43" s="276"/>
     </row>
     <row r="44" spans="1:9" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="169" t="s">
+      <c r="A44" s="279" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="169"/>
-      <c r="C44" s="169"/>
-      <c r="D44" s="97"/>
-      <c r="E44" s="98" t="s">
+      <c r="B44" s="279"/>
+      <c r="C44" s="279"/>
+      <c r="D44" s="280"/>
+      <c r="E44" s="281" t="s">
         <v>123</v>
       </c>
-      <c r="F44" s="94">
+      <c r="F44" s="277">
         <f>Page1!F44</f>
         <v>461343000</v>
       </c>
+      <c r="G44" s="280"/>
+      <c r="H44" s="280"/>
+      <c r="I44" s="280"/>
     </row>
     <row r="45" spans="1:9" s="45" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="169" t="s">
+      <c r="A45" s="279" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="169"/>
-      <c r="C45" s="169"/>
-      <c r="D45" s="97"/>
-      <c r="H45" s="157" t="s">
+      <c r="B45" s="279"/>
+      <c r="C45" s="279"/>
+      <c r="D45" s="280"/>
+      <c r="E45" s="280"/>
+      <c r="F45" s="280"/>
+      <c r="G45" s="280"/>
+      <c r="H45" s="278" t="s">
         <v>28</v>
       </c>
-      <c r="I45" s="157"/>
+      <c r="I45" s="278"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="A6:C6"/>
@@ -4903,16 +5516,6 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D38">
     <cfRule type="cellIs" dxfId="4" priority="6" operator="notBetween">
@@ -4970,15 +5573,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="294" t="s">
+      <c r="A1" s="193" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="295"/>
-      <c r="C1" s="295"/>
-      <c r="D1" s="295"/>
-      <c r="E1" s="295"/>
-      <c r="F1" s="295"/>
-      <c r="G1" s="296"/>
+      <c r="B1" s="194"/>
+      <c r="C1" s="194"/>
+      <c r="D1" s="194"/>
+      <c r="E1" s="194"/>
+      <c r="F1" s="194"/>
+      <c r="G1" s="195"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -4992,37 +5595,37 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="297" t="s">
+      <c r="A3" s="196" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="298"/>
-      <c r="C3" s="298"/>
-      <c r="D3" s="298"/>
-      <c r="E3" s="298"/>
-      <c r="F3" s="298"/>
-      <c r="G3" s="299"/>
+      <c r="B3" s="197"/>
+      <c r="C3" s="197"/>
+      <c r="D3" s="197"/>
+      <c r="E3" s="197"/>
+      <c r="F3" s="197"/>
+      <c r="G3" s="198"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="239" t="s">
+      <c r="A4" s="199" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="240"/>
-      <c r="C4" s="240"/>
-      <c r="D4" s="240"/>
-      <c r="E4" s="240"/>
-      <c r="F4" s="240"/>
-      <c r="G4" s="241"/>
+      <c r="B4" s="200"/>
+      <c r="C4" s="200"/>
+      <c r="D4" s="200"/>
+      <c r="E4" s="200"/>
+      <c r="F4" s="200"/>
+      <c r="G4" s="201"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="300" t="s">
+      <c r="A5" s="202" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="301"/>
-      <c r="C5" s="301"/>
-      <c r="D5" s="301"/>
-      <c r="E5" s="301"/>
-      <c r="F5" s="301"/>
-      <c r="G5" s="302"/>
+      <c r="B5" s="203"/>
+      <c r="C5" s="203"/>
+      <c r="D5" s="203"/>
+      <c r="E5" s="203"/>
+      <c r="F5" s="203"/>
+      <c r="G5" s="204"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -5034,14 +5637,14 @@
       <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="249" t="s">
+      <c r="D6" s="205" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="251"/>
-      <c r="F6" s="274" t="s">
+      <c r="E6" s="206"/>
+      <c r="F6" s="207" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="278">
+      <c r="G6" s="208">
         <f>Page1!I4</f>
         <v>0</v>
       </c>
@@ -5054,13 +5657,13 @@
       <c r="C7" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="249">
+      <c r="D7" s="205">
         <f>Page1!E5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="251"/>
-      <c r="F7" s="274"/>
-      <c r="G7" s="303"/>
+      <c r="E7" s="206"/>
+      <c r="F7" s="207"/>
+      <c r="G7" s="209"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -5073,15 +5676,15 @@
       <c r="C8" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="D8" s="274">
+      <c r="D8" s="207">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="274"/>
-      <c r="F8" s="275" t="s">
+      <c r="E8" s="207"/>
+      <c r="F8" s="220" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="278">
+      <c r="G8" s="208">
         <f>Page1!I5</f>
         <v>0</v>
       </c>
@@ -5094,15 +5697,15 @@
         <f>Page1!F44</f>
         <v>461343000</v>
       </c>
-      <c r="C9" s="275" t="s">
+      <c r="C9" s="220" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="281" t="s">
+      <c r="D9" s="225" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="282"/>
-      <c r="F9" s="276"/>
-      <c r="G9" s="279"/>
+      <c r="E9" s="226"/>
+      <c r="F9" s="221"/>
+      <c r="G9" s="223"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
@@ -5112,34 +5715,34 @@
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="277"/>
-      <c r="D10" s="283"/>
-      <c r="E10" s="284"/>
-      <c r="F10" s="277"/>
-      <c r="G10" s="280"/>
+      <c r="C10" s="222"/>
+      <c r="D10" s="227"/>
+      <c r="E10" s="228"/>
+      <c r="F10" s="222"/>
+      <c r="G10" s="224"/>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="285" t="s">
+      <c r="A11" s="210" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="287" t="s">
+      <c r="B11" s="212" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="289" t="s">
+      <c r="C11" s="214" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="290"/>
-      <c r="E11" s="291"/>
-      <c r="F11" s="287" t="s">
+      <c r="D11" s="215"/>
+      <c r="E11" s="216"/>
+      <c r="F11" s="212" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="292" t="s">
+      <c r="G11" s="217" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="286"/>
-      <c r="B12" s="288"/>
+      <c r="A12" s="211"/>
+      <c r="B12" s="213"/>
       <c r="C12" s="15" t="s">
         <v>60</v>
       </c>
@@ -5149,8 +5752,8 @@
       <c r="E12" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="288"/>
-      <c r="G12" s="293"/>
+      <c r="F12" s="213"/>
+      <c r="G12" s="218"/>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
@@ -5220,7 +5823,7 @@
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="273" t="s">
+      <c r="G15" s="219" t="s">
         <v>72</v>
       </c>
     </row>
@@ -5244,7 +5847,7 @@
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="199"/>
+      <c r="G16" s="148"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
@@ -5266,7 +5869,7 @@
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="199"/>
+      <c r="G17" s="148"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
@@ -5288,7 +5891,7 @@
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="199"/>
+      <c r="G18" s="148"/>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
@@ -5310,7 +5913,7 @@
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="199"/>
+      <c r="G19" s="148"/>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
@@ -5332,7 +5935,7 @@
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="199"/>
+      <c r="G20" s="148"/>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
@@ -5354,7 +5957,7 @@
         <f>Page1!F39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="199"/>
+      <c r="G21" s="148"/>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
@@ -5428,26 +6031,26 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="267" t="s">
+      <c r="A25" s="229" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="268"/>
-      <c r="C25" s="268"/>
-      <c r="D25" s="268"/>
-      <c r="E25" s="268"/>
-      <c r="F25" s="268"/>
-      <c r="G25" s="269"/>
+      <c r="B25" s="230"/>
+      <c r="C25" s="230"/>
+      <c r="D25" s="230"/>
+      <c r="E25" s="230"/>
+      <c r="F25" s="230"/>
+      <c r="G25" s="231"/>
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="247" t="s">
+      <c r="A26" s="232" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="248"/>
-      <c r="C26" s="270" t="s">
+      <c r="B26" s="233"/>
+      <c r="C26" s="234" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="271"/>
-      <c r="E26" s="272"/>
+      <c r="D26" s="235"/>
+      <c r="E26" s="236"/>
       <c r="F26" s="33" t="s">
         <v>90</v>
       </c>
@@ -5456,15 +6059,15 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="252" t="s">
+      <c r="A27" s="237" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="251"/>
-      <c r="C27" s="261" t="s">
+      <c r="B27" s="206"/>
+      <c r="C27" s="238" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="262"/>
-      <c r="E27" s="263"/>
+      <c r="D27" s="239"/>
+      <c r="E27" s="240"/>
       <c r="F27" s="34" t="s">
         <v>90</v>
       </c>
@@ -5473,15 +6076,15 @@
       </c>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="252" t="s">
+      <c r="A28" s="237" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="251"/>
-      <c r="C28" s="261" t="s">
+      <c r="B28" s="206"/>
+      <c r="C28" s="238" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="262"/>
-      <c r="E28" s="263"/>
+      <c r="D28" s="239"/>
+      <c r="E28" s="240"/>
       <c r="F28" s="34" t="s">
         <v>90</v>
       </c>
@@ -5490,15 +6093,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="252" t="s">
+      <c r="A29" s="237" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="251"/>
-      <c r="C29" s="261" t="s">
+      <c r="B29" s="206"/>
+      <c r="C29" s="238" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="262"/>
-      <c r="E29" s="263"/>
+      <c r="D29" s="239"/>
+      <c r="E29" s="240"/>
       <c r="F29" s="34" t="s">
         <v>90</v>
       </c>
@@ -5507,15 +6110,15 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="252" t="s">
+      <c r="A30" s="237" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="251"/>
-      <c r="C30" s="261" t="s">
+      <c r="B30" s="206"/>
+      <c r="C30" s="238" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="262"/>
-      <c r="E30" s="263"/>
+      <c r="D30" s="239"/>
+      <c r="E30" s="240"/>
       <c r="F30" s="34" t="s">
         <v>90</v>
       </c>
@@ -5524,15 +6127,15 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="252" t="s">
+      <c r="A31" s="237" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="251"/>
-      <c r="C31" s="261" t="s">
+      <c r="B31" s="206"/>
+      <c r="C31" s="238" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="262"/>
-      <c r="E31" s="263"/>
+      <c r="D31" s="239"/>
+      <c r="E31" s="240"/>
       <c r="F31" s="34" t="s">
         <v>90</v>
       </c>
@@ -5541,15 +6144,15 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="253" t="s">
+      <c r="A32" s="245" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="254"/>
-      <c r="C32" s="264" t="s">
+      <c r="B32" s="246"/>
+      <c r="C32" s="247" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="265"/>
-      <c r="E32" s="266"/>
+      <c r="D32" s="248"/>
+      <c r="E32" s="249"/>
       <c r="F32" s="36" t="s">
         <v>90</v>
       </c>
@@ -5558,26 +6161,26 @@
       </c>
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="267" t="s">
+      <c r="A33" s="229" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="268"/>
-      <c r="C33" s="268"/>
-      <c r="D33" s="268"/>
-      <c r="E33" s="268"/>
-      <c r="F33" s="268"/>
-      <c r="G33" s="269"/>
+      <c r="B33" s="230"/>
+      <c r="C33" s="230"/>
+      <c r="D33" s="230"/>
+      <c r="E33" s="230"/>
+      <c r="F33" s="230"/>
+      <c r="G33" s="231"/>
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="257" t="s">
+      <c r="A34" s="241" t="s">
         <v>108</v>
       </c>
-      <c r="B34" s="258"/>
-      <c r="C34" s="259" t="s">
+      <c r="B34" s="242"/>
+      <c r="C34" s="243" t="s">
         <v>96</v>
       </c>
-      <c r="D34" s="260"/>
-      <c r="E34" s="258"/>
+      <c r="D34" s="244"/>
+      <c r="E34" s="242"/>
       <c r="F34" s="37" t="s">
         <v>90</v>
       </c>
@@ -5586,15 +6189,15 @@
       </c>
     </row>
     <row r="35" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="247" t="s">
+      <c r="A35" s="232" t="s">
         <v>109</v>
       </c>
-      <c r="B35" s="248"/>
-      <c r="C35" s="249" t="s">
+      <c r="B35" s="233"/>
+      <c r="C35" s="205" t="s">
         <v>110</v>
       </c>
       <c r="D35" s="250"/>
-      <c r="E35" s="251"/>
+      <c r="E35" s="206"/>
       <c r="F35" s="22" t="s">
         <v>90</v>
       </c>
@@ -5603,15 +6206,15 @@
       </c>
     </row>
     <row r="36" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="252" t="s">
+      <c r="A36" s="237" t="s">
         <v>111</v>
       </c>
-      <c r="B36" s="251"/>
-      <c r="C36" s="249" t="s">
+      <c r="B36" s="206"/>
+      <c r="C36" s="205" t="s">
         <v>112</v>
       </c>
       <c r="D36" s="250"/>
-      <c r="E36" s="251"/>
+      <c r="E36" s="206"/>
       <c r="F36" s="22" t="s">
         <v>90</v>
       </c>
@@ -5620,15 +6223,15 @@
       </c>
     </row>
     <row r="37" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="253" t="s">
+      <c r="A37" s="245" t="s">
         <v>113</v>
       </c>
-      <c r="B37" s="254"/>
-      <c r="C37" s="255" t="s">
+      <c r="B37" s="246"/>
+      <c r="C37" s="251" t="s">
         <v>114</v>
       </c>
-      <c r="D37" s="256"/>
-      <c r="E37" s="254"/>
+      <c r="D37" s="252"/>
+      <c r="E37" s="246"/>
       <c r="F37" s="1" t="s">
         <v>90</v>
       </c>
@@ -5637,50 +6240,50 @@
       </c>
     </row>
     <row r="38" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="230" t="s">
+      <c r="A38" s="256" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="231"/>
-      <c r="C38" s="232" t="s">
+      <c r="B38" s="257"/>
+      <c r="C38" s="258" t="s">
         <v>116</v>
       </c>
-      <c r="D38" s="233"/>
-      <c r="E38" s="234"/>
-      <c r="F38" s="232" t="s">
+      <c r="D38" s="259"/>
+      <c r="E38" s="260"/>
+      <c r="F38" s="258" t="s">
         <v>117</v>
       </c>
-      <c r="G38" s="234"/>
+      <c r="G38" s="260"/>
     </row>
     <row r="39" spans="1:7" s="2" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="235"/>
-      <c r="B39" s="236"/>
-      <c r="C39" s="239"/>
-      <c r="D39" s="240"/>
-      <c r="E39" s="241"/>
-      <c r="F39" s="242"/>
-      <c r="G39" s="243"/>
+      <c r="A39" s="261"/>
+      <c r="B39" s="262"/>
+      <c r="C39" s="199"/>
+      <c r="D39" s="200"/>
+      <c r="E39" s="201"/>
+      <c r="F39" s="265"/>
+      <c r="G39" s="266"/>
     </row>
     <row r="40" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="237"/>
-      <c r="B40" s="238"/>
-      <c r="C40" s="244" t="s">
+      <c r="A40" s="263"/>
+      <c r="B40" s="264"/>
+      <c r="C40" s="267" t="s">
         <v>16</v>
       </c>
-      <c r="D40" s="245"/>
-      <c r="E40" s="246"/>
-      <c r="F40" s="244" t="s">
+      <c r="D40" s="268"/>
+      <c r="E40" s="269"/>
+      <c r="F40" s="267" t="s">
         <v>118</v>
       </c>
-      <c r="G40" s="246"/>
+      <c r="G40" s="269"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="38"/>
       <c r="B41" s="38"/>
       <c r="C41" s="38"/>
       <c r="D41" s="38"/>
-      <c r="E41" s="227"/>
-      <c r="F41" s="227"/>
-      <c r="G41" s="227"/>
+      <c r="E41" s="253"/>
+      <c r="F41" s="253"/>
+      <c r="G41" s="253"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="42" t="s">
@@ -5689,48 +6292,42 @@
       <c r="B42" s="40"/>
       <c r="C42" s="41"/>
       <c r="D42" s="38"/>
-      <c r="E42" s="228"/>
-      <c r="F42" s="228"/>
-      <c r="G42" s="228"/>
+      <c r="E42" s="254"/>
+      <c r="F42" s="254"/>
+      <c r="G42" s="254"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="229" t="s">
+      <c r="A44" s="255" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="229"/>
+      <c r="B44" s="255"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="229" t="s">
+      <c r="A45" s="255" t="s">
         <v>121</v>
       </c>
-      <c r="B45" s="229"/>
+      <c r="B45" s="255"/>
     </row>
   </sheetData>
   <mergeCells count="55">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G15:G21"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="C26:E26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="A39:B40"/>
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="C40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="A37:B37"/>
+    <mergeCell ref="C37:E37"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="C34:E34"/>
     <mergeCell ref="A28:B28"/>
@@ -5744,24 +6341,30 @@
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:E32"/>
     <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="G15:G21"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>

--- a/backend/templates/UC-16gsm-165W.xlsx
+++ b/backend/templates/UC-16gsm-165W.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F86F0CE-0D3F-4761-BBCC-54A404DF0060}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB56592-D266-4B5E-8364-CA161934F5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,6 +14,7 @@
     <sheet name="COA Form" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'COA Form'!$A$1:$G$39</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Page1!$A$1:$I$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Page2!$A$1:$I$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Page3!$A$1:$I$45</definedName>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="123">
   <si>
     <t>Sample No.</t>
   </si>
@@ -195,9 +196,6 @@
     <t>Unicharm</t>
   </si>
   <si>
-    <t>#02</t>
-  </si>
-  <si>
     <t xml:space="preserve">Production Date </t>
   </si>
   <si>
@@ -285,15 +283,9 @@
     <t>Tensile Break-CD</t>
   </si>
   <si>
-    <t>Elongation-MD</t>
-  </si>
-  <si>
     <t>%/25mm</t>
   </si>
   <si>
-    <t>Elongation-CD</t>
-  </si>
-  <si>
     <t>COF (R-R)</t>
   </si>
   <si>
@@ -324,9 +316,6 @@
     <t>Opacity</t>
   </si>
   <si>
-    <t>LSL-45, TGT-50, USL-55</t>
-  </si>
-  <si>
     <t>O</t>
   </si>
   <si>
@@ -355,12 +344,6 @@
   </si>
   <si>
     <t>Sensory</t>
-  </si>
-  <si>
-    <t>Colour Fading</t>
-  </si>
-  <si>
-    <t>No colour fade</t>
   </si>
   <si>
     <t>Pin Hole</t>
@@ -379,27 +362,6 @@
 Area &lt; 60 Sq. mm</t>
   </si>
   <si>
-    <t>Printing</t>
-  </si>
-  <si>
-    <t>Print Colour</t>
-  </si>
-  <si>
-    <t>Misprint</t>
-  </si>
-  <si>
-    <t>Printing dirty</t>
-  </si>
-  <si>
-    <t>No Dirty Print</t>
-  </si>
-  <si>
-    <t>Centralisation</t>
-  </si>
-  <si>
-    <t>≦ 5 mm from side to printing</t>
-  </si>
-  <si>
     <t>Remarks:</t>
   </si>
   <si>
@@ -460,31 +422,16 @@
     <t/>
   </si>
   <si>
-    <t>Siddesh Mainkar</t>
-  </si>
-  <si>
-    <r>
-      <t>5mmX5mm/m</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t xml:space="preserve">2 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>(Non-continuous)</t>
-    </r>
+    <t>N/25mm</t>
+  </si>
+  <si>
+    <t>Elongation Break-MD</t>
+  </si>
+  <si>
+    <t>Elongation Break-CD</t>
+  </si>
+  <si>
+    <t>LSL-42.0, TGT-48.0, USL-54.0</t>
   </si>
 </sst>
 </file>
@@ -494,7 +441,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -554,19 +501,6 @@
       <family val="1"/>
     </font>
     <font>
-      <vertAlign val="superscript"/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="10"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
@@ -1418,7 +1352,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="290">
+  <cellXfs count="283">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1587,7 +1521,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1647,10 +1581,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1910,6 +1840,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2159,178 +2096,154 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2467,6 +2380,82 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="2886075" y="5885793"/>
+          <a:ext cx="227242" cy="252633"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="1">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="27432" tIns="22860" rIns="0" bIns="22860" anchor="ctr" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="平成角ｺﾞｼｯｸ体W5"/>
+            </a:rPr>
+            <a:t>    </a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>104118</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="227242" cy="252633"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{954F928E-9E1C-48BE-B750-A5745AE84AD0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3190875" y="4685643"/>
           <a:ext cx="227242" cy="252633"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2815,7 +2804,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2829,31 +2818,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
       <c r="I1" s="57" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
       <c r="I2" s="58" t="s">
         <v>22</v>
       </c>
@@ -2875,8 +2864,8 @@
       <c r="A4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="152"/>
-      <c r="C4" s="153"/>
+      <c r="B4" s="153"/>
+      <c r="C4" s="154"/>
       <c r="D4" s="63" t="s">
         <v>3</v>
       </c>
@@ -2885,7 +2874,7 @@
         <v>4</v>
       </c>
       <c r="G4" s="37"/>
-      <c r="H4" s="289" t="s">
+      <c r="H4" s="148" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="64"/>
@@ -2897,8 +2886,8 @@
       <c r="A5" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="154"/>
-      <c r="C5" s="155"/>
+      <c r="B5" s="155"/>
+      <c r="C5" s="156"/>
       <c r="D5" s="66" t="s">
         <v>6</v>
       </c>
@@ -2913,46 +2902,46 @@
       <c r="I5" s="67"/>
     </row>
     <row r="6" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="165" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="166"/>
-      <c r="C6" s="167"/>
+      <c r="A6" s="166" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="167"/>
+      <c r="C6" s="168"/>
       <c r="D6" s="53"/>
       <c r="E6" s="54"/>
       <c r="F6" s="54"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="161"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="162"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="168" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="162"/>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162" t="s">
+      <c r="A7" s="169" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="163"/>
+      <c r="C7" s="163"/>
+      <c r="D7" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="156" t="s">
+      <c r="E7" s="157" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="156" t="s">
+      <c r="F7" s="157" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="162" t="s">
+      <c r="G7" s="163" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="162"/>
-      <c r="I7" s="163"/>
+      <c r="H7" s="163"/>
+      <c r="I7" s="164"/>
     </row>
     <row r="8" spans="1:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="169"/>
-      <c r="B8" s="170"/>
-      <c r="C8" s="170"/>
-      <c r="D8" s="170"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
+      <c r="A8" s="170"/>
+      <c r="B8" s="171"/>
+      <c r="C8" s="171"/>
+      <c r="D8" s="171"/>
+      <c r="E8" s="158"/>
+      <c r="F8" s="158"/>
       <c r="G8" s="68" t="s">
         <v>37</v>
       </c>
@@ -2970,340 +2959,340 @@
       <c r="D9" s="72"/>
       <c r="E9" s="73"/>
       <c r="F9" s="74"/>
-      <c r="G9" s="75"/>
+      <c r="G9" s="72"/>
       <c r="H9" s="73"/>
-      <c r="I9" s="76"/>
+      <c r="I9" s="75"/>
     </row>
     <row r="10" spans="1:11" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="81"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="81"/>
-      <c r="I10" s="84"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="77"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="79"/>
+      <c r="E10" s="80"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="79"/>
+      <c r="H10" s="80"/>
+      <c r="I10" s="83"/>
     </row>
     <row r="11" spans="1:11" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="80"/>
-      <c r="E11" s="81"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="83"/>
-      <c r="H11" s="81"/>
-      <c r="I11" s="84"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="77"/>
+      <c r="C11" s="84"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="80"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="79"/>
+      <c r="H11" s="80"/>
+      <c r="I11" s="83"/>
     </row>
     <row r="12" spans="1:11" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="85"/>
-      <c r="D12" s="80"/>
-      <c r="E12" s="81"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="81"/>
-      <c r="I12" s="84"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="77"/>
+      <c r="C12" s="84"/>
+      <c r="D12" s="79"/>
+      <c r="E12" s="80"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="79"/>
+      <c r="H12" s="80"/>
+      <c r="I12" s="83"/>
     </row>
     <row r="13" spans="1:11" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="85"/>
-      <c r="D13" s="80"/>
-      <c r="E13" s="81"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="83"/>
-      <c r="H13" s="81"/>
-      <c r="I13" s="84"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="84"/>
+      <c r="D13" s="79"/>
+      <c r="E13" s="80"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="79"/>
+      <c r="H13" s="80"/>
+      <c r="I13" s="83"/>
     </row>
     <row r="14" spans="1:11" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="86"/>
-      <c r="D14" s="80"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="83"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="84"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="77"/>
+      <c r="C14" s="85"/>
+      <c r="D14" s="79"/>
+      <c r="E14" s="80"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="79"/>
+      <c r="H14" s="80"/>
+      <c r="I14" s="83"/>
     </row>
     <row r="15" spans="1:11" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
-      <c r="B15" s="78"/>
-      <c r="C15" s="85"/>
-      <c r="D15" s="80"/>
-      <c r="E15" s="81"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="83"/>
-      <c r="H15" s="81"/>
-      <c r="I15" s="84"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="77"/>
+      <c r="C15" s="84"/>
+      <c r="D15" s="79"/>
+      <c r="E15" s="80"/>
+      <c r="F15" s="81"/>
+      <c r="G15" s="79"/>
+      <c r="H15" s="80"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="1:11" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
-      <c r="B16" s="78"/>
-      <c r="C16" s="85"/>
-      <c r="D16" s="80"/>
-      <c r="E16" s="81"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="81"/>
-      <c r="I16" s="84"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="77"/>
+      <c r="C16" s="84"/>
+      <c r="D16" s="79"/>
+      <c r="E16" s="80"/>
+      <c r="F16" s="81"/>
+      <c r="G16" s="79"/>
+      <c r="H16" s="80"/>
+      <c r="I16" s="83"/>
     </row>
     <row r="17" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
-      <c r="B17" s="78"/>
-      <c r="C17" s="85"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="81"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="83"/>
-      <c r="H17" s="81"/>
-      <c r="I17" s="84"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="77"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="81"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="83"/>
     </row>
     <row r="18" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="77"/>
-      <c r="B18" s="78"/>
-      <c r="C18" s="85"/>
-      <c r="D18" s="80"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="83"/>
-      <c r="H18" s="81"/>
-      <c r="I18" s="84"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="77"/>
+      <c r="C18" s="84"/>
+      <c r="D18" s="79"/>
+      <c r="E18" s="80"/>
+      <c r="F18" s="81"/>
+      <c r="G18" s="79"/>
+      <c r="H18" s="80"/>
+      <c r="I18" s="83"/>
     </row>
     <row r="19" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="77"/>
-      <c r="B19" s="78"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="80"/>
-      <c r="E19" s="81"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="83"/>
-      <c r="H19" s="81"/>
-      <c r="I19" s="84"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="77"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="79"/>
+      <c r="E19" s="80"/>
+      <c r="F19" s="81"/>
+      <c r="G19" s="79"/>
+      <c r="H19" s="80"/>
+      <c r="I19" s="83"/>
     </row>
     <row r="20" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
-      <c r="B20" s="78"/>
-      <c r="C20" s="86"/>
-      <c r="D20" s="80"/>
-      <c r="E20" s="81"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="83"/>
-      <c r="H20" s="81"/>
-      <c r="I20" s="84"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="85"/>
+      <c r="D20" s="79"/>
+      <c r="E20" s="80"/>
+      <c r="F20" s="81"/>
+      <c r="G20" s="79"/>
+      <c r="H20" s="80"/>
+      <c r="I20" s="83"/>
     </row>
     <row r="21" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77"/>
-      <c r="B21" s="78"/>
-      <c r="C21" s="87"/>
-      <c r="D21" s="80"/>
-      <c r="E21" s="81"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="83"/>
-      <c r="H21" s="81"/>
-      <c r="I21" s="84"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="77"/>
+      <c r="C21" s="86"/>
+      <c r="D21" s="79"/>
+      <c r="E21" s="80"/>
+      <c r="F21" s="81"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="80"/>
+      <c r="I21" s="83"/>
     </row>
     <row r="22" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="77"/>
-      <c r="B22" s="78"/>
-      <c r="C22" s="87"/>
-      <c r="D22" s="80"/>
-      <c r="E22" s="81"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="88"/>
-      <c r="H22" s="89"/>
-      <c r="I22" s="90"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="86"/>
+      <c r="D22" s="79"/>
+      <c r="E22" s="80"/>
+      <c r="F22" s="81"/>
+      <c r="G22" s="149"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="89"/>
     </row>
     <row r="23" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77"/>
-      <c r="B23" s="78"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="80"/>
-      <c r="E23" s="81"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="83"/>
-      <c r="H23" s="81"/>
-      <c r="I23" s="84"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="77"/>
+      <c r="C23" s="86"/>
+      <c r="D23" s="79"/>
+      <c r="E23" s="80"/>
+      <c r="F23" s="81"/>
+      <c r="G23" s="79"/>
+      <c r="H23" s="80"/>
+      <c r="I23" s="83"/>
     </row>
     <row r="24" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="87"/>
-      <c r="D24" s="80"/>
-      <c r="E24" s="81"/>
-      <c r="F24" s="82"/>
-      <c r="G24" s="83"/>
-      <c r="H24" s="81"/>
-      <c r="I24" s="84"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="86"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="81"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="80"/>
+      <c r="I24" s="83"/>
     </row>
     <row r="25" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
-      <c r="B25" s="78"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="80"/>
-      <c r="E25" s="81"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="83"/>
-      <c r="H25" s="81"/>
-      <c r="I25" s="84"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="79"/>
+      <c r="E25" s="80"/>
+      <c r="F25" s="81"/>
+      <c r="G25" s="79"/>
+      <c r="H25" s="80"/>
+      <c r="I25" s="83"/>
     </row>
     <row r="26" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="77"/>
-      <c r="B26" s="78"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="80"/>
-      <c r="E26" s="81"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="83"/>
-      <c r="H26" s="81"/>
-      <c r="I26" s="84"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="77"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="80"/>
+      <c r="F26" s="81"/>
+      <c r="G26" s="79"/>
+      <c r="H26" s="80"/>
+      <c r="I26" s="83"/>
     </row>
     <row r="27" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77"/>
-      <c r="B27" s="78"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="80"/>
-      <c r="E27" s="81"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="83"/>
-      <c r="H27" s="81"/>
-      <c r="I27" s="84"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="77"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="80"/>
+      <c r="F27" s="81"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="80"/>
+      <c r="I27" s="83"/>
     </row>
     <row r="28" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="77"/>
-      <c r="B28" s="78"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="80"/>
-      <c r="E28" s="81"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="83"/>
-      <c r="H28" s="81"/>
-      <c r="I28" s="84"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="77"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="79"/>
+      <c r="E28" s="80"/>
+      <c r="F28" s="81"/>
+      <c r="G28" s="79"/>
+      <c r="H28" s="80"/>
+      <c r="I28" s="83"/>
     </row>
     <row r="29" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77"/>
-      <c r="B29" s="78"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="80"/>
-      <c r="E29" s="81"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="83"/>
-      <c r="H29" s="81"/>
-      <c r="I29" s="84"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="77"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="79"/>
+      <c r="E29" s="80"/>
+      <c r="F29" s="81"/>
+      <c r="G29" s="79"/>
+      <c r="H29" s="80"/>
+      <c r="I29" s="83"/>
     </row>
     <row r="30" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
-      <c r="B30" s="78"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="80"/>
-      <c r="E30" s="81"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="83"/>
-      <c r="H30" s="81"/>
-      <c r="I30" s="84"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="77"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="79"/>
+      <c r="E30" s="80"/>
+      <c r="F30" s="81"/>
+      <c r="G30" s="79"/>
+      <c r="H30" s="80"/>
+      <c r="I30" s="83"/>
     </row>
     <row r="31" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="77"/>
-      <c r="B31" s="78"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="80"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="83"/>
-      <c r="H31" s="81"/>
-      <c r="I31" s="84"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="77"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="79"/>
+      <c r="E31" s="80"/>
+      <c r="F31" s="81"/>
+      <c r="G31" s="79"/>
+      <c r="H31" s="80"/>
+      <c r="I31" s="83"/>
     </row>
     <row r="32" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
-      <c r="B32" s="78"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="80"/>
-      <c r="E32" s="81"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="83"/>
-      <c r="H32" s="81"/>
-      <c r="I32" s="84"/>
+      <c r="A32" s="76"/>
+      <c r="B32" s="77"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="79"/>
+      <c r="E32" s="80"/>
+      <c r="F32" s="81"/>
+      <c r="G32" s="79"/>
+      <c r="H32" s="80"/>
+      <c r="I32" s="83"/>
     </row>
     <row r="33" spans="1:12" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="77"/>
-      <c r="B33" s="78"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="80"/>
-      <c r="E33" s="81"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="83"/>
-      <c r="H33" s="81"/>
-      <c r="I33" s="84"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="77"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="79"/>
+      <c r="E33" s="80"/>
+      <c r="F33" s="81"/>
+      <c r="G33" s="79"/>
+      <c r="H33" s="80"/>
+      <c r="I33" s="83"/>
     </row>
     <row r="34" spans="1:12" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
-      <c r="B34" s="78"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="80"/>
-      <c r="E34" s="81"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="83"/>
-      <c r="H34" s="81"/>
-      <c r="I34" s="84"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="77"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="79"/>
+      <c r="E34" s="80"/>
+      <c r="F34" s="81"/>
+      <c r="G34" s="79"/>
+      <c r="H34" s="80"/>
+      <c r="I34" s="83"/>
     </row>
     <row r="35" spans="1:12" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="77"/>
-      <c r="B35" s="78"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="80"/>
-      <c r="E35" s="91"/>
-      <c r="F35" s="80"/>
-      <c r="G35" s="83"/>
-      <c r="H35" s="91"/>
-      <c r="I35" s="84"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="77"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="90"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
+      <c r="H35" s="90"/>
+      <c r="I35" s="83"/>
     </row>
     <row r="36" spans="1:12" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="77"/>
-      <c r="B36" s="78"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="80"/>
-      <c r="E36" s="91"/>
-      <c r="F36" s="80"/>
-      <c r="G36" s="83"/>
-      <c r="H36" s="91"/>
-      <c r="I36" s="84"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="77"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="90"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="79"/>
+      <c r="H36" s="90"/>
+      <c r="I36" s="83"/>
     </row>
     <row r="37" spans="1:12" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="77"/>
-      <c r="B37" s="78"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="80"/>
-      <c r="E37" s="91"/>
-      <c r="F37" s="80"/>
-      <c r="G37" s="83"/>
-      <c r="H37" s="91"/>
-      <c r="I37" s="84"/>
+      <c r="A37" s="76"/>
+      <c r="B37" s="77"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="79"/>
+      <c r="E37" s="90"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="79"/>
+      <c r="H37" s="90"/>
+      <c r="I37" s="83"/>
     </row>
     <row r="38" spans="1:12" s="43" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="92"/>
-      <c r="B38" s="93"/>
-      <c r="C38" s="94"/>
-      <c r="D38" s="95"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="95"/>
-      <c r="G38" s="97"/>
-      <c r="H38" s="96"/>
-      <c r="I38" s="98"/>
+      <c r="A38" s="91"/>
+      <c r="B38" s="92"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="94"/>
+      <c r="E38" s="95"/>
+      <c r="F38" s="94"/>
+      <c r="G38" s="94"/>
+      <c r="H38" s="95"/>
+      <c r="I38" s="97"/>
     </row>
     <row r="39" spans="1:12" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="175" t="s">
+      <c r="A39" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="176"/>
-      <c r="C39" s="176"/>
+      <c r="B39" s="177"/>
+      <c r="C39" s="177"/>
       <c r="D39" s="19" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="99" t="e">
+      <c r="E39" s="98" t="e">
         <f t="shared" ref="E39:H39" si="0">AVERAGE(E9:E38)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3315,21 +3304,21 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="99" t="e">
+      <c r="H39" s="98" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="127" t="e">
+      <c r="I39" s="126" t="e">
         <f t="shared" ref="I39" si="1">AVERAGE(I9:I38)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="40" spans="1:12" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="173" t="s">
+      <c r="A40" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="174"/>
-      <c r="C40" s="174"/>
+      <c r="B40" s="175"/>
+      <c r="C40" s="175"/>
       <c r="D40" s="26">
         <f>MIN(D9:D38)</f>
         <v>0</v>
@@ -3350,38 +3339,38 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I40" s="129">
+      <c r="I40" s="128">
         <f t="shared" ref="I40" si="3">MIN(I9:I38)</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:12" s="43" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="171" t="s">
+      <c r="A41" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="172"/>
-      <c r="C41" s="172"/>
-      <c r="D41" s="100">
+      <c r="B41" s="173"/>
+      <c r="C41" s="173"/>
+      <c r="D41" s="99">
         <f>MAX(D9:D38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="101">
+      <c r="E41" s="100">
         <f t="shared" ref="E41:H41" si="4">MAX(E9:E38)</f>
         <v>0</v>
       </c>
-      <c r="F41" s="100">
+      <c r="F41" s="99">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G41" s="100">
+      <c r="G41" s="99">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H41" s="101">
+      <c r="H41" s="100">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I41" s="131">
+      <c r="I41" s="130">
         <f t="shared" ref="I41" si="5">MAX(I9:I38)</f>
         <v>0</v>
       </c>
@@ -3390,44 +3379,44 @@
       <c r="L41" s="44"/>
     </row>
     <row r="42" spans="1:12" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="102" t="s">
+      <c r="A42" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="150"/>
-      <c r="C42" s="150"/>
-      <c r="D42" s="102" t="s">
+      <c r="B42" s="151"/>
+      <c r="C42" s="151"/>
+      <c r="D42" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="103"/>
-      <c r="F42" s="104"/>
+      <c r="E42" s="102"/>
+      <c r="F42" s="103"/>
       <c r="G42" s="61" t="s">
         <v>17</v>
       </c>
       <c r="H42" s="59"/>
-      <c r="I42" s="105" t="s">
+      <c r="I42" s="104" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:12" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="106"/>
-      <c r="B43" s="151"/>
-      <c r="C43" s="151"/>
-      <c r="D43" s="102"/>
-      <c r="E43" s="103"/>
-      <c r="F43" s="104"/>
+      <c r="A43" s="105"/>
+      <c r="B43" s="152"/>
+      <c r="C43" s="152"/>
+      <c r="D43" s="101"/>
+      <c r="E43" s="102"/>
+      <c r="F43" s="103"/>
       <c r="G43" s="56"/>
       <c r="H43" s="59"/>
-      <c r="I43" s="105"/>
+      <c r="I43" s="104"/>
     </row>
     <row r="44" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="164" t="s">
+      <c r="A44" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="164"/>
-      <c r="C44" s="164"/>
-      <c r="D44" s="107"/>
-      <c r="E44" s="108" t="s">
-        <v>122</v>
+      <c r="B44" s="165"/>
+      <c r="C44" s="165"/>
+      <c r="D44" s="106"/>
+      <c r="E44" s="107" t="s">
+        <v>109</v>
       </c>
       <c r="F44" s="56">
         <v>461343000</v>
@@ -3437,19 +3426,19 @@
       <c r="I44" s="60"/>
     </row>
     <row r="45" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="164" t="s">
+      <c r="A45" s="165" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="164"/>
-      <c r="C45" s="164"/>
-      <c r="D45" s="107"/>
+      <c r="B45" s="165"/>
+      <c r="C45" s="165"/>
+      <c r="D45" s="106"/>
       <c r="E45" s="60"/>
       <c r="F45" s="60"/>
       <c r="G45" s="60"/>
-      <c r="H45" s="158" t="s">
+      <c r="H45" s="159" t="s">
         <v>26</v>
       </c>
-      <c r="I45" s="158"/>
+      <c r="I45" s="159"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
@@ -3537,31 +3526,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
       <c r="I1" s="57" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
       <c r="I2" s="58" t="s">
         <v>22</v>
       </c>
@@ -3586,11 +3575,11 @@
       <c r="A4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="152">
+      <c r="B4" s="153">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="153"/>
+      <c r="C4" s="154"/>
       <c r="D4" s="63" t="s">
         <v>3</v>
       </c>
@@ -3605,7 +3594,7 @@
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="289" t="s">
+      <c r="H4" s="148" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="64">
@@ -3617,626 +3606,626 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="43" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="177">
+      <c r="B5" s="178">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="178"/>
-      <c r="D5" s="110" t="s">
+      <c r="C5" s="179"/>
+      <c r="D5" s="109" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="30">
         <f>Page1!E5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="109" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="30">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="148" t="s">
+      <c r="H5" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="111">
+      <c r="I5" s="110">
         <f>Page1!I5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="50" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="185" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="187"/>
-      <c r="G6" s="112"/>
-      <c r="H6" s="113"/>
-      <c r="I6" s="114"/>
+      <c r="A6" s="186" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="187"/>
+      <c r="C6" s="187"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="188"/>
+      <c r="G6" s="111"/>
+      <c r="H6" s="112"/>
+      <c r="I6" s="113"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="195" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="196"/>
-      <c r="C7" s="183"/>
-      <c r="D7" s="188" t="s">
+      <c r="A7" s="196" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="197"/>
+      <c r="C7" s="184"/>
+      <c r="D7" s="189" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="189"/>
-      <c r="F7" s="190"/>
-      <c r="G7" s="199" t="s">
+      <c r="E7" s="190"/>
+      <c r="F7" s="191"/>
+      <c r="G7" s="200" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>123</v>
-      </c>
-      <c r="I7" s="193" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7" s="194" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="195"/>
-      <c r="B8" s="196"/>
-      <c r="C8" s="183"/>
-      <c r="D8" s="179" t="s">
+      <c r="A8" s="196"/>
+      <c r="B8" s="197"/>
+      <c r="C8" s="184"/>
+      <c r="D8" s="180" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="182" t="s">
+      <c r="E8" s="183" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="178" t="s">
+      <c r="F8" s="179" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="199"/>
+      <c r="G8" s="200"/>
       <c r="H8" s="49" t="s">
-        <v>124</v>
-      </c>
-      <c r="I8" s="193"/>
+        <v>111</v>
+      </c>
+      <c r="I8" s="194"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="195"/>
-      <c r="B9" s="196"/>
-      <c r="C9" s="183"/>
-      <c r="D9" s="180"/>
-      <c r="E9" s="182"/>
-      <c r="F9" s="183"/>
-      <c r="G9" s="199"/>
+      <c r="A9" s="196"/>
+      <c r="B9" s="197"/>
+      <c r="C9" s="184"/>
+      <c r="D9" s="181"/>
+      <c r="E9" s="183"/>
+      <c r="F9" s="184"/>
+      <c r="G9" s="200"/>
       <c r="H9" s="47" t="s">
-        <v>125</v>
-      </c>
-      <c r="I9" s="193"/>
+        <v>112</v>
+      </c>
+      <c r="I9" s="194"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="197"/>
-      <c r="B10" s="198"/>
-      <c r="C10" s="184"/>
-      <c r="D10" s="181"/>
-      <c r="E10" s="170"/>
-      <c r="F10" s="184"/>
-      <c r="G10" s="157"/>
+      <c r="A10" s="198"/>
+      <c r="B10" s="199"/>
+      <c r="C10" s="185"/>
+      <c r="D10" s="182"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="185"/>
+      <c r="G10" s="158"/>
       <c r="H10" s="48" t="s">
-        <v>126</v>
-      </c>
-      <c r="I10" s="194"/>
+        <v>113</v>
+      </c>
+      <c r="I10" s="195"/>
     </row>
     <row r="11" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="115"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="86"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="118"/>
-      <c r="F11" s="118"/>
-      <c r="G11" s="119"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="90"/>
+      <c r="A11" s="114"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="85"/>
+      <c r="D11" s="116"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="89"/>
     </row>
     <row r="12" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="120"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="121"/>
-      <c r="E12" s="91"/>
-      <c r="F12" s="91"/>
-      <c r="G12" s="122"/>
-      <c r="H12" s="91"/>
-      <c r="I12" s="84"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="120"/>
+      <c r="E12" s="90"/>
+      <c r="F12" s="90"/>
+      <c r="G12" s="121"/>
+      <c r="H12" s="90"/>
+      <c r="I12" s="83"/>
     </row>
     <row r="13" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
-      <c r="B13" s="120"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="121"/>
-      <c r="E13" s="91"/>
-      <c r="F13" s="91"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="91"/>
-      <c r="I13" s="84"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="120"/>
+      <c r="E13" s="90"/>
+      <c r="F13" s="90"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="90"/>
+      <c r="I13" s="83"/>
     </row>
     <row r="14" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
-      <c r="B14" s="120"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="121"/>
-      <c r="E14" s="91"/>
-      <c r="F14" s="91"/>
-      <c r="G14" s="122"/>
-      <c r="H14" s="91"/>
-      <c r="I14" s="84"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="120"/>
+      <c r="E14" s="90"/>
+      <c r="F14" s="90"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="90"/>
+      <c r="I14" s="83"/>
     </row>
     <row r="15" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
-      <c r="B15" s="120"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="121"/>
-      <c r="E15" s="91"/>
-      <c r="F15" s="91"/>
-      <c r="G15" s="122"/>
-      <c r="H15" s="91"/>
-      <c r="I15" s="84"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="120"/>
+      <c r="E15" s="90"/>
+      <c r="F15" s="90"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="90"/>
+      <c r="I15" s="83"/>
     </row>
     <row r="16" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="121"/>
-      <c r="E16" s="91"/>
-      <c r="F16" s="91"/>
-      <c r="G16" s="122"/>
-      <c r="H16" s="91"/>
-      <c r="I16" s="84"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="120"/>
+      <c r="E16" s="90"/>
+      <c r="F16" s="90"/>
+      <c r="G16" s="121"/>
+      <c r="H16" s="90"/>
+      <c r="I16" s="83"/>
     </row>
     <row r="17" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="121"/>
-      <c r="E17" s="91"/>
-      <c r="F17" s="91"/>
-      <c r="G17" s="122"/>
-      <c r="H17" s="91"/>
-      <c r="I17" s="84"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="90"/>
+      <c r="F17" s="90"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="90"/>
+      <c r="I17" s="83"/>
     </row>
     <row r="18" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="77"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="121"/>
-      <c r="E18" s="91"/>
-      <c r="F18" s="91"/>
-      <c r="G18" s="122"/>
-      <c r="H18" s="91"/>
-      <c r="I18" s="84"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="120"/>
+      <c r="E18" s="90"/>
+      <c r="F18" s="90"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="90"/>
+      <c r="I18" s="83"/>
     </row>
     <row r="19" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="77"/>
-      <c r="B19" s="120"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="121"/>
-      <c r="E19" s="91"/>
-      <c r="F19" s="91"/>
-      <c r="G19" s="122"/>
-      <c r="H19" s="91"/>
-      <c r="I19" s="84"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="120"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="90"/>
+      <c r="G19" s="121"/>
+      <c r="H19" s="90"/>
+      <c r="I19" s="83"/>
     </row>
     <row r="20" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="121"/>
-      <c r="E20" s="91"/>
-      <c r="F20" s="91"/>
-      <c r="G20" s="122"/>
-      <c r="H20" s="91"/>
-      <c r="I20" s="84"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="120"/>
+      <c r="E20" s="90"/>
+      <c r="F20" s="90"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="90"/>
+      <c r="I20" s="83"/>
     </row>
     <row r="21" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="121"/>
-      <c r="E21" s="91"/>
-      <c r="F21" s="91"/>
-      <c r="G21" s="122"/>
-      <c r="H21" s="91"/>
-      <c r="I21" s="84"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="120"/>
+      <c r="E21" s="90"/>
+      <c r="F21" s="90"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="90"/>
+      <c r="I21" s="83"/>
     </row>
     <row r="22" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="77"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="121"/>
-      <c r="E22" s="91"/>
-      <c r="F22" s="91"/>
-      <c r="G22" s="122"/>
-      <c r="H22" s="91"/>
-      <c r="I22" s="84"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="120"/>
+      <c r="E22" s="90"/>
+      <c r="F22" s="90"/>
+      <c r="G22" s="121"/>
+      <c r="H22" s="90"/>
+      <c r="I22" s="83"/>
     </row>
     <row r="23" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77"/>
-      <c r="B23" s="120"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="121"/>
-      <c r="E23" s="91"/>
-      <c r="F23" s="91"/>
-      <c r="G23" s="122"/>
-      <c r="H23" s="91"/>
-      <c r="I23" s="84"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="120"/>
+      <c r="E23" s="90"/>
+      <c r="F23" s="90"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="90"/>
+      <c r="I23" s="83"/>
     </row>
     <row r="24" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="77"/>
-      <c r="B24" s="120"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="121"/>
-      <c r="E24" s="91"/>
-      <c r="F24" s="91"/>
-      <c r="G24" s="122"/>
-      <c r="H24" s="91"/>
-      <c r="I24" s="84"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="120"/>
+      <c r="E24" s="90"/>
+      <c r="F24" s="90"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="90"/>
+      <c r="I24" s="83"/>
     </row>
     <row r="25" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
-      <c r="B25" s="120"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="117"/>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="122"/>
-      <c r="H25" s="91"/>
-      <c r="I25" s="90"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="116"/>
+      <c r="E25" s="117"/>
+      <c r="F25" s="117"/>
+      <c r="G25" s="121"/>
+      <c r="H25" s="90"/>
+      <c r="I25" s="89"/>
     </row>
     <row r="26" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="77"/>
-      <c r="B26" s="120"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="117"/>
-      <c r="E26" s="118"/>
-      <c r="F26" s="118"/>
-      <c r="G26" s="122"/>
-      <c r="H26" s="91"/>
-      <c r="I26" s="90"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="116"/>
+      <c r="E26" s="117"/>
+      <c r="F26" s="117"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="90"/>
+      <c r="I26" s="89"/>
     </row>
     <row r="27" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77"/>
-      <c r="B27" s="120"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="117"/>
-      <c r="E27" s="118"/>
-      <c r="F27" s="118"/>
-      <c r="G27" s="122"/>
-      <c r="H27" s="91"/>
-      <c r="I27" s="90"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="116"/>
+      <c r="E27" s="117"/>
+      <c r="F27" s="117"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="90"/>
+      <c r="I27" s="89"/>
     </row>
     <row r="28" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="77"/>
-      <c r="B28" s="120"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="117"/>
-      <c r="E28" s="118"/>
-      <c r="F28" s="118"/>
-      <c r="G28" s="122"/>
-      <c r="H28" s="91"/>
-      <c r="I28" s="90"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="116"/>
+      <c r="E28" s="117"/>
+      <c r="F28" s="117"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="90"/>
+      <c r="I28" s="89"/>
     </row>
     <row r="29" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77"/>
-      <c r="B29" s="120"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="117" t="s">
-        <v>131</v>
-      </c>
-      <c r="E29" s="118" t="s">
-        <v>131</v>
-      </c>
-      <c r="F29" s="118" t="s">
-        <v>131</v>
-      </c>
-      <c r="G29" s="122" t="s">
-        <v>131</v>
-      </c>
-      <c r="H29" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="I29" s="90" t="s">
-        <v>131</v>
+      <c r="A29" s="76"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="89" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
-      <c r="B30" s="120"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="117" t="s">
-        <v>131</v>
-      </c>
-      <c r="E30" s="118" t="s">
-        <v>131</v>
-      </c>
-      <c r="F30" s="118" t="s">
-        <v>131</v>
-      </c>
-      <c r="G30" s="122" t="s">
-        <v>131</v>
-      </c>
-      <c r="H30" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="I30" s="90" t="s">
-        <v>131</v>
+      <c r="A30" s="76"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="116" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" s="89" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="77"/>
-      <c r="B31" s="120"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="121" t="s">
-        <v>131</v>
-      </c>
-      <c r="E31" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="F31" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="G31" s="122" t="s">
-        <v>131</v>
-      </c>
-      <c r="H31" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="I31" s="84" t="s">
-        <v>131</v>
+      <c r="A31" s="76"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="120" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="I31" s="83" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
-      <c r="B32" s="120"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="121" t="s">
-        <v>131</v>
-      </c>
-      <c r="E32" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="F32" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="G32" s="122" t="s">
-        <v>131</v>
-      </c>
-      <c r="H32" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="I32" s="84" t="s">
-        <v>131</v>
+      <c r="A32" s="76"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="120" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="H32" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32" s="83" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="77"/>
-      <c r="B33" s="120"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="121" t="s">
-        <v>131</v>
-      </c>
-      <c r="E33" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="F33" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="G33" s="122" t="s">
-        <v>131</v>
-      </c>
-      <c r="H33" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="I33" s="84" t="s">
-        <v>131</v>
+      <c r="A33" s="76"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="120" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="I33" s="83" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
-      <c r="B34" s="120"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="121" t="s">
-        <v>131</v>
-      </c>
-      <c r="E34" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="F34" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="G34" s="122" t="s">
-        <v>131</v>
-      </c>
-      <c r="H34" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="I34" s="84" t="s">
-        <v>131</v>
+      <c r="A34" s="76"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="120" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="I34" s="83" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="77"/>
-      <c r="B35" s="120"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="121" t="s">
-        <v>131</v>
-      </c>
-      <c r="E35" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="F35" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="G35" s="122" t="s">
-        <v>131</v>
-      </c>
-      <c r="H35" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="I35" s="84" t="s">
-        <v>131</v>
+      <c r="A35" s="76"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="120" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="G35" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="H35" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="I35" s="83" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="77"/>
-      <c r="B36" s="120"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="121" t="s">
-        <v>131</v>
-      </c>
-      <c r="E36" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="F36" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="G36" s="122" t="s">
-        <v>131</v>
-      </c>
-      <c r="H36" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="I36" s="84" t="s">
-        <v>131</v>
+      <c r="A36" s="76"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="120" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="I36" s="83" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="77"/>
-      <c r="B37" s="120"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="121" t="s">
-        <v>131</v>
-      </c>
-      <c r="E37" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="F37" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="G37" s="122" t="s">
-        <v>131</v>
-      </c>
-      <c r="H37" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="I37" s="84" t="s">
-        <v>131</v>
+      <c r="A37" s="76"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="120" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="I37" s="83" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="77"/>
-      <c r="B38" s="120"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="121" t="s">
-        <v>131</v>
-      </c>
-      <c r="E38" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="F38" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="G38" s="122" t="s">
-        <v>131</v>
-      </c>
-      <c r="H38" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="I38" s="84" t="s">
-        <v>131</v>
+      <c r="A38" s="76"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="120" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="I38" s="83" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="77"/>
-      <c r="B39" s="120"/>
-      <c r="C39" s="79"/>
-      <c r="D39" s="121" t="s">
-        <v>131</v>
-      </c>
-      <c r="E39" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="F39" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="G39" s="122" t="s">
-        <v>131</v>
-      </c>
-      <c r="H39" s="91" t="s">
-        <v>131</v>
-      </c>
-      <c r="I39" s="84" t="s">
-        <v>131</v>
+      <c r="A39" s="76"/>
+      <c r="B39" s="119"/>
+      <c r="C39" s="78"/>
+      <c r="D39" s="120" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="H39" s="90" t="s">
+        <v>118</v>
+      </c>
+      <c r="I39" s="83" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="77"/>
-      <c r="B40" s="120"/>
-      <c r="C40" s="79"/>
-      <c r="D40" s="123" t="s">
-        <v>131</v>
-      </c>
-      <c r="E40" s="96" t="s">
-        <v>131</v>
-      </c>
-      <c r="F40" s="124" t="s">
-        <v>131</v>
-      </c>
-      <c r="G40" s="125" t="s">
-        <v>131</v>
-      </c>
-      <c r="H40" s="96" t="s">
-        <v>131</v>
-      </c>
-      <c r="I40" s="98" t="s">
-        <v>131</v>
+      <c r="A40" s="76"/>
+      <c r="B40" s="119"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="122" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" s="123" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" s="124" t="s">
+        <v>118</v>
+      </c>
+      <c r="H40" s="95" t="s">
+        <v>118</v>
+      </c>
+      <c r="I40" s="97" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="175" t="s">
+      <c r="A41" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="176"/>
-      <c r="C41" s="176"/>
+      <c r="B41" s="177"/>
+      <c r="C41" s="177"/>
       <c r="D41" s="19" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="99" t="e">
+      <c r="E41" s="98" t="e">
         <f t="shared" ref="E41:I41" si="0">AVERAGE(E11:E40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F41" s="99" t="e">
+      <c r="F41" s="98" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="126" t="e">
+      <c r="G41" s="125" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="99" t="e">
+      <c r="H41" s="98" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="127" t="e">
+      <c r="I41" s="126" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="173" t="s">
+      <c r="A42" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="174"/>
-      <c r="C42" s="174"/>
+      <c r="B42" s="175"/>
+      <c r="C42" s="175"/>
       <c r="D42" s="26">
         <f>MIN(D11:D40)</f>
         <v>0</v>
@@ -4249,7 +4238,7 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G42" s="128">
+      <c r="G42" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4257,116 +4246,116 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I42" s="129">
+      <c r="I42" s="128">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="171" t="s">
+      <c r="A43" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="172"/>
-      <c r="C43" s="172"/>
-      <c r="D43" s="100">
+      <c r="B43" s="173"/>
+      <c r="C43" s="173"/>
+      <c r="D43" s="99">
         <f>MAX(D11:D40)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="101">
+      <c r="E43" s="100">
         <f t="shared" ref="E43:I43" si="2">MAX(E11:E40)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="101">
+      <c r="F43" s="100">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G43" s="130">
+      <c r="G43" s="129">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H43" s="101">
+      <c r="H43" s="100">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I43" s="131">
+      <c r="I43" s="130">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="132" t="s">
+      <c r="A44" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="150">
+      <c r="B44" s="151">
         <f>Page1!B42</f>
         <v>0</v>
       </c>
-      <c r="C44" s="200"/>
-      <c r="D44" s="132" t="s">
+      <c r="C44" s="201"/>
+      <c r="D44" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="132"/>
-      <c r="F44" s="133"/>
-      <c r="G44" s="133" t="s">
+      <c r="E44" s="131"/>
+      <c r="F44" s="132"/>
+      <c r="G44" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="H44" s="134">
+      <c r="H44" s="133">
         <f>Page1!H42</f>
         <v>0</v>
       </c>
-      <c r="I44" s="135" t="s">
+      <c r="I44" s="134" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="136"/>
-      <c r="B45" s="151">
+      <c r="A45" s="135"/>
+      <c r="B45" s="152">
         <f>Page1!B43</f>
         <v>0</v>
       </c>
-      <c r="C45" s="201"/>
-      <c r="D45" s="132"/>
-      <c r="E45" s="132"/>
-      <c r="F45" s="133"/>
-      <c r="G45" s="136"/>
-      <c r="H45" s="134">
+      <c r="C45" s="202"/>
+      <c r="D45" s="131"/>
+      <c r="E45" s="131"/>
+      <c r="F45" s="132"/>
+      <c r="G45" s="135"/>
+      <c r="H45" s="133">
         <f>Page1!H43</f>
         <v>0</v>
       </c>
-      <c r="I45" s="135"/>
+      <c r="I45" s="134"/>
     </row>
     <row r="46" spans="1:9" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="191" t="s">
+      <c r="A46" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="191"/>
-      <c r="C46" s="191"/>
-      <c r="D46" s="137"/>
-      <c r="E46" s="138" t="s">
-        <v>122</v>
-      </c>
-      <c r="F46" s="136">
+      <c r="B46" s="192"/>
+      <c r="C46" s="192"/>
+      <c r="D46" s="136"/>
+      <c r="E46" s="137" t="s">
+        <v>109</v>
+      </c>
+      <c r="F46" s="135">
         <f>Page1!F44</f>
         <v>461343000</v>
       </c>
-      <c r="G46" s="137"/>
-      <c r="H46" s="137"/>
-      <c r="I46" s="137"/>
+      <c r="G46" s="136"/>
+      <c r="H46" s="136"/>
+      <c r="I46" s="136"/>
     </row>
     <row r="47" spans="1:9" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="191" t="s">
+      <c r="A47" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="191"/>
-      <c r="C47" s="191"/>
-      <c r="D47" s="137"/>
-      <c r="E47" s="137"/>
-      <c r="F47" s="137"/>
-      <c r="G47" s="137"/>
-      <c r="H47" s="192" t="s">
+      <c r="B47" s="192"/>
+      <c r="C47" s="192"/>
+      <c r="D47" s="136"/>
+      <c r="E47" s="136"/>
+      <c r="F47" s="136"/>
+      <c r="G47" s="136"/>
+      <c r="H47" s="193" t="s">
         <v>27</v>
       </c>
-      <c r="I47" s="192"/>
+      <c r="I47" s="193"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -4450,31 +4439,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="149" t="s">
+      <c r="A1" s="150" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="149"/>
-      <c r="C1" s="149"/>
-      <c r="D1" s="149"/>
-      <c r="E1" s="149"/>
-      <c r="F1" s="149"/>
-      <c r="G1" s="149"/>
-      <c r="H1" s="149"/>
+      <c r="B1" s="150"/>
+      <c r="C1" s="150"/>
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
       <c r="I1" s="57" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="149" t="s">
+      <c r="A2" s="150" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="149"/>
-      <c r="C2" s="149"/>
-      <c r="D2" s="149"/>
-      <c r="E2" s="149"/>
-      <c r="F2" s="149"/>
-      <c r="G2" s="149"/>
-      <c r="H2" s="149"/>
+      <c r="B2" s="150"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
       <c r="I2" s="58" t="s">
         <v>22</v>
       </c>
@@ -4499,11 +4488,11 @@
       <c r="A4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="152">
+      <c r="B4" s="153">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="153"/>
+      <c r="C4" s="154"/>
       <c r="D4" s="63" t="s">
         <v>3</v>
       </c>
@@ -4518,7 +4507,7 @@
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="289" t="s">
+      <c r="H4" s="148" t="s">
         <v>5</v>
       </c>
       <c r="I4" s="64">
@@ -4530,560 +4519,560 @@
       </c>
     </row>
     <row r="5" spans="1:11" s="43" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="109" t="s">
+      <c r="A5" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="177">
+      <c r="B5" s="178">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="178"/>
-      <c r="D5" s="110" t="s">
+      <c r="C5" s="179"/>
+      <c r="D5" s="109" t="s">
         <v>6</v>
       </c>
       <c r="E5" s="30">
         <f>Page1!E5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="110" t="s">
+      <c r="F5" s="109" t="s">
         <v>7</v>
       </c>
       <c r="G5" s="30">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="148" t="s">
+      <c r="H5" s="147" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="111">
+      <c r="I5" s="110">
         <f>Page1!I5</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:11" s="50" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="185" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6" s="186"/>
-      <c r="C6" s="159"/>
-      <c r="D6" s="202"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="161"/>
-      <c r="H6" s="203"/>
-      <c r="I6" s="204"/>
+      <c r="A6" s="186" t="s">
+        <v>108</v>
+      </c>
+      <c r="B6" s="187"/>
+      <c r="C6" s="160"/>
+      <c r="D6" s="203"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="204"/>
+      <c r="I6" s="205"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="208" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="203"/>
-      <c r="C7" s="203"/>
-      <c r="D7" s="209" t="s">
-        <v>127</v>
-      </c>
-      <c r="E7" s="211" t="s">
-        <v>128</v>
-      </c>
-      <c r="F7" s="211" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="213" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" s="205"/>
-      <c r="I7" s="206"/>
+      <c r="A7" s="209" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="204"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="210" t="s">
+        <v>114</v>
+      </c>
+      <c r="E7" s="212" t="s">
+        <v>115</v>
+      </c>
+      <c r="F7" s="212" t="s">
+        <v>116</v>
+      </c>
+      <c r="G7" s="214" t="s">
+        <v>117</v>
+      </c>
+      <c r="H7" s="206"/>
+      <c r="I7" s="207"/>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="197"/>
-      <c r="B8" s="198"/>
-      <c r="C8" s="198"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="212"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="214"/>
-      <c r="H8" s="205"/>
-      <c r="I8" s="206"/>
+      <c r="A8" s="198"/>
+      <c r="B8" s="199"/>
+      <c r="C8" s="199"/>
+      <c r="D8" s="211"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="215"/>
+      <c r="H8" s="206"/>
+      <c r="I8" s="207"/>
     </row>
     <row r="9" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="115"/>
-      <c r="B9" s="116"/>
-      <c r="C9" s="86"/>
-      <c r="D9" s="139"/>
-      <c r="E9" s="88"/>
-      <c r="F9" s="88"/>
-      <c r="G9" s="140"/>
-      <c r="H9" s="205"/>
-      <c r="I9" s="206"/>
+      <c r="A9" s="114"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="85"/>
+      <c r="D9" s="138"/>
+      <c r="E9" s="87"/>
+      <c r="F9" s="87"/>
+      <c r="G9" s="139"/>
+      <c r="H9" s="206"/>
+      <c r="I9" s="207"/>
     </row>
     <row r="10" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="77"/>
-      <c r="B10" s="120"/>
-      <c r="C10" s="79"/>
-      <c r="D10" s="141"/>
-      <c r="E10" s="83"/>
-      <c r="F10" s="83"/>
-      <c r="G10" s="142"/>
-      <c r="H10" s="205"/>
-      <c r="I10" s="206"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="119"/>
+      <c r="C10" s="78"/>
+      <c r="D10" s="140"/>
+      <c r="E10" s="82"/>
+      <c r="F10" s="82"/>
+      <c r="G10" s="141"/>
+      <c r="H10" s="206"/>
+      <c r="I10" s="207"/>
     </row>
     <row r="11" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="77"/>
-      <c r="B11" s="120"/>
-      <c r="C11" s="79"/>
-      <c r="D11" s="141"/>
-      <c r="E11" s="83"/>
-      <c r="F11" s="83"/>
-      <c r="G11" s="142"/>
-      <c r="H11" s="205"/>
-      <c r="I11" s="206"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="119"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="140"/>
+      <c r="E11" s="82"/>
+      <c r="F11" s="82"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="206"/>
+      <c r="I11" s="207"/>
     </row>
     <row r="12" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="77"/>
-      <c r="B12" s="120"/>
-      <c r="C12" s="79"/>
-      <c r="D12" s="141"/>
-      <c r="E12" s="83"/>
-      <c r="F12" s="83"/>
-      <c r="G12" s="142"/>
-      <c r="H12" s="205"/>
-      <c r="I12" s="206"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="119"/>
+      <c r="C12" s="78"/>
+      <c r="D12" s="140"/>
+      <c r="E12" s="82"/>
+      <c r="F12" s="82"/>
+      <c r="G12" s="141"/>
+      <c r="H12" s="206"/>
+      <c r="I12" s="207"/>
     </row>
     <row r="13" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="77"/>
-      <c r="B13" s="120"/>
-      <c r="C13" s="79"/>
-      <c r="D13" s="141"/>
-      <c r="E13" s="83"/>
-      <c r="F13" s="83"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="205"/>
-      <c r="I13" s="206"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="119"/>
+      <c r="C13" s="78"/>
+      <c r="D13" s="140"/>
+      <c r="E13" s="82"/>
+      <c r="F13" s="82"/>
+      <c r="G13" s="141"/>
+      <c r="H13" s="206"/>
+      <c r="I13" s="207"/>
     </row>
     <row r="14" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="77"/>
-      <c r="B14" s="120"/>
-      <c r="C14" s="79"/>
-      <c r="D14" s="141"/>
-      <c r="E14" s="83"/>
-      <c r="F14" s="83"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="205"/>
-      <c r="I14" s="206"/>
+      <c r="A14" s="76"/>
+      <c r="B14" s="119"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="140"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="141"/>
+      <c r="H14" s="206"/>
+      <c r="I14" s="207"/>
     </row>
     <row r="15" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="77"/>
-      <c r="B15" s="120"/>
-      <c r="C15" s="79"/>
-      <c r="D15" s="141"/>
-      <c r="E15" s="83"/>
-      <c r="F15" s="83"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="205"/>
-      <c r="I15" s="206"/>
+      <c r="A15" s="76"/>
+      <c r="B15" s="119"/>
+      <c r="C15" s="78"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="82"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="141"/>
+      <c r="H15" s="206"/>
+      <c r="I15" s="207"/>
     </row>
     <row r="16" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="77"/>
-      <c r="B16" s="120"/>
-      <c r="C16" s="79"/>
-      <c r="D16" s="141"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="142"/>
-      <c r="H16" s="205"/>
-      <c r="I16" s="206"/>
+      <c r="A16" s="76"/>
+      <c r="B16" s="119"/>
+      <c r="C16" s="78"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="82"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="141"/>
+      <c r="H16" s="206"/>
+      <c r="I16" s="207"/>
     </row>
     <row r="17" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="77"/>
-      <c r="B17" s="120"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="141"/>
-      <c r="E17" s="83"/>
-      <c r="F17" s="83"/>
-      <c r="G17" s="142"/>
-      <c r="H17" s="205"/>
-      <c r="I17" s="206"/>
+      <c r="A17" s="76"/>
+      <c r="B17" s="119"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="140"/>
+      <c r="E17" s="82"/>
+      <c r="F17" s="82"/>
+      <c r="G17" s="141"/>
+      <c r="H17" s="206"/>
+      <c r="I17" s="207"/>
     </row>
     <row r="18" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="77"/>
-      <c r="B18" s="120"/>
-      <c r="C18" s="79"/>
-      <c r="D18" s="141"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="142"/>
-      <c r="H18" s="205"/>
-      <c r="I18" s="206"/>
+      <c r="A18" s="76"/>
+      <c r="B18" s="119"/>
+      <c r="C18" s="78"/>
+      <c r="D18" s="140"/>
+      <c r="E18" s="82"/>
+      <c r="F18" s="82"/>
+      <c r="G18" s="141"/>
+      <c r="H18" s="206"/>
+      <c r="I18" s="207"/>
     </row>
     <row r="19" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="77"/>
-      <c r="B19" s="120"/>
-      <c r="C19" s="79"/>
-      <c r="D19" s="141"/>
-      <c r="E19" s="83"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="142"/>
-      <c r="H19" s="205"/>
-      <c r="I19" s="206"/>
+      <c r="A19" s="76"/>
+      <c r="B19" s="119"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="82"/>
+      <c r="F19" s="82"/>
+      <c r="G19" s="141"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="207"/>
     </row>
     <row r="20" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="77"/>
-      <c r="B20" s="120"/>
-      <c r="C20" s="79"/>
-      <c r="D20" s="141"/>
-      <c r="E20" s="83"/>
-      <c r="F20" s="83"/>
-      <c r="G20" s="142"/>
-      <c r="H20" s="205"/>
-      <c r="I20" s="206"/>
+      <c r="A20" s="76"/>
+      <c r="B20" s="119"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="141"/>
+      <c r="H20" s="206"/>
+      <c r="I20" s="207"/>
     </row>
     <row r="21" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="77"/>
-      <c r="B21" s="120"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="141"/>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="142"/>
-      <c r="H21" s="205"/>
-      <c r="I21" s="206"/>
+      <c r="A21" s="76"/>
+      <c r="B21" s="119"/>
+      <c r="C21" s="78"/>
+      <c r="D21" s="140"/>
+      <c r="E21" s="82"/>
+      <c r="F21" s="82"/>
+      <c r="G21" s="141"/>
+      <c r="H21" s="206"/>
+      <c r="I21" s="207"/>
     </row>
     <row r="22" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="77"/>
-      <c r="B22" s="120"/>
-      <c r="C22" s="79"/>
-      <c r="D22" s="141"/>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="142"/>
-      <c r="H22" s="205"/>
-      <c r="I22" s="206"/>
+      <c r="A22" s="76"/>
+      <c r="B22" s="119"/>
+      <c r="C22" s="78"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="206"/>
+      <c r="I22" s="207"/>
     </row>
     <row r="23" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="77"/>
-      <c r="B23" s="120"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="142"/>
-      <c r="H23" s="205"/>
-      <c r="I23" s="206"/>
+      <c r="A23" s="76"/>
+      <c r="B23" s="119"/>
+      <c r="C23" s="78"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="82"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="206"/>
+      <c r="I23" s="207"/>
     </row>
     <row r="24" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="77"/>
-      <c r="B24" s="120"/>
-      <c r="C24" s="79"/>
-      <c r="D24" s="139"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="88"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="205"/>
-      <c r="I24" s="206"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="119"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="138"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="139"/>
+      <c r="H24" s="206"/>
+      <c r="I24" s="207"/>
     </row>
     <row r="25" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="77"/>
-      <c r="B25" s="120"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="141"/>
-      <c r="E25" s="83"/>
-      <c r="F25" s="83"/>
-      <c r="G25" s="142"/>
-      <c r="H25" s="205"/>
-      <c r="I25" s="206"/>
+      <c r="A25" s="76"/>
+      <c r="B25" s="119"/>
+      <c r="C25" s="78"/>
+      <c r="D25" s="140"/>
+      <c r="E25" s="82"/>
+      <c r="F25" s="82"/>
+      <c r="G25" s="141"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="207"/>
     </row>
     <row r="26" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="77"/>
-      <c r="B26" s="120"/>
-      <c r="C26" s="79"/>
-      <c r="D26" s="141"/>
-      <c r="E26" s="83"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="142"/>
-      <c r="H26" s="205"/>
-      <c r="I26" s="206"/>
+      <c r="A26" s="76"/>
+      <c r="B26" s="119"/>
+      <c r="C26" s="78"/>
+      <c r="D26" s="140"/>
+      <c r="E26" s="82"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="141"/>
+      <c r="H26" s="206"/>
+      <c r="I26" s="207"/>
     </row>
     <row r="27" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="77"/>
-      <c r="B27" s="120"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="141"/>
-      <c r="E27" s="83"/>
-      <c r="F27" s="83"/>
-      <c r="G27" s="142"/>
-      <c r="H27" s="205"/>
-      <c r="I27" s="206"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="140"/>
+      <c r="E27" s="82"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="141"/>
+      <c r="H27" s="206"/>
+      <c r="I27" s="207"/>
     </row>
     <row r="28" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="77"/>
-      <c r="B28" s="120"/>
-      <c r="C28" s="79"/>
-      <c r="D28" s="141"/>
-      <c r="E28" s="83"/>
-      <c r="F28" s="83"/>
-      <c r="G28" s="142"/>
-      <c r="H28" s="205"/>
-      <c r="I28" s="206"/>
+      <c r="A28" s="76"/>
+      <c r="B28" s="119"/>
+      <c r="C28" s="78"/>
+      <c r="D28" s="140"/>
+      <c r="E28" s="82"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="141"/>
+      <c r="H28" s="206"/>
+      <c r="I28" s="207"/>
     </row>
     <row r="29" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77"/>
-      <c r="B29" s="120"/>
-      <c r="C29" s="79"/>
-      <c r="D29" s="141"/>
-      <c r="E29" s="83"/>
-      <c r="F29" s="83"/>
-      <c r="G29" s="142"/>
-      <c r="H29" s="205"/>
-      <c r="I29" s="206"/>
+      <c r="A29" s="76"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="78"/>
+      <c r="D29" s="140"/>
+      <c r="E29" s="82"/>
+      <c r="F29" s="82"/>
+      <c r="G29" s="141"/>
+      <c r="H29" s="206"/>
+      <c r="I29" s="207"/>
     </row>
     <row r="30" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
-      <c r="B30" s="120"/>
-      <c r="C30" s="79"/>
-      <c r="D30" s="141"/>
-      <c r="E30" s="83"/>
-      <c r="F30" s="83"/>
-      <c r="G30" s="142"/>
-      <c r="H30" s="205"/>
-      <c r="I30" s="206"/>
+      <c r="A30" s="76"/>
+      <c r="B30" s="119"/>
+      <c r="C30" s="78"/>
+      <c r="D30" s="140"/>
+      <c r="E30" s="82"/>
+      <c r="F30" s="82"/>
+      <c r="G30" s="141"/>
+      <c r="H30" s="206"/>
+      <c r="I30" s="207"/>
     </row>
     <row r="31" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="77"/>
-      <c r="B31" s="120"/>
-      <c r="C31" s="79"/>
-      <c r="D31" s="141"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
-      <c r="G31" s="142"/>
-      <c r="H31" s="205"/>
-      <c r="I31" s="206"/>
+      <c r="A31" s="76"/>
+      <c r="B31" s="119"/>
+      <c r="C31" s="78"/>
+      <c r="D31" s="140"/>
+      <c r="E31" s="82"/>
+      <c r="F31" s="82"/>
+      <c r="G31" s="141"/>
+      <c r="H31" s="206"/>
+      <c r="I31" s="207"/>
     </row>
     <row r="32" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
-      <c r="B32" s="120"/>
-      <c r="C32" s="79"/>
-      <c r="D32" s="141"/>
-      <c r="E32" s="83"/>
-      <c r="F32" s="83"/>
-      <c r="G32" s="142"/>
-      <c r="H32" s="205"/>
-      <c r="I32" s="206"/>
+      <c r="A32" s="76"/>
+      <c r="B32" s="119"/>
+      <c r="C32" s="78"/>
+      <c r="D32" s="140"/>
+      <c r="E32" s="82"/>
+      <c r="F32" s="82"/>
+      <c r="G32" s="141"/>
+      <c r="H32" s="206"/>
+      <c r="I32" s="207"/>
     </row>
     <row r="33" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="77"/>
-      <c r="B33" s="120"/>
-      <c r="C33" s="79"/>
-      <c r="D33" s="141"/>
-      <c r="E33" s="83"/>
-      <c r="F33" s="83"/>
-      <c r="G33" s="142"/>
-      <c r="H33" s="205"/>
-      <c r="I33" s="206"/>
+      <c r="A33" s="76"/>
+      <c r="B33" s="119"/>
+      <c r="C33" s="78"/>
+      <c r="D33" s="140"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="141"/>
+      <c r="H33" s="206"/>
+      <c r="I33" s="207"/>
     </row>
     <row r="34" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
-      <c r="B34" s="120"/>
-      <c r="C34" s="79"/>
-      <c r="D34" s="141"/>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="142"/>
-      <c r="H34" s="205"/>
-      <c r="I34" s="206"/>
+      <c r="A34" s="76"/>
+      <c r="B34" s="119"/>
+      <c r="C34" s="78"/>
+      <c r="D34" s="140"/>
+      <c r="E34" s="82"/>
+      <c r="F34" s="82"/>
+      <c r="G34" s="141"/>
+      <c r="H34" s="206"/>
+      <c r="I34" s="207"/>
     </row>
     <row r="35" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="77"/>
-      <c r="B35" s="120"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="141"/>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="142"/>
-      <c r="H35" s="205"/>
-      <c r="I35" s="206"/>
+      <c r="A35" s="76"/>
+      <c r="B35" s="119"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="140"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="141"/>
+      <c r="H35" s="206"/>
+      <c r="I35" s="207"/>
     </row>
     <row r="36" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="77"/>
-      <c r="B36" s="120"/>
-      <c r="C36" s="79"/>
-      <c r="D36" s="141"/>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="142"/>
-      <c r="H36" s="205"/>
-      <c r="I36" s="206"/>
+      <c r="A36" s="76"/>
+      <c r="B36" s="119"/>
+      <c r="C36" s="78"/>
+      <c r="D36" s="140"/>
+      <c r="E36" s="82"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="141"/>
+      <c r="H36" s="206"/>
+      <c r="I36" s="207"/>
     </row>
     <row r="37" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="77"/>
-      <c r="B37" s="120"/>
-      <c r="C37" s="79"/>
-      <c r="D37" s="141"/>
-      <c r="E37" s="83"/>
-      <c r="F37" s="83"/>
-      <c r="G37" s="142"/>
-      <c r="H37" s="205"/>
-      <c r="I37" s="206"/>
+      <c r="A37" s="76"/>
+      <c r="B37" s="119"/>
+      <c r="C37" s="78"/>
+      <c r="D37" s="140"/>
+      <c r="E37" s="82"/>
+      <c r="F37" s="82"/>
+      <c r="G37" s="141"/>
+      <c r="H37" s="206"/>
+      <c r="I37" s="207"/>
     </row>
     <row r="38" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="77"/>
-      <c r="B38" s="120"/>
-      <c r="C38" s="79"/>
-      <c r="D38" s="143"/>
-      <c r="E38" s="97"/>
-      <c r="F38" s="97"/>
-      <c r="G38" s="144"/>
-      <c r="H38" s="205"/>
-      <c r="I38" s="206"/>
+      <c r="A38" s="76"/>
+      <c r="B38" s="119"/>
+      <c r="C38" s="78"/>
+      <c r="D38" s="142"/>
+      <c r="E38" s="96"/>
+      <c r="F38" s="96"/>
+      <c r="G38" s="143"/>
+      <c r="H38" s="206"/>
+      <c r="I38" s="207"/>
     </row>
     <row r="39" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="175" t="s">
+      <c r="A39" s="176" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="176"/>
-      <c r="C39" s="176"/>
-      <c r="D39" s="126" t="e">
+      <c r="B39" s="177"/>
+      <c r="C39" s="177"/>
+      <c r="D39" s="125" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="126" t="e">
+      <c r="E39" s="125" t="e">
         <f t="shared" ref="E39:G39" si="0">AVERAGE(E9:E38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F39" s="126" t="e">
+      <c r="F39" s="125" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="145" t="e">
+      <c r="G39" s="144" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="205"/>
-      <c r="I39" s="206"/>
+      <c r="H39" s="206"/>
+      <c r="I39" s="207"/>
     </row>
     <row r="40" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="173" t="s">
+      <c r="A40" s="174" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="174"/>
-      <c r="C40" s="174"/>
-      <c r="D40" s="128">
+      <c r="B40" s="175"/>
+      <c r="C40" s="175"/>
+      <c r="D40" s="127">
         <f>MIN(D9:D38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="128">
+      <c r="E40" s="127">
         <f t="shared" ref="E40:G40" si="1">MIN(E9:E38)</f>
         <v>0</v>
       </c>
-      <c r="F40" s="128">
+      <c r="F40" s="127">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G40" s="146">
+      <c r="G40" s="145">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="205"/>
-      <c r="I40" s="206"/>
+      <c r="H40" s="206"/>
+      <c r="I40" s="207"/>
     </row>
     <row r="41" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="171" t="s">
+      <c r="A41" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="172"/>
-      <c r="C41" s="172"/>
-      <c r="D41" s="130">
+      <c r="B41" s="173"/>
+      <c r="C41" s="173"/>
+      <c r="D41" s="129">
         <f>MAX(D9:D38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="130">
+      <c r="E41" s="129">
         <f t="shared" ref="E41:G41" si="2">MAX(E9:E38)</f>
         <v>0</v>
       </c>
-      <c r="F41" s="130">
+      <c r="F41" s="129">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G41" s="147">
+      <c r="G41" s="146">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H41" s="198"/>
-      <c r="I41" s="207"/>
+      <c r="H41" s="199"/>
+      <c r="I41" s="208"/>
     </row>
     <row r="42" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="132" t="s">
+      <c r="A42" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="150">
+      <c r="B42" s="151">
         <f>Page1!B42</f>
         <v>0</v>
       </c>
-      <c r="C42" s="200"/>
-      <c r="D42" s="132" t="s">
+      <c r="C42" s="201"/>
+      <c r="D42" s="131" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="132"/>
-      <c r="F42" s="133"/>
-      <c r="G42" s="133" t="s">
+      <c r="E42" s="131"/>
+      <c r="F42" s="132"/>
+      <c r="G42" s="132" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="134">
+      <c r="H42" s="133">
         <f>Page1!H42</f>
         <v>0</v>
       </c>
-      <c r="I42" s="135" t="s">
+      <c r="I42" s="134" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="136"/>
-      <c r="B43" s="151">
+      <c r="A43" s="135"/>
+      <c r="B43" s="152">
         <f>Page1!B43</f>
         <v>0</v>
       </c>
-      <c r="C43" s="201"/>
-      <c r="D43" s="132"/>
-      <c r="E43" s="132"/>
-      <c r="F43" s="133"/>
-      <c r="G43" s="136"/>
-      <c r="H43" s="134">
+      <c r="C43" s="202"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="131"/>
+      <c r="F43" s="132"/>
+      <c r="G43" s="135"/>
+      <c r="H43" s="133">
         <f>Page1!H43</f>
         <v>0</v>
       </c>
-      <c r="I43" s="135"/>
+      <c r="I43" s="134"/>
     </row>
     <row r="44" spans="1:9" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="191" t="s">
+      <c r="A44" s="192" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="191"/>
-      <c r="C44" s="191"/>
-      <c r="D44" s="137"/>
-      <c r="E44" s="138" t="s">
-        <v>122</v>
-      </c>
-      <c r="F44" s="136">
+      <c r="B44" s="192"/>
+      <c r="C44" s="192"/>
+      <c r="D44" s="136"/>
+      <c r="E44" s="137" t="s">
+        <v>109</v>
+      </c>
+      <c r="F44" s="135">
         <f>Page1!F44</f>
         <v>461343000</v>
       </c>
-      <c r="G44" s="137"/>
-      <c r="H44" s="137"/>
-      <c r="I44" s="137"/>
+      <c r="G44" s="136"/>
+      <c r="H44" s="136"/>
+      <c r="I44" s="136"/>
     </row>
     <row r="45" spans="1:9" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="191" t="s">
+      <c r="A45" s="192" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="191"/>
-      <c r="C45" s="191"/>
-      <c r="D45" s="137"/>
-      <c r="E45" s="137"/>
-      <c r="F45" s="137"/>
-      <c r="G45" s="137"/>
-      <c r="H45" s="192" t="s">
+      <c r="B45" s="192"/>
+      <c r="C45" s="192"/>
+      <c r="D45" s="136"/>
+      <c r="E45" s="136"/>
+      <c r="F45" s="136"/>
+      <c r="G45" s="136"/>
+      <c r="H45" s="193" t="s">
         <v>28</v>
       </c>
-      <c r="I45" s="192"/>
+      <c r="I45" s="193"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -5142,10 +5131,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5158,15 +5147,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="279" t="s">
+      <c r="A1" s="272" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="280"/>
-      <c r="C1" s="280"/>
-      <c r="D1" s="280"/>
-      <c r="E1" s="280"/>
-      <c r="F1" s="280"/>
-      <c r="G1" s="281"/>
+      <c r="B1" s="273"/>
+      <c r="C1" s="273"/>
+      <c r="D1" s="273"/>
+      <c r="E1" s="273"/>
+      <c r="F1" s="273"/>
+      <c r="G1" s="274"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -5180,37 +5169,37 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="282" t="s">
+      <c r="A3" s="275" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="283"/>
-      <c r="C3" s="283"/>
-      <c r="D3" s="283"/>
-      <c r="E3" s="283"/>
-      <c r="F3" s="283"/>
-      <c r="G3" s="284"/>
+      <c r="B3" s="276"/>
+      <c r="C3" s="276"/>
+      <c r="D3" s="276"/>
+      <c r="E3" s="276"/>
+      <c r="F3" s="276"/>
+      <c r="G3" s="277"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="195" t="s">
+      <c r="A4" s="196" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="205"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="205"/>
-      <c r="E4" s="205"/>
-      <c r="F4" s="205"/>
-      <c r="G4" s="206"/>
+      <c r="B4" s="206"/>
+      <c r="C4" s="206"/>
+      <c r="D4" s="206"/>
+      <c r="E4" s="206"/>
+      <c r="F4" s="206"/>
+      <c r="G4" s="207"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="285" t="s">
+      <c r="A5" s="278" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="286"/>
-      <c r="C5" s="286"/>
-      <c r="D5" s="286"/>
-      <c r="E5" s="286"/>
-      <c r="F5" s="286"/>
-      <c r="G5" s="287"/>
+      <c r="B5" s="279"/>
+      <c r="C5" s="279"/>
+      <c r="D5" s="279"/>
+      <c r="E5" s="279"/>
+      <c r="F5" s="279"/>
+      <c r="G5" s="280"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -5222,312 +5211,313 @@
       <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="234" t="s">
+      <c r="D6" s="281">
+        <f>Page1!G4</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="247"/>
+      <c r="F6" s="252" t="s">
         <v>46</v>
       </c>
-      <c r="E6" s="236"/>
-      <c r="F6" s="259" t="s">
-        <v>47</v>
-      </c>
-      <c r="G6" s="263">
+      <c r="G6" s="256">
         <f>Page1!I4</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B7" s="9"/>
       <c r="C7" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D7" s="234">
+        <v>48</v>
+      </c>
+      <c r="D7" s="281">
         <f>Page1!E5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="236"/>
-      <c r="F7" s="259"/>
-      <c r="G7" s="288"/>
+      <c r="E7" s="247"/>
+      <c r="F7" s="252"/>
+      <c r="G7" s="282"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B8" s="10">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8" s="259">
+        <v>50</v>
+      </c>
+      <c r="D8" s="252">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="259"/>
-      <c r="F8" s="260" t="s">
+      <c r="E8" s="252"/>
+      <c r="F8" s="253" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="263">
+      <c r="G8" s="256">
         <f>Page1!I5</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B9" s="12">
         <f>Page1!F44</f>
         <v>461343000</v>
       </c>
-      <c r="C9" s="260" t="s">
+      <c r="C9" s="253" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="259" t="s">
         <v>53</v>
       </c>
-      <c r="D9" s="266" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="267"/>
-      <c r="F9" s="261"/>
-      <c r="G9" s="264"/>
+      <c r="E9" s="260"/>
+      <c r="F9" s="254"/>
+      <c r="G9" s="257"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B10" s="14">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="262"/>
-      <c r="D10" s="268"/>
-      <c r="E10" s="269"/>
-      <c r="F10" s="262"/>
-      <c r="G10" s="265"/>
+      <c r="C10" s="255"/>
+      <c r="D10" s="261"/>
+      <c r="E10" s="262"/>
+      <c r="F10" s="255"/>
+      <c r="G10" s="258"/>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="270" t="s">
+      <c r="A11" s="263" t="s">
+        <v>55</v>
+      </c>
+      <c r="B11" s="265" t="s">
         <v>56</v>
       </c>
-      <c r="B11" s="272" t="s">
+      <c r="C11" s="267" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="268"/>
+      <c r="E11" s="269"/>
+      <c r="F11" s="265" t="s">
         <v>57</v>
       </c>
-      <c r="C11" s="274" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="275"/>
-      <c r="E11" s="276"/>
-      <c r="F11" s="272" t="s">
+      <c r="G11" s="270" t="s">
         <v>58</v>
       </c>
-      <c r="G11" s="277" t="s">
+    </row>
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="264"/>
+      <c r="B12" s="266"/>
+      <c r="C12" s="15" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="271"/>
-      <c r="B12" s="273"/>
-      <c r="C12" s="15" t="s">
+      <c r="D12" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="E12" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E12" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="273"/>
-      <c r="G12" s="278"/>
+      <c r="F12" s="266"/>
+      <c r="G12" s="271"/>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B13" s="17" t="s">
-        <v>64</v>
-      </c>
       <c r="C13" s="18">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D13" s="18">
+        <v>16</v>
+      </c>
+      <c r="E13" s="18">
         <v>18</v>
-      </c>
-      <c r="E13" s="18">
-        <v>20</v>
       </c>
       <c r="F13" s="19" t="e">
         <f>Page1!D39</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G13" s="27" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>67</v>
-      </c>
       <c r="C14" s="22">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="D14" s="22">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="E14" s="22">
-        <v>28</v>
+        <v>52</v>
       </c>
       <c r="F14" s="23" t="e">
         <f>Page1!E39</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G14" s="24" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="21" t="s">
         <v>69</v>
-      </c>
-      <c r="B15" s="21" t="s">
-        <v>70</v>
       </c>
       <c r="C15" s="22">
         <v>300</v>
       </c>
       <c r="D15" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F15" s="25" t="e">
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="258" t="s">
-        <v>72</v>
+      <c r="G15" s="251" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B16" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C16" s="22">
         <v>300</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F16" s="25" t="e">
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="193"/>
+      <c r="G16" s="194"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B17" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C17" s="26">
+        <v>5</v>
+      </c>
+      <c r="D17" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C17" s="22">
-        <v>900</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E17" s="22">
-        <v>1200</v>
+      <c r="E17" s="26">
+        <v>11</v>
       </c>
       <c r="F17" s="25" t="e">
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="193"/>
+      <c r="G17" s="194"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B18" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="26">
+        <v>3</v>
+      </c>
+      <c r="D18" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="22">
-        <v>700</v>
-      </c>
-      <c r="D18" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="22">
-        <v>1000</v>
+      <c r="E18" s="26">
+        <v>9</v>
       </c>
       <c r="F18" s="25" t="e">
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="193"/>
+      <c r="G18" s="194"/>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
       <c r="B19" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C19" s="22">
         <v>350</v>
       </c>
       <c r="D19" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E19" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F19" s="25" t="e">
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="193"/>
+      <c r="G19" s="194"/>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>78</v>
+        <v>121</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C20" s="22">
         <v>400</v>
       </c>
       <c r="D20" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E20" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F20" s="25" t="e">
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="193"/>
+      <c r="G20" s="194"/>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C21" s="26">
         <v>0.3</v>
@@ -5542,17 +5532,17 @@
         <f>Page1!F39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="193"/>
+      <c r="G21" s="194"/>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C22" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D22" s="25">
         <v>165</v>
@@ -5565,338 +5555,240 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G22" s="24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="20" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C23" s="25">
         <v>6000</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E23" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F23" s="25">
         <v>6000</v>
       </c>
       <c r="G23" s="24" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="28" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C24" s="30">
-        <v>410</v>
+        <v>430</v>
       </c>
       <c r="D24" s="30">
-        <v>430</v>
+        <v>460</v>
       </c>
       <c r="E24" s="31">
-        <v>450</v>
+        <v>510</v>
       </c>
       <c r="F24" s="31" t="e">
         <f>Page2!I41</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="252" t="s">
+      <c r="A25" s="238" t="s">
+        <v>84</v>
+      </c>
+      <c r="B25" s="239"/>
+      <c r="C25" s="239"/>
+      <c r="D25" s="239"/>
+      <c r="E25" s="239"/>
+      <c r="F25" s="239"/>
+      <c r="G25" s="240"/>
+    </row>
+    <row r="26" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="241" t="s">
+        <v>85</v>
+      </c>
+      <c r="B26" s="242"/>
+      <c r="C26" s="243" t="s">
+        <v>122</v>
+      </c>
+      <c r="D26" s="244"/>
+      <c r="E26" s="245"/>
+      <c r="F26" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26" s="27" t="s">
         <v>87</v>
       </c>
-      <c r="B25" s="253"/>
-      <c r="C25" s="253"/>
-      <c r="D25" s="253"/>
-      <c r="E25" s="253"/>
-      <c r="F25" s="253"/>
-      <c r="G25" s="254"/>
-    </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="232" t="s">
+    </row>
+    <row r="27" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="246" t="s">
         <v>88</v>
       </c>
-      <c r="B26" s="233"/>
-      <c r="C26" s="255" t="s">
+      <c r="B27" s="247"/>
+      <c r="C27" s="248" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="256"/>
-      <c r="E26" s="257"/>
-      <c r="F26" s="33" t="s">
+      <c r="D27" s="249"/>
+      <c r="E27" s="250"/>
+      <c r="F27" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="27" t="s">
+    </row>
+    <row r="28" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="246" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="237" t="s">
+      <c r="B28" s="247"/>
+      <c r="C28" s="248" t="s">
         <v>92</v>
       </c>
-      <c r="B27" s="236"/>
-      <c r="C27" s="246" t="s">
+      <c r="D28" s="249"/>
+      <c r="E28" s="250"/>
+      <c r="F28" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="246" t="s">
         <v>93</v>
       </c>
-      <c r="D27" s="247"/>
-      <c r="E27" s="248"/>
-      <c r="F27" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="G27" s="24" t="s">
+      <c r="B29" s="247"/>
+      <c r="C29" s="248" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="237" t="s">
+      <c r="D29" s="249"/>
+      <c r="E29" s="250"/>
+      <c r="F29" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="24" t="s">
         <v>95</v>
       </c>
-      <c r="B28" s="236"/>
-      <c r="C28" s="246" t="s">
+    </row>
+    <row r="30" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="246" t="s">
         <v>96</v>
       </c>
-      <c r="D28" s="247"/>
-      <c r="E28" s="248"/>
-      <c r="F28" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="G28" s="27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="237" t="s">
+      <c r="B30" s="247"/>
+      <c r="C30" s="248" t="s">
         <v>97</v>
       </c>
-      <c r="B29" s="236"/>
-      <c r="C29" s="246" t="s">
+      <c r="D30" s="249"/>
+      <c r="E30" s="250"/>
+      <c r="F30" s="34" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="D29" s="247"/>
-      <c r="E29" s="248"/>
-      <c r="F29" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="G29" s="24" t="s">
+    </row>
+    <row r="31" spans="1:7" s="2" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="233" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="237" t="s">
+      <c r="B31" s="234"/>
+      <c r="C31" s="235" t="s">
         <v>100</v>
       </c>
-      <c r="B30" s="236"/>
-      <c r="C30" s="246" t="s">
+      <c r="D31" s="236"/>
+      <c r="E31" s="237"/>
+      <c r="F31" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="52" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="219" t="s">
         <v>101</v>
       </c>
-      <c r="D30" s="247"/>
-      <c r="E30" s="248"/>
-      <c r="F30" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="G30" s="24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="237" t="s">
+      <c r="B32" s="220"/>
+      <c r="C32" s="221" t="s">
         <v>102</v>
       </c>
-      <c r="B31" s="236"/>
-      <c r="C31" s="246" t="s">
+      <c r="D32" s="222"/>
+      <c r="E32" s="223"/>
+      <c r="F32" s="221" t="s">
         <v>103</v>
       </c>
-      <c r="D31" s="247"/>
-      <c r="E31" s="248"/>
-      <c r="F31" s="34" t="s">
-        <v>90</v>
-      </c>
-      <c r="G31" s="24" t="s">
+      <c r="G32" s="223"/>
+    </row>
+    <row r="33" spans="1:7" s="2" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="224"/>
+      <c r="B33" s="225"/>
+      <c r="C33" s="196"/>
+      <c r="D33" s="206"/>
+      <c r="E33" s="207"/>
+      <c r="F33" s="228"/>
+      <c r="G33" s="229"/>
+    </row>
+    <row r="34" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="226"/>
+      <c r="B34" s="227"/>
+      <c r="C34" s="230" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="231"/>
+      <c r="E34" s="232"/>
+      <c r="F34" s="230" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="238" t="s">
+      <c r="G34" s="232"/>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="216"/>
+      <c r="F35" s="216"/>
+      <c r="G35" s="216"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="42" t="s">
         <v>105</v>
       </c>
-      <c r="B32" s="239"/>
-      <c r="C32" s="249" t="s">
+      <c r="B36" s="40"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="217"/>
+      <c r="F36" s="217"/>
+      <c r="G36" s="217"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="218" t="s">
         <v>106</v>
       </c>
-      <c r="D32" s="250"/>
-      <c r="E32" s="251"/>
-      <c r="F32" s="36" t="s">
-        <v>90</v>
-      </c>
-      <c r="G32" s="52" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="252" t="s">
+      <c r="B38" s="218"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="218" t="s">
         <v>107</v>
       </c>
-      <c r="B33" s="253"/>
-      <c r="C33" s="253"/>
-      <c r="D33" s="253"/>
-      <c r="E33" s="253"/>
-      <c r="F33" s="253"/>
-      <c r="G33" s="254"/>
-    </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="242" t="s">
-        <v>108</v>
-      </c>
-      <c r="B34" s="243"/>
-      <c r="C34" s="244" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="245"/>
-      <c r="E34" s="243"/>
-      <c r="F34" s="37" t="s">
-        <v>90</v>
-      </c>
-      <c r="G34" s="27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="232" t="s">
-        <v>109</v>
-      </c>
-      <c r="B35" s="233"/>
-      <c r="C35" s="234" t="s">
-        <v>133</v>
-      </c>
-      <c r="D35" s="235"/>
-      <c r="E35" s="236"/>
-      <c r="F35" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="G35" s="24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="237" t="s">
-        <v>110</v>
-      </c>
-      <c r="B36" s="236"/>
-      <c r="C36" s="234" t="s">
-        <v>111</v>
-      </c>
-      <c r="D36" s="235"/>
-      <c r="E36" s="236"/>
-      <c r="F36" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="G36" s="24" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="238" t="s">
-        <v>112</v>
-      </c>
-      <c r="B37" s="239"/>
-      <c r="C37" s="240" t="s">
-        <v>113</v>
-      </c>
-      <c r="D37" s="241"/>
-      <c r="E37" s="239"/>
-      <c r="F37" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="G37" s="32" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="218" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="219"/>
-      <c r="C38" s="220" t="s">
-        <v>115</v>
-      </c>
-      <c r="D38" s="221"/>
-      <c r="E38" s="222"/>
-      <c r="F38" s="220" t="s">
-        <v>116</v>
-      </c>
-      <c r="G38" s="222"/>
-    </row>
-    <row r="39" spans="1:7" s="2" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="223"/>
-      <c r="B39" s="224"/>
-      <c r="C39" s="195"/>
-      <c r="D39" s="205"/>
-      <c r="E39" s="206"/>
-      <c r="F39" s="227"/>
-      <c r="G39" s="228"/>
-    </row>
-    <row r="40" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="225"/>
-      <c r="B40" s="226"/>
-      <c r="C40" s="229" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" s="230"/>
-      <c r="E40" s="231"/>
-      <c r="F40" s="229" t="s">
-        <v>117</v>
-      </c>
-      <c r="G40" s="231"/>
-    </row>
-    <row r="41" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="38"/>
-      <c r="B41" s="38"/>
-      <c r="C41" s="38" t="s">
-        <v>132</v>
-      </c>
-      <c r="D41" s="38"/>
-      <c r="E41" s="215"/>
-      <c r="F41" s="215"/>
-      <c r="G41" s="215"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="42" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" s="40"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="216"/>
-      <c r="F42" s="216"/>
-      <c r="G42" s="216"/>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="217" t="s">
-        <v>119</v>
-      </c>
-      <c r="B44" s="217"/>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="217" t="s">
-        <v>120</v>
-      </c>
-      <c r="B45" s="217"/>
+      <c r="B39" s="218"/>
     </row>
   </sheetData>
-  <mergeCells count="55">
+  <mergeCells count="44">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A4:G4"/>
@@ -5916,42 +5808,31 @@
     <mergeCell ref="G8:G10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:E10"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="C31:E31"/>
     <mergeCell ref="A25:G25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:E27"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:E34"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:E28"/>
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:E30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="C31:E31"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:E32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="E41:G41"/>
-    <mergeCell ref="E42:G42"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="A39:B40"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="C40:E40"/>
-    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:G34"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>

--- a/backend/templates/UC-16gsm-165W.xlsx
+++ b/backend/templates/UC-16gsm-165W.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCB56592-D266-4B5E-8364-CA161934F5D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA17312-4565-45AB-84BD-E51E6554DD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1847,49 +1847,28 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1931,46 +1910,25 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1991,12 +1949,18 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2006,6 +1970,42 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2044,6 +2044,156 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2095,156 +2245,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2804,7 +2804,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2818,31 +2818,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
       <c r="I1" s="57" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
       <c r="I2" s="58" t="s">
         <v>22</v>
       </c>
@@ -2864,8 +2864,8 @@
       <c r="A4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="153"/>
-      <c r="C4" s="154"/>
+      <c r="B4" s="174"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="63" t="s">
         <v>3</v>
       </c>
@@ -2886,8 +2886,8 @@
       <c r="A5" s="65" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="155"/>
-      <c r="C5" s="156"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="177"/>
       <c r="D5" s="66" t="s">
         <v>6</v>
       </c>
@@ -2902,46 +2902,46 @@
       <c r="I5" s="67"/>
     </row>
     <row r="6" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="166" t="s">
+      <c r="A6" s="159" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="167"/>
-      <c r="C6" s="168"/>
+      <c r="B6" s="160"/>
+      <c r="C6" s="161"/>
       <c r="D6" s="53"/>
       <c r="E6" s="54"/>
       <c r="F6" s="54"/>
-      <c r="G6" s="160"/>
-      <c r="H6" s="161"/>
-      <c r="I6" s="162"/>
+      <c r="G6" s="151"/>
+      <c r="H6" s="152"/>
+      <c r="I6" s="153"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="169" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="163"/>
-      <c r="C7" s="163"/>
-      <c r="D7" s="163" t="s">
+      <c r="A7" s="162" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="154"/>
+      <c r="C7" s="154"/>
+      <c r="D7" s="154" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="157" t="s">
+      <c r="E7" s="156" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="157" t="s">
+      <c r="F7" s="156" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="163" t="s">
+      <c r="G7" s="154" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="163"/>
-      <c r="I7" s="164"/>
+      <c r="H7" s="154"/>
+      <c r="I7" s="155"/>
     </row>
     <row r="8" spans="1:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="170"/>
-      <c r="B8" s="171"/>
-      <c r="C8" s="171"/>
-      <c r="D8" s="171"/>
-      <c r="E8" s="158"/>
-      <c r="F8" s="158"/>
+      <c r="A8" s="163"/>
+      <c r="B8" s="164"/>
+      <c r="C8" s="164"/>
+      <c r="D8" s="164"/>
+      <c r="E8" s="157"/>
+      <c r="F8" s="157"/>
       <c r="G8" s="68" t="s">
         <v>37</v>
       </c>
@@ -3283,11 +3283,11 @@
       <c r="I38" s="97"/>
     </row>
     <row r="39" spans="1:12" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="176" t="s">
+      <c r="A39" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="177"/>
-      <c r="C39" s="177"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="170"/>
       <c r="D39" s="19" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3314,11 +3314,11 @@
       </c>
     </row>
     <row r="40" spans="1:12" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="174" t="s">
+      <c r="A40" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="175"/>
-      <c r="C40" s="175"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="168"/>
       <c r="D40" s="26">
         <f>MIN(D9:D38)</f>
         <v>0</v>
@@ -3345,11 +3345,11 @@
       </c>
     </row>
     <row r="41" spans="1:12" s="43" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="172" t="s">
+      <c r="A41" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="173"/>
-      <c r="C41" s="173"/>
+      <c r="B41" s="166"/>
+      <c r="C41" s="166"/>
       <c r="D41" s="99">
         <f>MAX(D9:D38)</f>
         <v>0</v>
@@ -3382,8 +3382,8 @@
       <c r="A42" s="101" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="151"/>
-      <c r="C42" s="151"/>
+      <c r="B42" s="172"/>
+      <c r="C42" s="172"/>
       <c r="D42" s="101" t="s">
         <v>16</v>
       </c>
@@ -3399,8 +3399,8 @@
     </row>
     <row r="43" spans="1:12" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="105"/>
-      <c r="B43" s="152"/>
-      <c r="C43" s="152"/>
+      <c r="B43" s="173"/>
+      <c r="C43" s="173"/>
       <c r="D43" s="101"/>
       <c r="E43" s="102"/>
       <c r="F43" s="103"/>
@@ -3409,11 +3409,11 @@
       <c r="I43" s="104"/>
     </row>
     <row r="44" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="165" t="s">
+      <c r="A44" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="165"/>
-      <c r="C44" s="165"/>
+      <c r="B44" s="158"/>
+      <c r="C44" s="158"/>
       <c r="D44" s="106"/>
       <c r="E44" s="107" t="s">
         <v>109</v>
@@ -3426,19 +3426,19 @@
       <c r="I44" s="60"/>
     </row>
     <row r="45" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="165" t="s">
+      <c r="A45" s="158" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="165"/>
-      <c r="C45" s="165"/>
+      <c r="B45" s="158"/>
+      <c r="C45" s="158"/>
       <c r="D45" s="106"/>
       <c r="E45" s="60"/>
       <c r="F45" s="60"/>
       <c r="G45" s="60"/>
-      <c r="H45" s="159" t="s">
+      <c r="H45" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="I45" s="159"/>
+      <c r="I45" s="150"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="45"/>
@@ -3454,6 +3454,13 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="19">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F7:F8"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="G7:I7"/>
@@ -3466,13 +3473,6 @@
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="E9:E38">
     <cfRule type="cellIs" dxfId="14" priority="5" operator="notBetween">
@@ -3526,31 +3526,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
       <c r="I1" s="57" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
       <c r="I2" s="58" t="s">
         <v>22</v>
       </c>
@@ -3575,11 +3575,11 @@
       <c r="A4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="153">
+      <c r="B4" s="174">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="154"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="63" t="s">
         <v>3</v>
       </c>
@@ -3609,11 +3609,11 @@
       <c r="A5" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="178">
+      <c r="B5" s="191">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="179"/>
+      <c r="C5" s="192"/>
       <c r="D5" s="109" t="s">
         <v>6</v>
       </c>
@@ -3637,83 +3637,83 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="50" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="186" t="s">
+      <c r="A6" s="197" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="187"/>
-      <c r="C6" s="187"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="188"/>
+      <c r="B6" s="198"/>
+      <c r="C6" s="198"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="199"/>
       <c r="G6" s="111"/>
       <c r="H6" s="112"/>
       <c r="I6" s="113"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="196" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="197"/>
+      <c r="A7" s="182" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="183"/>
       <c r="C7" s="184"/>
-      <c r="D7" s="189" t="s">
+      <c r="D7" s="200" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="190"/>
-      <c r="F7" s="191"/>
-      <c r="G7" s="200" t="s">
+      <c r="E7" s="201"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="188" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="49" t="s">
         <v>110</v>
       </c>
-      <c r="I7" s="194" t="s">
+      <c r="I7" s="180" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="196"/>
-      <c r="B8" s="197"/>
+      <c r="A8" s="182"/>
+      <c r="B8" s="183"/>
       <c r="C8" s="184"/>
-      <c r="D8" s="180" t="s">
+      <c r="D8" s="193" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="183" t="s">
+      <c r="E8" s="196" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="179" t="s">
+      <c r="F8" s="192" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="200"/>
+      <c r="G8" s="188"/>
       <c r="H8" s="49" t="s">
         <v>111</v>
       </c>
-      <c r="I8" s="194"/>
+      <c r="I8" s="180"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="196"/>
-      <c r="B9" s="197"/>
+      <c r="A9" s="182"/>
+      <c r="B9" s="183"/>
       <c r="C9" s="184"/>
-      <c r="D9" s="181"/>
-      <c r="E9" s="183"/>
+      <c r="D9" s="194"/>
+      <c r="E9" s="196"/>
       <c r="F9" s="184"/>
-      <c r="G9" s="200"/>
+      <c r="G9" s="188"/>
       <c r="H9" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="194"/>
+      <c r="I9" s="180"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="198"/>
-      <c r="B10" s="199"/>
-      <c r="C10" s="185"/>
-      <c r="D10" s="182"/>
-      <c r="E10" s="171"/>
-      <c r="F10" s="185"/>
-      <c r="G10" s="158"/>
+      <c r="A10" s="185"/>
+      <c r="B10" s="186"/>
+      <c r="C10" s="187"/>
+      <c r="D10" s="195"/>
+      <c r="E10" s="164"/>
+      <c r="F10" s="187"/>
+      <c r="G10" s="157"/>
       <c r="H10" s="48" t="s">
         <v>113</v>
       </c>
-      <c r="I10" s="195"/>
+      <c r="I10" s="181"/>
     </row>
     <row r="11" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="114"/>
@@ -4190,11 +4190,11 @@
       </c>
     </row>
     <row r="41" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="176" t="s">
+      <c r="A41" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="177"/>
-      <c r="C41" s="177"/>
+      <c r="B41" s="170"/>
+      <c r="C41" s="170"/>
       <c r="D41" s="19" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
@@ -4221,11 +4221,11 @@
       </c>
     </row>
     <row r="42" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="174" t="s">
+      <c r="A42" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="175"/>
-      <c r="C42" s="175"/>
+      <c r="B42" s="168"/>
+      <c r="C42" s="168"/>
       <c r="D42" s="26">
         <f>MIN(D11:D40)</f>
         <v>0</v>
@@ -4252,11 +4252,11 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="172" t="s">
+      <c r="A43" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="173"/>
-      <c r="C43" s="173"/>
+      <c r="B43" s="166"/>
+      <c r="C43" s="166"/>
       <c r="D43" s="99">
         <f>MAX(D11:D40)</f>
         <v>0</v>
@@ -4286,11 +4286,11 @@
       <c r="A44" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="151">
+      <c r="B44" s="172">
         <f>Page1!B42</f>
         <v>0</v>
       </c>
-      <c r="C44" s="201"/>
+      <c r="C44" s="189"/>
       <c r="D44" s="131" t="s">
         <v>16</v>
       </c>
@@ -4309,11 +4309,11 @@
     </row>
     <row r="45" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="135"/>
-      <c r="B45" s="152">
+      <c r="B45" s="173">
         <f>Page1!B43</f>
         <v>0</v>
       </c>
-      <c r="C45" s="202"/>
+      <c r="C45" s="190"/>
       <c r="D45" s="131"/>
       <c r="E45" s="131"/>
       <c r="F45" s="132"/>
@@ -4325,11 +4325,11 @@
       <c r="I45" s="134"/>
     </row>
     <row r="46" spans="1:9" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="192" t="s">
+      <c r="A46" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="192"/>
-      <c r="C46" s="192"/>
+      <c r="B46" s="178"/>
+      <c r="C46" s="178"/>
       <c r="D46" s="136"/>
       <c r="E46" s="137" t="s">
         <v>109</v>
@@ -4343,22 +4343,32 @@
       <c r="I46" s="136"/>
     </row>
     <row r="47" spans="1:9" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="192" t="s">
+      <c r="A47" s="178" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="192"/>
-      <c r="C47" s="192"/>
+      <c r="B47" s="178"/>
+      <c r="C47" s="178"/>
       <c r="D47" s="136"/>
       <c r="E47" s="136"/>
       <c r="F47" s="136"/>
       <c r="G47" s="136"/>
-      <c r="H47" s="193" t="s">
+      <c r="H47" s="179" t="s">
         <v>27</v>
       </c>
-      <c r="I47" s="193"/>
+      <c r="I47" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="I7:I10"/>
@@ -4370,16 +4380,6 @@
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="B44:C44"/>
     <mergeCell ref="B45:C45"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:D40">
     <cfRule type="cellIs" dxfId="9" priority="7" operator="notBetween">
@@ -4439,31 +4439,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="150" t="s">
+      <c r="A1" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="150"/>
-      <c r="C1" s="150"/>
-      <c r="D1" s="150"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="150"/>
-      <c r="G1" s="150"/>
-      <c r="H1" s="150"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
+      <c r="E1" s="171"/>
+      <c r="F1" s="171"/>
+      <c r="G1" s="171"/>
+      <c r="H1" s="171"/>
       <c r="I1" s="57" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="150" t="s">
+      <c r="A2" s="171" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="150"/>
-      <c r="C2" s="150"/>
-      <c r="D2" s="150"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="150"/>
-      <c r="G2" s="150"/>
-      <c r="H2" s="150"/>
+      <c r="B2" s="171"/>
+      <c r="C2" s="171"/>
+      <c r="D2" s="171"/>
+      <c r="E2" s="171"/>
+      <c r="F2" s="171"/>
+      <c r="G2" s="171"/>
+      <c r="H2" s="171"/>
       <c r="I2" s="58" t="s">
         <v>22</v>
       </c>
@@ -4488,11 +4488,11 @@
       <c r="A4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="153">
+      <c r="B4" s="174">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="154"/>
+      <c r="C4" s="175"/>
       <c r="D4" s="63" t="s">
         <v>3</v>
       </c>
@@ -4522,11 +4522,11 @@
       <c r="A5" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="178">
+      <c r="B5" s="191">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="179"/>
+      <c r="C5" s="192"/>
       <c r="D5" s="109" t="s">
         <v>6</v>
       </c>
@@ -4550,15 +4550,15 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="50" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="186" t="s">
+      <c r="A6" s="197" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="187"/>
-      <c r="C6" s="160"/>
+      <c r="B6" s="198"/>
+      <c r="C6" s="151"/>
       <c r="D6" s="203"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="162"/>
+      <c r="E6" s="152"/>
+      <c r="F6" s="152"/>
+      <c r="G6" s="153"/>
       <c r="H6" s="204"/>
       <c r="I6" s="205"/>
     </row>
@@ -4584,9 +4584,9 @@
       <c r="I7" s="207"/>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="198"/>
-      <c r="B8" s="199"/>
-      <c r="C8" s="199"/>
+      <c r="A8" s="185"/>
+      <c r="B8" s="186"/>
+      <c r="C8" s="186"/>
       <c r="D8" s="211"/>
       <c r="E8" s="213"/>
       <c r="F8" s="213"/>
@@ -4925,11 +4925,11 @@
       <c r="I38" s="207"/>
     </row>
     <row r="39" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="176" t="s">
+      <c r="A39" s="169" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="177"/>
-      <c r="C39" s="177"/>
+      <c r="B39" s="170"/>
+      <c r="C39" s="170"/>
       <c r="D39" s="125" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -4950,11 +4950,11 @@
       <c r="I39" s="207"/>
     </row>
     <row r="40" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="174" t="s">
+      <c r="A40" s="167" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="175"/>
-      <c r="C40" s="175"/>
+      <c r="B40" s="168"/>
+      <c r="C40" s="168"/>
       <c r="D40" s="127">
         <f>MIN(D9:D38)</f>
         <v>0</v>
@@ -4975,11 +4975,11 @@
       <c r="I40" s="207"/>
     </row>
     <row r="41" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="172" t="s">
+      <c r="A41" s="165" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="173"/>
-      <c r="C41" s="173"/>
+      <c r="B41" s="166"/>
+      <c r="C41" s="166"/>
       <c r="D41" s="129">
         <f>MAX(D9:D38)</f>
         <v>0</v>
@@ -4996,18 +4996,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H41" s="199"/>
+      <c r="H41" s="186"/>
       <c r="I41" s="208"/>
     </row>
     <row r="42" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="131" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="151">
+      <c r="B42" s="172">
         <f>Page1!B42</f>
         <v>0</v>
       </c>
-      <c r="C42" s="201"/>
+      <c r="C42" s="189"/>
       <c r="D42" s="131" t="s">
         <v>16</v>
       </c>
@@ -5026,11 +5026,11 @@
     </row>
     <row r="43" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="135"/>
-      <c r="B43" s="152">
+      <c r="B43" s="173">
         <f>Page1!B43</f>
         <v>0</v>
       </c>
-      <c r="C43" s="202"/>
+      <c r="C43" s="190"/>
       <c r="D43" s="131"/>
       <c r="E43" s="131"/>
       <c r="F43" s="132"/>
@@ -5042,11 +5042,11 @@
       <c r="I43" s="134"/>
     </row>
     <row r="44" spans="1:9" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="192" t="s">
+      <c r="A44" s="178" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="192"/>
-      <c r="C44" s="192"/>
+      <c r="B44" s="178"/>
+      <c r="C44" s="178"/>
       <c r="D44" s="136"/>
       <c r="E44" s="137" t="s">
         <v>109</v>
@@ -5060,22 +5060,32 @@
       <c r="I44" s="136"/>
     </row>
     <row r="45" spans="1:9" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="192" t="s">
+      <c r="A45" s="178" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="192"/>
-      <c r="C45" s="192"/>
+      <c r="B45" s="178"/>
+      <c r="C45" s="178"/>
       <c r="D45" s="136"/>
       <c r="E45" s="136"/>
       <c r="F45" s="136"/>
       <c r="G45" s="136"/>
-      <c r="H45" s="193" t="s">
+      <c r="H45" s="179" t="s">
         <v>28</v>
       </c>
-      <c r="I45" s="193"/>
+      <c r="I45" s="179"/>
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="A6:C6"/>
@@ -5086,16 +5096,6 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D38">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="notBetween">
@@ -5134,7 +5134,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5147,15 +5147,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="272" t="s">
+      <c r="A1" s="216" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="273"/>
-      <c r="C1" s="273"/>
-      <c r="D1" s="273"/>
-      <c r="E1" s="273"/>
-      <c r="F1" s="273"/>
-      <c r="G1" s="274"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="218"/>
     </row>
     <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
@@ -5169,18 +5169,18 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="275" t="s">
+      <c r="A3" s="219" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="276"/>
-      <c r="C3" s="276"/>
-      <c r="D3" s="276"/>
-      <c r="E3" s="276"/>
-      <c r="F3" s="276"/>
-      <c r="G3" s="277"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="221"/>
     </row>
     <row r="4" spans="1:7" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="196" t="s">
+      <c r="A4" s="182" t="s">
         <v>42</v>
       </c>
       <c r="B4" s="206"/>
@@ -5191,15 +5191,15 @@
       <c r="G4" s="207"/>
     </row>
     <row r="5" spans="1:7" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="278" t="s">
+      <c r="A5" s="222" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="279"/>
-      <c r="C5" s="279"/>
-      <c r="D5" s="279"/>
-      <c r="E5" s="279"/>
-      <c r="F5" s="279"/>
-      <c r="G5" s="280"/>
+      <c r="B5" s="223"/>
+      <c r="C5" s="223"/>
+      <c r="D5" s="223"/>
+      <c r="E5" s="223"/>
+      <c r="F5" s="223"/>
+      <c r="G5" s="224"/>
     </row>
     <row r="6" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
@@ -5211,15 +5211,15 @@
       <c r="C6" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="281">
+      <c r="D6" s="225">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="247"/>
-      <c r="F6" s="252" t="s">
+      <c r="E6" s="226"/>
+      <c r="F6" s="227" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="256">
+      <c r="G6" s="228">
         <f>Page1!I4</f>
         <v>0</v>
       </c>
@@ -5232,13 +5232,13 @@
       <c r="C7" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="281">
+      <c r="D7" s="225">
         <f>Page1!E5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="247"/>
-      <c r="F7" s="252"/>
-      <c r="G7" s="282"/>
+      <c r="E7" s="226"/>
+      <c r="F7" s="227"/>
+      <c r="G7" s="229"/>
     </row>
     <row r="8" spans="1:7" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
@@ -5251,15 +5251,15 @@
       <c r="C8" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="252">
+      <c r="D8" s="227">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="252"/>
-      <c r="F8" s="253" t="s">
+      <c r="E8" s="227"/>
+      <c r="F8" s="240" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="256">
+      <c r="G8" s="228">
         <f>Page1!I5</f>
         <v>0</v>
       </c>
@@ -5272,15 +5272,15 @@
         <f>Page1!F44</f>
         <v>461343000</v>
       </c>
-      <c r="C9" s="253" t="s">
+      <c r="C9" s="240" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="259" t="s">
+      <c r="D9" s="245" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="260"/>
-      <c r="F9" s="254"/>
-      <c r="G9" s="257"/>
+      <c r="E9" s="246"/>
+      <c r="F9" s="241"/>
+      <c r="G9" s="243"/>
     </row>
     <row r="10" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="13" t="s">
@@ -5290,34 +5290,34 @@
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="255"/>
-      <c r="D10" s="261"/>
-      <c r="E10" s="262"/>
-      <c r="F10" s="255"/>
-      <c r="G10" s="258"/>
+      <c r="C10" s="242"/>
+      <c r="D10" s="247"/>
+      <c r="E10" s="248"/>
+      <c r="F10" s="242"/>
+      <c r="G10" s="244"/>
     </row>
     <row r="11" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="263" t="s">
+      <c r="A11" s="230" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="265" t="s">
+      <c r="B11" s="232" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="267" t="s">
+      <c r="C11" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="268"/>
-      <c r="E11" s="269"/>
-      <c r="F11" s="265" t="s">
+      <c r="D11" s="235"/>
+      <c r="E11" s="236"/>
+      <c r="F11" s="232" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="270" t="s">
+      <c r="G11" s="237" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="264"/>
-      <c r="B12" s="266"/>
+      <c r="A12" s="231"/>
+      <c r="B12" s="233"/>
       <c r="C12" s="15" t="s">
         <v>59</v>
       </c>
@@ -5327,8 +5327,8 @@
       <c r="E12" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="266"/>
-      <c r="G12" s="271"/>
+      <c r="F12" s="233"/>
+      <c r="G12" s="238"/>
     </row>
     <row r="13" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="16" t="s">
@@ -5398,7 +5398,7 @@
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="251" t="s">
+      <c r="G15" s="239" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5422,7 +5422,7 @@
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="194"/>
+      <c r="G16" s="180"/>
     </row>
     <row r="17" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="20" t="s">
@@ -5440,11 +5440,11 @@
       <c r="E17" s="26">
         <v>11</v>
       </c>
-      <c r="F17" s="25" t="e">
+      <c r="F17" s="26" t="e">
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="194"/>
+      <c r="G17" s="180"/>
     </row>
     <row r="18" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="20" t="s">
@@ -5462,11 +5462,11 @@
       <c r="E18" s="26">
         <v>9</v>
       </c>
-      <c r="F18" s="25" t="e">
+      <c r="F18" s="26" t="e">
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="194"/>
+      <c r="G18" s="180"/>
     </row>
     <row r="19" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="20" t="s">
@@ -5488,7 +5488,7 @@
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="194"/>
+      <c r="G19" s="180"/>
     </row>
     <row r="20" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
@@ -5510,7 +5510,7 @@
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="194"/>
+      <c r="G20" s="180"/>
     </row>
     <row r="21" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
@@ -5532,7 +5532,7 @@
         <f>Page1!F39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="194"/>
+      <c r="G21" s="180"/>
     </row>
     <row r="22" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
@@ -5606,26 +5606,26 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="238" t="s">
+      <c r="A25" s="254" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="239"/>
-      <c r="C25" s="239"/>
-      <c r="D25" s="239"/>
-      <c r="E25" s="239"/>
-      <c r="F25" s="239"/>
-      <c r="G25" s="240"/>
+      <c r="B25" s="255"/>
+      <c r="C25" s="255"/>
+      <c r="D25" s="255"/>
+      <c r="E25" s="255"/>
+      <c r="F25" s="255"/>
+      <c r="G25" s="256"/>
     </row>
     <row r="26" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="241" t="s">
+      <c r="A26" s="257" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="242"/>
-      <c r="C26" s="243" t="s">
+      <c r="B26" s="258"/>
+      <c r="C26" s="259" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="244"/>
-      <c r="E26" s="245"/>
+      <c r="D26" s="260"/>
+      <c r="E26" s="261"/>
       <c r="F26" s="33" t="s">
         <v>86</v>
       </c>
@@ -5634,15 +5634,15 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="246" t="s">
+      <c r="A27" s="262" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="247"/>
-      <c r="C27" s="248" t="s">
+      <c r="B27" s="226"/>
+      <c r="C27" s="263" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="249"/>
-      <c r="E27" s="250"/>
+      <c r="D27" s="264"/>
+      <c r="E27" s="265"/>
       <c r="F27" s="34" t="s">
         <v>86</v>
       </c>
@@ -5651,15 +5651,15 @@
       </c>
     </row>
     <row r="28" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="246" t="s">
+      <c r="A28" s="262" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="247"/>
-      <c r="C28" s="248" t="s">
+      <c r="B28" s="226"/>
+      <c r="C28" s="263" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="249"/>
-      <c r="E28" s="250"/>
+      <c r="D28" s="264"/>
+      <c r="E28" s="265"/>
       <c r="F28" s="34" t="s">
         <v>86</v>
       </c>
@@ -5668,15 +5668,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="246" t="s">
+      <c r="A29" s="262" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="247"/>
-      <c r="C29" s="248" t="s">
+      <c r="B29" s="226"/>
+      <c r="C29" s="263" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="249"/>
-      <c r="E29" s="250"/>
+      <c r="D29" s="264"/>
+      <c r="E29" s="265"/>
       <c r="F29" s="34" t="s">
         <v>86</v>
       </c>
@@ -5685,15 +5685,15 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="246" t="s">
+      <c r="A30" s="262" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="247"/>
-      <c r="C30" s="248" t="s">
+      <c r="B30" s="226"/>
+      <c r="C30" s="263" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="249"/>
-      <c r="E30" s="250"/>
+      <c r="D30" s="264"/>
+      <c r="E30" s="265"/>
       <c r="F30" s="34" t="s">
         <v>86</v>
       </c>
@@ -5702,15 +5702,15 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="2" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="233" t="s">
+      <c r="A31" s="249" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="234"/>
-      <c r="C31" s="235" t="s">
+      <c r="B31" s="250"/>
+      <c r="C31" s="251" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="236"/>
-      <c r="E31" s="237"/>
+      <c r="D31" s="252"/>
+      <c r="E31" s="253"/>
       <c r="F31" s="36" t="s">
         <v>86</v>
       </c>
@@ -5719,50 +5719,50 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="219" t="s">
+      <c r="A32" s="269" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="220"/>
-      <c r="C32" s="221" t="s">
+      <c r="B32" s="270"/>
+      <c r="C32" s="271" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="222"/>
-      <c r="E32" s="223"/>
-      <c r="F32" s="221" t="s">
+      <c r="D32" s="272"/>
+      <c r="E32" s="273"/>
+      <c r="F32" s="271" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="223"/>
+      <c r="G32" s="273"/>
     </row>
     <row r="33" spans="1:7" s="2" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="224"/>
-      <c r="B33" s="225"/>
-      <c r="C33" s="196"/>
+      <c r="A33" s="274"/>
+      <c r="B33" s="275"/>
+      <c r="C33" s="182"/>
       <c r="D33" s="206"/>
       <c r="E33" s="207"/>
-      <c r="F33" s="228"/>
-      <c r="G33" s="229"/>
+      <c r="F33" s="278"/>
+      <c r="G33" s="279"/>
     </row>
     <row r="34" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="226"/>
-      <c r="B34" s="227"/>
-      <c r="C34" s="230" t="s">
+      <c r="A34" s="276"/>
+      <c r="B34" s="277"/>
+      <c r="C34" s="280" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="231"/>
-      <c r="E34" s="232"/>
-      <c r="F34" s="230" t="s">
+      <c r="D34" s="281"/>
+      <c r="E34" s="282"/>
+      <c r="F34" s="280" t="s">
         <v>104</v>
       </c>
-      <c r="G34" s="232"/>
+      <c r="G34" s="282"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="38"/>
       <c r="B35" s="38"/>
       <c r="C35" s="38"/>
       <c r="D35" s="38"/>
-      <c r="E35" s="216"/>
-      <c r="F35" s="216"/>
-      <c r="G35" s="216"/>
+      <c r="E35" s="266"/>
+      <c r="F35" s="266"/>
+      <c r="G35" s="266"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="42" t="s">
@@ -5771,43 +5771,36 @@
       <c r="B36" s="40"/>
       <c r="C36" s="41"/>
       <c r="D36" s="38"/>
-      <c r="E36" s="217"/>
-      <c r="F36" s="217"/>
-      <c r="G36" s="217"/>
+      <c r="E36" s="267"/>
+      <c r="F36" s="267"/>
+      <c r="G36" s="267"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="218" t="s">
+      <c r="A38" s="268" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="218"/>
+      <c r="B38" s="268"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="218" t="s">
+      <c r="A39" s="268" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="218"/>
+      <c r="B39" s="268"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D7:E7"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G15:G21"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:G34"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="A25:G25"/>
@@ -5821,18 +5814,25 @@
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:E30"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="G15:G21"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D7:E7"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>

--- a/backend/templates/UC-16gsm-165W.xlsx
+++ b/backend/templates/UC-16gsm-165W.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCA17312-4565-45AB-84BD-E51E6554DD6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2A418A-AA7C-4C2E-9003-2C1AAB0969BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1352,11 +1352,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="283">
+  <cellXfs count="284">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1509,12 +1506,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1837,16 +1828,25 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2015,9 +2015,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2063,6 +2060,9 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2231,20 +2231,23 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2809,15 +2812,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="14" style="44" customWidth="1"/>
-    <col min="4" max="9" width="22.140625" style="44" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="44" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="44"/>
-    <col min="12" max="12" width="9.42578125" style="44" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="44"/>
+    <col min="1" max="3" width="14" style="43" customWidth="1"/>
+    <col min="4" max="9" width="22.140625" style="43" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="43" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="43"/>
+    <col min="12" max="12" width="9.42578125" style="43" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="171" t="s">
         <v>9</v>
       </c>
@@ -2828,11 +2831,11 @@
       <c r="F1" s="171"/>
       <c r="G1" s="171"/>
       <c r="H1" s="171"/>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="54" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="171" t="s">
         <v>12</v>
       </c>
@@ -2843,73 +2846,73 @@
       <c r="F2" s="171"/>
       <c r="G2" s="171"/>
       <c r="H2" s="171"/>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="55" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61" t="s">
+    <row r="3" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="55"/>
-    </row>
-    <row r="4" spans="1:11" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+      <c r="I3" s="52"/>
+    </row>
+    <row r="4" spans="1:11" s="42" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="174"/>
       <c r="C4" s="175"/>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="37"/>
-      <c r="F4" s="63" t="s">
+      <c r="E4" s="36"/>
+      <c r="F4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="37"/>
-      <c r="H4" s="148" t="s">
+      <c r="G4" s="36"/>
+      <c r="H4" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="64"/>
-      <c r="K4" s="43" t="s">
+      <c r="I4" s="61"/>
+      <c r="K4" s="42" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="43" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="65" t="s">
+    <row r="5" spans="1:11" s="42" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="62" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="176"/>
       <c r="C5" s="177"/>
-      <c r="D5" s="66" t="s">
+      <c r="D5" s="63" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="66" t="s">
+      <c r="E5" s="147"/>
+      <c r="F5" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="14" t="s">
+      <c r="G5" s="147"/>
+      <c r="H5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="67"/>
-    </row>
-    <row r="6" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I5" s="64"/>
+    </row>
+    <row r="6" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="159" t="s">
         <v>108</v>
       </c>
       <c r="B6" s="160"/>
       <c r="C6" s="161"/>
-      <c r="D6" s="53"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
+      <c r="D6" s="148"/>
+      <c r="E6" s="146"/>
+      <c r="F6" s="146"/>
       <c r="G6" s="151"/>
       <c r="H6" s="152"/>
       <c r="I6" s="153"/>
@@ -2942,471 +2945,471 @@
       <c r="D8" s="164"/>
       <c r="E8" s="157"/>
       <c r="F8" s="157"/>
-      <c r="G8" s="68" t="s">
+      <c r="G8" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="35" t="s">
+      <c r="I8" s="34" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
-      <c r="B9" s="70"/>
-      <c r="C9" s="71"/>
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="72"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="75"/>
-    </row>
-    <row r="10" spans="1:11" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
-      <c r="B10" s="77"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="79"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="81"/>
-      <c r="G10" s="79"/>
-      <c r="H10" s="80"/>
-      <c r="I10" s="83"/>
-    </row>
-    <row r="11" spans="1:11" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
-      <c r="B11" s="77"/>
-      <c r="C11" s="84"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="80"/>
-      <c r="F11" s="81"/>
-      <c r="G11" s="79"/>
-      <c r="H11" s="80"/>
-      <c r="I11" s="83"/>
-    </row>
-    <row r="12" spans="1:11" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
-      <c r="B12" s="77"/>
-      <c r="C12" s="84"/>
-      <c r="D12" s="79"/>
-      <c r="E12" s="80"/>
-      <c r="F12" s="81"/>
-      <c r="G12" s="79"/>
-      <c r="H12" s="80"/>
-      <c r="I12" s="83"/>
-    </row>
-    <row r="13" spans="1:11" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="76"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="84"/>
-      <c r="D13" s="79"/>
-      <c r="E13" s="80"/>
-      <c r="F13" s="81"/>
-      <c r="G13" s="79"/>
-      <c r="H13" s="80"/>
-      <c r="I13" s="83"/>
-    </row>
-    <row r="14" spans="1:11" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
-      <c r="B14" s="77"/>
-      <c r="C14" s="85"/>
-      <c r="D14" s="79"/>
-      <c r="E14" s="80"/>
-      <c r="F14" s="81"/>
-      <c r="G14" s="79"/>
-      <c r="H14" s="80"/>
-      <c r="I14" s="83"/>
-    </row>
-    <row r="15" spans="1:11" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
-      <c r="B15" s="77"/>
-      <c r="C15" s="84"/>
-      <c r="D15" s="79"/>
-      <c r="E15" s="80"/>
-      <c r="F15" s="81"/>
-      <c r="G15" s="79"/>
-      <c r="H15" s="80"/>
-      <c r="I15" s="83"/>
-    </row>
-    <row r="16" spans="1:11" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
-      <c r="B16" s="77"/>
-      <c r="C16" s="84"/>
-      <c r="D16" s="79"/>
-      <c r="E16" s="80"/>
-      <c r="F16" s="81"/>
-      <c r="G16" s="79"/>
-      <c r="H16" s="80"/>
-      <c r="I16" s="83"/>
-    </row>
-    <row r="17" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
-      <c r="B17" s="77"/>
-      <c r="C17" s="84"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="81"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="83"/>
-    </row>
-    <row r="18" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
-      <c r="B18" s="77"/>
-      <c r="C18" s="84"/>
-      <c r="D18" s="79"/>
-      <c r="E18" s="80"/>
-      <c r="F18" s="81"/>
-      <c r="G18" s="79"/>
-      <c r="H18" s="80"/>
-      <c r="I18" s="83"/>
-    </row>
-    <row r="19" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
-      <c r="B19" s="77"/>
-      <c r="C19" s="84"/>
-      <c r="D19" s="79"/>
-      <c r="E19" s="80"/>
-      <c r="F19" s="81"/>
-      <c r="G19" s="79"/>
-      <c r="H19" s="80"/>
-      <c r="I19" s="83"/>
-    </row>
-    <row r="20" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="76"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="85"/>
-      <c r="D20" s="79"/>
-      <c r="E20" s="80"/>
-      <c r="F20" s="81"/>
-      <c r="G20" s="79"/>
-      <c r="H20" s="80"/>
-      <c r="I20" s="83"/>
-    </row>
-    <row r="21" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="76"/>
-      <c r="B21" s="77"/>
-      <c r="C21" s="86"/>
-      <c r="D21" s="79"/>
-      <c r="E21" s="80"/>
-      <c r="F21" s="81"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="80"/>
-      <c r="I21" s="83"/>
-    </row>
-    <row r="22" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="86"/>
-      <c r="D22" s="79"/>
-      <c r="E22" s="80"/>
-      <c r="F22" s="81"/>
-      <c r="G22" s="149"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="89"/>
-    </row>
-    <row r="23" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="76"/>
-      <c r="B23" s="77"/>
-      <c r="C23" s="86"/>
-      <c r="D23" s="79"/>
-      <c r="E23" s="80"/>
-      <c r="F23" s="81"/>
-      <c r="G23" s="79"/>
-      <c r="H23" s="80"/>
-      <c r="I23" s="83"/>
-    </row>
-    <row r="24" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="86"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="80"/>
-      <c r="F24" s="81"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="80"/>
-      <c r="I24" s="83"/>
-    </row>
-    <row r="25" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="76"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="79"/>
-      <c r="E25" s="80"/>
-      <c r="F25" s="81"/>
-      <c r="G25" s="79"/>
-      <c r="H25" s="80"/>
-      <c r="I25" s="83"/>
-    </row>
-    <row r="26" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="76"/>
-      <c r="B26" s="77"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="79"/>
-      <c r="H26" s="80"/>
-      <c r="I26" s="83"/>
-    </row>
-    <row r="27" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="76"/>
-      <c r="B27" s="77"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="80"/>
-      <c r="F27" s="81"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="80"/>
-      <c r="I27" s="83"/>
-    </row>
-    <row r="28" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="76"/>
-      <c r="B28" s="77"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="79"/>
-      <c r="E28" s="80"/>
-      <c r="F28" s="81"/>
-      <c r="G28" s="79"/>
-      <c r="H28" s="80"/>
-      <c r="I28" s="83"/>
-    </row>
-    <row r="29" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="76"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="79"/>
-      <c r="E29" s="80"/>
-      <c r="F29" s="81"/>
-      <c r="G29" s="79"/>
-      <c r="H29" s="80"/>
-      <c r="I29" s="83"/>
-    </row>
-    <row r="30" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="79"/>
-      <c r="E30" s="80"/>
-      <c r="F30" s="81"/>
-      <c r="G30" s="79"/>
-      <c r="H30" s="80"/>
-      <c r="I30" s="83"/>
-    </row>
-    <row r="31" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="76"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="79"/>
-      <c r="E31" s="80"/>
-      <c r="F31" s="81"/>
-      <c r="G31" s="79"/>
-      <c r="H31" s="80"/>
-      <c r="I31" s="83"/>
-    </row>
-    <row r="32" spans="1:9" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="76"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="79"/>
-      <c r="E32" s="80"/>
-      <c r="F32" s="81"/>
-      <c r="G32" s="79"/>
-      <c r="H32" s="80"/>
-      <c r="I32" s="83"/>
-    </row>
-    <row r="33" spans="1:12" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="76"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="79"/>
-      <c r="E33" s="80"/>
-      <c r="F33" s="81"/>
-      <c r="G33" s="79"/>
-      <c r="H33" s="80"/>
-      <c r="I33" s="83"/>
-    </row>
-    <row r="34" spans="1:12" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="76"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="79"/>
-      <c r="E34" s="80"/>
-      <c r="F34" s="81"/>
-      <c r="G34" s="79"/>
-      <c r="H34" s="80"/>
-      <c r="I34" s="83"/>
-    </row>
-    <row r="35" spans="1:12" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="76"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="90"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-      <c r="H35" s="90"/>
-      <c r="I35" s="83"/>
-    </row>
-    <row r="36" spans="1:12" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="76"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="79"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="83"/>
-    </row>
-    <row r="37" spans="1:12" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="76"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="79"/>
-      <c r="E37" s="90"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="90"/>
-      <c r="I37" s="83"/>
-    </row>
-    <row r="38" spans="1:12" s="43" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="91"/>
-      <c r="B38" s="92"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="94"/>
-      <c r="E38" s="95"/>
-      <c r="F38" s="94"/>
-      <c r="G38" s="94"/>
-      <c r="H38" s="95"/>
-      <c r="I38" s="97"/>
-    </row>
-    <row r="39" spans="1:12" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="66"/>
+      <c r="B9" s="67"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="70"/>
+      <c r="F9" s="71"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="72"/>
+    </row>
+    <row r="10" spans="1:11" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="73"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="76"/>
+      <c r="E10" s="77"/>
+      <c r="F10" s="78"/>
+      <c r="G10" s="76"/>
+      <c r="H10" s="77"/>
+      <c r="I10" s="80"/>
+    </row>
+    <row r="11" spans="1:11" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="73"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="76"/>
+      <c r="E11" s="77"/>
+      <c r="F11" s="78"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="77"/>
+      <c r="I11" s="80"/>
+    </row>
+    <row r="12" spans="1:11" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="73"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="81"/>
+      <c r="D12" s="76"/>
+      <c r="E12" s="77"/>
+      <c r="F12" s="78"/>
+      <c r="G12" s="76"/>
+      <c r="H12" s="77"/>
+      <c r="I12" s="80"/>
+    </row>
+    <row r="13" spans="1:11" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="73"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="81"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="77"/>
+      <c r="F13" s="78"/>
+      <c r="G13" s="76"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="80"/>
+    </row>
+    <row r="14" spans="1:11" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="73"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="76"/>
+      <c r="E14" s="77"/>
+      <c r="F14" s="78"/>
+      <c r="G14" s="76"/>
+      <c r="H14" s="77"/>
+      <c r="I14" s="80"/>
+    </row>
+    <row r="15" spans="1:11" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="73"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="81"/>
+      <c r="D15" s="76"/>
+      <c r="E15" s="77"/>
+      <c r="F15" s="78"/>
+      <c r="G15" s="76"/>
+      <c r="H15" s="77"/>
+      <c r="I15" s="80"/>
+    </row>
+    <row r="16" spans="1:11" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="73"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="81"/>
+      <c r="D16" s="76"/>
+      <c r="E16" s="77"/>
+      <c r="F16" s="78"/>
+      <c r="G16" s="76"/>
+      <c r="H16" s="77"/>
+      <c r="I16" s="80"/>
+    </row>
+    <row r="17" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="73"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="81"/>
+      <c r="D17" s="76"/>
+      <c r="E17" s="77"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="76"/>
+      <c r="H17" s="77"/>
+      <c r="I17" s="80"/>
+    </row>
+    <row r="18" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="73"/>
+      <c r="B18" s="74"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="76"/>
+      <c r="E18" s="77"/>
+      <c r="F18" s="78"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="77"/>
+      <c r="I18" s="80"/>
+    </row>
+    <row r="19" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="73"/>
+      <c r="B19" s="74"/>
+      <c r="C19" s="81"/>
+      <c r="D19" s="76"/>
+      <c r="E19" s="77"/>
+      <c r="F19" s="78"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="80"/>
+    </row>
+    <row r="20" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="73"/>
+      <c r="B20" s="74"/>
+      <c r="C20" s="82"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="78"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="80"/>
+    </row>
+    <row r="21" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="73"/>
+      <c r="B21" s="74"/>
+      <c r="C21" s="83"/>
+      <c r="D21" s="76"/>
+      <c r="E21" s="77"/>
+      <c r="F21" s="78"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="77"/>
+      <c r="I21" s="80"/>
+    </row>
+    <row r="22" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="73"/>
+      <c r="B22" s="74"/>
+      <c r="C22" s="83"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="77"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="145"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="86"/>
+    </row>
+    <row r="23" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="73"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="83"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="76"/>
+      <c r="H23" s="77"/>
+      <c r="I23" s="80"/>
+    </row>
+    <row r="24" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="73"/>
+      <c r="B24" s="74"/>
+      <c r="C24" s="83"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="77"/>
+      <c r="I24" s="80"/>
+    </row>
+    <row r="25" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="73"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="76"/>
+      <c r="E25" s="77"/>
+      <c r="F25" s="78"/>
+      <c r="G25" s="76"/>
+      <c r="H25" s="77"/>
+      <c r="I25" s="80"/>
+    </row>
+    <row r="26" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="73"/>
+      <c r="B26" s="74"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="76"/>
+      <c r="E26" s="77"/>
+      <c r="F26" s="78"/>
+      <c r="G26" s="76"/>
+      <c r="H26" s="77"/>
+      <c r="I26" s="80"/>
+    </row>
+    <row r="27" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="73"/>
+      <c r="B27" s="74"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="76"/>
+      <c r="E27" s="77"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="77"/>
+      <c r="I27" s="80"/>
+    </row>
+    <row r="28" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="73"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="76"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="78"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="77"/>
+      <c r="I28" s="80"/>
+    </row>
+    <row r="29" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="73"/>
+      <c r="B29" s="74"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="76"/>
+      <c r="E29" s="77"/>
+      <c r="F29" s="78"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="77"/>
+      <c r="I29" s="80"/>
+    </row>
+    <row r="30" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="73"/>
+      <c r="B30" s="74"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="76"/>
+      <c r="E30" s="77"/>
+      <c r="F30" s="78"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="77"/>
+      <c r="I30" s="80"/>
+    </row>
+    <row r="31" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="73"/>
+      <c r="B31" s="74"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="77"/>
+      <c r="F31" s="78"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="77"/>
+      <c r="I31" s="80"/>
+    </row>
+    <row r="32" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="73"/>
+      <c r="B32" s="74"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="76"/>
+      <c r="E32" s="77"/>
+      <c r="F32" s="78"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="77"/>
+      <c r="I32" s="80"/>
+    </row>
+    <row r="33" spans="1:12" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="73"/>
+      <c r="B33" s="74"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="77"/>
+      <c r="F33" s="78"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="77"/>
+      <c r="I33" s="80"/>
+    </row>
+    <row r="34" spans="1:12" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="73"/>
+      <c r="B34" s="74"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="76"/>
+      <c r="E34" s="77"/>
+      <c r="F34" s="78"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="77"/>
+      <c r="I34" s="80"/>
+    </row>
+    <row r="35" spans="1:12" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="73"/>
+      <c r="B35" s="74"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="76"/>
+      <c r="E35" s="87"/>
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="87"/>
+      <c r="I35" s="80"/>
+    </row>
+    <row r="36" spans="1:12" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="73"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="76"/>
+      <c r="E36" s="87"/>
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="87"/>
+      <c r="I36" s="80"/>
+    </row>
+    <row r="37" spans="1:12" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="73"/>
+      <c r="B37" s="74"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="80"/>
+    </row>
+    <row r="38" spans="1:12" s="42" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="88"/>
+      <c r="B38" s="89"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="91"/>
+      <c r="E38" s="92"/>
+      <c r="F38" s="91"/>
+      <c r="G38" s="91"/>
+      <c r="H38" s="92"/>
+      <c r="I38" s="94"/>
+    </row>
+    <row r="39" spans="1:12" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="169" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="170"/>
       <c r="C39" s="170"/>
-      <c r="D39" s="19" t="e">
+      <c r="D39" s="18" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="98" t="e">
+      <c r="E39" s="95" t="e">
         <f t="shared" ref="E39:H39" si="0">AVERAGE(E9:E38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F39" s="19" t="e">
+      <c r="F39" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="19" t="e">
+      <c r="G39" s="18" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="98" t="e">
+      <c r="H39" s="95" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="126" t="e">
+      <c r="I39" s="123" t="e">
         <f t="shared" ref="I39" si="1">AVERAGE(I9:I38)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="43" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:12" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="167" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="168"/>
       <c r="C40" s="168"/>
-      <c r="D40" s="26">
+      <c r="D40" s="25">
         <f>MIN(D9:D38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="25">
+      <c r="E40" s="24">
         <f t="shared" ref="E40:H40" si="2">MIN(E9:E38)</f>
         <v>0</v>
       </c>
-      <c r="F40" s="26">
+      <c r="F40" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G40" s="26">
+      <c r="G40" s="25">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H40" s="25">
+      <c r="H40" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I40" s="128">
+      <c r="I40" s="125">
         <f t="shared" ref="I40" si="3">MIN(I9:I38)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="43" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" s="42" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="165" t="s">
         <v>25</v>
       </c>
       <c r="B41" s="166"/>
       <c r="C41" s="166"/>
-      <c r="D41" s="99">
+      <c r="D41" s="96">
         <f>MAX(D9:D38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="100">
+      <c r="E41" s="97">
         <f t="shared" ref="E41:H41" si="4">MAX(E9:E38)</f>
         <v>0</v>
       </c>
-      <c r="F41" s="99">
+      <c r="F41" s="96">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G41" s="99">
+      <c r="G41" s="96">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H41" s="100">
+      <c r="H41" s="97">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I41" s="130">
+      <c r="I41" s="127">
         <f t="shared" ref="I41" si="5">MAX(I9:I38)</f>
         <v>0</v>
       </c>
-      <c r="J41" s="44"/>
-      <c r="K41" s="44"/>
-      <c r="L41" s="44"/>
-    </row>
-    <row r="42" spans="1:12" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="101" t="s">
+      <c r="J41" s="43"/>
+      <c r="K41" s="43"/>
+      <c r="L41" s="43"/>
+    </row>
+    <row r="42" spans="1:12" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="98" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="172"/>
       <c r="C42" s="172"/>
-      <c r="D42" s="101" t="s">
+      <c r="D42" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="102"/>
-      <c r="F42" s="103"/>
-      <c r="G42" s="61" t="s">
+      <c r="E42" s="99"/>
+      <c r="F42" s="100"/>
+      <c r="G42" s="58" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="59"/>
-      <c r="I42" s="104" t="s">
+      <c r="H42" s="56"/>
+      <c r="I42" s="101" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="105"/>
+    <row r="43" spans="1:12" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="102"/>
       <c r="B43" s="173"/>
       <c r="C43" s="173"/>
-      <c r="D43" s="101"/>
-      <c r="E43" s="102"/>
-      <c r="F43" s="103"/>
-      <c r="G43" s="56"/>
-      <c r="H43" s="59"/>
-      <c r="I43" s="104"/>
+      <c r="D43" s="98"/>
+      <c r="E43" s="99"/>
+      <c r="F43" s="100"/>
+      <c r="G43" s="53"/>
+      <c r="H43" s="56"/>
+      <c r="I43" s="101"/>
     </row>
     <row r="44" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="158" t="s">
@@ -3414,16 +3417,16 @@
       </c>
       <c r="B44" s="158"/>
       <c r="C44" s="158"/>
-      <c r="D44" s="106"/>
-      <c r="E44" s="107" t="s">
+      <c r="D44" s="103"/>
+      <c r="E44" s="104" t="s">
         <v>109</v>
       </c>
-      <c r="F44" s="56">
+      <c r="F44" s="53">
         <v>461343000</v>
       </c>
-      <c r="G44" s="60"/>
-      <c r="H44" s="60"/>
-      <c r="I44" s="60"/>
+      <c r="G44" s="57"/>
+      <c r="H44" s="57"/>
+      <c r="I44" s="57"/>
     </row>
     <row r="45" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="158" t="s">
@@ -3431,25 +3434,25 @@
       </c>
       <c r="B45" s="158"/>
       <c r="C45" s="158"/>
-      <c r="D45" s="106"/>
-      <c r="E45" s="60"/>
-      <c r="F45" s="60"/>
-      <c r="G45" s="60"/>
+      <c r="D45" s="103"/>
+      <c r="E45" s="57"/>
+      <c r="F45" s="57"/>
+      <c r="G45" s="57"/>
       <c r="H45" s="150" t="s">
         <v>26</v>
       </c>
       <c r="I45" s="150"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="45"/>
-      <c r="B46" s="45"/>
-      <c r="C46" s="45"/>
-      <c r="D46" s="45"/>
-      <c r="E46" s="45"/>
-      <c r="F46" s="45"/>
-      <c r="G46" s="46"/>
-      <c r="H46" s="46"/>
-      <c r="I46" s="46"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="44"/>
+      <c r="G46" s="45"/>
+      <c r="H46" s="45"/>
+      <c r="I46" s="45"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -3502,8 +3505,9 @@
       <formula>300</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="0.90551181102362199" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="68" orientation="landscape" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3515,17 +3519,17 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="13.85546875" style="51" customWidth="1"/>
-    <col min="4" max="9" width="22.140625" style="51" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="51"/>
+    <col min="1" max="3" width="13.85546875" style="50" customWidth="1"/>
+    <col min="4" max="9" width="22.140625" style="50" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="171" t="s">
         <v>9</v>
       </c>
@@ -3536,11 +3540,11 @@
       <c r="F1" s="171"/>
       <c r="G1" s="171"/>
       <c r="H1" s="171"/>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="54" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="171" t="s">
         <v>12</v>
       </c>
@@ -3551,28 +3555,28 @@
       <c r="F2" s="171"/>
       <c r="G2" s="171"/>
       <c r="H2" s="171"/>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="55" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61" t="s">
+    <row r="3" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="55">
+      <c r="I3" s="52">
         <f>Page1!I3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+    <row r="4" spans="1:11" s="42" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="174">
@@ -3580,33 +3584,33 @@
         <v>0</v>
       </c>
       <c r="C4" s="175"/>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="36">
         <f>Page1!E4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="36">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="148" t="s">
+      <c r="H4" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="61">
         <f>Page1!I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="42" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="43" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="108" t="s">
+    <row r="5" spans="1:11" s="42" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="105" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="191">
@@ -3614,29 +3618,29 @@
         <v>0</v>
       </c>
       <c r="C5" s="192"/>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <f>Page1!E5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="29">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="147" t="s">
+      <c r="H5" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="110">
+      <c r="I5" s="107">
         <f>Page1!I5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="50" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="49" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="197" t="s">
         <v>108</v>
       </c>
@@ -3645,9 +3649,9 @@
       <c r="D6" s="152"/>
       <c r="E6" s="152"/>
       <c r="F6" s="199"/>
-      <c r="G6" s="111"/>
-      <c r="H6" s="112"/>
-      <c r="I6" s="113"/>
+      <c r="G6" s="108"/>
+      <c r="H6" s="109"/>
+      <c r="I6" s="110"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="182" t="s">
@@ -3663,7 +3667,7 @@
       <c r="G7" s="188" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="49" t="s">
+      <c r="H7" s="48" t="s">
         <v>110</v>
       </c>
       <c r="I7" s="180" t="s">
@@ -3684,7 +3688,7 @@
         <v>34</v>
       </c>
       <c r="G8" s="188"/>
-      <c r="H8" s="49" t="s">
+      <c r="H8" s="48" t="s">
         <v>111</v>
       </c>
       <c r="I8" s="180"/>
@@ -3697,7 +3701,7 @@
       <c r="E9" s="196"/>
       <c r="F9" s="184"/>
       <c r="G9" s="188"/>
-      <c r="H9" s="47" t="s">
+      <c r="H9" s="46" t="s">
         <v>112</v>
       </c>
       <c r="I9" s="180"/>
@@ -3710,543 +3714,543 @@
       <c r="E10" s="164"/>
       <c r="F10" s="187"/>
       <c r="G10" s="157"/>
-      <c r="H10" s="48" t="s">
+      <c r="H10" s="47" t="s">
         <v>113</v>
       </c>
       <c r="I10" s="181"/>
     </row>
-    <row r="11" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="114"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="85"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="117"/>
-      <c r="I11" s="89"/>
-    </row>
-    <row r="12" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="120"/>
-      <c r="E12" s="90"/>
-      <c r="F12" s="90"/>
-      <c r="G12" s="121"/>
-      <c r="H12" s="90"/>
-      <c r="I12" s="83"/>
-    </row>
-    <row r="13" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="76"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="120"/>
-      <c r="E13" s="90"/>
-      <c r="F13" s="90"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="90"/>
-      <c r="I13" s="83"/>
-    </row>
-    <row r="14" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="120"/>
-      <c r="E14" s="90"/>
-      <c r="F14" s="90"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="90"/>
-      <c r="I14" s="83"/>
-    </row>
-    <row r="15" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="120"/>
-      <c r="E15" s="90"/>
-      <c r="F15" s="90"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="90"/>
-      <c r="I15" s="83"/>
-    </row>
-    <row r="16" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="120"/>
-      <c r="E16" s="90"/>
-      <c r="F16" s="90"/>
-      <c r="G16" s="121"/>
-      <c r="H16" s="90"/>
-      <c r="I16" s="83"/>
-    </row>
-    <row r="17" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="120"/>
-      <c r="E17" s="90"/>
-      <c r="F17" s="90"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="90"/>
-      <c r="I17" s="83"/>
-    </row>
-    <row r="18" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="120"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="83"/>
-    </row>
-    <row r="19" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="120"/>
-      <c r="E19" s="90"/>
-      <c r="F19" s="90"/>
-      <c r="G19" s="121"/>
-      <c r="H19" s="90"/>
-      <c r="I19" s="83"/>
-    </row>
-    <row r="20" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="76"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="120"/>
-      <c r="E20" s="90"/>
-      <c r="F20" s="90"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="90"/>
-      <c r="I20" s="83"/>
-    </row>
-    <row r="21" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="76"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="120"/>
-      <c r="E21" s="90"/>
-      <c r="F21" s="90"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="90"/>
-      <c r="I21" s="83"/>
-    </row>
-    <row r="22" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="120"/>
-      <c r="E22" s="90"/>
-      <c r="F22" s="90"/>
-      <c r="G22" s="121"/>
-      <c r="H22" s="90"/>
-      <c r="I22" s="83"/>
-    </row>
-    <row r="23" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="76"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="120"/>
-      <c r="E23" s="90"/>
-      <c r="F23" s="90"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="90"/>
-      <c r="I23" s="83"/>
-    </row>
-    <row r="24" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="76"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="120"/>
-      <c r="E24" s="90"/>
-      <c r="F24" s="90"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="90"/>
-      <c r="I24" s="83"/>
-    </row>
-    <row r="25" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="76"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="116"/>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="121"/>
-      <c r="H25" s="90"/>
-      <c r="I25" s="89"/>
-    </row>
-    <row r="26" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="76"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="116"/>
-      <c r="E26" s="117"/>
-      <c r="F26" s="117"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="90"/>
-      <c r="I26" s="89"/>
-    </row>
-    <row r="27" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="76"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="116"/>
-      <c r="E27" s="117"/>
-      <c r="F27" s="117"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="90"/>
-      <c r="I27" s="89"/>
-    </row>
-    <row r="28" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="76"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="116"/>
-      <c r="E28" s="117"/>
-      <c r="F28" s="117"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="90"/>
-      <c r="I28" s="89"/>
-    </row>
-    <row r="29" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="76"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="116" t="s">
-        <v>118</v>
-      </c>
-      <c r="E29" s="117" t="s">
-        <v>118</v>
-      </c>
-      <c r="F29" s="117" t="s">
-        <v>118</v>
-      </c>
-      <c r="G29" s="121" t="s">
-        <v>118</v>
-      </c>
-      <c r="H29" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="I29" s="89" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="116" t="s">
-        <v>118</v>
-      </c>
-      <c r="E30" s="117" t="s">
-        <v>118</v>
-      </c>
-      <c r="F30" s="117" t="s">
-        <v>118</v>
-      </c>
-      <c r="G30" s="121" t="s">
-        <v>118</v>
-      </c>
-      <c r="H30" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="I30" s="89" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="76"/>
-      <c r="B31" s="119"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="120" t="s">
-        <v>118</v>
-      </c>
-      <c r="E31" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="F31" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="G31" s="121" t="s">
-        <v>118</v>
-      </c>
-      <c r="H31" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="I31" s="83" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="76"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="120" t="s">
-        <v>118</v>
-      </c>
-      <c r="E32" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="F32" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="G32" s="121" t="s">
-        <v>118</v>
-      </c>
-      <c r="H32" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="I32" s="83" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="76"/>
-      <c r="B33" s="119"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="120" t="s">
-        <v>118</v>
-      </c>
-      <c r="E33" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="F33" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="G33" s="121" t="s">
-        <v>118</v>
-      </c>
-      <c r="H33" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="I33" s="83" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="76"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="120" t="s">
-        <v>118</v>
-      </c>
-      <c r="E34" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="F34" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="G34" s="121" t="s">
-        <v>118</v>
-      </c>
-      <c r="H34" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="I34" s="83" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="76"/>
-      <c r="B35" s="119"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="120" t="s">
-        <v>118</v>
-      </c>
-      <c r="E35" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="F35" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="G35" s="121" t="s">
-        <v>118</v>
-      </c>
-      <c r="H35" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="I35" s="83" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="76"/>
-      <c r="B36" s="119"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="120" t="s">
-        <v>118</v>
-      </c>
-      <c r="E36" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="F36" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="G36" s="121" t="s">
-        <v>118</v>
-      </c>
-      <c r="H36" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="I36" s="83" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="76"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="120" t="s">
-        <v>118</v>
-      </c>
-      <c r="E37" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="F37" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="G37" s="121" t="s">
-        <v>118</v>
-      </c>
-      <c r="H37" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="I37" s="83" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="76"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="120" t="s">
-        <v>118</v>
-      </c>
-      <c r="E38" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="F38" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="G38" s="121" t="s">
-        <v>118</v>
-      </c>
-      <c r="H38" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="I38" s="83" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="76"/>
-      <c r="B39" s="119"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="120" t="s">
-        <v>118</v>
-      </c>
-      <c r="E39" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="F39" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="G39" s="121" t="s">
-        <v>118</v>
-      </c>
-      <c r="H39" s="90" t="s">
-        <v>118</v>
-      </c>
-      <c r="I39" s="83" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="76"/>
-      <c r="B40" s="119"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="122" t="s">
-        <v>118</v>
-      </c>
-      <c r="E40" s="95" t="s">
-        <v>118</v>
-      </c>
-      <c r="F40" s="123" t="s">
-        <v>118</v>
-      </c>
-      <c r="G40" s="124" t="s">
-        <v>118</v>
-      </c>
-      <c r="H40" s="95" t="s">
-        <v>118</v>
-      </c>
-      <c r="I40" s="97" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="111"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="113"/>
+      <c r="E11" s="114"/>
+      <c r="F11" s="114"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="114"/>
+      <c r="I11" s="86"/>
+    </row>
+    <row r="12" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="73"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="117"/>
+      <c r="E12" s="87"/>
+      <c r="F12" s="87"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="87"/>
+      <c r="I12" s="80"/>
+    </row>
+    <row r="13" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="73"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="117"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="87"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="87"/>
+      <c r="I13" s="80"/>
+    </row>
+    <row r="14" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="73"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="117"/>
+      <c r="E14" s="87"/>
+      <c r="F14" s="87"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="87"/>
+      <c r="I14" s="80"/>
+    </row>
+    <row r="15" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="73"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="87"/>
+      <c r="F15" s="87"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="87"/>
+      <c r="I15" s="80"/>
+    </row>
+    <row r="16" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="73"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="80"/>
+    </row>
+    <row r="17" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="73"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="117"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="87"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="87"/>
+      <c r="I17" s="80"/>
+    </row>
+    <row r="18" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="73"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="117"/>
+      <c r="E18" s="87"/>
+      <c r="F18" s="87"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="87"/>
+      <c r="I18" s="80"/>
+    </row>
+    <row r="19" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="73"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="87"/>
+      <c r="I19" s="80"/>
+    </row>
+    <row r="20" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="73"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="87"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="87"/>
+      <c r="I20" s="80"/>
+    </row>
+    <row r="21" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="73"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="117"/>
+      <c r="E21" s="87"/>
+      <c r="F21" s="87"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="87"/>
+      <c r="I21" s="80"/>
+    </row>
+    <row r="22" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="73"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="117"/>
+      <c r="E22" s="87"/>
+      <c r="F22" s="87"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="87"/>
+      <c r="I22" s="80"/>
+    </row>
+    <row r="23" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="73"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="117"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="87"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="80"/>
+    </row>
+    <row r="24" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="73"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="87"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="80"/>
+    </row>
+    <row r="25" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="73"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="113"/>
+      <c r="E25" s="114"/>
+      <c r="F25" s="114"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="87"/>
+      <c r="I25" s="86"/>
+    </row>
+    <row r="26" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="73"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="113"/>
+      <c r="E26" s="114"/>
+      <c r="F26" s="114"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="87"/>
+      <c r="I26" s="86"/>
+    </row>
+    <row r="27" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="73"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="113"/>
+      <c r="E27" s="114"/>
+      <c r="F27" s="114"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="87"/>
+      <c r="I27" s="86"/>
+    </row>
+    <row r="28" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="73"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="113"/>
+      <c r="E28" s="114"/>
+      <c r="F28" s="114"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="87"/>
+      <c r="I28" s="86"/>
+    </row>
+    <row r="29" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="73"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="114" t="s">
+        <v>118</v>
+      </c>
+      <c r="F29" s="114" t="s">
+        <v>118</v>
+      </c>
+      <c r="G29" s="118" t="s">
+        <v>118</v>
+      </c>
+      <c r="H29" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="I29" s="86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="73"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="113" t="s">
+        <v>118</v>
+      </c>
+      <c r="E30" s="114" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="114" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="118" t="s">
+        <v>118</v>
+      </c>
+      <c r="H30" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="I30" s="86" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="73"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="F31" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="G31" s="118" t="s">
+        <v>118</v>
+      </c>
+      <c r="H31" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="I31" s="80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="73"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="E32" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" s="118" t="s">
+        <v>118</v>
+      </c>
+      <c r="H32" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="I32" s="80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="73"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="E33" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="F33" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" s="118" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="I33" s="80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="73"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="E34" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="F34" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" s="118" t="s">
+        <v>118</v>
+      </c>
+      <c r="H34" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="I34" s="80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="73"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="E35" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="F35" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="G35" s="118" t="s">
+        <v>118</v>
+      </c>
+      <c r="H35" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="I35" s="80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="73"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="E36" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="F36" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="G36" s="118" t="s">
+        <v>118</v>
+      </c>
+      <c r="H36" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="I36" s="80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="73"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="E37" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="F37" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="G37" s="118" t="s">
+        <v>118</v>
+      </c>
+      <c r="H37" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="I37" s="80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="73"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="E38" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="F38" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" s="118" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="I38" s="80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="73"/>
+      <c r="B39" s="116"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="117" t="s">
+        <v>118</v>
+      </c>
+      <c r="E39" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="F39" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="G39" s="118" t="s">
+        <v>118</v>
+      </c>
+      <c r="H39" s="87" t="s">
+        <v>118</v>
+      </c>
+      <c r="I39" s="80" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="73"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="119" t="s">
+        <v>118</v>
+      </c>
+      <c r="E40" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="F40" s="120" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" s="121" t="s">
+        <v>118</v>
+      </c>
+      <c r="H40" s="92" t="s">
+        <v>118</v>
+      </c>
+      <c r="I40" s="94" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="169" t="s">
         <v>19</v>
       </c>
       <c r="B41" s="170"/>
       <c r="C41" s="170"/>
-      <c r="D41" s="19" t="e">
+      <c r="D41" s="18" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="98" t="e">
+      <c r="E41" s="95" t="e">
         <f t="shared" ref="E41:I41" si="0">AVERAGE(E11:E40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F41" s="98" t="e">
+      <c r="F41" s="95" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="125" t="e">
+      <c r="G41" s="122" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="98" t="e">
+      <c r="H41" s="95" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="126" t="e">
+      <c r="I41" s="123" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="167" t="s">
         <v>24</v>
       </c>
       <c r="B42" s="168"/>
       <c r="C42" s="168"/>
-      <c r="D42" s="26">
+      <c r="D42" s="25">
         <f>MIN(D11:D40)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="25">
+      <c r="E42" s="24">
         <f t="shared" ref="E42:I42" si="1">MIN(E11:E40)</f>
         <v>0</v>
       </c>
-      <c r="F42" s="25">
+      <c r="F42" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G42" s="127">
+      <c r="G42" s="124">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H42" s="25">
+      <c r="H42" s="24">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I42" s="128">
+      <c r="I42" s="125">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -4257,33 +4261,33 @@
       </c>
       <c r="B43" s="166"/>
       <c r="C43" s="166"/>
-      <c r="D43" s="99">
+      <c r="D43" s="96">
         <f>MAX(D11:D40)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="100">
+      <c r="E43" s="97">
         <f t="shared" ref="E43:I43" si="2">MAX(E11:E40)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="100">
+      <c r="F43" s="97">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G43" s="129">
+      <c r="G43" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H43" s="100">
+      <c r="H43" s="97">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I43" s="130">
+      <c r="I43" s="127">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="131" t="s">
+    <row r="44" spans="1:9" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="128" t="s">
         <v>13</v>
       </c>
       <c r="B44" s="172">
@@ -4291,67 +4295,67 @@
         <v>0</v>
       </c>
       <c r="C44" s="189"/>
-      <c r="D44" s="131" t="s">
+      <c r="D44" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="131"/>
-      <c r="F44" s="132"/>
-      <c r="G44" s="132" t="s">
+      <c r="E44" s="128"/>
+      <c r="F44" s="129"/>
+      <c r="G44" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="H44" s="133">
+      <c r="H44" s="130">
         <f>Page1!H42</f>
         <v>0</v>
       </c>
-      <c r="I44" s="134" t="s">
+      <c r="I44" s="131" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="135"/>
+    <row r="45" spans="1:9" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="132"/>
       <c r="B45" s="173">
         <f>Page1!B43</f>
         <v>0</v>
       </c>
       <c r="C45" s="190"/>
-      <c r="D45" s="131"/>
-      <c r="E45" s="131"/>
-      <c r="F45" s="132"/>
-      <c r="G45" s="135"/>
-      <c r="H45" s="133">
+      <c r="D45" s="128"/>
+      <c r="E45" s="128"/>
+      <c r="F45" s="129"/>
+      <c r="G45" s="132"/>
+      <c r="H45" s="130">
         <f>Page1!H43</f>
         <v>0</v>
       </c>
-      <c r="I45" s="134"/>
-    </row>
-    <row r="46" spans="1:9" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I45" s="131"/>
+    </row>
+    <row r="46" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="178" t="s">
         <v>14</v>
       </c>
       <c r="B46" s="178"/>
       <c r="C46" s="178"/>
-      <c r="D46" s="136"/>
-      <c r="E46" s="137" t="s">
+      <c r="D46" s="133"/>
+      <c r="E46" s="134" t="s">
         <v>109</v>
       </c>
-      <c r="F46" s="135">
+      <c r="F46" s="132">
         <f>Page1!F44</f>
         <v>461343000</v>
       </c>
-      <c r="G46" s="136"/>
-      <c r="H46" s="136"/>
-      <c r="I46" s="136"/>
-    </row>
-    <row r="47" spans="1:9" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G46" s="133"/>
+      <c r="H46" s="133"/>
+      <c r="I46" s="133"/>
+    </row>
+    <row r="47" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="178" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="178"/>
       <c r="C47" s="178"/>
-      <c r="D47" s="136"/>
-      <c r="E47" s="136"/>
-      <c r="F47" s="136"/>
-      <c r="G47" s="136"/>
+      <c r="D47" s="133"/>
+      <c r="E47" s="133"/>
+      <c r="F47" s="133"/>
+      <c r="G47" s="133"/>
       <c r="H47" s="179" t="s">
         <v>27</v>
       </c>
@@ -4415,8 +4419,9 @@
       <formula>510</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="1.1023622047244095" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="69" orientation="landscape" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="64" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4428,17 +4433,17 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:C4"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="14" style="51" customWidth="1"/>
-    <col min="4" max="9" width="22.140625" style="51" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="51"/>
+    <col min="1" max="3" width="14" style="50" customWidth="1"/>
+    <col min="4" max="9" width="22.140625" style="50" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="171" t="s">
         <v>9</v>
       </c>
@@ -4449,11 +4454,11 @@
       <c r="F1" s="171"/>
       <c r="G1" s="171"/>
       <c r="H1" s="171"/>
-      <c r="I1" s="57" t="s">
+      <c r="I1" s="54" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="171" t="s">
         <v>12</v>
       </c>
@@ -4464,28 +4469,28 @@
       <c r="F2" s="171"/>
       <c r="G2" s="171"/>
       <c r="H2" s="171"/>
-      <c r="I2" s="58" t="s">
+      <c r="I2" s="55" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="43" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="61" t="s">
+    <row r="3" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="56"/>
+      <c r="B3" s="56"/>
+      <c r="C3" s="56"/>
+      <c r="D3" s="56"/>
+      <c r="E3" s="56"/>
+      <c r="F3" s="56"/>
+      <c r="G3" s="57"/>
+      <c r="H3" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="55">
+      <c r="I3" s="52">
         <f>Page1!I3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="43" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="62" t="s">
+    <row r="4" spans="1:11" s="42" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="59" t="s">
         <v>10</v>
       </c>
       <c r="B4" s="174">
@@ -4493,33 +4498,33 @@
         <v>0</v>
       </c>
       <c r="C4" s="175"/>
-      <c r="D4" s="63" t="s">
+      <c r="D4" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="37">
+      <c r="E4" s="36">
         <f>Page1!E4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="63" t="s">
+      <c r="F4" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="37">
+      <c r="G4" s="36">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="148" t="s">
+      <c r="H4" s="144" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="64">
+      <c r="I4" s="61">
         <f>Page1!I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="K4" s="42" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="43" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="108" t="s">
+    <row r="5" spans="1:11" s="42" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="105" t="s">
         <v>11</v>
       </c>
       <c r="B5" s="191">
@@ -4527,29 +4532,29 @@
         <v>0</v>
       </c>
       <c r="C5" s="192"/>
-      <c r="D5" s="109" t="s">
+      <c r="D5" s="106" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="30">
+      <c r="E5" s="29">
         <f>Page1!E5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="109" t="s">
+      <c r="F5" s="106" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="30">
+      <c r="G5" s="29">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="147" t="s">
+      <c r="H5" s="149" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="110">
+      <c r="I5" s="107">
         <f>Page1!I5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="50" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" s="49" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="197" t="s">
         <v>108</v>
       </c>
@@ -4563,416 +4568,416 @@
       <c r="I6" s="205"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="209" t="s">
+      <c r="A7" s="208" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="204"/>
       <c r="C7" s="204"/>
-      <c r="D7" s="210" t="s">
+      <c r="D7" s="209" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="212" t="s">
+      <c r="E7" s="211" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="212" t="s">
+      <c r="F7" s="211" t="s">
         <v>116</v>
       </c>
-      <c r="G7" s="214" t="s">
+      <c r="G7" s="213" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="206"/>
-      <c r="I7" s="207"/>
+      <c r="H7" s="183"/>
+      <c r="I7" s="206"/>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="185"/>
       <c r="B8" s="186"/>
       <c r="C8" s="186"/>
-      <c r="D8" s="211"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="215"/>
-      <c r="H8" s="206"/>
-      <c r="I8" s="207"/>
-    </row>
-    <row r="9" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="114"/>
-      <c r="B9" s="115"/>
-      <c r="C9" s="85"/>
-      <c r="D9" s="138"/>
-      <c r="E9" s="87"/>
-      <c r="F9" s="87"/>
-      <c r="G9" s="139"/>
-      <c r="H9" s="206"/>
-      <c r="I9" s="207"/>
-    </row>
-    <row r="10" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="76"/>
-      <c r="B10" s="119"/>
-      <c r="C10" s="78"/>
-      <c r="D10" s="140"/>
-      <c r="E10" s="82"/>
-      <c r="F10" s="82"/>
-      <c r="G10" s="141"/>
-      <c r="H10" s="206"/>
-      <c r="I10" s="207"/>
-    </row>
-    <row r="11" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="76"/>
-      <c r="B11" s="119"/>
-      <c r="C11" s="78"/>
-      <c r="D11" s="140"/>
-      <c r="E11" s="82"/>
-      <c r="F11" s="82"/>
-      <c r="G11" s="141"/>
-      <c r="H11" s="206"/>
-      <c r="I11" s="207"/>
-    </row>
-    <row r="12" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="76"/>
-      <c r="B12" s="119"/>
-      <c r="C12" s="78"/>
-      <c r="D12" s="140"/>
-      <c r="E12" s="82"/>
-      <c r="F12" s="82"/>
-      <c r="G12" s="141"/>
-      <c r="H12" s="206"/>
-      <c r="I12" s="207"/>
-    </row>
-    <row r="13" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="76"/>
-      <c r="B13" s="119"/>
-      <c r="C13" s="78"/>
-      <c r="D13" s="140"/>
-      <c r="E13" s="82"/>
-      <c r="F13" s="82"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="206"/>
-      <c r="I13" s="207"/>
-    </row>
-    <row r="14" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="76"/>
-      <c r="B14" s="119"/>
-      <c r="C14" s="78"/>
-      <c r="D14" s="140"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="82"/>
-      <c r="G14" s="141"/>
-      <c r="H14" s="206"/>
-      <c r="I14" s="207"/>
-    </row>
-    <row r="15" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="76"/>
-      <c r="B15" s="119"/>
-      <c r="C15" s="78"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="82"/>
-      <c r="F15" s="82"/>
-      <c r="G15" s="141"/>
-      <c r="H15" s="206"/>
-      <c r="I15" s="207"/>
-    </row>
-    <row r="16" spans="1:11" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="76"/>
-      <c r="B16" s="119"/>
-      <c r="C16" s="78"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="82"/>
-      <c r="F16" s="82"/>
-      <c r="G16" s="141"/>
-      <c r="H16" s="206"/>
-      <c r="I16" s="207"/>
-    </row>
-    <row r="17" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="76"/>
-      <c r="B17" s="119"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="140"/>
-      <c r="E17" s="82"/>
-      <c r="F17" s="82"/>
-      <c r="G17" s="141"/>
-      <c r="H17" s="206"/>
-      <c r="I17" s="207"/>
-    </row>
-    <row r="18" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="76"/>
-      <c r="B18" s="119"/>
-      <c r="C18" s="78"/>
-      <c r="D18" s="140"/>
-      <c r="E18" s="82"/>
-      <c r="F18" s="82"/>
-      <c r="G18" s="141"/>
-      <c r="H18" s="206"/>
-      <c r="I18" s="207"/>
-    </row>
-    <row r="19" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="76"/>
-      <c r="B19" s="119"/>
-      <c r="C19" s="78"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="82"/>
-      <c r="F19" s="82"/>
-      <c r="G19" s="141"/>
-      <c r="H19" s="206"/>
-      <c r="I19" s="207"/>
-    </row>
-    <row r="20" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="76"/>
-      <c r="B20" s="119"/>
-      <c r="C20" s="78"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="141"/>
-      <c r="H20" s="206"/>
-      <c r="I20" s="207"/>
-    </row>
-    <row r="21" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="76"/>
-      <c r="B21" s="119"/>
-      <c r="C21" s="78"/>
-      <c r="D21" s="140"/>
-      <c r="E21" s="82"/>
-      <c r="F21" s="82"/>
-      <c r="G21" s="141"/>
-      <c r="H21" s="206"/>
-      <c r="I21" s="207"/>
-    </row>
-    <row r="22" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
-      <c r="B22" s="119"/>
-      <c r="C22" s="78"/>
-      <c r="D22" s="140"/>
-      <c r="E22" s="82"/>
-      <c r="F22" s="82"/>
-      <c r="G22" s="141"/>
-      <c r="H22" s="206"/>
-      <c r="I22" s="207"/>
-    </row>
-    <row r="23" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="76"/>
-      <c r="B23" s="119"/>
-      <c r="C23" s="78"/>
-      <c r="D23" s="140"/>
-      <c r="E23" s="82"/>
-      <c r="F23" s="82"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="206"/>
-      <c r="I23" s="207"/>
-    </row>
-    <row r="24" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="76"/>
-      <c r="B24" s="119"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="138"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="139"/>
-      <c r="H24" s="206"/>
-      <c r="I24" s="207"/>
-    </row>
-    <row r="25" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="76"/>
-      <c r="B25" s="119"/>
-      <c r="C25" s="78"/>
-      <c r="D25" s="140"/>
-      <c r="E25" s="82"/>
-      <c r="F25" s="82"/>
-      <c r="G25" s="141"/>
-      <c r="H25" s="206"/>
-      <c r="I25" s="207"/>
-    </row>
-    <row r="26" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="76"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="78"/>
-      <c r="D26" s="140"/>
-      <c r="E26" s="82"/>
-      <c r="F26" s="82"/>
-      <c r="G26" s="141"/>
-      <c r="H26" s="206"/>
-      <c r="I26" s="207"/>
-    </row>
-    <row r="27" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="76"/>
-      <c r="B27" s="119"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="140"/>
-      <c r="E27" s="82"/>
-      <c r="F27" s="82"/>
-      <c r="G27" s="141"/>
-      <c r="H27" s="206"/>
-      <c r="I27" s="207"/>
-    </row>
-    <row r="28" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="76"/>
-      <c r="B28" s="119"/>
-      <c r="C28" s="78"/>
-      <c r="D28" s="140"/>
-      <c r="E28" s="82"/>
-      <c r="F28" s="82"/>
-      <c r="G28" s="141"/>
-      <c r="H28" s="206"/>
-      <c r="I28" s="207"/>
-    </row>
-    <row r="29" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="76"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="140"/>
-      <c r="E29" s="82"/>
-      <c r="F29" s="82"/>
-      <c r="G29" s="141"/>
-      <c r="H29" s="206"/>
-      <c r="I29" s="207"/>
-    </row>
-    <row r="30" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="76"/>
-      <c r="B30" s="119"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="140"/>
-      <c r="E30" s="82"/>
-      <c r="F30" s="82"/>
-      <c r="G30" s="141"/>
-      <c r="H30" s="206"/>
-      <c r="I30" s="207"/>
-    </row>
-    <row r="31" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="76"/>
-      <c r="B31" s="119"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="140"/>
-      <c r="E31" s="82"/>
-      <c r="F31" s="82"/>
-      <c r="G31" s="141"/>
-      <c r="H31" s="206"/>
-      <c r="I31" s="207"/>
-    </row>
-    <row r="32" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="76"/>
-      <c r="B32" s="119"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="140"/>
-      <c r="E32" s="82"/>
-      <c r="F32" s="82"/>
-      <c r="G32" s="141"/>
-      <c r="H32" s="206"/>
-      <c r="I32" s="207"/>
-    </row>
-    <row r="33" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="76"/>
-      <c r="B33" s="119"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="140"/>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="141"/>
-      <c r="H33" s="206"/>
-      <c r="I33" s="207"/>
-    </row>
-    <row r="34" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="76"/>
-      <c r="B34" s="119"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="140"/>
-      <c r="E34" s="82"/>
-      <c r="F34" s="82"/>
-      <c r="G34" s="141"/>
-      <c r="H34" s="206"/>
-      <c r="I34" s="207"/>
-    </row>
-    <row r="35" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="76"/>
-      <c r="B35" s="119"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="140"/>
-      <c r="E35" s="82"/>
-      <c r="F35" s="82"/>
-      <c r="G35" s="141"/>
-      <c r="H35" s="206"/>
-      <c r="I35" s="207"/>
-    </row>
-    <row r="36" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="76"/>
-      <c r="B36" s="119"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="140"/>
-      <c r="E36" s="82"/>
-      <c r="F36" s="82"/>
-      <c r="G36" s="141"/>
-      <c r="H36" s="206"/>
-      <c r="I36" s="207"/>
-    </row>
-    <row r="37" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="76"/>
-      <c r="B37" s="119"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="140"/>
-      <c r="E37" s="82"/>
-      <c r="F37" s="82"/>
-      <c r="G37" s="141"/>
-      <c r="H37" s="206"/>
-      <c r="I37" s="207"/>
-    </row>
-    <row r="38" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="76"/>
-      <c r="B38" s="119"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="142"/>
-      <c r="E38" s="96"/>
-      <c r="F38" s="96"/>
-      <c r="G38" s="143"/>
-      <c r="H38" s="206"/>
-      <c r="I38" s="207"/>
-    </row>
-    <row r="39" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D8" s="210"/>
+      <c r="E8" s="212"/>
+      <c r="F8" s="212"/>
+      <c r="G8" s="214"/>
+      <c r="H8" s="183"/>
+      <c r="I8" s="206"/>
+    </row>
+    <row r="9" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="111"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="135"/>
+      <c r="E9" s="84"/>
+      <c r="F9" s="84"/>
+      <c r="G9" s="136"/>
+      <c r="H9" s="183"/>
+      <c r="I9" s="206"/>
+    </row>
+    <row r="10" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="73"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="75"/>
+      <c r="D10" s="137"/>
+      <c r="E10" s="79"/>
+      <c r="F10" s="79"/>
+      <c r="G10" s="138"/>
+      <c r="H10" s="183"/>
+      <c r="I10" s="206"/>
+    </row>
+    <row r="11" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="73"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="137"/>
+      <c r="E11" s="79"/>
+      <c r="F11" s="79"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="183"/>
+      <c r="I11" s="206"/>
+    </row>
+    <row r="12" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="73"/>
+      <c r="B12" s="116"/>
+      <c r="C12" s="75"/>
+      <c r="D12" s="137"/>
+      <c r="E12" s="79"/>
+      <c r="F12" s="79"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="183"/>
+      <c r="I12" s="206"/>
+    </row>
+    <row r="13" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="73"/>
+      <c r="B13" s="116"/>
+      <c r="C13" s="75"/>
+      <c r="D13" s="137"/>
+      <c r="E13" s="79"/>
+      <c r="F13" s="79"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="183"/>
+      <c r="I13" s="206"/>
+    </row>
+    <row r="14" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="73"/>
+      <c r="B14" s="116"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="137"/>
+      <c r="E14" s="79"/>
+      <c r="F14" s="79"/>
+      <c r="G14" s="138"/>
+      <c r="H14" s="183"/>
+      <c r="I14" s="206"/>
+    </row>
+    <row r="15" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="73"/>
+      <c r="B15" s="116"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="137"/>
+      <c r="E15" s="79"/>
+      <c r="F15" s="79"/>
+      <c r="G15" s="138"/>
+      <c r="H15" s="183"/>
+      <c r="I15" s="206"/>
+    </row>
+    <row r="16" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="73"/>
+      <c r="B16" s="116"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="137"/>
+      <c r="E16" s="79"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="138"/>
+      <c r="H16" s="183"/>
+      <c r="I16" s="206"/>
+    </row>
+    <row r="17" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="73"/>
+      <c r="B17" s="116"/>
+      <c r="C17" s="75"/>
+      <c r="D17" s="137"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="138"/>
+      <c r="H17" s="183"/>
+      <c r="I17" s="206"/>
+    </row>
+    <row r="18" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="73"/>
+      <c r="B18" s="116"/>
+      <c r="C18" s="75"/>
+      <c r="D18" s="137"/>
+      <c r="E18" s="79"/>
+      <c r="F18" s="79"/>
+      <c r="G18" s="138"/>
+      <c r="H18" s="183"/>
+      <c r="I18" s="206"/>
+    </row>
+    <row r="19" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="73"/>
+      <c r="B19" s="116"/>
+      <c r="C19" s="75"/>
+      <c r="D19" s="137"/>
+      <c r="E19" s="79"/>
+      <c r="F19" s="79"/>
+      <c r="G19" s="138"/>
+      <c r="H19" s="183"/>
+      <c r="I19" s="206"/>
+    </row>
+    <row r="20" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="73"/>
+      <c r="B20" s="116"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="137"/>
+      <c r="E20" s="79"/>
+      <c r="F20" s="79"/>
+      <c r="G20" s="138"/>
+      <c r="H20" s="183"/>
+      <c r="I20" s="206"/>
+    </row>
+    <row r="21" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="73"/>
+      <c r="B21" s="116"/>
+      <c r="C21" s="75"/>
+      <c r="D21" s="137"/>
+      <c r="E21" s="79"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="138"/>
+      <c r="H21" s="183"/>
+      <c r="I21" s="206"/>
+    </row>
+    <row r="22" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="73"/>
+      <c r="B22" s="116"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="137"/>
+      <c r="E22" s="79"/>
+      <c r="F22" s="79"/>
+      <c r="G22" s="138"/>
+      <c r="H22" s="183"/>
+      <c r="I22" s="206"/>
+    </row>
+    <row r="23" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="73"/>
+      <c r="B23" s="116"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="137"/>
+      <c r="E23" s="79"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="138"/>
+      <c r="H23" s="183"/>
+      <c r="I23" s="206"/>
+    </row>
+    <row r="24" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="73"/>
+      <c r="B24" s="116"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="135"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="136"/>
+      <c r="H24" s="183"/>
+      <c r="I24" s="206"/>
+    </row>
+    <row r="25" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="73"/>
+      <c r="B25" s="116"/>
+      <c r="C25" s="75"/>
+      <c r="D25" s="137"/>
+      <c r="E25" s="79"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="138"/>
+      <c r="H25" s="183"/>
+      <c r="I25" s="206"/>
+    </row>
+    <row r="26" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="73"/>
+      <c r="B26" s="116"/>
+      <c r="C26" s="75"/>
+      <c r="D26" s="137"/>
+      <c r="E26" s="79"/>
+      <c r="F26" s="79"/>
+      <c r="G26" s="138"/>
+      <c r="H26" s="183"/>
+      <c r="I26" s="206"/>
+    </row>
+    <row r="27" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="73"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="75"/>
+      <c r="D27" s="137"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="138"/>
+      <c r="H27" s="183"/>
+      <c r="I27" s="206"/>
+    </row>
+    <row r="28" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="73"/>
+      <c r="B28" s="116"/>
+      <c r="C28" s="75"/>
+      <c r="D28" s="137"/>
+      <c r="E28" s="79"/>
+      <c r="F28" s="79"/>
+      <c r="G28" s="138"/>
+      <c r="H28" s="183"/>
+      <c r="I28" s="206"/>
+    </row>
+    <row r="29" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="73"/>
+      <c r="B29" s="116"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="137"/>
+      <c r="E29" s="79"/>
+      <c r="F29" s="79"/>
+      <c r="G29" s="138"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="206"/>
+    </row>
+    <row r="30" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="73"/>
+      <c r="B30" s="116"/>
+      <c r="C30" s="75"/>
+      <c r="D30" s="137"/>
+      <c r="E30" s="79"/>
+      <c r="F30" s="79"/>
+      <c r="G30" s="138"/>
+      <c r="H30" s="183"/>
+      <c r="I30" s="206"/>
+    </row>
+    <row r="31" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="73"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="137"/>
+      <c r="E31" s="79"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="138"/>
+      <c r="H31" s="183"/>
+      <c r="I31" s="206"/>
+    </row>
+    <row r="32" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="73"/>
+      <c r="B32" s="116"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="137"/>
+      <c r="E32" s="79"/>
+      <c r="F32" s="79"/>
+      <c r="G32" s="138"/>
+      <c r="H32" s="183"/>
+      <c r="I32" s="206"/>
+    </row>
+    <row r="33" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="73"/>
+      <c r="B33" s="116"/>
+      <c r="C33" s="75"/>
+      <c r="D33" s="137"/>
+      <c r="E33" s="79"/>
+      <c r="F33" s="79"/>
+      <c r="G33" s="138"/>
+      <c r="H33" s="183"/>
+      <c r="I33" s="206"/>
+    </row>
+    <row r="34" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="73"/>
+      <c r="B34" s="116"/>
+      <c r="C34" s="75"/>
+      <c r="D34" s="137"/>
+      <c r="E34" s="79"/>
+      <c r="F34" s="79"/>
+      <c r="G34" s="138"/>
+      <c r="H34" s="183"/>
+      <c r="I34" s="206"/>
+    </row>
+    <row r="35" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="73"/>
+      <c r="B35" s="116"/>
+      <c r="C35" s="75"/>
+      <c r="D35" s="137"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="138"/>
+      <c r="H35" s="183"/>
+      <c r="I35" s="206"/>
+    </row>
+    <row r="36" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="73"/>
+      <c r="B36" s="116"/>
+      <c r="C36" s="75"/>
+      <c r="D36" s="137"/>
+      <c r="E36" s="79"/>
+      <c r="F36" s="79"/>
+      <c r="G36" s="138"/>
+      <c r="H36" s="183"/>
+      <c r="I36" s="206"/>
+    </row>
+    <row r="37" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="73"/>
+      <c r="B37" s="116"/>
+      <c r="C37" s="75"/>
+      <c r="D37" s="137"/>
+      <c r="E37" s="79"/>
+      <c r="F37" s="79"/>
+      <c r="G37" s="138"/>
+      <c r="H37" s="183"/>
+      <c r="I37" s="206"/>
+    </row>
+    <row r="38" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="73"/>
+      <c r="B38" s="116"/>
+      <c r="C38" s="75"/>
+      <c r="D38" s="139"/>
+      <c r="E38" s="93"/>
+      <c r="F38" s="93"/>
+      <c r="G38" s="140"/>
+      <c r="H38" s="183"/>
+      <c r="I38" s="206"/>
+    </row>
+    <row r="39" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="169" t="s">
         <v>19</v>
       </c>
       <c r="B39" s="170"/>
       <c r="C39" s="170"/>
-      <c r="D39" s="125" t="e">
+      <c r="D39" s="122" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="125" t="e">
+      <c r="E39" s="122" t="e">
         <f t="shared" ref="E39:G39" si="0">AVERAGE(E9:E38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F39" s="125" t="e">
+      <c r="F39" s="122" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="144" t="e">
+      <c r="G39" s="141" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="206"/>
-      <c r="I39" s="207"/>
-    </row>
-    <row r="40" spans="1:9" s="50" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H39" s="183"/>
+      <c r="I39" s="206"/>
+    </row>
+    <row r="40" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="167" t="s">
         <v>24</v>
       </c>
       <c r="B40" s="168"/>
       <c r="C40" s="168"/>
-      <c r="D40" s="127">
+      <c r="D40" s="124">
         <f>MIN(D9:D38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="127">
+      <c r="E40" s="124">
         <f t="shared" ref="E40:G40" si="1">MIN(E9:E38)</f>
         <v>0</v>
       </c>
-      <c r="F40" s="127">
+      <c r="F40" s="124">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G40" s="145">
+      <c r="G40" s="142">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="206"/>
-      <c r="I40" s="207"/>
+      <c r="H40" s="183"/>
+      <c r="I40" s="206"/>
     </row>
     <row r="41" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="165" t="s">
@@ -4980,27 +4985,27 @@
       </c>
       <c r="B41" s="166"/>
       <c r="C41" s="166"/>
-      <c r="D41" s="129">
+      <c r="D41" s="126">
         <f>MAX(D9:D38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="129">
+      <c r="E41" s="126">
         <f t="shared" ref="E41:G41" si="2">MAX(E9:E38)</f>
         <v>0</v>
       </c>
-      <c r="F41" s="129">
+      <c r="F41" s="126">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G41" s="146">
+      <c r="G41" s="143">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H41" s="186"/>
-      <c r="I41" s="208"/>
-    </row>
-    <row r="42" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="131" t="s">
+      <c r="I41" s="207"/>
+    </row>
+    <row r="42" spans="1:9" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="128" t="s">
         <v>13</v>
       </c>
       <c r="B42" s="172">
@@ -5008,67 +5013,67 @@
         <v>0</v>
       </c>
       <c r="C42" s="189"/>
-      <c r="D42" s="131" t="s">
+      <c r="D42" s="128" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="131"/>
-      <c r="F42" s="132"/>
-      <c r="G42" s="132" t="s">
+      <c r="E42" s="128"/>
+      <c r="F42" s="129"/>
+      <c r="G42" s="129" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="133">
+      <c r="H42" s="130">
         <f>Page1!H42</f>
         <v>0</v>
       </c>
-      <c r="I42" s="134" t="s">
+      <c r="I42" s="131" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="135"/>
+    <row r="43" spans="1:9" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="132"/>
       <c r="B43" s="173">
         <f>Page1!B43</f>
         <v>0</v>
       </c>
       <c r="C43" s="190"/>
-      <c r="D43" s="131"/>
-      <c r="E43" s="131"/>
-      <c r="F43" s="132"/>
-      <c r="G43" s="135"/>
-      <c r="H43" s="133">
+      <c r="D43" s="128"/>
+      <c r="E43" s="128"/>
+      <c r="F43" s="129"/>
+      <c r="G43" s="132"/>
+      <c r="H43" s="130">
         <f>Page1!H43</f>
         <v>0</v>
       </c>
-      <c r="I43" s="134"/>
-    </row>
-    <row r="44" spans="1:9" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I43" s="131"/>
+    </row>
+    <row r="44" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="178" t="s">
         <v>14</v>
       </c>
       <c r="B44" s="178"/>
       <c r="C44" s="178"/>
-      <c r="D44" s="136"/>
-      <c r="E44" s="137" t="s">
+      <c r="D44" s="133"/>
+      <c r="E44" s="134" t="s">
         <v>109</v>
       </c>
-      <c r="F44" s="135">
+      <c r="F44" s="132">
         <f>Page1!F44</f>
         <v>461343000</v>
       </c>
-      <c r="G44" s="136"/>
-      <c r="H44" s="136"/>
-      <c r="I44" s="136"/>
-    </row>
-    <row r="45" spans="1:9" s="44" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G44" s="133"/>
+      <c r="H44" s="133"/>
+      <c r="I44" s="133"/>
+    </row>
+    <row r="45" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="178" t="s">
         <v>15</v>
       </c>
       <c r="B45" s="178"/>
       <c r="C45" s="178"/>
-      <c r="D45" s="136"/>
-      <c r="E45" s="136"/>
-      <c r="F45" s="136"/>
-      <c r="G45" s="136"/>
+      <c r="D45" s="133"/>
+      <c r="E45" s="133"/>
+      <c r="F45" s="133"/>
+      <c r="G45" s="133"/>
       <c r="H45" s="179" t="s">
         <v>28</v>
       </c>
@@ -5121,8 +5126,9 @@
       <formula>5</formula>
     </cfRule>
   </conditionalFormatting>
-  <pageMargins left="1.1023622047244095" right="0" top="0" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.39370078740157483" bottom="0.19685039370078741" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5134,63 +5140,63 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="21.42578125" style="2" customWidth="1"/>
-    <col min="3" max="5" width="12.85546875" style="2" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="2" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="39"/>
+    <col min="1" max="2" width="21.42578125" style="1" customWidth="1"/>
+    <col min="3" max="5" width="12.85546875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="216" t="s">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="215" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="218"/>
-    </row>
-    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="5" t="s">
+      <c r="B1" s="216"/>
+      <c r="C1" s="216"/>
+      <c r="D1" s="216"/>
+      <c r="E1" s="216"/>
+      <c r="F1" s="216"/>
+      <c r="G1" s="217"/>
+    </row>
+    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="219" t="s">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="218" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="221"/>
-    </row>
-    <row r="4" spans="1:7" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="219"/>
+      <c r="C3" s="219"/>
+      <c r="D3" s="219"/>
+      <c r="E3" s="219"/>
+      <c r="F3" s="219"/>
+      <c r="G3" s="220"/>
+    </row>
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="182" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="206"/>
-      <c r="C4" s="206"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="206"/>
-      <c r="F4" s="206"/>
-      <c r="G4" s="207"/>
-    </row>
-    <row r="5" spans="1:7" s="2" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="221"/>
+      <c r="C4" s="221"/>
+      <c r="D4" s="221"/>
+      <c r="E4" s="221"/>
+      <c r="F4" s="221"/>
+      <c r="G4" s="206"/>
+    </row>
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="222" t="s">
         <v>43</v>
       </c>
@@ -5201,14 +5207,14 @@
       <c r="F5" s="223"/>
       <c r="G5" s="224"/>
     </row>
-    <row r="6" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
       <c r="D6" s="225">
@@ -5224,12 +5230,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="B7" s="9"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="8"/>
+      <c r="C7" s="7" t="s">
         <v>48</v>
       </c>
       <c r="D7" s="225">
@@ -5240,15 +5246,15 @@
       <c r="F7" s="227"/>
       <c r="G7" s="229"/>
     </row>
-    <row r="8" spans="1:7" s="2" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="6" t="s">
+    <row r="8" spans="1:7" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="10">
+      <c r="B8" s="9">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="7" t="s">
         <v>50</v>
       </c>
       <c r="D8" s="227">
@@ -5264,11 +5270,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
+    <row r="9" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="B9" s="12">
+      <c r="B9" s="11">
         <f>Page1!F44</f>
         <v>461343000</v>
       </c>
@@ -5282,11 +5288,11 @@
       <c r="F9" s="241"/>
       <c r="G9" s="243"/>
     </row>
-    <row r="10" spans="1:7" s="2" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="13" t="s">
+    <row r="10" spans="1:7" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="13">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
@@ -5296,7 +5302,7 @@
       <c r="F10" s="242"/>
       <c r="G10" s="244"/>
     </row>
-    <row r="11" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="230" t="s">
         <v>55</v>
       </c>
@@ -5315,86 +5321,86 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="231"/>
       <c r="B12" s="233"/>
-      <c r="C12" s="15" t="s">
+      <c r="C12" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="14" t="s">
         <v>61</v>
       </c>
       <c r="F12" s="233"/>
       <c r="G12" s="238"/>
     </row>
-    <row r="13" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="17">
         <v>15</v>
       </c>
-      <c r="D13" s="18">
+      <c r="D13" s="17">
         <v>16</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="17">
         <v>18</v>
       </c>
-      <c r="F13" s="19" t="e">
+      <c r="F13" s="18" t="e">
         <f>Page1!D39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="27" t="s">
+      <c r="G13" s="26" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="20" t="s">
+    <row r="14" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="21">
         <v>32</v>
       </c>
-      <c r="D14" s="22">
+      <c r="D14" s="21">
         <v>42</v>
       </c>
-      <c r="E14" s="22">
+      <c r="E14" s="21">
         <v>52</v>
       </c>
-      <c r="F14" s="23" t="e">
+      <c r="F14" s="22" t="e">
         <f>Page1!E39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="23" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
+    <row r="15" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="21">
         <v>300</v>
       </c>
-      <c r="D15" s="22" t="s">
+      <c r="D15" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E15" s="22" t="s">
+      <c r="E15" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F15" s="25" t="e">
+      <c r="F15" s="24" t="e">
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
@@ -5402,210 +5408,210 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="20" t="s">
+    <row r="16" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="21">
         <v>300</v>
       </c>
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F16" s="25" t="e">
+      <c r="F16" s="24" t="e">
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G16" s="180"/>
     </row>
-    <row r="17" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="20" t="s">
+    <row r="17" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C17" s="26">
+      <c r="C17" s="25">
         <v>5</v>
       </c>
-      <c r="D17" s="22" t="s">
+      <c r="D17" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E17" s="26">
+      <c r="E17" s="25">
         <v>11</v>
       </c>
-      <c r="F17" s="26" t="e">
+      <c r="F17" s="25" t="e">
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G17" s="180"/>
     </row>
-    <row r="18" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="20" t="s">
+    <row r="18" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>119</v>
       </c>
-      <c r="C18" s="26">
+      <c r="C18" s="25">
         <v>3</v>
       </c>
-      <c r="D18" s="22" t="s">
+      <c r="D18" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E18" s="26">
+      <c r="E18" s="25">
         <v>9</v>
       </c>
-      <c r="F18" s="26" t="e">
+      <c r="F18" s="25" t="e">
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G18" s="180"/>
     </row>
-    <row r="19" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="20" t="s">
+    <row r="19" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="21">
         <v>350</v>
       </c>
-      <c r="D19" s="22" t="s">
+      <c r="D19" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E19" s="22" t="s">
+      <c r="E19" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F19" s="25" t="e">
+      <c r="F19" s="24" t="e">
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G19" s="180"/>
     </row>
-    <row r="20" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="20" t="s">
+    <row r="20" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="19" t="s">
         <v>121</v>
       </c>
-      <c r="B20" s="21" t="s">
+      <c r="B20" s="20" t="s">
         <v>75</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="21">
         <v>400</v>
       </c>
-      <c r="D20" s="22" t="s">
+      <c r="D20" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E20" s="22" t="s">
+      <c r="E20" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F20" s="25" t="e">
+      <c r="F20" s="24" t="e">
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G20" s="180"/>
     </row>
-    <row r="21" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="20" t="s">
+    <row r="21" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B21" s="21" t="s">
+      <c r="B21" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="C21" s="26">
+      <c r="C21" s="25">
         <v>0.3</v>
       </c>
-      <c r="D21" s="26">
+      <c r="D21" s="25">
         <v>0.45</v>
       </c>
-      <c r="E21" s="26">
+      <c r="E21" s="25">
         <v>0.6</v>
       </c>
-      <c r="F21" s="26" t="e">
+      <c r="F21" s="25" t="e">
         <f>Page1!F39</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G21" s="180"/>
     </row>
-    <row r="22" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="20" t="s">
+    <row r="22" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="21" t="s">
+      <c r="B22" s="20" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="22" t="s">
+      <c r="C22" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="25">
+      <c r="D22" s="24">
         <v>165</v>
       </c>
-      <c r="E22" s="25">
+      <c r="E22" s="24">
         <v>168</v>
       </c>
-      <c r="F22" s="25" t="e">
+      <c r="F22" s="24" t="e">
         <f>Page2!H41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="23" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="20" t="s">
+    <row r="23" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="21" t="s">
+      <c r="B23" s="20" t="s">
         <v>81</v>
       </c>
-      <c r="C23" s="25">
+      <c r="C23" s="24">
         <v>6000</v>
       </c>
-      <c r="D23" s="22" t="s">
+      <c r="D23" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="22" t="s">
+      <c r="E23" s="21" t="s">
         <v>70</v>
       </c>
-      <c r="F23" s="25">
+      <c r="F23" s="24">
         <v>6000</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="23" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="28" t="s">
+    <row r="24" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="27" t="s">
         <v>83</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="29">
         <v>430</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D24" s="29">
         <v>460</v>
       </c>
-      <c r="E24" s="31">
+      <c r="E24" s="30">
         <v>510</v>
       </c>
-      <c r="F24" s="31" t="e">
+      <c r="F24" s="30" t="e">
         <f>Page2!I41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="32" t="s">
+      <c r="G24" s="31" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="254" t="s">
         <v>84</v>
       </c>
@@ -5616,7 +5622,7 @@
       <c r="F25" s="255"/>
       <c r="G25" s="256"/>
     </row>
-    <row r="26" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="257" t="s">
         <v>85</v>
       </c>
@@ -5626,14 +5632,14 @@
       </c>
       <c r="D26" s="260"/>
       <c r="E26" s="261"/>
-      <c r="F26" s="33" t="s">
+      <c r="F26" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="27" t="s">
+      <c r="G26" s="26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="262" t="s">
         <v>88</v>
       </c>
@@ -5643,14 +5649,14 @@
       </c>
       <c r="D27" s="264"/>
       <c r="E27" s="265"/>
-      <c r="F27" s="34" t="s">
+      <c r="F27" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="23" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="262" t="s">
         <v>91</v>
       </c>
@@ -5660,14 +5666,14 @@
       </c>
       <c r="D28" s="264"/>
       <c r="E28" s="265"/>
-      <c r="F28" s="34" t="s">
+      <c r="F28" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="G28" s="27" t="s">
+      <c r="G28" s="26" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="262" t="s">
         <v>93</v>
       </c>
@@ -5677,14 +5683,14 @@
       </c>
       <c r="D29" s="264"/>
       <c r="E29" s="265"/>
-      <c r="F29" s="34" t="s">
+      <c r="F29" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="23" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="262" t="s">
         <v>96</v>
       </c>
@@ -5694,14 +5700,14 @@
       </c>
       <c r="D30" s="264"/>
       <c r="E30" s="265"/>
-      <c r="F30" s="34" t="s">
+      <c r="F30" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="23" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="2" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="249" t="s">
         <v>99</v>
       </c>
@@ -5711,14 +5717,14 @@
       </c>
       <c r="D31" s="252"/>
       <c r="E31" s="253"/>
-      <c r="F31" s="36" t="s">
+      <c r="F31" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="G31" s="52" t="s">
+      <c r="G31" s="51" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="269" t="s">
         <v>101</v>
       </c>
@@ -5733,44 +5739,44 @@
       </c>
       <c r="G32" s="273"/>
     </row>
-    <row r="33" spans="1:7" s="2" customFormat="1" ht="123" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="274"/>
       <c r="B33" s="275"/>
-      <c r="C33" s="182"/>
-      <c r="D33" s="206"/>
-      <c r="E33" s="207"/>
+      <c r="C33" s="278"/>
+      <c r="D33" s="279"/>
+      <c r="E33" s="280"/>
       <c r="F33" s="278"/>
-      <c r="G33" s="279"/>
-    </row>
-    <row r="34" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G33" s="280"/>
+    </row>
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="276"/>
       <c r="B34" s="277"/>
-      <c r="C34" s="280" t="s">
+      <c r="C34" s="281" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="281"/>
-      <c r="E34" s="282"/>
-      <c r="F34" s="280" t="s">
+      <c r="D34" s="282"/>
+      <c r="E34" s="283"/>
+      <c r="F34" s="281" t="s">
         <v>104</v>
       </c>
-      <c r="G34" s="282"/>
+      <c r="G34" s="283"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" s="38"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
+      <c r="A35" s="37"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
       <c r="E35" s="266"/>
       <c r="F35" s="266"/>
       <c r="G35" s="266"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="41" t="s">
         <v>105</v>
       </c>
-      <c r="B36" s="40"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="38"/>
+      <c r="B36" s="39"/>
+      <c r="C36" s="40"/>
+      <c r="D36" s="37"/>
       <c r="E36" s="267"/>
       <c r="F36" s="267"/>
       <c r="G36" s="267"/>
@@ -5834,8 +5840,9 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="D7:E7"/>
   </mergeCells>
-  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/backend/templates/UC-16gsm-165W.xlsx
+++ b/backend/templates/UC-16gsm-165W.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F2A418A-AA7C-4C2E-9003-2C1AAB0969BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6437AD22-BEE0-402A-90C3-2540BC52E006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -899,21 +899,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1348,25 +1333,36 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="284">
+  <cellXfs count="294">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1382,61 +1378,61 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1445,7 +1441,7 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1454,13 +1450,13 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1527,150 +1523,150 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="64" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="65" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="20" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="20" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1694,13 +1690,13 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="66" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1712,7 +1708,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1748,30 +1744,30 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="61" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1799,7 +1795,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1807,7 +1803,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -1815,20 +1811,20 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="45" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1838,7 +1834,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1847,6 +1843,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1862,7 +1867,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1883,46 +1888,46 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="43" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="44" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="59" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="32" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="55" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1937,110 +1942,107 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
@@ -2048,28 +2050,25 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2081,40 +2080,40 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="42" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2126,64 +2125,64 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="64" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2204,11 +2203,14 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -2216,30 +2218,27 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2247,6 +2246,33 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2807,7 +2833,7 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2821,31 +2847,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
       <c r="I1" s="54" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
       <c r="I2" s="55" t="s">
         <v>22</v>
       </c>
@@ -2867,8 +2893,8 @@
       <c r="A4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="174"/>
-      <c r="C4" s="175"/>
+      <c r="B4" s="177"/>
+      <c r="C4" s="178"/>
       <c r="D4" s="60" t="s">
         <v>3</v>
       </c>
@@ -2889,8 +2915,8 @@
       <c r="A5" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="176"/>
-      <c r="C5" s="177"/>
+      <c r="B5" s="179"/>
+      <c r="C5" s="180"/>
       <c r="D5" s="63" t="s">
         <v>6</v>
       </c>
@@ -2905,46 +2931,46 @@
       <c r="I5" s="64"/>
     </row>
     <row r="6" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="162" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="160"/>
-      <c r="C6" s="161"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="164"/>
       <c r="D6" s="148"/>
       <c r="E6" s="146"/>
       <c r="F6" s="146"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="152"/>
-      <c r="I6" s="153"/>
+      <c r="G6" s="154"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="156"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="162" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="154"/>
-      <c r="C7" s="154"/>
-      <c r="D7" s="154" t="s">
+      <c r="A7" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="157"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="156" t="s">
+      <c r="E7" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="156" t="s">
+      <c r="F7" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="154" t="s">
+      <c r="G7" s="157" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="154"/>
-      <c r="I7" s="155"/>
+      <c r="H7" s="157"/>
+      <c r="I7" s="158"/>
     </row>
     <row r="8" spans="1:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="163"/>
-      <c r="B8" s="164"/>
-      <c r="C8" s="164"/>
-      <c r="D8" s="164"/>
-      <c r="E8" s="157"/>
-      <c r="F8" s="157"/>
+      <c r="A8" s="166"/>
+      <c r="B8" s="167"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
       <c r="G8" s="65" t="s">
         <v>37</v>
       </c>
@@ -3286,12 +3312,12 @@
       <c r="I38" s="94"/>
     </row>
     <row r="39" spans="1:12" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="169" t="s">
+      <c r="A39" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="18" t="e">
+      <c r="B39" s="169"/>
+      <c r="C39" s="291"/>
+      <c r="D39" s="150" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3317,12 +3343,12 @@
       </c>
     </row>
     <row r="40" spans="1:12" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="167" t="s">
+      <c r="A40" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="168"/>
-      <c r="C40" s="168"/>
-      <c r="D40" s="25">
+      <c r="B40" s="171"/>
+      <c r="C40" s="292"/>
+      <c r="D40" s="151">
         <f>MIN(D9:D38)</f>
         <v>0</v>
       </c>
@@ -3348,12 +3374,12 @@
       </c>
     </row>
     <row r="41" spans="1:12" s="42" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="165" t="s">
+      <c r="A41" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="166"/>
-      <c r="C41" s="166"/>
-      <c r="D41" s="96">
+      <c r="B41" s="173"/>
+      <c r="C41" s="293"/>
+      <c r="D41" s="152">
         <f>MAX(D9:D38)</f>
         <v>0</v>
       </c>
@@ -3385,8 +3411,8 @@
       <c r="A42" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="172"/>
-      <c r="C42" s="172"/>
+      <c r="B42" s="175"/>
+      <c r="C42" s="175"/>
       <c r="D42" s="98" t="s">
         <v>16</v>
       </c>
@@ -3402,8 +3428,8 @@
     </row>
     <row r="43" spans="1:12" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="102"/>
-      <c r="B43" s="173"/>
-      <c r="C43" s="173"/>
+      <c r="B43" s="176"/>
+      <c r="C43" s="176"/>
       <c r="D43" s="98"/>
       <c r="E43" s="99"/>
       <c r="F43" s="100"/>
@@ -3412,11 +3438,11 @@
       <c r="I43" s="101"/>
     </row>
     <row r="44" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="158" t="s">
+      <c r="A44" s="161" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="158"/>
-      <c r="C44" s="158"/>
+      <c r="B44" s="161"/>
+      <c r="C44" s="161"/>
       <c r="D44" s="103"/>
       <c r="E44" s="104" t="s">
         <v>109</v>
@@ -3429,19 +3455,19 @@
       <c r="I44" s="57"/>
     </row>
     <row r="45" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="158" t="s">
+      <c r="A45" s="161" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="158"/>
-      <c r="C45" s="158"/>
+      <c r="B45" s="161"/>
+      <c r="C45" s="161"/>
       <c r="D45" s="103"/>
       <c r="E45" s="57"/>
       <c r="F45" s="57"/>
       <c r="G45" s="57"/>
-      <c r="H45" s="150" t="s">
+      <c r="H45" s="153" t="s">
         <v>26</v>
       </c>
-      <c r="I45" s="150"/>
+      <c r="I45" s="153"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="44"/>
@@ -3473,9 +3499,9 @@
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="A7:C8"/>
     <mergeCell ref="D7:D8"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
     <mergeCell ref="A41:C41"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A39:C39"/>
   </mergeCells>
   <conditionalFormatting sqref="E9:E38">
     <cfRule type="cellIs" dxfId="14" priority="5" operator="notBetween">
@@ -3519,7 +3545,7 @@
   <dimension ref="A1:K47"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3530,31 +3556,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
       <c r="I1" s="54" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
       <c r="I2" s="55" t="s">
         <v>22</v>
       </c>
@@ -3579,11 +3605,11 @@
       <c r="A4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="174">
+      <c r="B4" s="177">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="178"/>
       <c r="D4" s="60" t="s">
         <v>3</v>
       </c>
@@ -3613,11 +3639,11 @@
       <c r="A5" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="191">
+      <c r="B5" s="195">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="192"/>
+      <c r="C5" s="196"/>
       <c r="D5" s="106" t="s">
         <v>6</v>
       </c>
@@ -3641,83 +3667,83 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="49" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="197" t="s">
+      <c r="A6" s="201" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="198"/>
-      <c r="C6" s="198"/>
-      <c r="D6" s="152"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="199"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="203"/>
       <c r="G6" s="108"/>
       <c r="H6" s="109"/>
       <c r="I6" s="110"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="182" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="183"/>
-      <c r="C7" s="184"/>
-      <c r="D7" s="200" t="s">
+      <c r="A7" s="185" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="186"/>
+      <c r="C7" s="187"/>
+      <c r="D7" s="204" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="201"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="188" t="s">
+      <c r="E7" s="205"/>
+      <c r="F7" s="206"/>
+      <c r="G7" s="191" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="I7" s="180" t="s">
+      <c r="I7" s="183" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="182"/>
-      <c r="B8" s="183"/>
-      <c r="C8" s="184"/>
-      <c r="D8" s="193" t="s">
+      <c r="A8" s="185"/>
+      <c r="B8" s="186"/>
+      <c r="C8" s="187"/>
+      <c r="D8" s="197" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="196" t="s">
+      <c r="E8" s="200" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="192" t="s">
+      <c r="F8" s="196" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="188"/>
+      <c r="G8" s="191"/>
       <c r="H8" s="48" t="s">
         <v>111</v>
       </c>
-      <c r="I8" s="180"/>
+      <c r="I8" s="183"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="182"/>
-      <c r="B9" s="183"/>
-      <c r="C9" s="184"/>
-      <c r="D9" s="194"/>
-      <c r="E9" s="196"/>
-      <c r="F9" s="184"/>
-      <c r="G9" s="188"/>
+      <c r="A9" s="185"/>
+      <c r="B9" s="186"/>
+      <c r="C9" s="187"/>
+      <c r="D9" s="198"/>
+      <c r="E9" s="200"/>
+      <c r="F9" s="187"/>
+      <c r="G9" s="191"/>
       <c r="H9" s="46" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="180"/>
+      <c r="I9" s="183"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="185"/>
-      <c r="B10" s="186"/>
-      <c r="C10" s="187"/>
-      <c r="D10" s="195"/>
-      <c r="E10" s="164"/>
-      <c r="F10" s="187"/>
-      <c r="G10" s="157"/>
+      <c r="A10" s="188"/>
+      <c r="B10" s="189"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="199"/>
+      <c r="E10" s="167"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="160"/>
       <c r="H10" s="47" t="s">
         <v>113</v>
       </c>
-      <c r="I10" s="181"/>
+      <c r="I10" s="184"/>
     </row>
     <row r="11" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="111"/>
@@ -4194,12 +4220,12 @@
       </c>
     </row>
     <row r="41" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="169" t="s">
+      <c r="A41" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="170"/>
-      <c r="C41" s="170"/>
-      <c r="D41" s="18" t="e">
+      <c r="B41" s="169"/>
+      <c r="C41" s="291"/>
+      <c r="D41" s="150" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4225,12 +4251,12 @@
       </c>
     </row>
     <row r="42" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="167" t="s">
+      <c r="A42" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="168"/>
-      <c r="C42" s="168"/>
-      <c r="D42" s="25">
+      <c r="B42" s="171"/>
+      <c r="C42" s="292"/>
+      <c r="D42" s="151">
         <f>MIN(D11:D40)</f>
         <v>0</v>
       </c>
@@ -4256,12 +4282,12 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="165" t="s">
+      <c r="A43" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="166"/>
-      <c r="C43" s="166"/>
-      <c r="D43" s="96">
+      <c r="B43" s="173"/>
+      <c r="C43" s="293"/>
+      <c r="D43" s="152">
         <f>MAX(D11:D40)</f>
         <v>0</v>
       </c>
@@ -4290,11 +4316,11 @@
       <c r="A44" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="172">
+      <c r="B44" s="192">
         <f>Page1!B42</f>
         <v>0</v>
       </c>
-      <c r="C44" s="189"/>
+      <c r="C44" s="193"/>
       <c r="D44" s="128" t="s">
         <v>16</v>
       </c>
@@ -4313,11 +4339,11 @@
     </row>
     <row r="45" spans="1:9" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="132"/>
-      <c r="B45" s="173">
+      <c r="B45" s="176">
         <f>Page1!B43</f>
         <v>0</v>
       </c>
-      <c r="C45" s="190"/>
+      <c r="C45" s="194"/>
       <c r="D45" s="128"/>
       <c r="E45" s="128"/>
       <c r="F45" s="129"/>
@@ -4329,11 +4355,11 @@
       <c r="I45" s="131"/>
     </row>
     <row r="46" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="178" t="s">
+      <c r="A46" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="178"/>
-      <c r="C46" s="178"/>
+      <c r="B46" s="181"/>
+      <c r="C46" s="181"/>
       <c r="D46" s="133"/>
       <c r="E46" s="134" t="s">
         <v>109</v>
@@ -4347,19 +4373,19 @@
       <c r="I46" s="133"/>
     </row>
     <row r="47" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="178" t="s">
+      <c r="A47" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="178"/>
-      <c r="C47" s="178"/>
+      <c r="B47" s="181"/>
+      <c r="C47" s="181"/>
       <c r="D47" s="133"/>
       <c r="E47" s="133"/>
       <c r="F47" s="133"/>
       <c r="G47" s="133"/>
-      <c r="H47" s="179" t="s">
+      <c r="H47" s="182" t="s">
         <v>27</v>
       </c>
-      <c r="I47" s="179"/>
+      <c r="I47" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -4379,11 +4405,11 @@
     <mergeCell ref="A7:C10"/>
     <mergeCell ref="G7:G10"/>
     <mergeCell ref="A46:C46"/>
-    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:C45"/>
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A42:C42"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:C45"/>
+    <mergeCell ref="A43:C43"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:D40">
     <cfRule type="cellIs" dxfId="9" priority="7" operator="notBetween">
@@ -4433,7 +4459,7 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4444,31 +4470,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="174" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
+      <c r="E1" s="174"/>
+      <c r="F1" s="174"/>
+      <c r="G1" s="174"/>
+      <c r="H1" s="174"/>
       <c r="I1" s="54" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="171" t="s">
+      <c r="A2" s="174" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="174"/>
+      <c r="H2" s="174"/>
       <c r="I2" s="55" t="s">
         <v>22</v>
       </c>
@@ -4493,11 +4519,11 @@
       <c r="A4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="174">
+      <c r="B4" s="177">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="175"/>
+      <c r="C4" s="178"/>
       <c r="D4" s="60" t="s">
         <v>3</v>
       </c>
@@ -4527,11 +4553,11 @@
       <c r="A5" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="191">
+      <c r="B5" s="195">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="192"/>
+      <c r="C5" s="196"/>
       <c r="D5" s="106" t="s">
         <v>6</v>
       </c>
@@ -4555,49 +4581,49 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="49" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="197" t="s">
+      <c r="A6" s="201" t="s">
         <v>108</v>
       </c>
-      <c r="B6" s="198"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="203"/>
-      <c r="E6" s="152"/>
-      <c r="F6" s="152"/>
-      <c r="G6" s="153"/>
-      <c r="H6" s="204"/>
-      <c r="I6" s="205"/>
+      <c r="B6" s="202"/>
+      <c r="C6" s="202"/>
+      <c r="D6" s="155"/>
+      <c r="E6" s="155"/>
+      <c r="F6" s="155"/>
+      <c r="G6" s="156"/>
+      <c r="H6" s="207"/>
+      <c r="I6" s="208"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="208" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="204"/>
-      <c r="C7" s="204"/>
-      <c r="D7" s="209" t="s">
+      <c r="A7" s="211" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="207"/>
+      <c r="C7" s="287"/>
+      <c r="D7" s="285" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="211" t="s">
+      <c r="E7" s="212" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="211" t="s">
+      <c r="F7" s="212" t="s">
         <v>116</v>
       </c>
-      <c r="G7" s="213" t="s">
+      <c r="G7" s="214" t="s">
         <v>117</v>
       </c>
-      <c r="H7" s="183"/>
-      <c r="I7" s="206"/>
+      <c r="H7" s="186"/>
+      <c r="I7" s="209"/>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="185"/>
-      <c r="B8" s="186"/>
-      <c r="C8" s="186"/>
-      <c r="D8" s="210"/>
-      <c r="E8" s="212"/>
-      <c r="F8" s="212"/>
-      <c r="G8" s="214"/>
-      <c r="H8" s="183"/>
-      <c r="I8" s="206"/>
+      <c r="A8" s="188"/>
+      <c r="B8" s="189"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="286"/>
+      <c r="E8" s="213"/>
+      <c r="F8" s="213"/>
+      <c r="G8" s="215"/>
+      <c r="H8" s="186"/>
+      <c r="I8" s="209"/>
     </row>
     <row r="9" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="111"/>
@@ -4607,8 +4633,8 @@
       <c r="E9" s="84"/>
       <c r="F9" s="84"/>
       <c r="G9" s="136"/>
-      <c r="H9" s="183"/>
-      <c r="I9" s="206"/>
+      <c r="H9" s="186"/>
+      <c r="I9" s="209"/>
     </row>
     <row r="10" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="73"/>
@@ -4618,8 +4644,8 @@
       <c r="E10" s="79"/>
       <c r="F10" s="79"/>
       <c r="G10" s="138"/>
-      <c r="H10" s="183"/>
-      <c r="I10" s="206"/>
+      <c r="H10" s="186"/>
+      <c r="I10" s="209"/>
     </row>
     <row r="11" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="73"/>
@@ -4629,8 +4655,8 @@
       <c r="E11" s="79"/>
       <c r="F11" s="79"/>
       <c r="G11" s="138"/>
-      <c r="H11" s="183"/>
-      <c r="I11" s="206"/>
+      <c r="H11" s="186"/>
+      <c r="I11" s="209"/>
     </row>
     <row r="12" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="73"/>
@@ -4640,8 +4666,8 @@
       <c r="E12" s="79"/>
       <c r="F12" s="79"/>
       <c r="G12" s="138"/>
-      <c r="H12" s="183"/>
-      <c r="I12" s="206"/>
+      <c r="H12" s="186"/>
+      <c r="I12" s="209"/>
     </row>
     <row r="13" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="73"/>
@@ -4651,8 +4677,8 @@
       <c r="E13" s="79"/>
       <c r="F13" s="79"/>
       <c r="G13" s="138"/>
-      <c r="H13" s="183"/>
-      <c r="I13" s="206"/>
+      <c r="H13" s="186"/>
+      <c r="I13" s="209"/>
     </row>
     <row r="14" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="73"/>
@@ -4662,8 +4688,8 @@
       <c r="E14" s="79"/>
       <c r="F14" s="79"/>
       <c r="G14" s="138"/>
-      <c r="H14" s="183"/>
-      <c r="I14" s="206"/>
+      <c r="H14" s="186"/>
+      <c r="I14" s="209"/>
     </row>
     <row r="15" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="73"/>
@@ -4673,8 +4699,8 @@
       <c r="E15" s="79"/>
       <c r="F15" s="79"/>
       <c r="G15" s="138"/>
-      <c r="H15" s="183"/>
-      <c r="I15" s="206"/>
+      <c r="H15" s="186"/>
+      <c r="I15" s="209"/>
     </row>
     <row r="16" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="73"/>
@@ -4684,8 +4710,8 @@
       <c r="E16" s="79"/>
       <c r="F16" s="79"/>
       <c r="G16" s="138"/>
-      <c r="H16" s="183"/>
-      <c r="I16" s="206"/>
+      <c r="H16" s="186"/>
+      <c r="I16" s="209"/>
     </row>
     <row r="17" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="73"/>
@@ -4695,8 +4721,8 @@
       <c r="E17" s="79"/>
       <c r="F17" s="79"/>
       <c r="G17" s="138"/>
-      <c r="H17" s="183"/>
-      <c r="I17" s="206"/>
+      <c r="H17" s="186"/>
+      <c r="I17" s="209"/>
     </row>
     <row r="18" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="73"/>
@@ -4706,8 +4732,8 @@
       <c r="E18" s="79"/>
       <c r="F18" s="79"/>
       <c r="G18" s="138"/>
-      <c r="H18" s="183"/>
-      <c r="I18" s="206"/>
+      <c r="H18" s="186"/>
+      <c r="I18" s="209"/>
     </row>
     <row r="19" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="73"/>
@@ -4717,8 +4743,8 @@
       <c r="E19" s="79"/>
       <c r="F19" s="79"/>
       <c r="G19" s="138"/>
-      <c r="H19" s="183"/>
-      <c r="I19" s="206"/>
+      <c r="H19" s="186"/>
+      <c r="I19" s="209"/>
     </row>
     <row r="20" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="73"/>
@@ -4728,8 +4754,8 @@
       <c r="E20" s="79"/>
       <c r="F20" s="79"/>
       <c r="G20" s="138"/>
-      <c r="H20" s="183"/>
-      <c r="I20" s="206"/>
+      <c r="H20" s="186"/>
+      <c r="I20" s="209"/>
     </row>
     <row r="21" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="73"/>
@@ -4739,8 +4765,8 @@
       <c r="E21" s="79"/>
       <c r="F21" s="79"/>
       <c r="G21" s="138"/>
-      <c r="H21" s="183"/>
-      <c r="I21" s="206"/>
+      <c r="H21" s="186"/>
+      <c r="I21" s="209"/>
     </row>
     <row r="22" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="73"/>
@@ -4750,8 +4776,8 @@
       <c r="E22" s="79"/>
       <c r="F22" s="79"/>
       <c r="G22" s="138"/>
-      <c r="H22" s="183"/>
-      <c r="I22" s="206"/>
+      <c r="H22" s="186"/>
+      <c r="I22" s="209"/>
     </row>
     <row r="23" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="73"/>
@@ -4761,8 +4787,8 @@
       <c r="E23" s="79"/>
       <c r="F23" s="79"/>
       <c r="G23" s="138"/>
-      <c r="H23" s="183"/>
-      <c r="I23" s="206"/>
+      <c r="H23" s="186"/>
+      <c r="I23" s="209"/>
     </row>
     <row r="24" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="73"/>
@@ -4772,8 +4798,8 @@
       <c r="E24" s="84"/>
       <c r="F24" s="84"/>
       <c r="G24" s="136"/>
-      <c r="H24" s="183"/>
-      <c r="I24" s="206"/>
+      <c r="H24" s="186"/>
+      <c r="I24" s="209"/>
     </row>
     <row r="25" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="73"/>
@@ -4783,8 +4809,8 @@
       <c r="E25" s="79"/>
       <c r="F25" s="79"/>
       <c r="G25" s="138"/>
-      <c r="H25" s="183"/>
-      <c r="I25" s="206"/>
+      <c r="H25" s="186"/>
+      <c r="I25" s="209"/>
     </row>
     <row r="26" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="73"/>
@@ -4794,8 +4820,8 @@
       <c r="E26" s="79"/>
       <c r="F26" s="79"/>
       <c r="G26" s="138"/>
-      <c r="H26" s="183"/>
-      <c r="I26" s="206"/>
+      <c r="H26" s="186"/>
+      <c r="I26" s="209"/>
     </row>
     <row r="27" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="73"/>
@@ -4805,8 +4831,8 @@
       <c r="E27" s="79"/>
       <c r="F27" s="79"/>
       <c r="G27" s="138"/>
-      <c r="H27" s="183"/>
-      <c r="I27" s="206"/>
+      <c r="H27" s="186"/>
+      <c r="I27" s="209"/>
     </row>
     <row r="28" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="73"/>
@@ -4816,8 +4842,8 @@
       <c r="E28" s="79"/>
       <c r="F28" s="79"/>
       <c r="G28" s="138"/>
-      <c r="H28" s="183"/>
-      <c r="I28" s="206"/>
+      <c r="H28" s="186"/>
+      <c r="I28" s="209"/>
     </row>
     <row r="29" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="73"/>
@@ -4827,8 +4853,8 @@
       <c r="E29" s="79"/>
       <c r="F29" s="79"/>
       <c r="G29" s="138"/>
-      <c r="H29" s="183"/>
-      <c r="I29" s="206"/>
+      <c r="H29" s="186"/>
+      <c r="I29" s="209"/>
     </row>
     <row r="30" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="73"/>
@@ -4838,8 +4864,8 @@
       <c r="E30" s="79"/>
       <c r="F30" s="79"/>
       <c r="G30" s="138"/>
-      <c r="H30" s="183"/>
-      <c r="I30" s="206"/>
+      <c r="H30" s="186"/>
+      <c r="I30" s="209"/>
     </row>
     <row r="31" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="73"/>
@@ -4849,8 +4875,8 @@
       <c r="E31" s="79"/>
       <c r="F31" s="79"/>
       <c r="G31" s="138"/>
-      <c r="H31" s="183"/>
-      <c r="I31" s="206"/>
+      <c r="H31" s="186"/>
+      <c r="I31" s="209"/>
     </row>
     <row r="32" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="73"/>
@@ -4860,8 +4886,8 @@
       <c r="E32" s="79"/>
       <c r="F32" s="79"/>
       <c r="G32" s="138"/>
-      <c r="H32" s="183"/>
-      <c r="I32" s="206"/>
+      <c r="H32" s="186"/>
+      <c r="I32" s="209"/>
     </row>
     <row r="33" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="73"/>
@@ -4871,8 +4897,8 @@
       <c r="E33" s="79"/>
       <c r="F33" s="79"/>
       <c r="G33" s="138"/>
-      <c r="H33" s="183"/>
-      <c r="I33" s="206"/>
+      <c r="H33" s="186"/>
+      <c r="I33" s="209"/>
     </row>
     <row r="34" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="73"/>
@@ -4882,8 +4908,8 @@
       <c r="E34" s="79"/>
       <c r="F34" s="79"/>
       <c r="G34" s="138"/>
-      <c r="H34" s="183"/>
-      <c r="I34" s="206"/>
+      <c r="H34" s="186"/>
+      <c r="I34" s="209"/>
     </row>
     <row r="35" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="73"/>
@@ -4893,8 +4919,8 @@
       <c r="E35" s="79"/>
       <c r="F35" s="79"/>
       <c r="G35" s="138"/>
-      <c r="H35" s="183"/>
-      <c r="I35" s="206"/>
+      <c r="H35" s="186"/>
+      <c r="I35" s="209"/>
     </row>
     <row r="36" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="73"/>
@@ -4904,8 +4930,8 @@
       <c r="E36" s="79"/>
       <c r="F36" s="79"/>
       <c r="G36" s="138"/>
-      <c r="H36" s="183"/>
-      <c r="I36" s="206"/>
+      <c r="H36" s="186"/>
+      <c r="I36" s="209"/>
     </row>
     <row r="37" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="73"/>
@@ -4915,8 +4941,8 @@
       <c r="E37" s="79"/>
       <c r="F37" s="79"/>
       <c r="G37" s="138"/>
-      <c r="H37" s="183"/>
-      <c r="I37" s="206"/>
+      <c r="H37" s="186"/>
+      <c r="I37" s="209"/>
     </row>
     <row r="38" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="73"/>
@@ -4926,16 +4952,16 @@
       <c r="E38" s="93"/>
       <c r="F38" s="93"/>
       <c r="G38" s="140"/>
-      <c r="H38" s="183"/>
-      <c r="I38" s="206"/>
+      <c r="H38" s="186"/>
+      <c r="I38" s="209"/>
     </row>
     <row r="39" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="169" t="s">
+      <c r="A39" s="168" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="170"/>
-      <c r="C39" s="170"/>
-      <c r="D39" s="122" t="e">
+      <c r="B39" s="169"/>
+      <c r="C39" s="291"/>
+      <c r="D39" s="288" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4951,16 +4977,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="183"/>
-      <c r="I39" s="206"/>
+      <c r="H39" s="186"/>
+      <c r="I39" s="209"/>
     </row>
     <row r="40" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="167" t="s">
+      <c r="A40" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="168"/>
-      <c r="C40" s="168"/>
-      <c r="D40" s="124">
+      <c r="B40" s="171"/>
+      <c r="C40" s="292"/>
+      <c r="D40" s="289">
         <f>MIN(D9:D38)</f>
         <v>0</v>
       </c>
@@ -4976,16 +5002,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="183"/>
-      <c r="I40" s="206"/>
+      <c r="H40" s="186"/>
+      <c r="I40" s="209"/>
     </row>
     <row r="41" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="165" t="s">
+      <c r="A41" s="172" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="166"/>
-      <c r="C41" s="166"/>
-      <c r="D41" s="126">
+      <c r="B41" s="173"/>
+      <c r="C41" s="293"/>
+      <c r="D41" s="290">
         <f>MAX(D9:D38)</f>
         <v>0</v>
       </c>
@@ -5001,18 +5027,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H41" s="186"/>
-      <c r="I41" s="207"/>
+      <c r="H41" s="189"/>
+      <c r="I41" s="210"/>
     </row>
     <row r="42" spans="1:9" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="172">
+      <c r="B42" s="192">
         <f>Page1!B42</f>
         <v>0</v>
       </c>
-      <c r="C42" s="189"/>
+      <c r="C42" s="193"/>
       <c r="D42" s="128" t="s">
         <v>16</v>
       </c>
@@ -5031,11 +5057,11 @@
     </row>
     <row r="43" spans="1:9" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="132"/>
-      <c r="B43" s="173">
+      <c r="B43" s="176">
         <f>Page1!B43</f>
         <v>0</v>
       </c>
-      <c r="C43" s="190"/>
+      <c r="C43" s="194"/>
       <c r="D43" s="128"/>
       <c r="E43" s="128"/>
       <c r="F43" s="129"/>
@@ -5047,11 +5073,11 @@
       <c r="I43" s="131"/>
     </row>
     <row r="44" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="178" t="s">
+      <c r="A44" s="181" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="178"/>
-      <c r="C44" s="178"/>
+      <c r="B44" s="181"/>
+      <c r="C44" s="181"/>
       <c r="D44" s="133"/>
       <c r="E44" s="134" t="s">
         <v>109</v>
@@ -5065,19 +5091,19 @@
       <c r="I44" s="133"/>
     </row>
     <row r="45" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="178" t="s">
+      <c r="A45" s="181" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="178"/>
-      <c r="C45" s="178"/>
+      <c r="B45" s="181"/>
+      <c r="C45" s="181"/>
       <c r="D45" s="133"/>
       <c r="E45" s="133"/>
       <c r="F45" s="133"/>
       <c r="G45" s="133"/>
-      <c r="H45" s="179" t="s">
+      <c r="H45" s="182" t="s">
         <v>28</v>
       </c>
-      <c r="I45" s="179"/>
+      <c r="I45" s="182"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -5086,9 +5112,6 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A39:C39"/>
-    <mergeCell ref="A40:C40"/>
-    <mergeCell ref="A41:C41"/>
     <mergeCell ref="B42:C42"/>
     <mergeCell ref="B43:C43"/>
     <mergeCell ref="A45:C45"/>
@@ -5101,6 +5124,9 @@
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="G7:G8"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="A40:C40"/>
+    <mergeCell ref="A41:C41"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D38">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="notBetween">
@@ -5153,15 +5179,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="215" t="s">
+      <c r="A1" s="216" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="216"/>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="217"/>
+      <c r="B1" s="217"/>
+      <c r="C1" s="217"/>
+      <c r="D1" s="217"/>
+      <c r="E1" s="217"/>
+      <c r="F1" s="217"/>
+      <c r="G1" s="218"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -5175,37 +5201,37 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="218" t="s">
+      <c r="A3" s="219" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="219"/>
-      <c r="C3" s="219"/>
-      <c r="D3" s="219"/>
-      <c r="E3" s="219"/>
-      <c r="F3" s="219"/>
-      <c r="G3" s="220"/>
+      <c r="B3" s="220"/>
+      <c r="C3" s="220"/>
+      <c r="D3" s="220"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
+      <c r="G3" s="221"/>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="182" t="s">
+      <c r="A4" s="185" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="221"/>
-      <c r="C4" s="221"/>
-      <c r="D4" s="221"/>
-      <c r="E4" s="221"/>
-      <c r="F4" s="221"/>
-      <c r="G4" s="206"/>
+      <c r="B4" s="222"/>
+      <c r="C4" s="222"/>
+      <c r="D4" s="222"/>
+      <c r="E4" s="222"/>
+      <c r="F4" s="222"/>
+      <c r="G4" s="209"/>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="222" t="s">
+      <c r="A5" s="223" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="223"/>
-      <c r="C5" s="223"/>
-      <c r="D5" s="223"/>
-      <c r="E5" s="223"/>
-      <c r="F5" s="223"/>
-      <c r="G5" s="224"/>
+      <c r="B5" s="224"/>
+      <c r="C5" s="224"/>
+      <c r="D5" s="224"/>
+      <c r="E5" s="224"/>
+      <c r="F5" s="224"/>
+      <c r="G5" s="225"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -5217,15 +5243,15 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="225">
+      <c r="D6" s="226">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="226"/>
-      <c r="F6" s="227" t="s">
+      <c r="E6" s="227"/>
+      <c r="F6" s="228" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="228">
+      <c r="G6" s="229">
         <f>Page1!I4</f>
         <v>0</v>
       </c>
@@ -5238,13 +5264,13 @@
       <c r="C7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="225">
+      <c r="D7" s="226">
         <f>Page1!E5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="226"/>
-      <c r="F7" s="227"/>
-      <c r="G7" s="229"/>
+      <c r="E7" s="227"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="230"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -5257,15 +5283,15 @@
       <c r="C8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="227">
+      <c r="D8" s="228">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="227"/>
-      <c r="F8" s="240" t="s">
+      <c r="E8" s="228"/>
+      <c r="F8" s="241" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="228">
+      <c r="G8" s="229">
         <f>Page1!I5</f>
         <v>0</v>
       </c>
@@ -5278,15 +5304,15 @@
         <f>Page1!F44</f>
         <v>461343000</v>
       </c>
-      <c r="C9" s="240" t="s">
+      <c r="C9" s="241" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="245" t="s">
+      <c r="D9" s="246" t="s">
         <v>53</v>
       </c>
-      <c r="E9" s="246"/>
-      <c r="F9" s="241"/>
-      <c r="G9" s="243"/>
+      <c r="E9" s="247"/>
+      <c r="F9" s="242"/>
+      <c r="G9" s="244"/>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
@@ -5296,34 +5322,34 @@
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="242"/>
-      <c r="D10" s="247"/>
-      <c r="E10" s="248"/>
-      <c r="F10" s="242"/>
-      <c r="G10" s="244"/>
+      <c r="C10" s="243"/>
+      <c r="D10" s="248"/>
+      <c r="E10" s="249"/>
+      <c r="F10" s="243"/>
+      <c r="G10" s="245"/>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="230" t="s">
+      <c r="A11" s="231" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="232" t="s">
+      <c r="B11" s="233" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="234" t="s">
+      <c r="C11" s="235" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="235"/>
-      <c r="E11" s="236"/>
-      <c r="F11" s="232" t="s">
+      <c r="D11" s="236"/>
+      <c r="E11" s="237"/>
+      <c r="F11" s="233" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="237" t="s">
+      <c r="G11" s="238" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="231"/>
-      <c r="B12" s="233"/>
+      <c r="A12" s="232"/>
+      <c r="B12" s="234"/>
       <c r="C12" s="14" t="s">
         <v>59</v>
       </c>
@@ -5333,8 +5359,8 @@
       <c r="E12" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="F12" s="233"/>
-      <c r="G12" s="238"/>
+      <c r="F12" s="234"/>
+      <c r="G12" s="239"/>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
@@ -5404,7 +5430,7 @@
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="239" t="s">
+      <c r="G15" s="240" t="s">
         <v>71</v>
       </c>
     </row>
@@ -5428,7 +5454,7 @@
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="180"/>
+      <c r="G16" s="183"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
@@ -5450,7 +5476,7 @@
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="180"/>
+      <c r="G17" s="183"/>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
@@ -5472,7 +5498,7 @@
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="180"/>
+      <c r="G18" s="183"/>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
@@ -5494,7 +5520,7 @@
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="180"/>
+      <c r="G19" s="183"/>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
@@ -5516,7 +5542,7 @@
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="180"/>
+      <c r="G20" s="183"/>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
@@ -5538,7 +5564,7 @@
         <f>Page1!F39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="180"/>
+      <c r="G21" s="183"/>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
@@ -5612,26 +5638,26 @@
       </c>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="254" t="s">
+      <c r="A25" s="255" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="255"/>
-      <c r="C25" s="255"/>
-      <c r="D25" s="255"/>
-      <c r="E25" s="255"/>
-      <c r="F25" s="255"/>
-      <c r="G25" s="256"/>
+      <c r="B25" s="256"/>
+      <c r="C25" s="256"/>
+      <c r="D25" s="256"/>
+      <c r="E25" s="256"/>
+      <c r="F25" s="256"/>
+      <c r="G25" s="257"/>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="257" t="s">
+      <c r="A26" s="258" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="258"/>
-      <c r="C26" s="259" t="s">
+      <c r="B26" s="259"/>
+      <c r="C26" s="260" t="s">
         <v>122</v>
       </c>
-      <c r="D26" s="260"/>
-      <c r="E26" s="261"/>
+      <c r="D26" s="261"/>
+      <c r="E26" s="262"/>
       <c r="F26" s="32" t="s">
         <v>86</v>
       </c>
@@ -5640,15 +5666,15 @@
       </c>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="262" t="s">
+      <c r="A27" s="263" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="226"/>
-      <c r="C27" s="263" t="s">
+      <c r="B27" s="227"/>
+      <c r="C27" s="264" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="264"/>
-      <c r="E27" s="265"/>
+      <c r="D27" s="265"/>
+      <c r="E27" s="266"/>
       <c r="F27" s="33" t="s">
         <v>86</v>
       </c>
@@ -5657,15 +5683,15 @@
       </c>
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="262" t="s">
+      <c r="A28" s="263" t="s">
         <v>91</v>
       </c>
-      <c r="B28" s="226"/>
-      <c r="C28" s="263" t="s">
+      <c r="B28" s="227"/>
+      <c r="C28" s="264" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="264"/>
-      <c r="E28" s="265"/>
+      <c r="D28" s="265"/>
+      <c r="E28" s="266"/>
       <c r="F28" s="33" t="s">
         <v>86</v>
       </c>
@@ -5674,15 +5700,15 @@
       </c>
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="262" t="s">
+      <c r="A29" s="263" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="226"/>
-      <c r="C29" s="263" t="s">
+      <c r="B29" s="227"/>
+      <c r="C29" s="264" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="264"/>
-      <c r="E29" s="265"/>
+      <c r="D29" s="265"/>
+      <c r="E29" s="266"/>
       <c r="F29" s="33" t="s">
         <v>86</v>
       </c>
@@ -5691,15 +5717,15 @@
       </c>
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="262" t="s">
+      <c r="A30" s="263" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="226"/>
-      <c r="C30" s="263" t="s">
+      <c r="B30" s="227"/>
+      <c r="C30" s="264" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="264"/>
-      <c r="E30" s="265"/>
+      <c r="D30" s="265"/>
+      <c r="E30" s="266"/>
       <c r="F30" s="33" t="s">
         <v>86</v>
       </c>
@@ -5708,15 +5734,15 @@
       </c>
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="249" t="s">
+      <c r="A31" s="250" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="250"/>
-      <c r="C31" s="251" t="s">
+      <c r="B31" s="251"/>
+      <c r="C31" s="252" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="252"/>
-      <c r="E31" s="253"/>
+      <c r="D31" s="253"/>
+      <c r="E31" s="254"/>
       <c r="F31" s="35" t="s">
         <v>86</v>
       </c>
@@ -5725,50 +5751,50 @@
       </c>
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="269" t="s">
+      <c r="A32" s="270" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="270"/>
-      <c r="C32" s="271" t="s">
+      <c r="B32" s="271"/>
+      <c r="C32" s="272" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="272"/>
-      <c r="E32" s="273"/>
-      <c r="F32" s="271" t="s">
+      <c r="D32" s="273"/>
+      <c r="E32" s="274"/>
+      <c r="F32" s="272" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="273"/>
+      <c r="G32" s="274"/>
     </row>
     <row r="33" spans="1:7" s="1" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="274"/>
-      <c r="B33" s="275"/>
-      <c r="C33" s="278"/>
-      <c r="D33" s="279"/>
-      <c r="E33" s="280"/>
-      <c r="F33" s="278"/>
-      <c r="G33" s="280"/>
+      <c r="A33" s="275"/>
+      <c r="B33" s="276"/>
+      <c r="C33" s="279"/>
+      <c r="D33" s="280"/>
+      <c r="E33" s="281"/>
+      <c r="F33" s="279"/>
+      <c r="G33" s="281"/>
     </row>
     <row r="34" spans="1:7" s="1" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="276"/>
-      <c r="B34" s="277"/>
-      <c r="C34" s="281" t="s">
+      <c r="A34" s="277"/>
+      <c r="B34" s="278"/>
+      <c r="C34" s="282" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="282"/>
-      <c r="E34" s="283"/>
-      <c r="F34" s="281" t="s">
+      <c r="D34" s="283"/>
+      <c r="E34" s="284"/>
+      <c r="F34" s="282" t="s">
         <v>104</v>
       </c>
-      <c r="G34" s="283"/>
+      <c r="G34" s="284"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37"/>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
-      <c r="E35" s="266"/>
-      <c r="F35" s="266"/>
-      <c r="G35" s="266"/>
+      <c r="E35" s="267"/>
+      <c r="F35" s="267"/>
+      <c r="G35" s="267"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
@@ -5777,21 +5803,21 @@
       <c r="B36" s="39"/>
       <c r="C36" s="40"/>
       <c r="D36" s="37"/>
-      <c r="E36" s="267"/>
-      <c r="F36" s="267"/>
-      <c r="G36" s="267"/>
+      <c r="E36" s="268"/>
+      <c r="F36" s="268"/>
+      <c r="G36" s="268"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="268" t="s">
+      <c r="A38" s="269" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="268"/>
+      <c r="B38" s="269"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="268" t="s">
+      <c r="A39" s="269" t="s">
         <v>107</v>
       </c>
-      <c r="B39" s="268"/>
+      <c r="B39" s="269"/>
     </row>
   </sheetData>
   <mergeCells count="44">
@@ -5840,9 +5866,8 @@
     <mergeCell ref="G6:G7"/>
     <mergeCell ref="D7:E7"/>
   </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.74803149606299213" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="83" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/backend/templates/UC-16gsm-165W.xlsx
+++ b/backend/templates/UC-16gsm-165W.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6437AD22-BEE0-402A-90C3-2540BC52E006}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C581B3-519B-4173-A326-7974FD9E36AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -217,9 +217,6 @@
     <t>Embossed</t>
   </si>
   <si>
-    <t>Matte</t>
-  </si>
-  <si>
     <t>Product Specification</t>
   </si>
   <si>
@@ -432,6 +429,9 @@
   </si>
   <si>
     <t>LSL-42.0, TGT-48.0, USL-54.0</t>
+  </si>
+  <si>
+    <t>Micro</t>
   </si>
 </sst>
 </file>
@@ -1852,6 +1852,42 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1868,12 +1904,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1903,37 +1933,67 @@
     <xf numFmtId="49" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="54" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1954,91 +2014,229 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2074,206 +2272,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="62" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="51" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="53" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="63" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2847,31 +2847,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
       <c r="I1" s="54" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
       <c r="I2" s="55" t="s">
         <v>22</v>
       </c>
@@ -2893,8 +2893,8 @@
       <c r="A4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="177"/>
-      <c r="C4" s="178"/>
+      <c r="B4" s="159"/>
+      <c r="C4" s="160"/>
       <c r="D4" s="60" t="s">
         <v>3</v>
       </c>
@@ -2915,8 +2915,8 @@
       <c r="A5" s="62" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="179"/>
-      <c r="C5" s="180"/>
+      <c r="B5" s="161"/>
+      <c r="C5" s="162"/>
       <c r="D5" s="63" t="s">
         <v>6</v>
       </c>
@@ -2931,46 +2931,46 @@
       <c r="I5" s="64"/>
     </row>
     <row r="6" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="162" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="163"/>
-      <c r="C6" s="164"/>
+      <c r="A6" s="172" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="173"/>
+      <c r="C6" s="174"/>
       <c r="D6" s="148"/>
       <c r="E6" s="146"/>
       <c r="F6" s="146"/>
-      <c r="G6" s="154"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="156"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="167"/>
+      <c r="I6" s="168"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="165" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="157"/>
-      <c r="C7" s="157"/>
-      <c r="D7" s="157" t="s">
+      <c r="A7" s="175" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="169"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="159" t="s">
+      <c r="E7" s="163" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="159" t="s">
+      <c r="F7" s="163" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="157" t="s">
+      <c r="G7" s="169" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="157"/>
-      <c r="I7" s="158"/>
+      <c r="H7" s="169"/>
+      <c r="I7" s="170"/>
     </row>
     <row r="8" spans="1:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="166"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="160"/>
-      <c r="F8" s="160"/>
+      <c r="A8" s="176"/>
+      <c r="B8" s="177"/>
+      <c r="C8" s="177"/>
+      <c r="D8" s="177"/>
+      <c r="E8" s="164"/>
+      <c r="F8" s="164"/>
       <c r="G8" s="65" t="s">
         <v>37</v>
       </c>
@@ -3312,11 +3312,11 @@
       <c r="I38" s="94"/>
     </row>
     <row r="39" spans="1:12" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="168" t="s">
+      <c r="A39" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="169"/>
-      <c r="C39" s="291"/>
+      <c r="B39" s="179"/>
+      <c r="C39" s="180"/>
       <c r="D39" s="150" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
@@ -3343,11 +3343,11 @@
       </c>
     </row>
     <row r="40" spans="1:12" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="170" t="s">
+      <c r="A40" s="181" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="171"/>
-      <c r="C40" s="292"/>
+      <c r="B40" s="182"/>
+      <c r="C40" s="183"/>
       <c r="D40" s="151">
         <f>MIN(D9:D38)</f>
         <v>0</v>
@@ -3374,11 +3374,11 @@
       </c>
     </row>
     <row r="41" spans="1:12" s="42" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="172" t="s">
+      <c r="A41" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="173"/>
-      <c r="C41" s="293"/>
+      <c r="B41" s="185"/>
+      <c r="C41" s="186"/>
       <c r="D41" s="152">
         <f>MAX(D9:D38)</f>
         <v>0</v>
@@ -3411,8 +3411,8 @@
       <c r="A42" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="175"/>
-      <c r="C42" s="175"/>
+      <c r="B42" s="157"/>
+      <c r="C42" s="157"/>
       <c r="D42" s="98" t="s">
         <v>16</v>
       </c>
@@ -3428,8 +3428,8 @@
     </row>
     <row r="43" spans="1:12" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="102"/>
-      <c r="B43" s="176"/>
-      <c r="C43" s="176"/>
+      <c r="B43" s="158"/>
+      <c r="C43" s="158"/>
       <c r="D43" s="98"/>
       <c r="E43" s="99"/>
       <c r="F43" s="100"/>
@@ -3438,14 +3438,14 @@
       <c r="I43" s="101"/>
     </row>
     <row r="44" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="161" t="s">
+      <c r="A44" s="171" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="161"/>
-      <c r="C44" s="161"/>
+      <c r="B44" s="171"/>
+      <c r="C44" s="171"/>
       <c r="D44" s="103"/>
       <c r="E44" s="104" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F44" s="53">
         <v>461343000</v>
@@ -3455,19 +3455,19 @@
       <c r="I44" s="57"/>
     </row>
     <row r="45" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="161" t="s">
+      <c r="A45" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="161"/>
-      <c r="C45" s="161"/>
+      <c r="B45" s="171"/>
+      <c r="C45" s="171"/>
       <c r="D45" s="103"/>
       <c r="E45" s="57"/>
       <c r="F45" s="57"/>
       <c r="G45" s="57"/>
-      <c r="H45" s="153" t="s">
+      <c r="H45" s="165" t="s">
         <v>26</v>
       </c>
-      <c r="I45" s="153"/>
+      <c r="I45" s="165"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="44"/>
@@ -3483,13 +3483,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="19">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="F7:F8"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="G6:I6"/>
     <mergeCell ref="G7:I7"/>
@@ -3502,6 +3495,13 @@
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="F7:F8"/>
   </mergeCells>
   <conditionalFormatting sqref="E9:E38">
     <cfRule type="cellIs" dxfId="14" priority="5" operator="notBetween">
@@ -3556,31 +3556,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
       <c r="I1" s="54" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
       <c r="I2" s="55" t="s">
         <v>22</v>
       </c>
@@ -3605,11 +3605,11 @@
       <c r="A4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="177">
+      <c r="B4" s="159">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="178"/>
+      <c r="C4" s="160"/>
       <c r="D4" s="60" t="s">
         <v>3</v>
       </c>
@@ -3639,11 +3639,11 @@
       <c r="A5" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="195">
+      <c r="B5" s="187">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="196"/>
+      <c r="C5" s="188"/>
       <c r="D5" s="106" t="s">
         <v>6</v>
       </c>
@@ -3667,83 +3667,83 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="49" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="201" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="203"/>
+      <c r="A6" s="195" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="197"/>
       <c r="G6" s="108"/>
       <c r="H6" s="109"/>
       <c r="I6" s="110"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="185" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="186"/>
-      <c r="C7" s="187"/>
-      <c r="D7" s="204" t="s">
+      <c r="A7" s="205" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="206"/>
+      <c r="C7" s="193"/>
+      <c r="D7" s="198" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="205"/>
-      <c r="F7" s="206"/>
-      <c r="G7" s="191" t="s">
+      <c r="E7" s="199"/>
+      <c r="F7" s="200"/>
+      <c r="G7" s="209" t="s">
         <v>30</v>
       </c>
       <c r="H7" s="48" t="s">
+        <v>109</v>
+      </c>
+      <c r="I7" s="203" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="205"/>
+      <c r="B8" s="206"/>
+      <c r="C8" s="193"/>
+      <c r="D8" s="189" t="s">
+        <v>38</v>
+      </c>
+      <c r="E8" s="192" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="188" t="s">
+        <v>34</v>
+      </c>
+      <c r="G8" s="209"/>
+      <c r="H8" s="48" t="s">
         <v>110</v>
       </c>
-      <c r="I7" s="183" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="185"/>
-      <c r="B8" s="186"/>
-      <c r="C8" s="187"/>
-      <c r="D8" s="197" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="200" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" s="196" t="s">
-        <v>34</v>
-      </c>
-      <c r="G8" s="191"/>
-      <c r="H8" s="48" t="s">
+      <c r="I8" s="203"/>
+    </row>
+    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="205"/>
+      <c r="B9" s="206"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="190"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="209"/>
+      <c r="H9" s="46" t="s">
         <v>111</v>
       </c>
-      <c r="I8" s="183"/>
-    </row>
-    <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="185"/>
-      <c r="B9" s="186"/>
-      <c r="C9" s="187"/>
-      <c r="D9" s="198"/>
-      <c r="E9" s="200"/>
-      <c r="F9" s="187"/>
-      <c r="G9" s="191"/>
-      <c r="H9" s="46" t="s">
+      <c r="I9" s="203"/>
+    </row>
+    <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="207"/>
+      <c r="B10" s="208"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="191"/>
+      <c r="E10" s="177"/>
+      <c r="F10" s="194"/>
+      <c r="G10" s="164"/>
+      <c r="H10" s="47" t="s">
         <v>112</v>
       </c>
-      <c r="I9" s="183"/>
-    </row>
-    <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="188"/>
-      <c r="B10" s="189"/>
-      <c r="C10" s="190"/>
-      <c r="D10" s="199"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="190"/>
-      <c r="G10" s="160"/>
-      <c r="H10" s="47" t="s">
-        <v>113</v>
-      </c>
-      <c r="I10" s="184"/>
+      <c r="I10" s="204"/>
     </row>
     <row r="11" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="111"/>
@@ -3948,22 +3948,22 @@
       <c r="B29" s="116"/>
       <c r="C29" s="75"/>
       <c r="D29" s="113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E29" s="114" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F29" s="114" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G29" s="118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H29" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I29" s="86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3971,22 +3971,22 @@
       <c r="B30" s="116"/>
       <c r="C30" s="75"/>
       <c r="D30" s="113" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E30" s="114" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F30" s="114" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G30" s="118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H30" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I30" s="86" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -3994,22 +3994,22 @@
       <c r="B31" s="116"/>
       <c r="C31" s="75"/>
       <c r="D31" s="117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E31" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F31" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G31" s="118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H31" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I31" s="80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4017,22 +4017,22 @@
       <c r="B32" s="116"/>
       <c r="C32" s="75"/>
       <c r="D32" s="117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E32" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F32" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G32" s="118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H32" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I32" s="80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4040,22 +4040,22 @@
       <c r="B33" s="116"/>
       <c r="C33" s="75"/>
       <c r="D33" s="117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E33" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F33" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G33" s="118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H33" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I33" s="80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4063,22 +4063,22 @@
       <c r="B34" s="116"/>
       <c r="C34" s="75"/>
       <c r="D34" s="117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E34" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F34" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G34" s="118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H34" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I34" s="80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4086,22 +4086,22 @@
       <c r="B35" s="116"/>
       <c r="C35" s="75"/>
       <c r="D35" s="117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E35" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F35" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G35" s="118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H35" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I35" s="80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4109,22 +4109,22 @@
       <c r="B36" s="116"/>
       <c r="C36" s="75"/>
       <c r="D36" s="117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E36" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F36" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G36" s="118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H36" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I36" s="80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4132,22 +4132,22 @@
       <c r="B37" s="116"/>
       <c r="C37" s="75"/>
       <c r="D37" s="117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E37" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F37" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G37" s="118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H37" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I37" s="80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4155,22 +4155,22 @@
       <c r="B38" s="116"/>
       <c r="C38" s="75"/>
       <c r="D38" s="117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E38" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F38" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G38" s="118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H38" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I38" s="80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -4178,22 +4178,22 @@
       <c r="B39" s="116"/>
       <c r="C39" s="75"/>
       <c r="D39" s="117" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E39" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F39" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G39" s="118" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H39" s="87" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I39" s="80" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -4201,30 +4201,30 @@
       <c r="B40" s="116"/>
       <c r="C40" s="75"/>
       <c r="D40" s="119" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E40" s="92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="F40" s="120" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G40" s="121" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H40" s="92" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I40" s="94" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="168" t="s">
+      <c r="A41" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="169"/>
-      <c r="C41" s="291"/>
+      <c r="B41" s="179"/>
+      <c r="C41" s="180"/>
       <c r="D41" s="150" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
@@ -4251,11 +4251,11 @@
       </c>
     </row>
     <row r="42" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="170" t="s">
+      <c r="A42" s="181" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="171"/>
-      <c r="C42" s="292"/>
+      <c r="B42" s="182"/>
+      <c r="C42" s="183"/>
       <c r="D42" s="151">
         <f>MIN(D11:D40)</f>
         <v>0</v>
@@ -4282,11 +4282,11 @@
       </c>
     </row>
     <row r="43" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="172" t="s">
+      <c r="A43" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="173"/>
-      <c r="C43" s="293"/>
+      <c r="B43" s="185"/>
+      <c r="C43" s="186"/>
       <c r="D43" s="152">
         <f>MAX(D11:D40)</f>
         <v>0</v>
@@ -4316,11 +4316,11 @@
       <c r="A44" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="192">
+      <c r="B44" s="210">
         <f>Page1!B42</f>
         <v>0</v>
       </c>
-      <c r="C44" s="193"/>
+      <c r="C44" s="211"/>
       <c r="D44" s="128" t="s">
         <v>16</v>
       </c>
@@ -4339,11 +4339,11 @@
     </row>
     <row r="45" spans="1:9" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="132"/>
-      <c r="B45" s="176">
+      <c r="B45" s="158">
         <f>Page1!B43</f>
         <v>0</v>
       </c>
-      <c r="C45" s="194"/>
+      <c r="C45" s="212"/>
       <c r="D45" s="128"/>
       <c r="E45" s="128"/>
       <c r="F45" s="129"/>
@@ -4355,14 +4355,14 @@
       <c r="I45" s="131"/>
     </row>
     <row r="46" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="181" t="s">
+      <c r="A46" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="181"/>
-      <c r="C46" s="181"/>
+      <c r="B46" s="201"/>
+      <c r="C46" s="201"/>
       <c r="D46" s="133"/>
       <c r="E46" s="134" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F46" s="132">
         <f>Page1!F44</f>
@@ -4373,32 +4373,22 @@
       <c r="I46" s="133"/>
     </row>
     <row r="47" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="181" t="s">
+      <c r="A47" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="181"/>
-      <c r="C47" s="181"/>
+      <c r="B47" s="201"/>
+      <c r="C47" s="201"/>
       <c r="D47" s="133"/>
       <c r="E47" s="133"/>
       <c r="F47" s="133"/>
       <c r="G47" s="133"/>
-      <c r="H47" s="182" t="s">
+      <c r="H47" s="202" t="s">
         <v>27</v>
       </c>
-      <c r="I47" s="182"/>
+      <c r="I47" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D8:D10"/>
-    <mergeCell ref="E8:E10"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
     <mergeCell ref="A47:C47"/>
     <mergeCell ref="H47:I47"/>
     <mergeCell ref="I7:I10"/>
@@ -4410,6 +4400,16 @@
     <mergeCell ref="A41:C41"/>
     <mergeCell ref="A42:C42"/>
     <mergeCell ref="A43:C43"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D8:D10"/>
+    <mergeCell ref="E8:E10"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
   </mergeCells>
   <conditionalFormatting sqref="D11:D40">
     <cfRule type="cellIs" dxfId="9" priority="7" operator="notBetween">
@@ -4470,31 +4470,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
-      <c r="E1" s="174"/>
-      <c r="F1" s="174"/>
-      <c r="G1" s="174"/>
-      <c r="H1" s="174"/>
+      <c r="B1" s="156"/>
+      <c r="C1" s="156"/>
+      <c r="D1" s="156"/>
+      <c r="E1" s="156"/>
+      <c r="F1" s="156"/>
+      <c r="G1" s="156"/>
+      <c r="H1" s="156"/>
       <c r="I1" s="54" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="174"/>
-      <c r="H2" s="174"/>
+      <c r="B2" s="156"/>
+      <c r="C2" s="156"/>
+      <c r="D2" s="156"/>
+      <c r="E2" s="156"/>
+      <c r="F2" s="156"/>
+      <c r="G2" s="156"/>
+      <c r="H2" s="156"/>
       <c r="I2" s="55" t="s">
         <v>22</v>
       </c>
@@ -4519,11 +4519,11 @@
       <c r="A4" s="59" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="177">
+      <c r="B4" s="159">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="178"/>
+      <c r="C4" s="160"/>
       <c r="D4" s="60" t="s">
         <v>3</v>
       </c>
@@ -4553,11 +4553,11 @@
       <c r="A5" s="105" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="195">
+      <c r="B5" s="187">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="196"/>
+      <c r="C5" s="188"/>
       <c r="D5" s="106" t="s">
         <v>6</v>
       </c>
@@ -4581,49 +4581,49 @@
       </c>
     </row>
     <row r="6" spans="1:11" s="49" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="201" t="s">
-        <v>108</v>
-      </c>
-      <c r="B6" s="202"/>
-      <c r="C6" s="202"/>
-      <c r="D6" s="155"/>
-      <c r="E6" s="155"/>
-      <c r="F6" s="155"/>
-      <c r="G6" s="156"/>
-      <c r="H6" s="207"/>
-      <c r="I6" s="208"/>
+      <c r="A6" s="195" t="s">
+        <v>107</v>
+      </c>
+      <c r="B6" s="196"/>
+      <c r="C6" s="196"/>
+      <c r="D6" s="167"/>
+      <c r="E6" s="167"/>
+      <c r="F6" s="167"/>
+      <c r="G6" s="168"/>
+      <c r="H6" s="213"/>
+      <c r="I6" s="214"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="211" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="207"/>
-      <c r="C7" s="287"/>
-      <c r="D7" s="285" t="s">
+      <c r="A7" s="217" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="213"/>
+      <c r="C7" s="218"/>
+      <c r="D7" s="219" t="s">
+        <v>113</v>
+      </c>
+      <c r="E7" s="221" t="s">
         <v>114</v>
       </c>
-      <c r="E7" s="212" t="s">
+      <c r="F7" s="221" t="s">
         <v>115</v>
       </c>
-      <c r="F7" s="212" t="s">
+      <c r="G7" s="223" t="s">
         <v>116</v>
       </c>
-      <c r="G7" s="214" t="s">
-        <v>117</v>
-      </c>
-      <c r="H7" s="186"/>
-      <c r="I7" s="209"/>
+      <c r="H7" s="206"/>
+      <c r="I7" s="215"/>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="188"/>
-      <c r="B8" s="189"/>
-      <c r="C8" s="190"/>
-      <c r="D8" s="286"/>
-      <c r="E8" s="213"/>
-      <c r="F8" s="213"/>
-      <c r="G8" s="215"/>
-      <c r="H8" s="186"/>
-      <c r="I8" s="209"/>
+      <c r="A8" s="207"/>
+      <c r="B8" s="208"/>
+      <c r="C8" s="194"/>
+      <c r="D8" s="220"/>
+      <c r="E8" s="222"/>
+      <c r="F8" s="222"/>
+      <c r="G8" s="224"/>
+      <c r="H8" s="206"/>
+      <c r="I8" s="215"/>
     </row>
     <row r="9" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="111"/>
@@ -4633,8 +4633,8 @@
       <c r="E9" s="84"/>
       <c r="F9" s="84"/>
       <c r="G9" s="136"/>
-      <c r="H9" s="186"/>
-      <c r="I9" s="209"/>
+      <c r="H9" s="206"/>
+      <c r="I9" s="215"/>
     </row>
     <row r="10" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="73"/>
@@ -4644,8 +4644,8 @@
       <c r="E10" s="79"/>
       <c r="F10" s="79"/>
       <c r="G10" s="138"/>
-      <c r="H10" s="186"/>
-      <c r="I10" s="209"/>
+      <c r="H10" s="206"/>
+      <c r="I10" s="215"/>
     </row>
     <row r="11" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="73"/>
@@ -4655,8 +4655,8 @@
       <c r="E11" s="79"/>
       <c r="F11" s="79"/>
       <c r="G11" s="138"/>
-      <c r="H11" s="186"/>
-      <c r="I11" s="209"/>
+      <c r="H11" s="206"/>
+      <c r="I11" s="215"/>
     </row>
     <row r="12" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="73"/>
@@ -4666,8 +4666,8 @@
       <c r="E12" s="79"/>
       <c r="F12" s="79"/>
       <c r="G12" s="138"/>
-      <c r="H12" s="186"/>
-      <c r="I12" s="209"/>
+      <c r="H12" s="206"/>
+      <c r="I12" s="215"/>
     </row>
     <row r="13" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="73"/>
@@ -4677,8 +4677,8 @@
       <c r="E13" s="79"/>
       <c r="F13" s="79"/>
       <c r="G13" s="138"/>
-      <c r="H13" s="186"/>
-      <c r="I13" s="209"/>
+      <c r="H13" s="206"/>
+      <c r="I13" s="215"/>
     </row>
     <row r="14" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="73"/>
@@ -4688,8 +4688,8 @@
       <c r="E14" s="79"/>
       <c r="F14" s="79"/>
       <c r="G14" s="138"/>
-      <c r="H14" s="186"/>
-      <c r="I14" s="209"/>
+      <c r="H14" s="206"/>
+      <c r="I14" s="215"/>
     </row>
     <row r="15" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="73"/>
@@ -4699,8 +4699,8 @@
       <c r="E15" s="79"/>
       <c r="F15" s="79"/>
       <c r="G15" s="138"/>
-      <c r="H15" s="186"/>
-      <c r="I15" s="209"/>
+      <c r="H15" s="206"/>
+      <c r="I15" s="215"/>
     </row>
     <row r="16" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="73"/>
@@ -4710,8 +4710,8 @@
       <c r="E16" s="79"/>
       <c r="F16" s="79"/>
       <c r="G16" s="138"/>
-      <c r="H16" s="186"/>
-      <c r="I16" s="209"/>
+      <c r="H16" s="206"/>
+      <c r="I16" s="215"/>
     </row>
     <row r="17" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="73"/>
@@ -4721,8 +4721,8 @@
       <c r="E17" s="79"/>
       <c r="F17" s="79"/>
       <c r="G17" s="138"/>
-      <c r="H17" s="186"/>
-      <c r="I17" s="209"/>
+      <c r="H17" s="206"/>
+      <c r="I17" s="215"/>
     </row>
     <row r="18" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="73"/>
@@ -4732,8 +4732,8 @@
       <c r="E18" s="79"/>
       <c r="F18" s="79"/>
       <c r="G18" s="138"/>
-      <c r="H18" s="186"/>
-      <c r="I18" s="209"/>
+      <c r="H18" s="206"/>
+      <c r="I18" s="215"/>
     </row>
     <row r="19" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="73"/>
@@ -4743,8 +4743,8 @@
       <c r="E19" s="79"/>
       <c r="F19" s="79"/>
       <c r="G19" s="138"/>
-      <c r="H19" s="186"/>
-      <c r="I19" s="209"/>
+      <c r="H19" s="206"/>
+      <c r="I19" s="215"/>
     </row>
     <row r="20" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="73"/>
@@ -4754,8 +4754,8 @@
       <c r="E20" s="79"/>
       <c r="F20" s="79"/>
       <c r="G20" s="138"/>
-      <c r="H20" s="186"/>
-      <c r="I20" s="209"/>
+      <c r="H20" s="206"/>
+      <c r="I20" s="215"/>
     </row>
     <row r="21" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="73"/>
@@ -4765,8 +4765,8 @@
       <c r="E21" s="79"/>
       <c r="F21" s="79"/>
       <c r="G21" s="138"/>
-      <c r="H21" s="186"/>
-      <c r="I21" s="209"/>
+      <c r="H21" s="206"/>
+      <c r="I21" s="215"/>
     </row>
     <row r="22" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="73"/>
@@ -4776,8 +4776,8 @@
       <c r="E22" s="79"/>
       <c r="F22" s="79"/>
       <c r="G22" s="138"/>
-      <c r="H22" s="186"/>
-      <c r="I22" s="209"/>
+      <c r="H22" s="206"/>
+      <c r="I22" s="215"/>
     </row>
     <row r="23" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="73"/>
@@ -4787,8 +4787,8 @@
       <c r="E23" s="79"/>
       <c r="F23" s="79"/>
       <c r="G23" s="138"/>
-      <c r="H23" s="186"/>
-      <c r="I23" s="209"/>
+      <c r="H23" s="206"/>
+      <c r="I23" s="215"/>
     </row>
     <row r="24" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="73"/>
@@ -4798,8 +4798,8 @@
       <c r="E24" s="84"/>
       <c r="F24" s="84"/>
       <c r="G24" s="136"/>
-      <c r="H24" s="186"/>
-      <c r="I24" s="209"/>
+      <c r="H24" s="206"/>
+      <c r="I24" s="215"/>
     </row>
     <row r="25" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="73"/>
@@ -4809,8 +4809,8 @@
       <c r="E25" s="79"/>
       <c r="F25" s="79"/>
       <c r="G25" s="138"/>
-      <c r="H25" s="186"/>
-      <c r="I25" s="209"/>
+      <c r="H25" s="206"/>
+      <c r="I25" s="215"/>
     </row>
     <row r="26" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="73"/>
@@ -4820,8 +4820,8 @@
       <c r="E26" s="79"/>
       <c r="F26" s="79"/>
       <c r="G26" s="138"/>
-      <c r="H26" s="186"/>
-      <c r="I26" s="209"/>
+      <c r="H26" s="206"/>
+      <c r="I26" s="215"/>
     </row>
     <row r="27" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="73"/>
@@ -4831,8 +4831,8 @@
       <c r="E27" s="79"/>
       <c r="F27" s="79"/>
       <c r="G27" s="138"/>
-      <c r="H27" s="186"/>
-      <c r="I27" s="209"/>
+      <c r="H27" s="206"/>
+      <c r="I27" s="215"/>
     </row>
     <row r="28" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="73"/>
@@ -4842,8 +4842,8 @@
       <c r="E28" s="79"/>
       <c r="F28" s="79"/>
       <c r="G28" s="138"/>
-      <c r="H28" s="186"/>
-      <c r="I28" s="209"/>
+      <c r="H28" s="206"/>
+      <c r="I28" s="215"/>
     </row>
     <row r="29" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="73"/>
@@ -4853,8 +4853,8 @@
       <c r="E29" s="79"/>
       <c r="F29" s="79"/>
       <c r="G29" s="138"/>
-      <c r="H29" s="186"/>
-      <c r="I29" s="209"/>
+      <c r="H29" s="206"/>
+      <c r="I29" s="215"/>
     </row>
     <row r="30" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="73"/>
@@ -4864,8 +4864,8 @@
       <c r="E30" s="79"/>
       <c r="F30" s="79"/>
       <c r="G30" s="138"/>
-      <c r="H30" s="186"/>
-      <c r="I30" s="209"/>
+      <c r="H30" s="206"/>
+      <c r="I30" s="215"/>
     </row>
     <row r="31" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="73"/>
@@ -4875,8 +4875,8 @@
       <c r="E31" s="79"/>
       <c r="F31" s="79"/>
       <c r="G31" s="138"/>
-      <c r="H31" s="186"/>
-      <c r="I31" s="209"/>
+      <c r="H31" s="206"/>
+      <c r="I31" s="215"/>
     </row>
     <row r="32" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="73"/>
@@ -4886,8 +4886,8 @@
       <c r="E32" s="79"/>
       <c r="F32" s="79"/>
       <c r="G32" s="138"/>
-      <c r="H32" s="186"/>
-      <c r="I32" s="209"/>
+      <c r="H32" s="206"/>
+      <c r="I32" s="215"/>
     </row>
     <row r="33" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="73"/>
@@ -4897,8 +4897,8 @@
       <c r="E33" s="79"/>
       <c r="F33" s="79"/>
       <c r="G33" s="138"/>
-      <c r="H33" s="186"/>
-      <c r="I33" s="209"/>
+      <c r="H33" s="206"/>
+      <c r="I33" s="215"/>
     </row>
     <row r="34" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="73"/>
@@ -4908,8 +4908,8 @@
       <c r="E34" s="79"/>
       <c r="F34" s="79"/>
       <c r="G34" s="138"/>
-      <c r="H34" s="186"/>
-      <c r="I34" s="209"/>
+      <c r="H34" s="206"/>
+      <c r="I34" s="215"/>
     </row>
     <row r="35" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="73"/>
@@ -4919,8 +4919,8 @@
       <c r="E35" s="79"/>
       <c r="F35" s="79"/>
       <c r="G35" s="138"/>
-      <c r="H35" s="186"/>
-      <c r="I35" s="209"/>
+      <c r="H35" s="206"/>
+      <c r="I35" s="215"/>
     </row>
     <row r="36" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="73"/>
@@ -4930,8 +4930,8 @@
       <c r="E36" s="79"/>
       <c r="F36" s="79"/>
       <c r="G36" s="138"/>
-      <c r="H36" s="186"/>
-      <c r="I36" s="209"/>
+      <c r="H36" s="206"/>
+      <c r="I36" s="215"/>
     </row>
     <row r="37" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="73"/>
@@ -4941,8 +4941,8 @@
       <c r="E37" s="79"/>
       <c r="F37" s="79"/>
       <c r="G37" s="138"/>
-      <c r="H37" s="186"/>
-      <c r="I37" s="209"/>
+      <c r="H37" s="206"/>
+      <c r="I37" s="215"/>
     </row>
     <row r="38" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="73"/>
@@ -4952,16 +4952,16 @@
       <c r="E38" s="93"/>
       <c r="F38" s="93"/>
       <c r="G38" s="140"/>
-      <c r="H38" s="186"/>
-      <c r="I38" s="209"/>
+      <c r="H38" s="206"/>
+      <c r="I38" s="215"/>
     </row>
     <row r="39" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="168" t="s">
+      <c r="A39" s="178" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="169"/>
-      <c r="C39" s="291"/>
-      <c r="D39" s="288" t="e">
+      <c r="B39" s="179"/>
+      <c r="C39" s="180"/>
+      <c r="D39" s="153" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
       </c>
@@ -4977,16 +4977,16 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="186"/>
-      <c r="I39" s="209"/>
+      <c r="H39" s="206"/>
+      <c r="I39" s="215"/>
     </row>
     <row r="40" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="170" t="s">
+      <c r="A40" s="181" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="171"/>
-      <c r="C40" s="292"/>
-      <c r="D40" s="289">
+      <c r="B40" s="182"/>
+      <c r="C40" s="183"/>
+      <c r="D40" s="154">
         <f>MIN(D9:D38)</f>
         <v>0</v>
       </c>
@@ -5002,16 +5002,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="186"/>
-      <c r="I40" s="209"/>
+      <c r="H40" s="206"/>
+      <c r="I40" s="215"/>
     </row>
     <row r="41" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="172" t="s">
+      <c r="A41" s="184" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="173"/>
-      <c r="C41" s="293"/>
-      <c r="D41" s="290">
+      <c r="B41" s="185"/>
+      <c r="C41" s="186"/>
+      <c r="D41" s="155">
         <f>MAX(D9:D38)</f>
         <v>0</v>
       </c>
@@ -5027,18 +5027,18 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H41" s="189"/>
-      <c r="I41" s="210"/>
+      <c r="H41" s="208"/>
+      <c r="I41" s="216"/>
     </row>
     <row r="42" spans="1:9" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="128" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="192">
+      <c r="B42" s="210">
         <f>Page1!B42</f>
         <v>0</v>
       </c>
-      <c r="C42" s="193"/>
+      <c r="C42" s="211"/>
       <c r="D42" s="128" t="s">
         <v>16</v>
       </c>
@@ -5057,11 +5057,11 @@
     </row>
     <row r="43" spans="1:9" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="132"/>
-      <c r="B43" s="176">
+      <c r="B43" s="158">
         <f>Page1!B43</f>
         <v>0</v>
       </c>
-      <c r="C43" s="194"/>
+      <c r="C43" s="212"/>
       <c r="D43" s="128"/>
       <c r="E43" s="128"/>
       <c r="F43" s="129"/>
@@ -5073,14 +5073,14 @@
       <c r="I43" s="131"/>
     </row>
     <row r="44" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="181" t="s">
+      <c r="A44" s="201" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="181"/>
-      <c r="C44" s="181"/>
+      <c r="B44" s="201"/>
+      <c r="C44" s="201"/>
       <c r="D44" s="133"/>
       <c r="E44" s="134" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="F44" s="132">
         <f>Page1!F44</f>
@@ -5091,29 +5091,22 @@
       <c r="I44" s="133"/>
     </row>
     <row r="45" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="181" t="s">
+      <c r="A45" s="201" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="181"/>
-      <c r="C45" s="181"/>
+      <c r="B45" s="201"/>
+      <c r="C45" s="201"/>
       <c r="D45" s="133"/>
       <c r="E45" s="133"/>
       <c r="F45" s="133"/>
       <c r="G45" s="133"/>
-      <c r="H45" s="182" t="s">
+      <c r="H45" s="202" t="s">
         <v>28</v>
       </c>
-      <c r="I45" s="182"/>
+      <c r="I45" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:H1"/>
-    <mergeCell ref="A2:H2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B43:C43"/>
     <mergeCell ref="A45:C45"/>
     <mergeCell ref="H45:I45"/>
     <mergeCell ref="A6:C6"/>
@@ -5127,6 +5120,13 @@
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="A40:C40"/>
     <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A2:H2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B43:C43"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D38">
     <cfRule type="cellIs" dxfId="3" priority="6" operator="notBetween">
@@ -5166,7 +5166,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5179,15 +5179,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="216" t="s">
+      <c r="A1" s="282" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="217"/>
-      <c r="C1" s="217"/>
-      <c r="D1" s="217"/>
-      <c r="E1" s="217"/>
-      <c r="F1" s="217"/>
-      <c r="G1" s="218"/>
+      <c r="B1" s="283"/>
+      <c r="C1" s="283"/>
+      <c r="D1" s="283"/>
+      <c r="E1" s="283"/>
+      <c r="F1" s="283"/>
+      <c r="G1" s="284"/>
     </row>
     <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
@@ -5201,37 +5201,37 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="219" t="s">
+      <c r="A3" s="285" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="220"/>
-      <c r="C3" s="220"/>
-      <c r="D3" s="220"/>
-      <c r="E3" s="220"/>
-      <c r="F3" s="220"/>
-      <c r="G3" s="221"/>
+      <c r="B3" s="286"/>
+      <c r="C3" s="286"/>
+      <c r="D3" s="286"/>
+      <c r="E3" s="286"/>
+      <c r="F3" s="286"/>
+      <c r="G3" s="287"/>
     </row>
     <row r="4" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="185" t="s">
+      <c r="A4" s="205" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="222"/>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="209"/>
+      <c r="B4" s="288"/>
+      <c r="C4" s="288"/>
+      <c r="D4" s="288"/>
+      <c r="E4" s="288"/>
+      <c r="F4" s="288"/>
+      <c r="G4" s="215"/>
     </row>
     <row r="5" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="223" t="s">
+      <c r="A5" s="289" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="224"/>
-      <c r="C5" s="224"/>
-      <c r="D5" s="224"/>
-      <c r="E5" s="224"/>
-      <c r="F5" s="224"/>
-      <c r="G5" s="225"/>
+      <c r="B5" s="290"/>
+      <c r="C5" s="290"/>
+      <c r="D5" s="290"/>
+      <c r="E5" s="290"/>
+      <c r="F5" s="290"/>
+      <c r="G5" s="291"/>
     </row>
     <row r="6" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -5243,15 +5243,15 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="226">
+      <c r="D6" s="292">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="227"/>
-      <c r="F6" s="228" t="s">
+      <c r="E6" s="257"/>
+      <c r="F6" s="262" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="229">
+      <c r="G6" s="266">
         <f>Page1!I4</f>
         <v>0</v>
       </c>
@@ -5264,13 +5264,13 @@
       <c r="C7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="226">
+      <c r="D7" s="292">
         <f>Page1!E5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="227"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="230"/>
+      <c r="E7" s="257"/>
+      <c r="F7" s="262"/>
+      <c r="G7" s="293"/>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -5283,15 +5283,15 @@
       <c r="C8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="228">
+      <c r="D8" s="262">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="228"/>
-      <c r="F8" s="241" t="s">
+      <c r="E8" s="262"/>
+      <c r="F8" s="263" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="229">
+      <c r="G8" s="266">
         <f>Page1!I5</f>
         <v>0</v>
       </c>
@@ -5304,70 +5304,70 @@
         <f>Page1!F44</f>
         <v>461343000</v>
       </c>
-      <c r="C9" s="241" t="s">
+      <c r="C9" s="263" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="246" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="247"/>
-      <c r="F9" s="242"/>
-      <c r="G9" s="244"/>
+      <c r="D9" s="269" t="s">
+        <v>122</v>
+      </c>
+      <c r="E9" s="270"/>
+      <c r="F9" s="264"/>
+      <c r="G9" s="267"/>
     </row>
     <row r="10" spans="1:7" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" s="13">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="243"/>
-      <c r="D10" s="248"/>
-      <c r="E10" s="249"/>
-      <c r="F10" s="243"/>
-      <c r="G10" s="245"/>
+      <c r="C10" s="265"/>
+      <c r="D10" s="271"/>
+      <c r="E10" s="272"/>
+      <c r="F10" s="265"/>
+      <c r="G10" s="268"/>
     </row>
     <row r="11" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="231" t="s">
+      <c r="A11" s="273" t="s">
+        <v>54</v>
+      </c>
+      <c r="B11" s="275" t="s">
         <v>55</v>
       </c>
-      <c r="B11" s="233" t="s">
+      <c r="C11" s="277" t="s">
+        <v>11</v>
+      </c>
+      <c r="D11" s="278"/>
+      <c r="E11" s="279"/>
+      <c r="F11" s="275" t="s">
         <v>56</v>
       </c>
-      <c r="C11" s="235" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="236"/>
-      <c r="E11" s="237"/>
-      <c r="F11" s="233" t="s">
+      <c r="G11" s="280" t="s">
         <v>57</v>
       </c>
-      <c r="G11" s="238" t="s">
+    </row>
+    <row r="12" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="274"/>
+      <c r="B12" s="276"/>
+      <c r="C12" s="14" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="232"/>
-      <c r="B12" s="234"/>
-      <c r="C12" s="14" t="s">
+      <c r="D12" s="14" t="s">
         <v>59</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="E12" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="E12" s="14" t="s">
-        <v>61</v>
-      </c>
-      <c r="F12" s="234"/>
-      <c r="G12" s="239"/>
+      <c r="F12" s="276"/>
+      <c r="G12" s="281"/>
     </row>
     <row r="13" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="16" t="s">
         <v>62</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>63</v>
       </c>
       <c r="C13" s="17">
         <v>15</v>
@@ -5383,15 +5383,15 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G13" s="26" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>65</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>66</v>
       </c>
       <c r="C14" s="21">
         <v>32</v>
@@ -5407,67 +5407,67 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G14" s="23" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="20" t="s">
         <v>68</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>69</v>
       </c>
       <c r="C15" s="21">
         <v>300</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" s="24" t="e">
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="240" t="s">
-        <v>71</v>
+      <c r="G15" s="261" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C16" s="21">
         <v>300</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F16" s="24" t="e">
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="183"/>
+      <c r="G16" s="203"/>
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C17" s="25">
         <v>5</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E17" s="25">
         <v>11</v>
@@ -5476,20 +5476,20 @@
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="183"/>
+      <c r="G17" s="203"/>
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C18" s="25">
         <v>3</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E18" s="25">
         <v>9</v>
@@ -5498,58 +5498,58 @@
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="183"/>
+      <c r="G18" s="203"/>
     </row>
     <row r="19" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C19" s="21">
         <v>350</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E19" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F19" s="24" t="e">
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="183"/>
+      <c r="G19" s="203"/>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C20" s="21">
         <v>400</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E20" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F20" s="24" t="e">
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="183"/>
+      <c r="G20" s="203"/>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="25">
         <v>0.3</v>
@@ -5564,17 +5564,17 @@
         <f>Page1!F39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="183"/>
+      <c r="G21" s="203"/>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="B22" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B22" s="20" t="s">
-        <v>78</v>
-      </c>
       <c r="C22" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D22" s="24">
         <v>165</v>
@@ -5587,38 +5587,38 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G22" s="23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="B23" s="20" t="s">
         <v>80</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>81</v>
       </c>
       <c r="C23" s="24">
         <v>6000</v>
       </c>
       <c r="D23" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E23" s="21" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F23" s="24">
         <v>6000</v>
       </c>
       <c r="G23" s="23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C24" s="29">
         <v>430</v>
@@ -5634,205 +5634,212 @@
         <v>#DIV/0!</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="255" t="s">
+      <c r="A25" s="248" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="249"/>
+      <c r="C25" s="249"/>
+      <c r="D25" s="249"/>
+      <c r="E25" s="249"/>
+      <c r="F25" s="249"/>
+      <c r="G25" s="250"/>
+    </row>
+    <row r="26" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="251" t="s">
         <v>84</v>
       </c>
-      <c r="B25" s="256"/>
-      <c r="C25" s="256"/>
-      <c r="D25" s="256"/>
-      <c r="E25" s="256"/>
-      <c r="F25" s="256"/>
-      <c r="G25" s="257"/>
-    </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="258" t="s">
+      <c r="B26" s="252"/>
+      <c r="C26" s="253" t="s">
+        <v>121</v>
+      </c>
+      <c r="D26" s="254"/>
+      <c r="E26" s="255"/>
+      <c r="F26" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="B26" s="259"/>
-      <c r="C26" s="260" t="s">
-        <v>122</v>
-      </c>
-      <c r="D26" s="261"/>
-      <c r="E26" s="262"/>
-      <c r="F26" s="32" t="s">
+      <c r="G26" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="G26" s="26" t="s">
+    </row>
+    <row r="27" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="256" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="263" t="s">
+      <c r="B27" s="257"/>
+      <c r="C27" s="258" t="s">
         <v>88</v>
       </c>
-      <c r="B27" s="227"/>
-      <c r="C27" s="264" t="s">
+      <c r="D27" s="259"/>
+      <c r="E27" s="260"/>
+      <c r="F27" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G27" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="D27" s="265"/>
-      <c r="E27" s="266"/>
-      <c r="F27" s="33" t="s">
+    </row>
+    <row r="28" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="256" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="257"/>
+      <c r="C28" s="258" t="s">
+        <v>91</v>
+      </c>
+      <c r="D28" s="259"/>
+      <c r="E28" s="260"/>
+      <c r="F28" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G28" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="G27" s="23" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="263" t="s">
-        <v>91</v>
-      </c>
-      <c r="B28" s="227"/>
-      <c r="C28" s="264" t="s">
+    </row>
+    <row r="29" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="256" t="s">
         <v>92</v>
       </c>
-      <c r="D28" s="265"/>
-      <c r="E28" s="266"/>
-      <c r="F28" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="G28" s="26" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="263" t="s">
+      <c r="B29" s="257"/>
+      <c r="C29" s="258" t="s">
         <v>93</v>
       </c>
-      <c r="B29" s="227"/>
-      <c r="C29" s="264" t="s">
+      <c r="D29" s="259"/>
+      <c r="E29" s="260"/>
+      <c r="F29" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="23" t="s">
         <v>94</v>
       </c>
-      <c r="D29" s="265"/>
-      <c r="E29" s="266"/>
-      <c r="F29" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="23" t="s">
+    </row>
+    <row r="30" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="256" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="263" t="s">
+      <c r="B30" s="257"/>
+      <c r="C30" s="258" t="s">
         <v>96</v>
       </c>
-      <c r="B30" s="227"/>
-      <c r="C30" s="264" t="s">
+      <c r="D30" s="259"/>
+      <c r="E30" s="260"/>
+      <c r="F30" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="G30" s="23" t="s">
         <v>97</v>
       </c>
-      <c r="D30" s="265"/>
-      <c r="E30" s="266"/>
-      <c r="F30" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="G30" s="23" t="s">
+    </row>
+    <row r="31" spans="1:7" s="1" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="243" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="250" t="s">
+      <c r="B31" s="244"/>
+      <c r="C31" s="245" t="s">
         <v>99</v>
       </c>
-      <c r="B31" s="251"/>
-      <c r="C31" s="252" t="s">
+      <c r="D31" s="246"/>
+      <c r="E31" s="247"/>
+      <c r="F31" s="35" t="s">
+        <v>85</v>
+      </c>
+      <c r="G31" s="51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="228" t="s">
         <v>100</v>
       </c>
-      <c r="D31" s="253"/>
-      <c r="E31" s="254"/>
-      <c r="F31" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31" s="51" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="270" t="s">
+      <c r="B32" s="229"/>
+      <c r="C32" s="230" t="s">
         <v>101</v>
       </c>
-      <c r="B32" s="271"/>
-      <c r="C32" s="272" t="s">
+      <c r="D32" s="231"/>
+      <c r="E32" s="232"/>
+      <c r="F32" s="230" t="s">
         <v>102</v>
       </c>
-      <c r="D32" s="273"/>
-      <c r="E32" s="274"/>
-      <c r="F32" s="272" t="s">
+      <c r="G32" s="232"/>
+    </row>
+    <row r="33" spans="1:7" s="1" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="233"/>
+      <c r="B33" s="234"/>
+      <c r="C33" s="237"/>
+      <c r="D33" s="238"/>
+      <c r="E33" s="239"/>
+      <c r="F33" s="237"/>
+      <c r="G33" s="239"/>
+    </row>
+    <row r="34" spans="1:7" s="1" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="235"/>
+      <c r="B34" s="236"/>
+      <c r="C34" s="240" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="241"/>
+      <c r="E34" s="242"/>
+      <c r="F34" s="240" t="s">
         <v>103</v>
       </c>
-      <c r="G32" s="274"/>
-    </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="275"/>
-      <c r="B33" s="276"/>
-      <c r="C33" s="279"/>
-      <c r="D33" s="280"/>
-      <c r="E33" s="281"/>
-      <c r="F33" s="279"/>
-      <c r="G33" s="281"/>
-    </row>
-    <row r="34" spans="1:7" s="1" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="277"/>
-      <c r="B34" s="278"/>
-      <c r="C34" s="282" t="s">
-        <v>16</v>
-      </c>
-      <c r="D34" s="283"/>
-      <c r="E34" s="284"/>
-      <c r="F34" s="282" t="s">
-        <v>104</v>
-      </c>
-      <c r="G34" s="284"/>
+      <c r="G34" s="242"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="37"/>
       <c r="B35" s="37"/>
       <c r="C35" s="37"/>
       <c r="D35" s="37"/>
-      <c r="E35" s="267"/>
-      <c r="F35" s="267"/>
-      <c r="G35" s="267"/>
+      <c r="E35" s="225"/>
+      <c r="F35" s="225"/>
+      <c r="G35" s="225"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="41" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B36" s="39"/>
       <c r="C36" s="40"/>
       <c r="D36" s="37"/>
-      <c r="E36" s="268"/>
-      <c r="F36" s="268"/>
-      <c r="G36" s="268"/>
+      <c r="E36" s="226"/>
+      <c r="F36" s="226"/>
+      <c r="G36" s="226"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="269" t="s">
+      <c r="A38" s="227" t="s">
+        <v>105</v>
+      </c>
+      <c r="B38" s="227"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="227" t="s">
         <v>106</v>
       </c>
-      <c r="B38" s="269"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="269" t="s">
-        <v>107</v>
-      </c>
-      <c r="B39" s="269"/>
+      <c r="B39" s="227"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="A38:B38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A33:B34"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A4:G4"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="G15:G21"/>
+    <mergeCell ref="D8:E8"/>
+    <mergeCell ref="F8:F10"/>
+    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:E10"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:E31"/>
     <mergeCell ref="A25:G25"/>
@@ -5846,25 +5853,18 @@
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:E30"/>
-    <mergeCell ref="G15:G21"/>
-    <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="E35:G35"/>
+    <mergeCell ref="E36:G36"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="F34:G34"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>

--- a/backend/templates/UC-16gsm-165W.xlsx
+++ b/backend/templates/UC-16gsm-165W.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6C581B3-519B-4173-A326-7974FD9E36AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6FAD99-7088-4754-B0E5-A92390B54540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -14,7 +14,7 @@
     <sheet name="COA Form" sheetId="12" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'COA Form'!$A$1:$G$39</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'COA Form'!$A$1:$H$40</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Page1!$A$1:$I$45</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Page2!$A$1:$I$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">Page3!$A$1:$I$45</definedName>
@@ -1348,7 +1348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="294">
+  <cellXfs count="306">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1414,9 +1414,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1444,16 +1441,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2068,6 +2056,39 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="67" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2104,14 +2125,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2182,24 +2197,21 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="1" fillId="2" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -2212,6 +2224,30 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="67" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="52" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="51" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="61" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2257,9 +2293,6 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2273,6 +2306,9 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2463,7 +2499,7 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>24</xdr:row>
       <xdr:rowOff>104118</xdr:rowOff>
@@ -2833,495 +2869,495 @@
   <dimension ref="A1:L46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="14" style="43" customWidth="1"/>
-    <col min="4" max="9" width="22.140625" style="43" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" style="43" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="43"/>
-    <col min="12" max="12" width="9.42578125" style="43" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="43"/>
+    <col min="1" max="3" width="14" style="39" customWidth="1"/>
+    <col min="4" max="9" width="22.140625" style="39" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" style="39" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.140625" style="39"/>
+    <col min="12" max="12" width="9.42578125" style="39" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="39"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
+    <row r="1" spans="1:11" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="54" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="50" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="156" t="s">
+    <row r="2" spans="1:11" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="55" t="s">
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58" t="s">
+    <row r="3" spans="1:11" s="38" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="52"/>
-    </row>
-    <row r="4" spans="1:11" s="42" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+      <c r="I3" s="48"/>
+    </row>
+    <row r="4" spans="1:11" s="38" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="159"/>
-      <c r="C4" s="160"/>
-      <c r="D4" s="60" t="s">
+      <c r="B4" s="155"/>
+      <c r="C4" s="156"/>
+      <c r="D4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="60" t="s">
+      <c r="E4" s="32"/>
+      <c r="F4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="36"/>
-      <c r="H4" s="144" t="s">
+      <c r="G4" s="32"/>
+      <c r="H4" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="61"/>
-      <c r="K4" s="42" t="s">
+      <c r="I4" s="57"/>
+      <c r="K4" s="38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="42" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="62" t="s">
+    <row r="5" spans="1:11" s="38" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="63" t="s">
+      <c r="B5" s="157"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="147"/>
-      <c r="F5" s="63" t="s">
+      <c r="E5" s="143"/>
+      <c r="F5" s="59" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="147"/>
+      <c r="G5" s="143"/>
       <c r="H5" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="64"/>
-    </row>
-    <row r="6" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="172" t="s">
+      <c r="I5" s="60"/>
+    </row>
+    <row r="6" spans="1:11" s="38" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="168" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="173"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="148"/>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="168"/>
+      <c r="B6" s="169"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="144"/>
+      <c r="E6" s="142"/>
+      <c r="F6" s="142"/>
+      <c r="G6" s="162"/>
+      <c r="H6" s="163"/>
+      <c r="I6" s="164"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="175" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="169"/>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169" t="s">
+      <c r="A7" s="171" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="165"/>
+      <c r="C7" s="165"/>
+      <c r="D7" s="165" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="163" t="s">
+      <c r="E7" s="159" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="163" t="s">
+      <c r="F7" s="159" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="169" t="s">
+      <c r="G7" s="165" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="169"/>
-      <c r="I7" s="170"/>
+      <c r="H7" s="165"/>
+      <c r="I7" s="166"/>
     </row>
     <row r="8" spans="1:11" ht="60" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="176"/>
-      <c r="B8" s="177"/>
-      <c r="C8" s="177"/>
-      <c r="D8" s="177"/>
-      <c r="E8" s="164"/>
-      <c r="F8" s="164"/>
-      <c r="G8" s="65" t="s">
+      <c r="A8" s="172"/>
+      <c r="B8" s="173"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
+      <c r="E8" s="160"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="H8" s="147" t="s">
+      <c r="H8" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="34" t="s">
+      <c r="I8" s="31" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="66"/>
-      <c r="B9" s="67"/>
-      <c r="C9" s="68"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="70"/>
-      <c r="F9" s="71"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="72"/>
-    </row>
-    <row r="10" spans="1:11" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="73"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="77"/>
-      <c r="F10" s="78"/>
-      <c r="G10" s="76"/>
-      <c r="H10" s="77"/>
-      <c r="I10" s="80"/>
-    </row>
-    <row r="11" spans="1:11" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="77"/>
-      <c r="F11" s="78"/>
-      <c r="G11" s="76"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="80"/>
-    </row>
-    <row r="12" spans="1:11" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="81"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="77"/>
-      <c r="F12" s="78"/>
-      <c r="G12" s="76"/>
-      <c r="H12" s="77"/>
-      <c r="I12" s="80"/>
-    </row>
-    <row r="13" spans="1:11" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="81"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="77"/>
-      <c r="F13" s="78"/>
-      <c r="G13" s="76"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="80"/>
-    </row>
-    <row r="14" spans="1:11" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="77"/>
-      <c r="F14" s="78"/>
-      <c r="G14" s="76"/>
-      <c r="H14" s="77"/>
-      <c r="I14" s="80"/>
-    </row>
-    <row r="15" spans="1:11" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="81"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="77"/>
-      <c r="F15" s="78"/>
-      <c r="G15" s="76"/>
-      <c r="H15" s="77"/>
-      <c r="I15" s="80"/>
-    </row>
-    <row r="16" spans="1:11" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="81"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="77"/>
-      <c r="F16" s="78"/>
-      <c r="G16" s="76"/>
-      <c r="H16" s="77"/>
-      <c r="I16" s="80"/>
-    </row>
-    <row r="17" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="81"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="77"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="76"/>
-      <c r="H17" s="77"/>
-      <c r="I17" s="80"/>
-    </row>
-    <row r="18" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
-      <c r="B18" s="74"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="77"/>
-      <c r="F18" s="78"/>
-      <c r="G18" s="76"/>
-      <c r="H18" s="77"/>
-      <c r="I18" s="80"/>
-    </row>
-    <row r="19" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="B19" s="74"/>
-      <c r="C19" s="81"/>
-      <c r="D19" s="76"/>
-      <c r="E19" s="77"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="76"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="80"/>
-    </row>
-    <row r="20" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
-      <c r="B20" s="74"/>
-      <c r="C20" s="82"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="78"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="80"/>
-    </row>
-    <row r="21" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="74"/>
-      <c r="C21" s="83"/>
-      <c r="D21" s="76"/>
-      <c r="E21" s="77"/>
-      <c r="F21" s="78"/>
-      <c r="G21" s="76"/>
-      <c r="H21" s="77"/>
-      <c r="I21" s="80"/>
-    </row>
-    <row r="22" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="74"/>
-      <c r="C22" s="83"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="77"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="145"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="86"/>
-    </row>
-    <row r="23" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="74"/>
-      <c r="C23" s="83"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="76"/>
-      <c r="H23" s="77"/>
-      <c r="I23" s="80"/>
-    </row>
-    <row r="24" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="74"/>
-      <c r="C24" s="83"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="77"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="76"/>
-      <c r="H24" s="77"/>
-      <c r="I24" s="80"/>
-    </row>
-    <row r="25" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="76"/>
-      <c r="E25" s="77"/>
-      <c r="F25" s="78"/>
-      <c r="G25" s="76"/>
-      <c r="H25" s="77"/>
-      <c r="I25" s="80"/>
-    </row>
-    <row r="26" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
-      <c r="B26" s="74"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="76"/>
-      <c r="E26" s="77"/>
-      <c r="F26" s="78"/>
-      <c r="G26" s="76"/>
-      <c r="H26" s="77"/>
-      <c r="I26" s="80"/>
-    </row>
-    <row r="27" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
-      <c r="B27" s="74"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="76"/>
-      <c r="E27" s="77"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="76"/>
-      <c r="H27" s="77"/>
-      <c r="I27" s="80"/>
-    </row>
-    <row r="28" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
-      <c r="B28" s="74"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="76"/>
-      <c r="E28" s="77"/>
-      <c r="F28" s="78"/>
-      <c r="G28" s="76"/>
-      <c r="H28" s="77"/>
-      <c r="I28" s="80"/>
-    </row>
-    <row r="29" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
-      <c r="B29" s="74"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="76"/>
-      <c r="E29" s="77"/>
-      <c r="F29" s="78"/>
-      <c r="G29" s="76"/>
-      <c r="H29" s="77"/>
-      <c r="I29" s="80"/>
-    </row>
-    <row r="30" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
-      <c r="B30" s="74"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="76"/>
-      <c r="E30" s="77"/>
-      <c r="F30" s="78"/>
-      <c r="G30" s="76"/>
-      <c r="H30" s="77"/>
-      <c r="I30" s="80"/>
-    </row>
-    <row r="31" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
-      <c r="B31" s="74"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="76"/>
-      <c r="E31" s="77"/>
-      <c r="F31" s="78"/>
-      <c r="G31" s="76"/>
-      <c r="H31" s="77"/>
-      <c r="I31" s="80"/>
-    </row>
-    <row r="32" spans="1:9" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
-      <c r="B32" s="74"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="76"/>
-      <c r="E32" s="77"/>
-      <c r="F32" s="78"/>
-      <c r="G32" s="76"/>
-      <c r="H32" s="77"/>
-      <c r="I32" s="80"/>
-    </row>
-    <row r="33" spans="1:12" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
-      <c r="B33" s="74"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="76"/>
-      <c r="E33" s="77"/>
-      <c r="F33" s="78"/>
-      <c r="G33" s="76"/>
-      <c r="H33" s="77"/>
-      <c r="I33" s="80"/>
-    </row>
-    <row r="34" spans="1:12" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
-      <c r="B34" s="74"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="76"/>
-      <c r="E34" s="77"/>
-      <c r="F34" s="78"/>
-      <c r="G34" s="76"/>
-      <c r="H34" s="77"/>
-      <c r="I34" s="80"/>
-    </row>
-    <row r="35" spans="1:12" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
-      <c r="B35" s="74"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="87"/>
-      <c r="F35" s="76"/>
-      <c r="G35" s="76"/>
-      <c r="H35" s="87"/>
-      <c r="I35" s="80"/>
-    </row>
-    <row r="36" spans="1:12" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
-      <c r="B36" s="74"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="76"/>
-      <c r="E36" s="87"/>
-      <c r="F36" s="76"/>
-      <c r="G36" s="76"/>
-      <c r="H36" s="87"/>
-      <c r="I36" s="80"/>
-    </row>
-    <row r="37" spans="1:12" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="73"/>
-      <c r="B37" s="74"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="76"/>
-      <c r="E37" s="87"/>
-      <c r="F37" s="76"/>
-      <c r="G37" s="76"/>
-      <c r="H37" s="87"/>
-      <c r="I37" s="80"/>
-    </row>
-    <row r="38" spans="1:12" s="42" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="88"/>
-      <c r="B38" s="89"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="91"/>
-      <c r="E38" s="92"/>
-      <c r="F38" s="91"/>
-      <c r="G38" s="91"/>
-      <c r="H38" s="92"/>
-      <c r="I38" s="94"/>
-    </row>
-    <row r="39" spans="1:12" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="178" t="s">
+    <row r="9" spans="1:11" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="62"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="65"/>
+      <c r="E9" s="66"/>
+      <c r="F9" s="67"/>
+      <c r="G9" s="65"/>
+      <c r="H9" s="66"/>
+      <c r="I9" s="68"/>
+    </row>
+    <row r="10" spans="1:11" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="69"/>
+      <c r="B10" s="70"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="72"/>
+      <c r="E10" s="73"/>
+      <c r="F10" s="74"/>
+      <c r="G10" s="72"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="76"/>
+    </row>
+    <row r="11" spans="1:11" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="69"/>
+      <c r="B11" s="70"/>
+      <c r="C11" s="77"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="73"/>
+      <c r="F11" s="74"/>
+      <c r="G11" s="72"/>
+      <c r="H11" s="73"/>
+      <c r="I11" s="76"/>
+    </row>
+    <row r="12" spans="1:11" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="69"/>
+      <c r="B12" s="70"/>
+      <c r="C12" s="77"/>
+      <c r="D12" s="72"/>
+      <c r="E12" s="73"/>
+      <c r="F12" s="74"/>
+      <c r="G12" s="72"/>
+      <c r="H12" s="73"/>
+      <c r="I12" s="76"/>
+    </row>
+    <row r="13" spans="1:11" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="69"/>
+      <c r="B13" s="70"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="74"/>
+      <c r="G13" s="72"/>
+      <c r="H13" s="73"/>
+      <c r="I13" s="76"/>
+    </row>
+    <row r="14" spans="1:11" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="69"/>
+      <c r="B14" s="70"/>
+      <c r="C14" s="78"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="74"/>
+      <c r="G14" s="72"/>
+      <c r="H14" s="73"/>
+      <c r="I14" s="76"/>
+    </row>
+    <row r="15" spans="1:11" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="69"/>
+      <c r="B15" s="70"/>
+      <c r="C15" s="77"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="73"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="72"/>
+      <c r="H15" s="73"/>
+      <c r="I15" s="76"/>
+    </row>
+    <row r="16" spans="1:11" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="69"/>
+      <c r="B16" s="70"/>
+      <c r="C16" s="77"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="73"/>
+      <c r="F16" s="74"/>
+      <c r="G16" s="72"/>
+      <c r="H16" s="73"/>
+      <c r="I16" s="76"/>
+    </row>
+    <row r="17" spans="1:9" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="69"/>
+      <c r="B17" s="70"/>
+      <c r="C17" s="77"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="73"/>
+      <c r="F17" s="74"/>
+      <c r="G17" s="72"/>
+      <c r="H17" s="73"/>
+      <c r="I17" s="76"/>
+    </row>
+    <row r="18" spans="1:9" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="69"/>
+      <c r="B18" s="70"/>
+      <c r="C18" s="77"/>
+      <c r="D18" s="72"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="74"/>
+      <c r="G18" s="72"/>
+      <c r="H18" s="73"/>
+      <c r="I18" s="76"/>
+    </row>
+    <row r="19" spans="1:9" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="69"/>
+      <c r="B19" s="70"/>
+      <c r="C19" s="77"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="73"/>
+      <c r="F19" s="74"/>
+      <c r="G19" s="72"/>
+      <c r="H19" s="73"/>
+      <c r="I19" s="76"/>
+    </row>
+    <row r="20" spans="1:9" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="69"/>
+      <c r="B20" s="70"/>
+      <c r="C20" s="78"/>
+      <c r="D20" s="72"/>
+      <c r="E20" s="73"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="72"/>
+      <c r="H20" s="73"/>
+      <c r="I20" s="76"/>
+    </row>
+    <row r="21" spans="1:9" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="69"/>
+      <c r="B21" s="70"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="72"/>
+      <c r="E21" s="73"/>
+      <c r="F21" s="74"/>
+      <c r="G21" s="72"/>
+      <c r="H21" s="73"/>
+      <c r="I21" s="76"/>
+    </row>
+    <row r="22" spans="1:9" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="69"/>
+      <c r="B22" s="70"/>
+      <c r="C22" s="79"/>
+      <c r="D22" s="72"/>
+      <c r="E22" s="73"/>
+      <c r="F22" s="74"/>
+      <c r="G22" s="141"/>
+      <c r="H22" s="81"/>
+      <c r="I22" s="82"/>
+    </row>
+    <row r="23" spans="1:9" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="69"/>
+      <c r="B23" s="70"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="72"/>
+      <c r="E23" s="73"/>
+      <c r="F23" s="74"/>
+      <c r="G23" s="72"/>
+      <c r="H23" s="73"/>
+      <c r="I23" s="76"/>
+    </row>
+    <row r="24" spans="1:9" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="69"/>
+      <c r="B24" s="70"/>
+      <c r="C24" s="79"/>
+      <c r="D24" s="72"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="74"/>
+      <c r="G24" s="72"/>
+      <c r="H24" s="73"/>
+      <c r="I24" s="76"/>
+    </row>
+    <row r="25" spans="1:9" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="69"/>
+      <c r="B25" s="70"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="72"/>
+      <c r="E25" s="73"/>
+      <c r="F25" s="74"/>
+      <c r="G25" s="72"/>
+      <c r="H25" s="73"/>
+      <c r="I25" s="76"/>
+    </row>
+    <row r="26" spans="1:9" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="69"/>
+      <c r="B26" s="70"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="72"/>
+      <c r="E26" s="73"/>
+      <c r="F26" s="74"/>
+      <c r="G26" s="72"/>
+      <c r="H26" s="73"/>
+      <c r="I26" s="76"/>
+    </row>
+    <row r="27" spans="1:9" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="69"/>
+      <c r="B27" s="70"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="72"/>
+      <c r="E27" s="73"/>
+      <c r="F27" s="74"/>
+      <c r="G27" s="72"/>
+      <c r="H27" s="73"/>
+      <c r="I27" s="76"/>
+    </row>
+    <row r="28" spans="1:9" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="69"/>
+      <c r="B28" s="70"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="72"/>
+      <c r="E28" s="73"/>
+      <c r="F28" s="74"/>
+      <c r="G28" s="72"/>
+      <c r="H28" s="73"/>
+      <c r="I28" s="76"/>
+    </row>
+    <row r="29" spans="1:9" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="69"/>
+      <c r="B29" s="70"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="72"/>
+      <c r="E29" s="73"/>
+      <c r="F29" s="74"/>
+      <c r="G29" s="72"/>
+      <c r="H29" s="73"/>
+      <c r="I29" s="76"/>
+    </row>
+    <row r="30" spans="1:9" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="69"/>
+      <c r="B30" s="70"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="72"/>
+      <c r="E30" s="73"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="72"/>
+      <c r="H30" s="73"/>
+      <c r="I30" s="76"/>
+    </row>
+    <row r="31" spans="1:9" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="69"/>
+      <c r="B31" s="70"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="73"/>
+      <c r="F31" s="74"/>
+      <c r="G31" s="72"/>
+      <c r="H31" s="73"/>
+      <c r="I31" s="76"/>
+    </row>
+    <row r="32" spans="1:9" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="69"/>
+      <c r="B32" s="70"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="73"/>
+      <c r="F32" s="74"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="73"/>
+      <c r="I32" s="76"/>
+    </row>
+    <row r="33" spans="1:12" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="69"/>
+      <c r="B33" s="70"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="73"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="72"/>
+      <c r="H33" s="73"/>
+      <c r="I33" s="76"/>
+    </row>
+    <row r="34" spans="1:12" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="69"/>
+      <c r="B34" s="70"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="72"/>
+      <c r="E34" s="73"/>
+      <c r="F34" s="74"/>
+      <c r="G34" s="72"/>
+      <c r="H34" s="73"/>
+      <c r="I34" s="76"/>
+    </row>
+    <row r="35" spans="1:12" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="69"/>
+      <c r="B35" s="70"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="72"/>
+      <c r="G35" s="72"/>
+      <c r="H35" s="83"/>
+      <c r="I35" s="76"/>
+    </row>
+    <row r="36" spans="1:12" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="69"/>
+      <c r="B36" s="70"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="76"/>
+    </row>
+    <row r="37" spans="1:12" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="69"/>
+      <c r="B37" s="70"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="72"/>
+      <c r="E37" s="83"/>
+      <c r="F37" s="72"/>
+      <c r="G37" s="72"/>
+      <c r="H37" s="83"/>
+      <c r="I37" s="76"/>
+    </row>
+    <row r="38" spans="1:12" s="38" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="84"/>
+      <c r="B38" s="85"/>
+      <c r="C38" s="86"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="88"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="88"/>
+      <c r="I38" s="90"/>
+    </row>
+    <row r="39" spans="1:12" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="179"/>
-      <c r="C39" s="180"/>
-      <c r="D39" s="150" t="e">
+      <c r="B39" s="175"/>
+      <c r="C39" s="176"/>
+      <c r="D39" s="146" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="95" t="e">
+      <c r="E39" s="91" t="e">
         <f t="shared" ref="E39:H39" si="0">AVERAGE(E9:E38)</f>
         <v>#DIV/0!</v>
       </c>
@@ -3333,152 +3369,152 @@
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="95" t="e">
+      <c r="H39" s="91" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="123" t="e">
+      <c r="I39" s="119" t="e">
         <f t="shared" ref="I39" si="1">AVERAGE(I9:I38)</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:12" s="42" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="181" t="s">
+    <row r="40" spans="1:12" s="38" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="182"/>
-      <c r="C40" s="183"/>
-      <c r="D40" s="151">
+      <c r="B40" s="178"/>
+      <c r="C40" s="179"/>
+      <c r="D40" s="147">
         <f>MIN(D9:D38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="24">
+      <c r="E40" s="23">
         <f t="shared" ref="E40:H40" si="2">MIN(E9:E38)</f>
         <v>0</v>
       </c>
-      <c r="F40" s="25">
+      <c r="F40" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G40" s="25">
+      <c r="G40" s="24">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H40" s="24">
+      <c r="H40" s="23">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I40" s="125">
+      <c r="I40" s="121">
         <f t="shared" ref="I40" si="3">MIN(I9:I38)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:12" s="42" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="184" t="s">
+    <row r="41" spans="1:12" s="38" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="185"/>
-      <c r="C41" s="186"/>
-      <c r="D41" s="152">
+      <c r="B41" s="181"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="148">
         <f>MAX(D9:D38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="97">
+      <c r="E41" s="93">
         <f t="shared" ref="E41:H41" si="4">MAX(E9:E38)</f>
         <v>0</v>
       </c>
-      <c r="F41" s="96">
+      <c r="F41" s="92">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="G41" s="96">
+      <c r="G41" s="92">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="H41" s="97">
+      <c r="H41" s="93">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="I41" s="127">
+      <c r="I41" s="123">
         <f t="shared" ref="I41" si="5">MAX(I9:I38)</f>
         <v>0</v>
       </c>
-      <c r="J41" s="43"/>
-      <c r="K41" s="43"/>
-      <c r="L41" s="43"/>
-    </row>
-    <row r="42" spans="1:12" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="98" t="s">
+      <c r="J41" s="39"/>
+      <c r="K41" s="39"/>
+      <c r="L41" s="39"/>
+    </row>
+    <row r="42" spans="1:12" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="94" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="157"/>
-      <c r="C42" s="157"/>
-      <c r="D42" s="98" t="s">
+      <c r="B42" s="153"/>
+      <c r="C42" s="153"/>
+      <c r="D42" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="99"/>
-      <c r="F42" s="100"/>
-      <c r="G42" s="58" t="s">
+      <c r="E42" s="95"/>
+      <c r="F42" s="96"/>
+      <c r="G42" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="56"/>
-      <c r="I42" s="101" t="s">
+      <c r="H42" s="52"/>
+      <c r="I42" s="97" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:12" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="102"/>
-      <c r="B43" s="158"/>
-      <c r="C43" s="158"/>
-      <c r="D43" s="98"/>
-      <c r="E43" s="99"/>
-      <c r="F43" s="100"/>
-      <c r="G43" s="53"/>
-      <c r="H43" s="56"/>
-      <c r="I43" s="101"/>
+    <row r="43" spans="1:12" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="98"/>
+      <c r="B43" s="154"/>
+      <c r="C43" s="154"/>
+      <c r="D43" s="94"/>
+      <c r="E43" s="95"/>
+      <c r="F43" s="96"/>
+      <c r="G43" s="49"/>
+      <c r="H43" s="52"/>
+      <c r="I43" s="97"/>
     </row>
     <row r="44" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="171" t="s">
+      <c r="A44" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="171"/>
-      <c r="C44" s="171"/>
-      <c r="D44" s="103"/>
-      <c r="E44" s="104" t="s">
+      <c r="B44" s="167"/>
+      <c r="C44" s="167"/>
+      <c r="D44" s="99"/>
+      <c r="E44" s="100" t="s">
         <v>108</v>
       </c>
-      <c r="F44" s="53">
+      <c r="F44" s="49">
         <v>461343000</v>
       </c>
-      <c r="G44" s="57"/>
-      <c r="H44" s="57"/>
-      <c r="I44" s="57"/>
+      <c r="G44" s="53"/>
+      <c r="H44" s="53"/>
+      <c r="I44" s="53"/>
     </row>
     <row r="45" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="171" t="s">
+      <c r="A45" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="171"/>
-      <c r="C45" s="171"/>
-      <c r="D45" s="103"/>
-      <c r="E45" s="57"/>
-      <c r="F45" s="57"/>
-      <c r="G45" s="57"/>
-      <c r="H45" s="165" t="s">
+      <c r="B45" s="167"/>
+      <c r="C45" s="167"/>
+      <c r="D45" s="99"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
+      <c r="G45" s="53"/>
+      <c r="H45" s="161" t="s">
         <v>26</v>
       </c>
-      <c r="I45" s="165"/>
+      <c r="I45" s="161"/>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="44"/>
-      <c r="G46" s="45"/>
-      <c r="H46" s="45"/>
-      <c r="I46" s="45"/>
+      <c r="A46" s="40"/>
+      <c r="B46" s="40"/>
+      <c r="C46" s="40"/>
+      <c r="D46" s="40"/>
+      <c r="E46" s="40"/>
+      <c r="F46" s="40"/>
+      <c r="G46" s="41"/>
+      <c r="H46" s="41"/>
+      <c r="I46" s="41"/>
     </row>
   </sheetData>
   <dataConsolidate/>
@@ -3550,842 +3586,842 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="13.85546875" style="50" customWidth="1"/>
-    <col min="4" max="9" width="22.140625" style="50" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="50"/>
+    <col min="1" max="3" width="13.85546875" style="46" customWidth="1"/>
+    <col min="4" max="9" width="22.140625" style="46" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
+    <row r="1" spans="1:11" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="54" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="50" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="156" t="s">
+    <row r="2" spans="1:11" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="55" t="s">
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58" t="s">
+    <row r="3" spans="1:11" s="38" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="52">
+      <c r="I3" s="48">
         <f>Page1!I3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="42" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+    <row r="4" spans="1:11" s="38" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="159">
+      <c r="B4" s="155">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="160"/>
-      <c r="D4" s="60" t="s">
+      <c r="C4" s="156"/>
+      <c r="D4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="32">
         <f>Page1!E4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="32">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="144" t="s">
+      <c r="H4" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4" s="57">
         <f>Page1!I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="42" t="s">
+      <c r="K4" s="38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="42" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="105" t="s">
+    <row r="5" spans="1:11" s="38" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="187">
+      <c r="B5" s="183">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="188"/>
-      <c r="D5" s="106" t="s">
+      <c r="C5" s="184"/>
+      <c r="D5" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="28">
         <f>Page1!E5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="106" t="s">
+      <c r="F5" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="28">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="149" t="s">
+      <c r="H5" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="107">
+      <c r="I5" s="103">
         <f>Page1!I5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="49" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="195" t="s">
+    <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="191" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="197"/>
-      <c r="G6" s="108"/>
-      <c r="H6" s="109"/>
-      <c r="I6" s="110"/>
+      <c r="B6" s="192"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="193"/>
+      <c r="G6" s="104"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="106"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="205" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="206"/>
-      <c r="C7" s="193"/>
-      <c r="D7" s="198" t="s">
+      <c r="A7" s="201" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="202"/>
+      <c r="C7" s="189"/>
+      <c r="D7" s="194" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="199"/>
-      <c r="F7" s="200"/>
-      <c r="G7" s="209" t="s">
+      <c r="E7" s="195"/>
+      <c r="F7" s="196"/>
+      <c r="G7" s="205" t="s">
         <v>30</v>
       </c>
-      <c r="H7" s="48" t="s">
+      <c r="H7" s="44" t="s">
         <v>109</v>
       </c>
-      <c r="I7" s="203" t="s">
+      <c r="I7" s="199" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="205"/>
-      <c r="B8" s="206"/>
-      <c r="C8" s="193"/>
-      <c r="D8" s="189" t="s">
+      <c r="A8" s="201"/>
+      <c r="B8" s="202"/>
+      <c r="C8" s="189"/>
+      <c r="D8" s="185" t="s">
         <v>38</v>
       </c>
-      <c r="E8" s="192" t="s">
+      <c r="E8" s="188" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="188" t="s">
+      <c r="F8" s="184" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="209"/>
-      <c r="H8" s="48" t="s">
+      <c r="G8" s="205"/>
+      <c r="H8" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="I8" s="203"/>
+      <c r="I8" s="199"/>
     </row>
     <row r="9" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="205"/>
-      <c r="B9" s="206"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="190"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="209"/>
-      <c r="H9" s="46" t="s">
+      <c r="A9" s="201"/>
+      <c r="B9" s="202"/>
+      <c r="C9" s="189"/>
+      <c r="D9" s="186"/>
+      <c r="E9" s="188"/>
+      <c r="F9" s="189"/>
+      <c r="G9" s="205"/>
+      <c r="H9" s="42" t="s">
         <v>111</v>
       </c>
-      <c r="I9" s="203"/>
+      <c r="I9" s="199"/>
     </row>
     <row r="10" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="207"/>
-      <c r="B10" s="208"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="177"/>
-      <c r="F10" s="194"/>
-      <c r="G10" s="164"/>
-      <c r="H10" s="47" t="s">
+      <c r="A10" s="203"/>
+      <c r="B10" s="204"/>
+      <c r="C10" s="190"/>
+      <c r="D10" s="187"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="190"/>
+      <c r="G10" s="160"/>
+      <c r="H10" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="I10" s="204"/>
-    </row>
-    <row r="11" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="111"/>
-      <c r="B11" s="112"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="113"/>
-      <c r="E11" s="114"/>
-      <c r="F11" s="114"/>
-      <c r="G11" s="115"/>
-      <c r="H11" s="114"/>
-      <c r="I11" s="86"/>
-    </row>
-    <row r="12" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="117"/>
-      <c r="E12" s="87"/>
-      <c r="F12" s="87"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="87"/>
-      <c r="I12" s="80"/>
-    </row>
-    <row r="13" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="117"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="87"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="87"/>
-      <c r="I13" s="80"/>
-    </row>
-    <row r="14" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="117"/>
-      <c r="E14" s="87"/>
-      <c r="F14" s="87"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="87"/>
-      <c r="I14" s="80"/>
-    </row>
-    <row r="15" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="87"/>
-      <c r="F15" s="87"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="87"/>
-      <c r="I15" s="80"/>
-    </row>
-    <row r="16" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="87"/>
-      <c r="F16" s="87"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="87"/>
-      <c r="I16" s="80"/>
-    </row>
-    <row r="17" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="117"/>
-      <c r="E17" s="87"/>
-      <c r="F17" s="87"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="87"/>
-      <c r="I17" s="80"/>
-    </row>
-    <row r="18" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="117"/>
-      <c r="E18" s="87"/>
-      <c r="F18" s="87"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="87"/>
-      <c r="I18" s="80"/>
-    </row>
-    <row r="19" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="117"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="87"/>
-      <c r="I19" s="80"/>
-    </row>
-    <row r="20" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="117"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="87"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="87"/>
-      <c r="I20" s="80"/>
-    </row>
-    <row r="21" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="117"/>
-      <c r="E21" s="87"/>
-      <c r="F21" s="87"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="87"/>
-      <c r="I21" s="80"/>
-    </row>
-    <row r="22" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="117"/>
-      <c r="E22" s="87"/>
-      <c r="F22" s="87"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="87"/>
-      <c r="I22" s="80"/>
-    </row>
-    <row r="23" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="117"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="87"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="80"/>
-    </row>
-    <row r="24" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="117"/>
-      <c r="E24" s="87"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="80"/>
-    </row>
-    <row r="25" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="113"/>
-      <c r="E25" s="114"/>
-      <c r="F25" s="114"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="87"/>
-      <c r="I25" s="86"/>
-    </row>
-    <row r="26" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="113"/>
-      <c r="E26" s="114"/>
-      <c r="F26" s="114"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="87"/>
-      <c r="I26" s="86"/>
-    </row>
-    <row r="27" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="113"/>
-      <c r="E27" s="114"/>
-      <c r="F27" s="114"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="87"/>
-      <c r="I27" s="86"/>
-    </row>
-    <row r="28" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="113"/>
-      <c r="E28" s="114"/>
-      <c r="F28" s="114"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="87"/>
-      <c r="I28" s="86"/>
-    </row>
-    <row r="29" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="E29" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="F29" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="G29" s="118" t="s">
-        <v>117</v>
-      </c>
-      <c r="H29" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="I29" s="86" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="113" t="s">
-        <v>117</v>
-      </c>
-      <c r="E30" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="F30" s="114" t="s">
-        <v>117</v>
-      </c>
-      <c r="G30" s="118" t="s">
-        <v>117</v>
-      </c>
-      <c r="H30" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="I30" s="86" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="117" t="s">
-        <v>117</v>
-      </c>
-      <c r="E31" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="F31" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="G31" s="118" t="s">
-        <v>117</v>
-      </c>
-      <c r="H31" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="I31" s="80" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="117" t="s">
-        <v>117</v>
-      </c>
-      <c r="E32" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="F32" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="G32" s="118" t="s">
-        <v>117</v>
-      </c>
-      <c r="H32" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="I32" s="80" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="117" t="s">
-        <v>117</v>
-      </c>
-      <c r="E33" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="F33" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="G33" s="118" t="s">
-        <v>117</v>
-      </c>
-      <c r="H33" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="I33" s="80" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="117" t="s">
-        <v>117</v>
-      </c>
-      <c r="E34" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="F34" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="G34" s="118" t="s">
-        <v>117</v>
-      </c>
-      <c r="H34" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="I34" s="80" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="117" t="s">
-        <v>117</v>
-      </c>
-      <c r="E35" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="F35" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="G35" s="118" t="s">
-        <v>117</v>
-      </c>
-      <c r="H35" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="I35" s="80" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="117" t="s">
-        <v>117</v>
-      </c>
-      <c r="E36" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="F36" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="G36" s="118" t="s">
-        <v>117</v>
-      </c>
-      <c r="H36" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="I36" s="80" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="73"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="117" t="s">
-        <v>117</v>
-      </c>
-      <c r="E37" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="F37" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="G37" s="118" t="s">
-        <v>117</v>
-      </c>
-      <c r="H37" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="I37" s="80" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="73"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="117" t="s">
-        <v>117</v>
-      </c>
-      <c r="E38" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="F38" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="G38" s="118" t="s">
-        <v>117</v>
-      </c>
-      <c r="H38" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="I38" s="80" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="73"/>
-      <c r="B39" s="116"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="117" t="s">
-        <v>117</v>
-      </c>
-      <c r="E39" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="G39" s="118" t="s">
-        <v>117</v>
-      </c>
-      <c r="H39" s="87" t="s">
-        <v>117</v>
-      </c>
-      <c r="I39" s="80" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="73"/>
-      <c r="B40" s="116"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="119" t="s">
-        <v>117</v>
-      </c>
-      <c r="E40" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="F40" s="120" t="s">
-        <v>117</v>
-      </c>
-      <c r="G40" s="121" t="s">
-        <v>117</v>
-      </c>
-      <c r="H40" s="92" t="s">
-        <v>117</v>
-      </c>
-      <c r="I40" s="94" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="178" t="s">
+      <c r="I10" s="200"/>
+    </row>
+    <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="107"/>
+      <c r="B11" s="108"/>
+      <c r="C11" s="78"/>
+      <c r="D11" s="109"/>
+      <c r="E11" s="110"/>
+      <c r="F11" s="110"/>
+      <c r="G11" s="111"/>
+      <c r="H11" s="110"/>
+      <c r="I11" s="82"/>
+    </row>
+    <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="69"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="113"/>
+      <c r="E12" s="83"/>
+      <c r="F12" s="83"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="83"/>
+      <c r="I12" s="76"/>
+    </row>
+    <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="69"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="113"/>
+      <c r="E13" s="83"/>
+      <c r="F13" s="83"/>
+      <c r="G13" s="114"/>
+      <c r="H13" s="83"/>
+      <c r="I13" s="76"/>
+    </row>
+    <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="69"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="113"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="83"/>
+      <c r="G14" s="114"/>
+      <c r="H14" s="83"/>
+      <c r="I14" s="76"/>
+    </row>
+    <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="69"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="83"/>
+      <c r="F15" s="83"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="83"/>
+      <c r="I15" s="76"/>
+    </row>
+    <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="69"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="113"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="76"/>
+    </row>
+    <row r="17" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="69"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="113"/>
+      <c r="E17" s="83"/>
+      <c r="F17" s="83"/>
+      <c r="G17" s="114"/>
+      <c r="H17" s="83"/>
+      <c r="I17" s="76"/>
+    </row>
+    <row r="18" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="69"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="113"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
+      <c r="G18" s="114"/>
+      <c r="H18" s="83"/>
+      <c r="I18" s="76"/>
+    </row>
+    <row r="19" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="69"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="113"/>
+      <c r="E19" s="83"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="83"/>
+      <c r="I19" s="76"/>
+    </row>
+    <row r="20" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="69"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="83"/>
+      <c r="F20" s="83"/>
+      <c r="G20" s="114"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="76"/>
+    </row>
+    <row r="21" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="69"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="113"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="114"/>
+      <c r="H21" s="83"/>
+      <c r="I21" s="76"/>
+    </row>
+    <row r="22" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="69"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="113"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="76"/>
+    </row>
+    <row r="23" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="69"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="113"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="114"/>
+      <c r="H23" s="83"/>
+      <c r="I23" s="76"/>
+    </row>
+    <row r="24" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="69"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="113"/>
+      <c r="E24" s="83"/>
+      <c r="F24" s="83"/>
+      <c r="G24" s="114"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="76"/>
+    </row>
+    <row r="25" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="69"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="109"/>
+      <c r="E25" s="110"/>
+      <c r="F25" s="110"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="83"/>
+      <c r="I25" s="82"/>
+    </row>
+    <row r="26" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="69"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="109"/>
+      <c r="E26" s="110"/>
+      <c r="F26" s="110"/>
+      <c r="G26" s="114"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="82"/>
+    </row>
+    <row r="27" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="69"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="110"/>
+      <c r="F27" s="110"/>
+      <c r="G27" s="114"/>
+      <c r="H27" s="83"/>
+      <c r="I27" s="82"/>
+    </row>
+    <row r="28" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="69"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="109"/>
+      <c r="E28" s="110"/>
+      <c r="F28" s="110"/>
+      <c r="G28" s="114"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="82"/>
+    </row>
+    <row r="29" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="69"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="109" t="s">
+        <v>117</v>
+      </c>
+      <c r="E29" s="110" t="s">
+        <v>117</v>
+      </c>
+      <c r="F29" s="110" t="s">
+        <v>117</v>
+      </c>
+      <c r="G29" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="H29" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29" s="82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="69"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="109" t="s">
+        <v>117</v>
+      </c>
+      <c r="E30" s="110" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="110" t="s">
+        <v>117</v>
+      </c>
+      <c r="G30" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="H30" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="I30" s="82" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="69"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E31" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="F31" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="G31" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="H31" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="I31" s="76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="69"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E32" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="F32" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="G32" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="H32" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="I32" s="76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="69"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="F33" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="H33" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="I33" s="76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="69"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E34" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="F34" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="G34" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="H34" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="I34" s="76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="69"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E35" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="F35" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="G35" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="H35" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="I35" s="76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="69"/>
+      <c r="B36" s="112"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E36" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="F36" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="H36" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="I36" s="76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="69"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E37" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="F37" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="G37" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="H37" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37" s="76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="69"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E38" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="F38" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="H38" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="I38" s="76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="69"/>
+      <c r="B39" s="112"/>
+      <c r="C39" s="71"/>
+      <c r="D39" s="113" t="s">
+        <v>117</v>
+      </c>
+      <c r="E39" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="F39" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="G39" s="114" t="s">
+        <v>117</v>
+      </c>
+      <c r="H39" s="83" t="s">
+        <v>117</v>
+      </c>
+      <c r="I39" s="76" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="69"/>
+      <c r="B40" s="112"/>
+      <c r="C40" s="71"/>
+      <c r="D40" s="115" t="s">
+        <v>117</v>
+      </c>
+      <c r="E40" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="116" t="s">
+        <v>117</v>
+      </c>
+      <c r="G40" s="117" t="s">
+        <v>117</v>
+      </c>
+      <c r="H40" s="88" t="s">
+        <v>117</v>
+      </c>
+      <c r="I40" s="90" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="B41" s="179"/>
-      <c r="C41" s="180"/>
-      <c r="D41" s="150" t="e">
+      <c r="B41" s="175"/>
+      <c r="C41" s="176"/>
+      <c r="D41" s="146" t="e">
         <f>AVERAGE(D11:D40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="95" t="e">
+      <c r="E41" s="91" t="e">
         <f t="shared" ref="E41:I41" si="0">AVERAGE(E11:E40)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F41" s="95" t="e">
+      <c r="F41" s="91" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G41" s="122" t="e">
+      <c r="G41" s="118" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H41" s="95" t="e">
+      <c r="H41" s="91" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="123" t="e">
+      <c r="I41" s="119" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="42" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="181" t="s">
+    <row r="42" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="182"/>
-      <c r="C42" s="183"/>
-      <c r="D42" s="151">
+      <c r="B42" s="178"/>
+      <c r="C42" s="179"/>
+      <c r="D42" s="147">
         <f>MIN(D11:D40)</f>
         <v>0</v>
       </c>
-      <c r="E42" s="24">
+      <c r="E42" s="23">
         <f t="shared" ref="E42:I42" si="1">MIN(E11:E40)</f>
         <v>0</v>
       </c>
-      <c r="F42" s="24">
+      <c r="F42" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G42" s="124">
+      <c r="G42" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H42" s="24">
+      <c r="H42" s="23">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I42" s="125">
+      <c r="I42" s="121">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="184" t="s">
+      <c r="A43" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="B43" s="185"/>
-      <c r="C43" s="186"/>
-      <c r="D43" s="152">
+      <c r="B43" s="181"/>
+      <c r="C43" s="182"/>
+      <c r="D43" s="148">
         <f>MAX(D11:D40)</f>
         <v>0</v>
       </c>
-      <c r="E43" s="97">
+      <c r="E43" s="93">
         <f t="shared" ref="E43:I43" si="2">MAX(E11:E40)</f>
         <v>0</v>
       </c>
-      <c r="F43" s="97">
+      <c r="F43" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G43" s="126">
+      <c r="G43" s="122">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H43" s="97">
+      <c r="H43" s="93">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="I43" s="127">
+      <c r="I43" s="123">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:9" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="128" t="s">
+    <row r="44" spans="1:9" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="210">
+      <c r="B44" s="206">
         <f>Page1!B42</f>
         <v>0</v>
       </c>
-      <c r="C44" s="211"/>
-      <c r="D44" s="128" t="s">
+      <c r="C44" s="207"/>
+      <c r="D44" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="E44" s="128"/>
-      <c r="F44" s="129"/>
-      <c r="G44" s="129" t="s">
+      <c r="E44" s="124"/>
+      <c r="F44" s="125"/>
+      <c r="G44" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="H44" s="130">
+      <c r="H44" s="126">
         <f>Page1!H42</f>
         <v>0</v>
       </c>
-      <c r="I44" s="131" t="s">
+      <c r="I44" s="127" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="1:9" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="132"/>
-      <c r="B45" s="158">
+    <row r="45" spans="1:9" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="128"/>
+      <c r="B45" s="154">
         <f>Page1!B43</f>
         <v>0</v>
       </c>
-      <c r="C45" s="212"/>
-      <c r="D45" s="128"/>
-      <c r="E45" s="128"/>
-      <c r="F45" s="129"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="130">
+      <c r="C45" s="208"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="125"/>
+      <c r="G45" s="128"/>
+      <c r="H45" s="126">
         <f>Page1!H43</f>
         <v>0</v>
       </c>
-      <c r="I45" s="131"/>
-    </row>
-    <row r="46" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="201" t="s">
+      <c r="I45" s="127"/>
+    </row>
+    <row r="46" spans="1:9" s="39" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="B46" s="201"/>
-      <c r="C46" s="201"/>
-      <c r="D46" s="133"/>
-      <c r="E46" s="134" t="s">
+      <c r="B46" s="197"/>
+      <c r="C46" s="197"/>
+      <c r="D46" s="129"/>
+      <c r="E46" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="F46" s="132">
+      <c r="F46" s="128">
         <f>Page1!F44</f>
         <v>461343000</v>
       </c>
-      <c r="G46" s="133"/>
-      <c r="H46" s="133"/>
-      <c r="I46" s="133"/>
-    </row>
-    <row r="47" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="201" t="s">
+      <c r="G46" s="129"/>
+      <c r="H46" s="129"/>
+      <c r="I46" s="129"/>
+    </row>
+    <row r="47" spans="1:9" s="39" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="B47" s="201"/>
-      <c r="C47" s="201"/>
-      <c r="D47" s="133"/>
-      <c r="E47" s="133"/>
-      <c r="F47" s="133"/>
-      <c r="G47" s="133"/>
-      <c r="H47" s="202" t="s">
+      <c r="B47" s="197"/>
+      <c r="C47" s="197"/>
+      <c r="D47" s="129"/>
+      <c r="E47" s="129"/>
+      <c r="F47" s="129"/>
+      <c r="G47" s="129"/>
+      <c r="H47" s="198" t="s">
         <v>27</v>
       </c>
-      <c r="I47" s="202"/>
+      <c r="I47" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="21">
@@ -4464,646 +4500,646 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="14" style="50" customWidth="1"/>
-    <col min="4" max="9" width="22.140625" style="50" customWidth="1"/>
-    <col min="10" max="16384" width="9.140625" style="50"/>
+    <col min="1" max="3" width="14" style="46" customWidth="1"/>
+    <col min="4" max="9" width="22.140625" style="46" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="46"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="156" t="s">
+    <row r="1" spans="1:11" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="152" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="156"/>
-      <c r="E1" s="156"/>
-      <c r="F1" s="156"/>
-      <c r="G1" s="156"/>
-      <c r="H1" s="156"/>
-      <c r="I1" s="54" t="s">
+      <c r="B1" s="152"/>
+      <c r="C1" s="152"/>
+      <c r="D1" s="152"/>
+      <c r="E1" s="152"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="50" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="156" t="s">
+    <row r="2" spans="1:11" s="38" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="152" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="156"/>
-      <c r="C2" s="156"/>
-      <c r="D2" s="156"/>
-      <c r="E2" s="156"/>
-      <c r="F2" s="156"/>
-      <c r="G2" s="156"/>
-      <c r="H2" s="156"/>
-      <c r="I2" s="55" t="s">
+      <c r="B2" s="152"/>
+      <c r="C2" s="152"/>
+      <c r="D2" s="152"/>
+      <c r="E2" s="152"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="42" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="56"/>
-      <c r="B3" s="56"/>
-      <c r="C3" s="56"/>
-      <c r="D3" s="56"/>
-      <c r="E3" s="56"/>
-      <c r="F3" s="56"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="58" t="s">
+    <row r="3" spans="1:11" s="38" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="52"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
+      <c r="D3" s="52"/>
+      <c r="E3" s="52"/>
+      <c r="F3" s="52"/>
+      <c r="G3" s="53"/>
+      <c r="H3" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="52">
+      <c r="I3" s="48">
         <f>Page1!I3</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="42" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="59" t="s">
+    <row r="4" spans="1:11" s="38" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="159">
+      <c r="B4" s="155">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="160"/>
-      <c r="D4" s="60" t="s">
+      <c r="C4" s="156"/>
+      <c r="D4" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="32">
         <f>Page1!E4</f>
         <v>0</v>
       </c>
-      <c r="F4" s="60" t="s">
+      <c r="F4" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="36">
+      <c r="G4" s="32">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="144" t="s">
+      <c r="H4" s="140" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="61">
+      <c r="I4" s="57">
         <f>Page1!I4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="42" t="s">
+      <c r="K4" s="38" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="42" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="105" t="s">
+    <row r="5" spans="1:11" s="38" customFormat="1" ht="23.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="101" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="187">
+      <c r="B5" s="183">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="188"/>
-      <c r="D5" s="106" t="s">
+      <c r="C5" s="184"/>
+      <c r="D5" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="28">
         <f>Page1!E5</f>
         <v>0</v>
       </c>
-      <c r="F5" s="106" t="s">
+      <c r="F5" s="102" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="29">
+      <c r="G5" s="28">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="149" t="s">
+      <c r="H5" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="107">
+      <c r="I5" s="103">
         <f>Page1!I5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="49" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="195" t="s">
+    <row r="6" spans="1:11" s="45" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="191" t="s">
         <v>107</v>
       </c>
-      <c r="B6" s="196"/>
-      <c r="C6" s="196"/>
-      <c r="D6" s="167"/>
-      <c r="E6" s="167"/>
-      <c r="F6" s="167"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="213"/>
-      <c r="I6" s="214"/>
+      <c r="B6" s="192"/>
+      <c r="C6" s="192"/>
+      <c r="D6" s="163"/>
+      <c r="E6" s="163"/>
+      <c r="F6" s="163"/>
+      <c r="G6" s="164"/>
+      <c r="H6" s="209"/>
+      <c r="I6" s="210"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="217" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="213"/>
-      <c r="C7" s="218"/>
-      <c r="D7" s="219" t="s">
+      <c r="A7" s="213" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="209"/>
+      <c r="C7" s="214"/>
+      <c r="D7" s="215" t="s">
         <v>113</v>
       </c>
-      <c r="E7" s="221" t="s">
+      <c r="E7" s="217" t="s">
         <v>114</v>
       </c>
-      <c r="F7" s="221" t="s">
+      <c r="F7" s="217" t="s">
         <v>115</v>
       </c>
-      <c r="G7" s="223" t="s">
+      <c r="G7" s="219" t="s">
         <v>116</v>
       </c>
-      <c r="H7" s="206"/>
-      <c r="I7" s="215"/>
+      <c r="H7" s="202"/>
+      <c r="I7" s="211"/>
     </row>
     <row r="8" spans="1:11" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="207"/>
-      <c r="B8" s="208"/>
-      <c r="C8" s="194"/>
-      <c r="D8" s="220"/>
-      <c r="E8" s="222"/>
-      <c r="F8" s="222"/>
-      <c r="G8" s="224"/>
-      <c r="H8" s="206"/>
-      <c r="I8" s="215"/>
-    </row>
-    <row r="9" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="111"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="135"/>
-      <c r="E9" s="84"/>
-      <c r="F9" s="84"/>
-      <c r="G9" s="136"/>
-      <c r="H9" s="206"/>
-      <c r="I9" s="215"/>
-    </row>
-    <row r="10" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="73"/>
-      <c r="B10" s="116"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="137"/>
-      <c r="E10" s="79"/>
-      <c r="F10" s="79"/>
-      <c r="G10" s="138"/>
-      <c r="H10" s="206"/>
-      <c r="I10" s="215"/>
-    </row>
-    <row r="11" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="73"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="137"/>
-      <c r="E11" s="79"/>
-      <c r="F11" s="79"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="206"/>
-      <c r="I11" s="215"/>
-    </row>
-    <row r="12" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="73"/>
-      <c r="B12" s="116"/>
-      <c r="C12" s="75"/>
-      <c r="D12" s="137"/>
-      <c r="E12" s="79"/>
-      <c r="F12" s="79"/>
-      <c r="G12" s="138"/>
-      <c r="H12" s="206"/>
-      <c r="I12" s="215"/>
-    </row>
-    <row r="13" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="73"/>
-      <c r="B13" s="116"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="79"/>
-      <c r="F13" s="79"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="206"/>
-      <c r="I13" s="215"/>
-    </row>
-    <row r="14" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="73"/>
-      <c r="B14" s="116"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="137"/>
-      <c r="E14" s="79"/>
-      <c r="F14" s="79"/>
-      <c r="G14" s="138"/>
-      <c r="H14" s="206"/>
-      <c r="I14" s="215"/>
-    </row>
-    <row r="15" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="73"/>
-      <c r="B15" s="116"/>
-      <c r="C15" s="75"/>
-      <c r="D15" s="137"/>
-      <c r="E15" s="79"/>
-      <c r="F15" s="79"/>
-      <c r="G15" s="138"/>
-      <c r="H15" s="206"/>
-      <c r="I15" s="215"/>
-    </row>
-    <row r="16" spans="1:11" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="73"/>
-      <c r="B16" s="116"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="137"/>
-      <c r="E16" s="79"/>
-      <c r="F16" s="79"/>
-      <c r="G16" s="138"/>
-      <c r="H16" s="206"/>
-      <c r="I16" s="215"/>
-    </row>
-    <row r="17" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="73"/>
-      <c r="B17" s="116"/>
-      <c r="C17" s="75"/>
-      <c r="D17" s="137"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="138"/>
-      <c r="H17" s="206"/>
-      <c r="I17" s="215"/>
-    </row>
-    <row r="18" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="73"/>
-      <c r="B18" s="116"/>
-      <c r="C18" s="75"/>
-      <c r="D18" s="137"/>
-      <c r="E18" s="79"/>
-      <c r="F18" s="79"/>
-      <c r="G18" s="138"/>
-      <c r="H18" s="206"/>
-      <c r="I18" s="215"/>
-    </row>
-    <row r="19" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="73"/>
-      <c r="B19" s="116"/>
-      <c r="C19" s="75"/>
-      <c r="D19" s="137"/>
-      <c r="E19" s="79"/>
-      <c r="F19" s="79"/>
-      <c r="G19" s="138"/>
-      <c r="H19" s="206"/>
-      <c r="I19" s="215"/>
-    </row>
-    <row r="20" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="73"/>
-      <c r="B20" s="116"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="137"/>
-      <c r="E20" s="79"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="138"/>
-      <c r="H20" s="206"/>
-      <c r="I20" s="215"/>
-    </row>
-    <row r="21" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="73"/>
-      <c r="B21" s="116"/>
-      <c r="C21" s="75"/>
-      <c r="D21" s="137"/>
-      <c r="E21" s="79"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="138"/>
-      <c r="H21" s="206"/>
-      <c r="I21" s="215"/>
-    </row>
-    <row r="22" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="73"/>
-      <c r="B22" s="116"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="137"/>
-      <c r="E22" s="79"/>
-      <c r="F22" s="79"/>
-      <c r="G22" s="138"/>
-      <c r="H22" s="206"/>
-      <c r="I22" s="215"/>
-    </row>
-    <row r="23" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="73"/>
-      <c r="B23" s="116"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="137"/>
-      <c r="E23" s="79"/>
-      <c r="F23" s="79"/>
-      <c r="G23" s="138"/>
-      <c r="H23" s="206"/>
-      <c r="I23" s="215"/>
-    </row>
-    <row r="24" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="73"/>
-      <c r="B24" s="116"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="135"/>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="136"/>
-      <c r="H24" s="206"/>
-      <c r="I24" s="215"/>
-    </row>
-    <row r="25" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="73"/>
-      <c r="B25" s="116"/>
-      <c r="C25" s="75"/>
-      <c r="D25" s="137"/>
-      <c r="E25" s="79"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="138"/>
-      <c r="H25" s="206"/>
-      <c r="I25" s="215"/>
-    </row>
-    <row r="26" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="73"/>
-      <c r="B26" s="116"/>
-      <c r="C26" s="75"/>
-      <c r="D26" s="137"/>
-      <c r="E26" s="79"/>
-      <c r="F26" s="79"/>
-      <c r="G26" s="138"/>
-      <c r="H26" s="206"/>
-      <c r="I26" s="215"/>
-    </row>
-    <row r="27" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="73"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="75"/>
-      <c r="D27" s="137"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="138"/>
-      <c r="H27" s="206"/>
-      <c r="I27" s="215"/>
-    </row>
-    <row r="28" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="73"/>
-      <c r="B28" s="116"/>
-      <c r="C28" s="75"/>
-      <c r="D28" s="137"/>
-      <c r="E28" s="79"/>
-      <c r="F28" s="79"/>
-      <c r="G28" s="138"/>
-      <c r="H28" s="206"/>
-      <c r="I28" s="215"/>
-    </row>
-    <row r="29" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="73"/>
-      <c r="B29" s="116"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="137"/>
-      <c r="E29" s="79"/>
-      <c r="F29" s="79"/>
-      <c r="G29" s="138"/>
-      <c r="H29" s="206"/>
-      <c r="I29" s="215"/>
-    </row>
-    <row r="30" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="73"/>
-      <c r="B30" s="116"/>
-      <c r="C30" s="75"/>
-      <c r="D30" s="137"/>
-      <c r="E30" s="79"/>
-      <c r="F30" s="79"/>
-      <c r="G30" s="138"/>
-      <c r="H30" s="206"/>
-      <c r="I30" s="215"/>
-    </row>
-    <row r="31" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="73"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="75"/>
-      <c r="D31" s="137"/>
-      <c r="E31" s="79"/>
-      <c r="F31" s="79"/>
-      <c r="G31" s="138"/>
-      <c r="H31" s="206"/>
-      <c r="I31" s="215"/>
-    </row>
-    <row r="32" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="73"/>
-      <c r="B32" s="116"/>
-      <c r="C32" s="75"/>
-      <c r="D32" s="137"/>
-      <c r="E32" s="79"/>
-      <c r="F32" s="79"/>
-      <c r="G32" s="138"/>
-      <c r="H32" s="206"/>
-      <c r="I32" s="215"/>
-    </row>
-    <row r="33" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="73"/>
-      <c r="B33" s="116"/>
-      <c r="C33" s="75"/>
-      <c r="D33" s="137"/>
-      <c r="E33" s="79"/>
-      <c r="F33" s="79"/>
-      <c r="G33" s="138"/>
-      <c r="H33" s="206"/>
-      <c r="I33" s="215"/>
-    </row>
-    <row r="34" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="73"/>
-      <c r="B34" s="116"/>
-      <c r="C34" s="75"/>
-      <c r="D34" s="137"/>
-      <c r="E34" s="79"/>
-      <c r="F34" s="79"/>
-      <c r="G34" s="138"/>
-      <c r="H34" s="206"/>
-      <c r="I34" s="215"/>
-    </row>
-    <row r="35" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="73"/>
-      <c r="B35" s="116"/>
-      <c r="C35" s="75"/>
-      <c r="D35" s="137"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="138"/>
-      <c r="H35" s="206"/>
-      <c r="I35" s="215"/>
-    </row>
-    <row r="36" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="73"/>
-      <c r="B36" s="116"/>
-      <c r="C36" s="75"/>
-      <c r="D36" s="137"/>
-      <c r="E36" s="79"/>
-      <c r="F36" s="79"/>
-      <c r="G36" s="138"/>
-      <c r="H36" s="206"/>
-      <c r="I36" s="215"/>
-    </row>
-    <row r="37" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="73"/>
-      <c r="B37" s="116"/>
-      <c r="C37" s="75"/>
-      <c r="D37" s="137"/>
-      <c r="E37" s="79"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="138"/>
-      <c r="H37" s="206"/>
-      <c r="I37" s="215"/>
-    </row>
-    <row r="38" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="73"/>
-      <c r="B38" s="116"/>
-      <c r="C38" s="75"/>
-      <c r="D38" s="139"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="140"/>
-      <c r="H38" s="206"/>
-      <c r="I38" s="215"/>
-    </row>
-    <row r="39" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="178" t="s">
+      <c r="A8" s="203"/>
+      <c r="B8" s="204"/>
+      <c r="C8" s="190"/>
+      <c r="D8" s="216"/>
+      <c r="E8" s="218"/>
+      <c r="F8" s="218"/>
+      <c r="G8" s="220"/>
+      <c r="H8" s="202"/>
+      <c r="I8" s="211"/>
+    </row>
+    <row r="9" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="107"/>
+      <c r="B9" s="108"/>
+      <c r="C9" s="78"/>
+      <c r="D9" s="131"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="132"/>
+      <c r="H9" s="202"/>
+      <c r="I9" s="211"/>
+    </row>
+    <row r="10" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="69"/>
+      <c r="B10" s="112"/>
+      <c r="C10" s="71"/>
+      <c r="D10" s="133"/>
+      <c r="E10" s="75"/>
+      <c r="F10" s="75"/>
+      <c r="G10" s="134"/>
+      <c r="H10" s="202"/>
+      <c r="I10" s="211"/>
+    </row>
+    <row r="11" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="69"/>
+      <c r="B11" s="112"/>
+      <c r="C11" s="71"/>
+      <c r="D11" s="133"/>
+      <c r="E11" s="75"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="134"/>
+      <c r="H11" s="202"/>
+      <c r="I11" s="211"/>
+    </row>
+    <row r="12" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="69"/>
+      <c r="B12" s="112"/>
+      <c r="C12" s="71"/>
+      <c r="D12" s="133"/>
+      <c r="E12" s="75"/>
+      <c r="F12" s="75"/>
+      <c r="G12" s="134"/>
+      <c r="H12" s="202"/>
+      <c r="I12" s="211"/>
+    </row>
+    <row r="13" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="69"/>
+      <c r="B13" s="112"/>
+      <c r="C13" s="71"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="75"/>
+      <c r="G13" s="134"/>
+      <c r="H13" s="202"/>
+      <c r="I13" s="211"/>
+    </row>
+    <row r="14" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="69"/>
+      <c r="B14" s="112"/>
+      <c r="C14" s="71"/>
+      <c r="D14" s="133"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="134"/>
+      <c r="H14" s="202"/>
+      <c r="I14" s="211"/>
+    </row>
+    <row r="15" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="69"/>
+      <c r="B15" s="112"/>
+      <c r="C15" s="71"/>
+      <c r="D15" s="133"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="134"/>
+      <c r="H15" s="202"/>
+      <c r="I15" s="211"/>
+    </row>
+    <row r="16" spans="1:11" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="69"/>
+      <c r="B16" s="112"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="133"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="134"/>
+      <c r="H16" s="202"/>
+      <c r="I16" s="211"/>
+    </row>
+    <row r="17" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="69"/>
+      <c r="B17" s="112"/>
+      <c r="C17" s="71"/>
+      <c r="D17" s="133"/>
+      <c r="E17" s="75"/>
+      <c r="F17" s="75"/>
+      <c r="G17" s="134"/>
+      <c r="H17" s="202"/>
+      <c r="I17" s="211"/>
+    </row>
+    <row r="18" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="69"/>
+      <c r="B18" s="112"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="133"/>
+      <c r="E18" s="75"/>
+      <c r="F18" s="75"/>
+      <c r="G18" s="134"/>
+      <c r="H18" s="202"/>
+      <c r="I18" s="211"/>
+    </row>
+    <row r="19" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="69"/>
+      <c r="B19" s="112"/>
+      <c r="C19" s="71"/>
+      <c r="D19" s="133"/>
+      <c r="E19" s="75"/>
+      <c r="F19" s="75"/>
+      <c r="G19" s="134"/>
+      <c r="H19" s="202"/>
+      <c r="I19" s="211"/>
+    </row>
+    <row r="20" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="69"/>
+      <c r="B20" s="112"/>
+      <c r="C20" s="71"/>
+      <c r="D20" s="133"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="134"/>
+      <c r="H20" s="202"/>
+      <c r="I20" s="211"/>
+    </row>
+    <row r="21" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="69"/>
+      <c r="B21" s="112"/>
+      <c r="C21" s="71"/>
+      <c r="D21" s="133"/>
+      <c r="E21" s="75"/>
+      <c r="F21" s="75"/>
+      <c r="G21" s="134"/>
+      <c r="H21" s="202"/>
+      <c r="I21" s="211"/>
+    </row>
+    <row r="22" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="69"/>
+      <c r="B22" s="112"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="133"/>
+      <c r="E22" s="75"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="134"/>
+      <c r="H22" s="202"/>
+      <c r="I22" s="211"/>
+    </row>
+    <row r="23" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="69"/>
+      <c r="B23" s="112"/>
+      <c r="C23" s="71"/>
+      <c r="D23" s="133"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="75"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="202"/>
+      <c r="I23" s="211"/>
+    </row>
+    <row r="24" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="69"/>
+      <c r="B24" s="112"/>
+      <c r="C24" s="71"/>
+      <c r="D24" s="131"/>
+      <c r="E24" s="80"/>
+      <c r="F24" s="80"/>
+      <c r="G24" s="132"/>
+      <c r="H24" s="202"/>
+      <c r="I24" s="211"/>
+    </row>
+    <row r="25" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="69"/>
+      <c r="B25" s="112"/>
+      <c r="C25" s="71"/>
+      <c r="D25" s="133"/>
+      <c r="E25" s="75"/>
+      <c r="F25" s="75"/>
+      <c r="G25" s="134"/>
+      <c r="H25" s="202"/>
+      <c r="I25" s="211"/>
+    </row>
+    <row r="26" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="69"/>
+      <c r="B26" s="112"/>
+      <c r="C26" s="71"/>
+      <c r="D26" s="133"/>
+      <c r="E26" s="75"/>
+      <c r="F26" s="75"/>
+      <c r="G26" s="134"/>
+      <c r="H26" s="202"/>
+      <c r="I26" s="211"/>
+    </row>
+    <row r="27" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="69"/>
+      <c r="B27" s="112"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="133"/>
+      <c r="E27" s="75"/>
+      <c r="F27" s="75"/>
+      <c r="G27" s="134"/>
+      <c r="H27" s="202"/>
+      <c r="I27" s="211"/>
+    </row>
+    <row r="28" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="69"/>
+      <c r="B28" s="112"/>
+      <c r="C28" s="71"/>
+      <c r="D28" s="133"/>
+      <c r="E28" s="75"/>
+      <c r="F28" s="75"/>
+      <c r="G28" s="134"/>
+      <c r="H28" s="202"/>
+      <c r="I28" s="211"/>
+    </row>
+    <row r="29" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="69"/>
+      <c r="B29" s="112"/>
+      <c r="C29" s="71"/>
+      <c r="D29" s="133"/>
+      <c r="E29" s="75"/>
+      <c r="F29" s="75"/>
+      <c r="G29" s="134"/>
+      <c r="H29" s="202"/>
+      <c r="I29" s="211"/>
+    </row>
+    <row r="30" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="69"/>
+      <c r="B30" s="112"/>
+      <c r="C30" s="71"/>
+      <c r="D30" s="133"/>
+      <c r="E30" s="75"/>
+      <c r="F30" s="75"/>
+      <c r="G30" s="134"/>
+      <c r="H30" s="202"/>
+      <c r="I30" s="211"/>
+    </row>
+    <row r="31" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="69"/>
+      <c r="B31" s="112"/>
+      <c r="C31" s="71"/>
+      <c r="D31" s="133"/>
+      <c r="E31" s="75"/>
+      <c r="F31" s="75"/>
+      <c r="G31" s="134"/>
+      <c r="H31" s="202"/>
+      <c r="I31" s="211"/>
+    </row>
+    <row r="32" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="69"/>
+      <c r="B32" s="112"/>
+      <c r="C32" s="71"/>
+      <c r="D32" s="133"/>
+      <c r="E32" s="75"/>
+      <c r="F32" s="75"/>
+      <c r="G32" s="134"/>
+      <c r="H32" s="202"/>
+      <c r="I32" s="211"/>
+    </row>
+    <row r="33" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="69"/>
+      <c r="B33" s="112"/>
+      <c r="C33" s="71"/>
+      <c r="D33" s="133"/>
+      <c r="E33" s="75"/>
+      <c r="F33" s="75"/>
+      <c r="G33" s="134"/>
+      <c r="H33" s="202"/>
+      <c r="I33" s="211"/>
+    </row>
+    <row r="34" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="69"/>
+      <c r="B34" s="112"/>
+      <c r="C34" s="71"/>
+      <c r="D34" s="133"/>
+      <c r="E34" s="75"/>
+      <c r="F34" s="75"/>
+      <c r="G34" s="134"/>
+      <c r="H34" s="202"/>
+      <c r="I34" s="211"/>
+    </row>
+    <row r="35" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="69"/>
+      <c r="B35" s="112"/>
+      <c r="C35" s="71"/>
+      <c r="D35" s="133"/>
+      <c r="E35" s="75"/>
+      <c r="F35" s="75"/>
+      <c r="G35" s="134"/>
+      <c r="H35" s="202"/>
+      <c r="I35" s="211"/>
+    </row>
+    <row r="36" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="69"/>
+      <c r="B36" s="112"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="133"/>
+      <c r="E36" s="75"/>
+      <c r="F36" s="75"/>
+      <c r="G36" s="134"/>
+      <c r="H36" s="202"/>
+      <c r="I36" s="211"/>
+    </row>
+    <row r="37" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="69"/>
+      <c r="B37" s="112"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="133"/>
+      <c r="E37" s="75"/>
+      <c r="F37" s="75"/>
+      <c r="G37" s="134"/>
+      <c r="H37" s="202"/>
+      <c r="I37" s="211"/>
+    </row>
+    <row r="38" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="69"/>
+      <c r="B38" s="112"/>
+      <c r="C38" s="71"/>
+      <c r="D38" s="135"/>
+      <c r="E38" s="89"/>
+      <c r="F38" s="89"/>
+      <c r="G38" s="136"/>
+      <c r="H38" s="202"/>
+      <c r="I38" s="211"/>
+    </row>
+    <row r="39" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="174" t="s">
         <v>19</v>
       </c>
-      <c r="B39" s="179"/>
-      <c r="C39" s="180"/>
-      <c r="D39" s="153" t="e">
+      <c r="B39" s="175"/>
+      <c r="C39" s="176"/>
+      <c r="D39" s="149" t="e">
         <f>AVERAGE(D9:D38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="122" t="e">
+      <c r="E39" s="118" t="e">
         <f t="shared" ref="E39:G39" si="0">AVERAGE(E9:E38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="F39" s="122" t="e">
+      <c r="F39" s="118" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="141" t="e">
+      <c r="G39" s="137" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="H39" s="206"/>
-      <c r="I39" s="215"/>
-    </row>
-    <row r="40" spans="1:9" s="49" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="181" t="s">
+      <c r="H39" s="202"/>
+      <c r="I39" s="211"/>
+    </row>
+    <row r="40" spans="1:9" s="45" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="177" t="s">
         <v>24</v>
       </c>
-      <c r="B40" s="182"/>
-      <c r="C40" s="183"/>
-      <c r="D40" s="154">
+      <c r="B40" s="178"/>
+      <c r="C40" s="179"/>
+      <c r="D40" s="150">
         <f>MIN(D9:D38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="124">
+      <c r="E40" s="120">
         <f t="shared" ref="E40:G40" si="1">MIN(E9:E38)</f>
         <v>0</v>
       </c>
-      <c r="F40" s="124">
+      <c r="F40" s="120">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="G40" s="142">
+      <c r="G40" s="138">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H40" s="206"/>
-      <c r="I40" s="215"/>
+      <c r="H40" s="202"/>
+      <c r="I40" s="211"/>
     </row>
     <row r="41" spans="1:9" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="184" t="s">
+      <c r="A41" s="180" t="s">
         <v>25</v>
       </c>
-      <c r="B41" s="185"/>
-      <c r="C41" s="186"/>
-      <c r="D41" s="155">
+      <c r="B41" s="181"/>
+      <c r="C41" s="182"/>
+      <c r="D41" s="151">
         <f>MAX(D9:D38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="126">
+      <c r="E41" s="122">
         <f t="shared" ref="E41:G41" si="2">MAX(E9:E38)</f>
         <v>0</v>
       </c>
-      <c r="F41" s="126">
+      <c r="F41" s="122">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="G41" s="143">
+      <c r="G41" s="139">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="H41" s="208"/>
-      <c r="I41" s="216"/>
-    </row>
-    <row r="42" spans="1:9" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="128" t="s">
+      <c r="H41" s="204"/>
+      <c r="I41" s="212"/>
+    </row>
+    <row r="42" spans="1:9" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="124" t="s">
         <v>13</v>
       </c>
-      <c r="B42" s="210">
+      <c r="B42" s="206">
         <f>Page1!B42</f>
         <v>0</v>
       </c>
-      <c r="C42" s="211"/>
-      <c r="D42" s="128" t="s">
+      <c r="C42" s="207"/>
+      <c r="D42" s="124" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="128"/>
-      <c r="F42" s="129"/>
-      <c r="G42" s="129" t="s">
+      <c r="E42" s="124"/>
+      <c r="F42" s="125"/>
+      <c r="G42" s="125" t="s">
         <v>17</v>
       </c>
-      <c r="H42" s="130">
+      <c r="H42" s="126">
         <f>Page1!H42</f>
         <v>0</v>
       </c>
-      <c r="I42" s="131" t="s">
+      <c r="I42" s="127" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="1:9" s="42" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="132"/>
-      <c r="B43" s="158">
+    <row r="43" spans="1:9" s="38" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="128"/>
+      <c r="B43" s="154">
         <f>Page1!B43</f>
         <v>0</v>
       </c>
-      <c r="C43" s="212"/>
-      <c r="D43" s="128"/>
-      <c r="E43" s="128"/>
-      <c r="F43" s="129"/>
-      <c r="G43" s="132"/>
-      <c r="H43" s="130">
+      <c r="C43" s="208"/>
+      <c r="D43" s="124"/>
+      <c r="E43" s="124"/>
+      <c r="F43" s="125"/>
+      <c r="G43" s="128"/>
+      <c r="H43" s="126">
         <f>Page1!H43</f>
         <v>0</v>
       </c>
-      <c r="I43" s="131"/>
-    </row>
-    <row r="44" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="201" t="s">
+      <c r="I43" s="127"/>
+    </row>
+    <row r="44" spans="1:9" s="39" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="197" t="s">
         <v>14</v>
       </c>
-      <c r="B44" s="201"/>
-      <c r="C44" s="201"/>
-      <c r="D44" s="133"/>
-      <c r="E44" s="134" t="s">
+      <c r="B44" s="197"/>
+      <c r="C44" s="197"/>
+      <c r="D44" s="129"/>
+      <c r="E44" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="F44" s="132">
+      <c r="F44" s="128">
         <f>Page1!F44</f>
         <v>461343000</v>
       </c>
-      <c r="G44" s="133"/>
-      <c r="H44" s="133"/>
-      <c r="I44" s="133"/>
-    </row>
-    <row r="45" spans="1:9" s="43" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="201" t="s">
+      <c r="G44" s="129"/>
+      <c r="H44" s="129"/>
+      <c r="I44" s="129"/>
+    </row>
+    <row r="45" spans="1:9" s="39" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="197" t="s">
         <v>15</v>
       </c>
-      <c r="B45" s="201"/>
-      <c r="C45" s="201"/>
-      <c r="D45" s="133"/>
-      <c r="E45" s="133"/>
-      <c r="F45" s="133"/>
-      <c r="G45" s="133"/>
-      <c r="H45" s="202" t="s">
+      <c r="B45" s="197"/>
+      <c r="C45" s="197"/>
+      <c r="D45" s="129"/>
+      <c r="E45" s="129"/>
+      <c r="F45" s="129"/>
+      <c r="G45" s="129"/>
+      <c r="H45" s="198" t="s">
         <v>28</v>
       </c>
-      <c r="I45" s="202"/>
+      <c r="I45" s="198"/>
     </row>
   </sheetData>
   <mergeCells count="20">
@@ -5163,77 +5199,83 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="21.42578125" style="1" customWidth="1"/>
     <col min="3" max="5" width="12.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="17.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="21.42578125" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="38"/>
+    <col min="6" max="6" width="12.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="21.42578125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="34"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="282" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="294" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="283"/>
-      <c r="C1" s="283"/>
-      <c r="D1" s="283"/>
-      <c r="E1" s="283"/>
-      <c r="F1" s="283"/>
-      <c r="G1" s="284"/>
-    </row>
-    <row r="2" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="295"/>
+      <c r="C1" s="295"/>
+      <c r="D1" s="295"/>
+      <c r="E1" s="295"/>
+      <c r="F1" s="295"/>
+      <c r="G1" s="295"/>
+      <c r="H1" s="296"/>
+    </row>
+    <row r="2" spans="1:8" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
       <c r="E2" s="3"/>
       <c r="F2" s="3"/>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="3"/>
+      <c r="H2" s="4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="285" t="s">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="297" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="286"/>
-      <c r="C3" s="286"/>
-      <c r="D3" s="286"/>
-      <c r="E3" s="286"/>
-      <c r="F3" s="286"/>
-      <c r="G3" s="287"/>
-    </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="205" t="s">
+      <c r="B3" s="298"/>
+      <c r="C3" s="298"/>
+      <c r="D3" s="298"/>
+      <c r="E3" s="298"/>
+      <c r="F3" s="298"/>
+      <c r="G3" s="298"/>
+      <c r="H3" s="299"/>
+    </row>
+    <row r="4" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="201" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="288"/>
-      <c r="C4" s="288"/>
-      <c r="D4" s="288"/>
-      <c r="E4" s="288"/>
-      <c r="F4" s="288"/>
-      <c r="G4" s="215"/>
-    </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="289" t="s">
+      <c r="B4" s="244"/>
+      <c r="C4" s="244"/>
+      <c r="D4" s="244"/>
+      <c r="E4" s="244"/>
+      <c r="F4" s="244"/>
+      <c r="G4" s="244"/>
+      <c r="H4" s="211"/>
+    </row>
+    <row r="5" spans="1:8" s="1" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="300" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="290"/>
-      <c r="C5" s="290"/>
-      <c r="D5" s="290"/>
-      <c r="E5" s="290"/>
-      <c r="F5" s="290"/>
-      <c r="G5" s="291"/>
-    </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="301"/>
+      <c r="C5" s="301"/>
+      <c r="D5" s="301"/>
+      <c r="E5" s="301"/>
+      <c r="F5" s="301"/>
+      <c r="G5" s="301"/>
+      <c r="H5" s="302"/>
+    </row>
+    <row r="6" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>44</v>
       </c>
@@ -5243,20 +5285,21 @@
       <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="292">
+      <c r="D6" s="303">
         <f>Page1!G4</f>
         <v>0</v>
       </c>
-      <c r="E6" s="257"/>
-      <c r="F6" s="262" t="s">
+      <c r="E6" s="262"/>
+      <c r="F6" s="273" t="s">
         <v>46</v>
       </c>
-      <c r="G6" s="266">
+      <c r="G6" s="274"/>
+      <c r="H6" s="268">
         <f>Page1!I4</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>47</v>
       </c>
@@ -5264,15 +5307,16 @@
       <c r="C7" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="292">
+      <c r="D7" s="303">
         <f>Page1!E5</f>
         <v>0</v>
       </c>
-      <c r="E7" s="257"/>
-      <c r="F7" s="262"/>
-      <c r="G7" s="293"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E7" s="262"/>
+      <c r="F7" s="305"/>
+      <c r="G7" s="257"/>
+      <c r="H7" s="304"/>
+    </row>
+    <row r="8" spans="1:8" s="1" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>49</v>
       </c>
@@ -5283,20 +5327,21 @@
       <c r="C8" s="7" t="s">
         <v>50</v>
       </c>
-      <c r="D8" s="262">
+      <c r="D8" s="267">
         <f>Page1!G5</f>
         <v>0</v>
       </c>
-      <c r="E8" s="262"/>
-      <c r="F8" s="263" t="s">
+      <c r="E8" s="267"/>
+      <c r="F8" s="273" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="266">
+      <c r="G8" s="274"/>
+      <c r="H8" s="268">
         <f>Page1!I5</f>
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>51</v>
       </c>
@@ -5304,17 +5349,18 @@
         <f>Page1!F44</f>
         <v>461343000</v>
       </c>
-      <c r="C9" s="263" t="s">
+      <c r="C9" s="271" t="s">
         <v>52</v>
       </c>
-      <c r="D9" s="269" t="s">
+      <c r="D9" s="273" t="s">
         <v>122</v>
       </c>
-      <c r="E9" s="270"/>
-      <c r="F9" s="264"/>
-      <c r="G9" s="267"/>
-    </row>
-    <row r="10" spans="1:7" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E9" s="274"/>
+      <c r="F9" s="277"/>
+      <c r="G9" s="278"/>
+      <c r="H9" s="269"/>
+    </row>
+    <row r="10" spans="1:8" s="1" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="12" t="s">
         <v>53</v>
       </c>
@@ -5322,34 +5368,36 @@
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C10" s="265"/>
-      <c r="D10" s="271"/>
-      <c r="E10" s="272"/>
-      <c r="F10" s="265"/>
-      <c r="G10" s="268"/>
-    </row>
-    <row r="11" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="273" t="s">
+      <c r="C10" s="272"/>
+      <c r="D10" s="275"/>
+      <c r="E10" s="276"/>
+      <c r="F10" s="275"/>
+      <c r="G10" s="276"/>
+      <c r="H10" s="270"/>
+    </row>
+    <row r="11" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="285" t="s">
         <v>54</v>
       </c>
-      <c r="B11" s="275" t="s">
+      <c r="B11" s="287" t="s">
         <v>55</v>
       </c>
-      <c r="C11" s="277" t="s">
+      <c r="C11" s="289" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="278"/>
-      <c r="E11" s="279"/>
-      <c r="F11" s="275" t="s">
+      <c r="D11" s="290"/>
+      <c r="E11" s="291"/>
+      <c r="F11" s="279" t="s">
         <v>56</v>
       </c>
-      <c r="G11" s="280" t="s">
+      <c r="G11" s="280"/>
+      <c r="H11" s="292" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="274"/>
-      <c r="B12" s="276"/>
+    <row r="12" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="286"/>
+      <c r="B12" s="288"/>
       <c r="C12" s="14" t="s">
         <v>58</v>
       </c>
@@ -5359,10 +5407,11 @@
       <c r="E12" s="14" t="s">
         <v>60</v>
       </c>
-      <c r="F12" s="276"/>
-      <c r="G12" s="281"/>
-    </row>
-    <row r="13" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F12" s="281"/>
+      <c r="G12" s="282"/>
+      <c r="H12" s="293"/>
+    </row>
+    <row r="13" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="15" t="s">
         <v>61</v>
       </c>
@@ -5378,15 +5427,16 @@
       <c r="E13" s="17">
         <v>18</v>
       </c>
-      <c r="F13" s="18" t="e">
+      <c r="F13" s="283" t="e">
         <f>Page1!D39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="26" t="s">
+      <c r="G13" s="284"/>
+      <c r="H13" s="25" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
         <v>64</v>
       </c>
@@ -5402,15 +5452,16 @@
       <c r="E14" s="21">
         <v>52</v>
       </c>
-      <c r="F14" s="22" t="e">
+      <c r="F14" s="226" t="e">
         <f>Page1!E39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="23" t="s">
+      <c r="G14" s="227"/>
+      <c r="H14" s="22" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
         <v>67</v>
       </c>
@@ -5426,15 +5477,16 @@
       <c r="E15" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="24" t="e">
+      <c r="F15" s="224" t="e">
         <f>Page1!I39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="261" t="s">
+      <c r="G15" s="225"/>
+      <c r="H15" s="266" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>71</v>
       </c>
@@ -5450,57 +5502,60 @@
       <c r="E16" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F16" s="24" t="e">
+      <c r="F16" s="224" t="e">
         <f>Page2!F41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="203"/>
-    </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G16" s="225"/>
+      <c r="H16" s="199"/>
+    </row>
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
         <v>72</v>
       </c>
       <c r="B17" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C17" s="25">
+      <c r="C17" s="24">
         <v>5</v>
       </c>
       <c r="D17" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E17" s="25">
+      <c r="E17" s="24">
         <v>11</v>
       </c>
-      <c r="F17" s="25" t="e">
+      <c r="F17" s="224" t="e">
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="203"/>
-    </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="225"/>
+      <c r="H17" s="199"/>
+    </row>
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
         <v>73</v>
       </c>
       <c r="B18" s="20" t="s">
         <v>118</v>
       </c>
-      <c r="C18" s="25">
+      <c r="C18" s="24">
         <v>3</v>
       </c>
       <c r="D18" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="E18" s="25">
+      <c r="E18" s="24">
         <v>9</v>
       </c>
-      <c r="F18" s="25" t="e">
+      <c r="F18" s="224" t="e">
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="203"/>
-    </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="225"/>
+      <c r="H18" s="199"/>
+    </row>
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
         <v>119</v>
       </c>
@@ -5516,13 +5571,14 @@
       <c r="E19" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F19" s="24" t="e">
+      <c r="F19" s="224" t="e">
         <f>Page1!H39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="203"/>
-    </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="225"/>
+      <c r="H19" s="199"/>
+    </row>
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>120</v>
       </c>
@@ -5538,35 +5594,37 @@
       <c r="E20" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F20" s="24" t="e">
+      <c r="F20" s="224" t="e">
         <f>Page2!E41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="203"/>
-    </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="225"/>
+      <c r="H20" s="199"/>
+    </row>
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>75</v>
       </c>
       <c r="B21" s="20" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="25">
+      <c r="C21" s="24">
         <v>0.3</v>
       </c>
-      <c r="D21" s="25">
+      <c r="D21" s="24">
         <v>0.45</v>
       </c>
-      <c r="E21" s="25">
+      <c r="E21" s="24">
         <v>0.6</v>
       </c>
-      <c r="F21" s="25" t="e">
+      <c r="F21" s="224" t="e">
         <f>Page1!F39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="203"/>
-    </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="225"/>
+      <c r="H21" s="199"/>
+    </row>
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
         <v>76</v>
       </c>
@@ -5576,28 +5634,29 @@
       <c r="C22" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="D22" s="24">
+      <c r="D22" s="23">
         <v>165</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="23">
         <v>168</v>
       </c>
-      <c r="F22" s="24" t="e">
+      <c r="F22" s="226" t="e">
         <f>Page2!H41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="23" t="s">
+      <c r="G22" s="227"/>
+      <c r="H22" s="22" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
         <v>79</v>
       </c>
       <c r="B23" s="20" t="s">
         <v>80</v>
       </c>
-      <c r="C23" s="24">
+      <c r="C23" s="23">
         <v>6000</v>
       </c>
       <c r="D23" s="21" t="s">
@@ -5606,243 +5665,275 @@
       <c r="E23" s="21" t="s">
         <v>69</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="226">
         <v>6000</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="227"/>
+      <c r="H23" s="22" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="27" t="s">
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="26" t="s">
         <v>82</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B24" s="27" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="29">
+      <c r="C24" s="28">
         <v>430</v>
       </c>
-      <c r="D24" s="29">
+      <c r="D24" s="28">
         <v>460</v>
       </c>
-      <c r="E24" s="30">
+      <c r="E24" s="29">
         <v>510</v>
       </c>
-      <c r="F24" s="30" t="e">
+      <c r="F24" s="228" t="e">
         <f>Page2!I41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="G24" s="229"/>
+      <c r="H24" s="30" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="248" t="s">
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="253" t="s">
         <v>83</v>
       </c>
-      <c r="B25" s="249"/>
-      <c r="C25" s="249"/>
-      <c r="D25" s="249"/>
-      <c r="E25" s="249"/>
-      <c r="F25" s="249"/>
-      <c r="G25" s="250"/>
-    </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="251" t="s">
+      <c r="B25" s="254"/>
+      <c r="C25" s="254"/>
+      <c r="D25" s="254"/>
+      <c r="E25" s="254"/>
+      <c r="F25" s="254"/>
+      <c r="G25" s="254"/>
+      <c r="H25" s="255"/>
+    </row>
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="256" t="s">
         <v>84</v>
       </c>
-      <c r="B26" s="252"/>
-      <c r="C26" s="253" t="s">
+      <c r="B26" s="257"/>
+      <c r="C26" s="258" t="s">
         <v>121</v>
       </c>
-      <c r="D26" s="254"/>
-      <c r="E26" s="255"/>
-      <c r="F26" s="32" t="s">
+      <c r="D26" s="259"/>
+      <c r="E26" s="260"/>
+      <c r="F26" s="230" t="s">
         <v>85</v>
       </c>
-      <c r="G26" s="26" t="s">
+      <c r="G26" s="231"/>
+      <c r="H26" s="25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="256" t="s">
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="261" t="s">
         <v>87</v>
       </c>
-      <c r="B27" s="257"/>
-      <c r="C27" s="258" t="s">
+      <c r="B27" s="262"/>
+      <c r="C27" s="263" t="s">
         <v>88</v>
       </c>
-      <c r="D27" s="259"/>
-      <c r="E27" s="260"/>
-      <c r="F27" s="33" t="s">
+      <c r="D27" s="264"/>
+      <c r="E27" s="265"/>
+      <c r="F27" s="221" t="s">
         <v>85</v>
       </c>
-      <c r="G27" s="23" t="s">
+      <c r="G27" s="221"/>
+      <c r="H27" s="22" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="256" t="s">
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="261" t="s">
         <v>90</v>
       </c>
-      <c r="B28" s="257"/>
-      <c r="C28" s="258" t="s">
+      <c r="B28" s="262"/>
+      <c r="C28" s="263" t="s">
         <v>91</v>
       </c>
-      <c r="D28" s="259"/>
-      <c r="E28" s="260"/>
-      <c r="F28" s="33" t="s">
+      <c r="D28" s="264"/>
+      <c r="E28" s="265"/>
+      <c r="F28" s="221" t="s">
         <v>85</v>
       </c>
-      <c r="G28" s="26" t="s">
+      <c r="G28" s="221"/>
+      <c r="H28" s="25" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="256" t="s">
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="261" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="257"/>
-      <c r="C29" s="258" t="s">
+      <c r="B29" s="262"/>
+      <c r="C29" s="263" t="s">
         <v>93</v>
       </c>
-      <c r="D29" s="259"/>
-      <c r="E29" s="260"/>
-      <c r="F29" s="33" t="s">
+      <c r="D29" s="264"/>
+      <c r="E29" s="265"/>
+      <c r="F29" s="221" t="s">
         <v>85</v>
       </c>
-      <c r="G29" s="23" t="s">
+      <c r="G29" s="221"/>
+      <c r="H29" s="22" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="256" t="s">
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="261" t="s">
         <v>95</v>
       </c>
-      <c r="B30" s="257"/>
-      <c r="C30" s="258" t="s">
+      <c r="B30" s="262"/>
+      <c r="C30" s="263" t="s">
         <v>96</v>
       </c>
-      <c r="D30" s="259"/>
-      <c r="E30" s="260"/>
-      <c r="F30" s="33" t="s">
+      <c r="D30" s="264"/>
+      <c r="E30" s="265"/>
+      <c r="F30" s="221" t="s">
         <v>85</v>
       </c>
-      <c r="G30" s="23" t="s">
+      <c r="G30" s="221"/>
+      <c r="H30" s="22" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="243" t="s">
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="248" t="s">
         <v>98</v>
       </c>
-      <c r="B31" s="244"/>
-      <c r="C31" s="245" t="s">
+      <c r="B31" s="249"/>
+      <c r="C31" s="250" t="s">
         <v>99</v>
       </c>
-      <c r="D31" s="246"/>
-      <c r="E31" s="247"/>
-      <c r="F31" s="35" t="s">
+      <c r="D31" s="251"/>
+      <c r="E31" s="252"/>
+      <c r="F31" s="222" t="s">
         <v>85</v>
       </c>
-      <c r="G31" s="51" t="s">
+      <c r="G31" s="223"/>
+      <c r="H31" s="47" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="228" t="s">
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="235" t="s">
         <v>100</v>
       </c>
-      <c r="B32" s="229"/>
-      <c r="C32" s="230" t="s">
+      <c r="B32" s="236"/>
+      <c r="C32" s="237" t="s">
         <v>101</v>
       </c>
-      <c r="D32" s="231"/>
-      <c r="E32" s="232"/>
-      <c r="F32" s="230" t="s">
+      <c r="D32" s="238"/>
+      <c r="E32" s="239"/>
+      <c r="F32" s="237" t="s">
         <v>102</v>
       </c>
-      <c r="G32" s="232"/>
-    </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" ht="101.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="233"/>
-      <c r="B33" s="234"/>
-      <c r="C33" s="237"/>
-      <c r="D33" s="238"/>
-      <c r="E33" s="239"/>
-      <c r="F33" s="237"/>
-      <c r="G33" s="239"/>
-    </row>
-    <row r="34" spans="1:7" s="1" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="235"/>
-      <c r="B34" s="236"/>
-      <c r="C34" s="240" t="s">
+      <c r="G32" s="238"/>
+      <c r="H32" s="239"/>
+    </row>
+    <row r="33" spans="1:8" s="1" customFormat="1" ht="131.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="240"/>
+      <c r="B33" s="241"/>
+      <c r="C33" s="201"/>
+      <c r="D33" s="244"/>
+      <c r="E33" s="211"/>
+      <c r="F33" s="201"/>
+      <c r="G33" s="202"/>
+      <c r="H33" s="211"/>
+    </row>
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="240"/>
+      <c r="B34" s="241"/>
+      <c r="C34" s="201"/>
+      <c r="D34" s="202"/>
+      <c r="E34" s="211"/>
+      <c r="F34" s="201"/>
+      <c r="G34" s="202"/>
+      <c r="H34" s="211"/>
+    </row>
+    <row r="35" spans="1:8" s="1" customFormat="1" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="242"/>
+      <c r="B35" s="243"/>
+      <c r="C35" s="245" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="241"/>
-      <c r="E34" s="242"/>
-      <c r="F34" s="240" t="s">
+      <c r="D35" s="246"/>
+      <c r="E35" s="247"/>
+      <c r="F35" s="245" t="s">
         <v>103</v>
       </c>
-      <c r="G34" s="242"/>
-    </row>
-    <row r="35" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="37"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="225"/>
-      <c r="F35" s="225"/>
-      <c r="G35" s="225"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="41" t="s">
+      <c r="G35" s="246"/>
+      <c r="H35" s="247"/>
+    </row>
+    <row r="36" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="33"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="232"/>
+      <c r="F36" s="232"/>
+      <c r="G36" s="232"/>
+      <c r="H36" s="232"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="37" t="s">
         <v>104</v>
       </c>
-      <c r="B36" s="39"/>
-      <c r="C36" s="40"/>
-      <c r="D36" s="37"/>
-      <c r="E36" s="226"/>
-      <c r="F36" s="226"/>
-      <c r="G36" s="226"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="227" t="s">
+      <c r="B37" s="35"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="233"/>
+      <c r="F37" s="233"/>
+      <c r="G37" s="233"/>
+      <c r="H37" s="233"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="234" t="s">
         <v>105</v>
       </c>
-      <c r="B38" s="227"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="227" t="s">
+      <c r="B39" s="234"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="234" t="s">
         <v>106</v>
       </c>
-      <c r="B39" s="227"/>
+      <c r="B40" s="234"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A4:G4"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="D6:E6"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="D7:E7"/>
+  <mergeCells count="64">
     <mergeCell ref="A11:A12"/>
     <mergeCell ref="B11:B12"/>
     <mergeCell ref="C11:E11"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="G15:G21"/>
+    <mergeCell ref="H11:H12"/>
+    <mergeCell ref="A1:H1"/>
+    <mergeCell ref="A3:H3"/>
+    <mergeCell ref="A4:H4"/>
+    <mergeCell ref="A5:H5"/>
+    <mergeCell ref="D6:E6"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="D7:E7"/>
+    <mergeCell ref="F6:G7"/>
+    <mergeCell ref="H15:H21"/>
     <mergeCell ref="D8:E8"/>
-    <mergeCell ref="F8:F10"/>
-    <mergeCell ref="G8:G10"/>
+    <mergeCell ref="H8:H10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:E10"/>
+    <mergeCell ref="F8:G10"/>
+    <mergeCell ref="F11:G12"/>
+    <mergeCell ref="F13:G13"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="F20:G20"/>
     <mergeCell ref="A31:B31"/>
     <mergeCell ref="C31:E31"/>
-    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="A25:H25"/>
     <mergeCell ref="A26:B26"/>
     <mergeCell ref="C26:E26"/>
     <mergeCell ref="A27:B27"/>
@@ -5853,18 +5944,30 @@
     <mergeCell ref="C29:E29"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="C30:E30"/>
-    <mergeCell ref="E35:G35"/>
-    <mergeCell ref="E36:G36"/>
-    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="E36:H36"/>
+    <mergeCell ref="E37:H37"/>
     <mergeCell ref="A39:B39"/>
+    <mergeCell ref="A40:B40"/>
     <mergeCell ref="A32:B32"/>
     <mergeCell ref="C32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A33:B34"/>
+    <mergeCell ref="F32:H32"/>
+    <mergeCell ref="A33:B35"/>
     <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="F35:H35"/>
     <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="F34:H34"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="F26:G26"/>
   </mergeCells>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.74803149606299213" bottom="0.55118110236220474" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="79" orientation="portrait" r:id="rId1"/>

--- a/backend/templates/UC-16gsm-165W.xlsx
+++ b/backend/templates/UC-16gsm-165W.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27932"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B6FAD99-7088-4754-B0E5-A92390B54540}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9922ED0-A97E-4A51-86AB-203CCDF59611}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1348,7 +1348,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="306">
+  <cellXfs count="308">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2310,6 +2310,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="60" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2868,7 +2874,7 @@
   </sheetPr>
   <dimension ref="A1:L46"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A3" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
@@ -5202,7 +5208,7 @@
   <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5525,11 +5531,11 @@
       <c r="E17" s="24">
         <v>11</v>
       </c>
-      <c r="F17" s="224" t="e">
+      <c r="F17" s="306" t="e">
         <f>Page1!G39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="225"/>
+      <c r="G17" s="307"/>
       <c r="H17" s="199"/>
     </row>
     <row r="18" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5548,11 +5554,11 @@
       <c r="E18" s="24">
         <v>9</v>
       </c>
-      <c r="F18" s="224" t="e">
+      <c r="F18" s="306" t="e">
         <f>Page2!D41</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="225"/>
+      <c r="G18" s="307"/>
       <c r="H18" s="199"/>
     </row>
     <row r="19" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5617,11 +5623,11 @@
       <c r="E21" s="24">
         <v>0.6</v>
       </c>
-      <c r="F21" s="224" t="e">
+      <c r="F21" s="306" t="e">
         <f>Page1!F39</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="225"/>
+      <c r="G21" s="307"/>
       <c r="H21" s="199"/>
     </row>
     <row r="22" spans="1:8" s="1" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5844,7 +5850,7 @@
       <c r="G33" s="202"/>
       <c r="H33" s="211"/>
     </row>
-    <row r="34" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="240"/>
       <c r="B34" s="241"/>
       <c r="C34" s="201"/>
